--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -5,23 +5,263 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="有检查计划案" sheetId="5" r:id="rId1"/>
-    <sheet name="没有检查计划案" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="系统图" sheetId="7" r:id="rId1"/>
+    <sheet name="数据例" sheetId="8" r:id="rId2"/>
+    <sheet name="有检查计划案" sheetId="5" r:id="rId3"/>
+    <sheet name="没有检查计划案" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AutoBVT</author>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="T11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有图片标记的不显示检查项目名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">未入力時、
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法MS.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法名表示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>治具检查的，显示治具显示文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">未入力時、
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>检</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MingLiU"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>查</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法MS.核</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>对</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>方法</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="FangSong"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>说</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>明</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>0:input
+1:scan
+2:固定（合/否）*没有公式</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Meiryo UI"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">in１：入力値１
+in２：入力値２
+kj0：基準値
+kj1：工差1(-)
+kj2：工差2(+)
+&amp;&amp;:　And
+||　:　Or
+DateAdd(interval,number):日期加算
+now():当前日期
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AutoBVT</author>
@@ -669,7 +909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AutoBVT</author>
@@ -1184,7 +1424,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>AutoBVT</author>
@@ -1223,7 +1463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="438">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2811,10 +3051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户MS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2982,12 +3218,84 @@
     <t xml:space="preserve">有检查计划 ，整个系统根据检查计划  每天做对应的检查 </t>
     <phoneticPr fontId="32"/>
   </si>
+  <si>
+    <t>检查方法MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 根据左侧的MS ， 制作检查项目的模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312M0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312P0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312P0001.img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>312D00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷尺(2035±0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*检查计划作成，并且为商品选择对应的检查模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34">
+  <fonts count="47">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3018,7 +3326,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3233,6 +3541,90 @@
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -3780,7 +4172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4174,19 +4566,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4196,30 +4585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4249,12 +4614,324 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4584,6 +5261,4219 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160564</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294032</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11266" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4846864" y="1971675"/>
+          <a:ext cx="1181218" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>生产计划作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>96080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>478261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7601780" y="1199736"/>
+          <a:ext cx="382181" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="流程图: 文档 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="1652382"/>
+          <a:ext cx="1200150" cy="338344"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生产计划</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.TXT</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208248</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="肘形连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="11266" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5437473" y="1821553"/>
+          <a:ext cx="1258602" cy="150121"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93889</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227357</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5875564" y="2378764"/>
+          <a:ext cx="1352668" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>检查一览</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85607</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5867282" y="3438526"/>
+          <a:ext cx="1352668" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>治具扫描</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219077</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5867284" y="4524374"/>
+          <a:ext cx="1352668" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>检查明细登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152341</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152343</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6180693" y="4161449"/>
+          <a:ext cx="725848" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>211621</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379344</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="流程图: 磁盘 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7107721" y="2114550"/>
+          <a:ext cx="777323" cy="409576"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生产计划</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MS</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294032</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>211621</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="肘形连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11266" idx="3"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6028082" y="2100263"/>
+          <a:ext cx="1079639" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600284</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5806185" y="2088740"/>
+          <a:ext cx="1254813" cy="2125585"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544996</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150744</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="流程图: 磁盘 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7545871" y="2343149"/>
+          <a:ext cx="824948" cy="617883"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>检查结果</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>154471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>369819</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="流程图: 磁盘 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374546" y="2352674"/>
+          <a:ext cx="824948" cy="617883"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>检查明细</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227357</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544996</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="肘形连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="40" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7228232" y="2558764"/>
+          <a:ext cx="317639" cy="93327"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="2790825"/>
+          <a:ext cx="333375" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>566945</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180001</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="肘形连接符 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7219950" y="2970557"/>
+          <a:ext cx="1567070" cy="647969"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219077</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="肘形连接符 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7219952" y="2961032"/>
+          <a:ext cx="738393" cy="1743342"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152341</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>24139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160623</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="肘形连接符 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6197876" y="3084504"/>
+          <a:ext cx="699762" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="3876675"/>
+          <a:ext cx="333375" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219077</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>566945</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="肘形连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="41" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7219952" y="2970557"/>
+          <a:ext cx="1567068" cy="1733817"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>92352</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5874027" y="1936887"/>
+          <a:ext cx="457143" cy="447620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>93889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25114</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="肘形连接符 143"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11308" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762499" y="1833563"/>
+          <a:ext cx="1113065" cy="725201"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="87" name="组合 86"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="238124" y="1533525"/>
+          <a:ext cx="3829050" cy="3295650"/>
+          <a:chOff x="628648" y="3228975"/>
+          <a:chExt cx="4524372" cy="3295650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="流程图: 磁盘 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2878619" y="5734049"/>
+            <a:ext cx="824947" cy="617883"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>用户</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="流程图: 磁盘 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2878619" y="5029199"/>
+            <a:ext cx="824947" cy="552451"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>检查方法</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="流程图: 磁盘 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2878619" y="4591049"/>
+            <a:ext cx="824947" cy="561976"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>图片</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="流程图: 磁盘 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2878619" y="4095749"/>
+            <a:ext cx="824947" cy="617883"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>治具</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="流程图: 磁盘 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4250217" y="4467224"/>
+            <a:ext cx="824947" cy="617883"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>模板</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="流程图: 磁盘 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2878619" y="3619499"/>
+            <a:ext cx="824947" cy="617883"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>工程</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="808262" y="3676650"/>
+            <a:ext cx="1525360" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>工程</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="798737" y="4191000"/>
+            <a:ext cx="1525360" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>治具</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="798737" y="4676775"/>
+            <a:ext cx="1525360" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>图片</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="798737" y="5143500"/>
+            <a:ext cx="1525360" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>检查方法</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="肘形连接符 94"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="89" idx="3"/>
+            <a:endCxn id="83" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2333622" y="3856650"/>
+            <a:ext cx="544997" cy="71791"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="98" name="肘形连接符 97"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="90" idx="3"/>
+            <a:endCxn id="84" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324097" y="4371000"/>
+            <a:ext cx="554522" cy="33691"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="101" name="肘形连接符 100"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="91" idx="3"/>
+            <a:endCxn id="82" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324097" y="4856775"/>
+            <a:ext cx="554522" cy="15262"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="104" name="肘形连接符 103"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="92" idx="3"/>
+            <a:endCxn id="80" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2324097" y="5305425"/>
+            <a:ext cx="554522" cy="18075"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="798737" y="5591175"/>
+            <a:ext cx="1525360" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>用户</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="109" name="肘形连接符 108"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="108" idx="3"/>
+            <a:endCxn id="81" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324097" y="5771175"/>
+            <a:ext cx="554522" cy="271816"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3865785" y="3667124"/>
+            <a:ext cx="220436" cy="2219325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>模板</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="900">
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="117" name="肘形连接符 116"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="83" idx="4"/>
+            <a:endCxn id="116" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3703566" y="3928441"/>
+            <a:ext cx="162218" cy="848346"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="肘形连接符 119"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="84" idx="4"/>
+            <a:endCxn id="116" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3703566" y="4404691"/>
+            <a:ext cx="162218" cy="372096"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="123" name="肘形连接符 122"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="82" idx="4"/>
+            <a:endCxn id="116" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3703566" y="4776787"/>
+            <a:ext cx="162218" cy="95250"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="126" name="肘形连接符 125"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="80" idx="4"/>
+            <a:endCxn id="116" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3703566" y="4776787"/>
+            <a:ext cx="162218" cy="528638"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="133" name="肘形连接符 132"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="116" idx="3"/>
+            <a:endCxn id="77" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4086222" y="4776166"/>
+            <a:ext cx="163995" cy="621"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11308" name="矩形 11307"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="628648" y="3333750"/>
+            <a:ext cx="4524372" cy="3190875"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="Text Box 2"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="874937" y="3228975"/>
+            <a:ext cx="1315811" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>维护部分</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="147" name="图片 146"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4629980" y="3438111"/>
+            <a:ext cx="382181" cy="390525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101877</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>98562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16095</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="图片 169"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5883552" y="2994162"/>
+          <a:ext cx="457143" cy="447620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101877</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16095</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="图片 170"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5883552" y="4051437"/>
+          <a:ext cx="457143" cy="447620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="矩形 179"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="3276600"/>
+          <a:ext cx="3314700" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>210912</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4800600" y="3143250"/>
+          <a:ext cx="1144362" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>现场检查部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="矩形 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181976" y="1066800"/>
+          <a:ext cx="1257300" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8315325" y="971549"/>
+          <a:ext cx="809625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>账票出力</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284389</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8399689" y="3293164"/>
+          <a:ext cx="925286" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑"/>
+              <a:ea typeface="微软雅黑"/>
+            </a:rPr>
+            <a:t>帐票出力画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>369819</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>284389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="肘形连接符 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="4"/>
+          <a:endCxn id="191" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7875519" y="3473164"/>
+          <a:ext cx="524170" cy="45702"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="流程图: 文档 195"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="4062206"/>
+          <a:ext cx="914400" cy="562803"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>***</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.PDF</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137431</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128381</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="肘形连接符 196"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="191" idx="2"/>
+          <a:endCxn id="196" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8660532" y="3854963"/>
+          <a:ext cx="409042" cy="5443"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>458030</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230611</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="图片 199"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182930" y="1190211"/>
+          <a:ext cx="382181" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133293</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141573</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="肘形连接符 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4113853" y="4484679"/>
+          <a:ext cx="2505610" cy="8280"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9124"/>
+            <a:gd name="adj2" fmla="val 9993829"/>
+            <a:gd name="adj3" fmla="val 109124"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="矩形标注 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209801" y="685800"/>
+          <a:ext cx="1790700" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1326"/>
+            <a:gd name="adj2" fmla="val 126491"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>商品对应的坚持规则设定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>现场检查前 要事先要把数据做好</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="矩形标注 214"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962901" y="0"/>
+          <a:ext cx="1790700" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57177"/>
+            <a:gd name="adj2" fmla="val 240594"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>生产计划</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>现场检查前 要事先要把数据做好</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="矩形 226"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="1609725"/>
+          <a:ext cx="3314700" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4810124" y="1457325"/>
+          <a:ext cx="1381125" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0000FF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>检查前数据准备部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313082</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4865914" y="2428875"/>
+          <a:ext cx="1181218" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品模板关联</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379345</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="流程图: 磁盘 261"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553201" y="2552700"/>
+          <a:ext cx="1331844" cy="409576"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品模板关联</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313082</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="肘形连接符 262"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="259" idx="3"/>
+          <a:endCxn id="262" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6047132" y="2557463"/>
+          <a:ext cx="506069" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="双大括号 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12037355" y="6019241"/>
+          <a:ext cx="5037046" cy="1958793"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>11213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="双大括号 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14056097" y="6043898"/>
+          <a:ext cx="5025840" cy="1920690"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1030938</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="双大括号 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17915125" y="6049221"/>
+          <a:ext cx="5302618" cy="1924608"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>861167</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>855568</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="双大括号 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="20059649" y="2921938"/>
+          <a:ext cx="4549584" cy="857254"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5586,7 +10476,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6589,7 +11479,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6632,7 +11522,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8575,7 +13465,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8860,11 +13750,1641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="24.75">
+      <c r="A2" s="156" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="24.75">
+      <c r="A40" s="156"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AB42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="161"/>
+    <col min="3" max="4" width="13" style="161" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="161" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="161"/>
+    <col min="7" max="7" width="13" style="161" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="161" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.28515625" style="161" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="161" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="161"/>
+    <col min="13" max="13" width="12.28515625" style="161" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="161" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="161" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="161" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="161" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="161"/>
+    <col min="22" max="23" width="12.85546875" style="161" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.140625" style="161"/>
+    <col min="27" max="27" width="15.42578125" style="161" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="161"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:28" ht="17.25">
+      <c r="M2" s="182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28">
+      <c r="C3" s="161" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="161" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="161" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="3:28">
+      <c r="C4" s="166" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="165" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="165" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="165" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28">
+      <c r="C5" s="166" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="166" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="165" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="172" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" s="172"/>
+      <c r="W5" s="159" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="159"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+    </row>
+    <row r="6" spans="3:28">
+      <c r="C6" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="165" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="159"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="159"/>
+      <c r="V6" s="159"/>
+      <c r="W6" s="159"/>
+      <c r="X6" s="159"/>
+      <c r="Y6" s="159"/>
+      <c r="Z6" s="159"/>
+      <c r="AA6" s="159"/>
+      <c r="AB6" s="159"/>
+    </row>
+    <row r="7" spans="3:28">
+      <c r="C7" s="163">
+        <v>3003000</v>
+      </c>
+      <c r="D7" s="163" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="163" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="164" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="164" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="159"/>
+      <c r="W7" s="159"/>
+      <c r="X7" s="159"/>
+      <c r="Y7" s="159"/>
+      <c r="Z7" s="159"/>
+      <c r="AA7" s="159"/>
+      <c r="AB7" s="159"/>
+    </row>
+    <row r="8" spans="3:28">
+      <c r="G8" s="164" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="161" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+    </row>
+    <row r="9" spans="3:28">
+      <c r="G9" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+      <c r="AB9" s="159"/>
+    </row>
+    <row r="10" spans="3:28">
+      <c r="G10" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="164" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="164" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>194</v>
+      </c>
+      <c r="N10" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="165" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="165" t="s">
+        <v>404</v>
+      </c>
+      <c r="S10" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="178" t="s">
+        <v>167</v>
+      </c>
+      <c r="U10" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="V10" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="W10" s="165" t="s">
+        <v>146</v>
+      </c>
+      <c r="X10" s="178" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y10" s="178" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" s="178" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA10" s="178" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB10" s="159"/>
+    </row>
+    <row r="11" spans="3:28">
+      <c r="M11" s="178" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="178" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="165" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="165" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="165" t="s">
+        <v>426</v>
+      </c>
+      <c r="S11" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="178" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="178" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB11" s="159"/>
+    </row>
+    <row r="12" spans="3:28">
+      <c r="G12" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="161" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="M12" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="178" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="R12" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="V12" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="W12" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y12" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z12" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12" s="178" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB12" s="159"/>
+    </row>
+    <row r="13" spans="3:28">
+      <c r="G13" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="165" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="179" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="174" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="174" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="159"/>
+    </row>
+    <row r="14" spans="3:28">
+      <c r="G14" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="166" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="181" t="s">
+        <v>428</v>
+      </c>
+      <c r="N14" s="177" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="160" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q14" s="160" t="s">
+        <v>430</v>
+      </c>
+      <c r="R14" s="160" t="s">
+        <v>431</v>
+      </c>
+      <c r="S14" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="T14" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="160" t="s">
+        <v>433</v>
+      </c>
+      <c r="V14" s="160" t="s">
+        <v>434</v>
+      </c>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160">
+        <v>2035</v>
+      </c>
+      <c r="Y14" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="Z14" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="AA14" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB14" s="159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28">
+      <c r="G15" s="166" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="165" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="177" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="160" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q15" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="T15" s="160" t="s">
+        <v>435</v>
+      </c>
+      <c r="U15" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="V15" s="160" t="s">
+        <v>436</v>
+      </c>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB15" s="159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28">
+      <c r="G16" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="160" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="160" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="180" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="176" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="176" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="176" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="S16" s="176" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="176" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="176"/>
+      <c r="Y16" s="176"/>
+      <c r="Z16" s="176"/>
+      <c r="AA16" s="176" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB16" s="159"/>
+    </row>
+    <row r="17" spans="7:28">
+      <c r="G17" s="160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="160" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="O17" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="159"/>
+    </row>
+    <row r="18" spans="7:28">
+      <c r="G18" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="160" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="159"/>
+    </row>
+    <row r="19" spans="7:28">
+      <c r="G19" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="160" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="177" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="160" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="160" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="160" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB19" s="159"/>
+    </row>
+    <row r="20" spans="7:28">
+      <c r="G20" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="177" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="160" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160">
+        <v>1596</v>
+      </c>
+      <c r="Y20" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="Z20" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="AA20" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB20" s="159"/>
+    </row>
+    <row r="21" spans="7:28">
+      <c r="G21" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" s="177" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="160" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="S21" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="160" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB21" s="159"/>
+    </row>
+    <row r="22" spans="7:28">
+      <c r="G22" s="160" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="160" t="s">
+        <v>67</v>
+      </c>
+      <c r="S22" s="160" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="U22" s="160" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" s="160" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="159"/>
+    </row>
+    <row r="23" spans="7:28">
+      <c r="M23" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="177" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="V23" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="160" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="159"/>
+    </row>
+    <row r="24" spans="7:28">
+      <c r="G24" s="161" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="159"/>
+      <c r="M24" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="177" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="160"/>
+      <c r="U24" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="V24" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="160"/>
+      <c r="X24" s="160"/>
+      <c r="Y24" s="160"/>
+      <c r="Z24" s="160"/>
+      <c r="AA24" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB24" s="159"/>
+    </row>
+    <row r="25" spans="7:28">
+      <c r="G25" s="166" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="165" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="160"/>
+      <c r="S25" s="160" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="160"/>
+      <c r="U25" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="160"/>
+      <c r="X25" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="160"/>
+      <c r="Z25" s="160"/>
+      <c r="AA25" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB25" s="159"/>
+    </row>
+    <row r="26" spans="7:28">
+      <c r="G26" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="166" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="165" t="s">
+        <v>425</v>
+      </c>
+      <c r="M26" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="160"/>
+      <c r="S26" s="160" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" s="160" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB26" s="159"/>
+    </row>
+    <row r="27" spans="7:28">
+      <c r="G27" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="166" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="M27" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="160"/>
+      <c r="S27" s="160" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="160"/>
+      <c r="U27" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="V27" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="W27" s="160"/>
+      <c r="X27" s="160">
+        <v>2007</v>
+      </c>
+      <c r="Y27" s="160">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="160">
+        <v>20</v>
+      </c>
+      <c r="AA27" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB27" s="159"/>
+    </row>
+    <row r="28" spans="7:28">
+      <c r="G28" s="160" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="177" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="160" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="V28" s="160" t="s">
+        <v>18</v>
+      </c>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="159"/>
+    </row>
+    <row r="29" spans="7:28">
+      <c r="G29" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="160" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="7:28">
+      <c r="G32" s="161" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+    </row>
+    <row r="33" spans="7:23">
+      <c r="G33" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+    </row>
+    <row r="34" spans="7:23" ht="17.25">
+      <c r="G34" s="165" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="165" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="165" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="165" t="s">
+        <v>174</v>
+      </c>
+      <c r="M34" s="182" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="7:23" ht="16.5">
+      <c r="G35" s="165" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="165" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="168" t="s">
+        <v>391</v>
+      </c>
+      <c r="N35" s="168" t="s">
+        <v>389</v>
+      </c>
+      <c r="O35" s="168"/>
+      <c r="P35" s="168"/>
+      <c r="Q35" s="168"/>
+      <c r="R35" s="168"/>
+      <c r="S35" s="183"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="157"/>
+      <c r="W35" s="157"/>
+    </row>
+    <row r="36" spans="7:23" ht="16.5">
+      <c r="G36" s="165" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="165" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="165" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="M36" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="N36" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="R36" s="168"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="168"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="157"/>
+      <c r="W36" s="157"/>
+    </row>
+    <row r="37" spans="7:23" ht="16.5">
+      <c r="G37" s="167" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="167">
+        <v>1</v>
+      </c>
+      <c r="J37" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="167" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="170" t="s">
+        <v>390</v>
+      </c>
+      <c r="N37" s="170" t="s">
+        <v>219</v>
+      </c>
+      <c r="O37" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="P37" s="170" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q37" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="R37" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="S37" s="170" t="s">
+        <v>194</v>
+      </c>
+      <c r="T37" s="170" t="s">
+        <v>383</v>
+      </c>
+      <c r="U37" s="170" t="s">
+        <v>309</v>
+      </c>
+      <c r="V37" s="170" t="s">
+        <v>212</v>
+      </c>
+      <c r="W37" s="170" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="7:23" ht="16.5">
+      <c r="G38" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="167" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" s="167">
+        <v>0</v>
+      </c>
+      <c r="J38" s="189" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="167" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="170" t="s">
+        <v>392</v>
+      </c>
+      <c r="N38" s="170" t="s">
+        <v>238</v>
+      </c>
+      <c r="O38" s="170" t="s">
+        <v>200</v>
+      </c>
+      <c r="P38" s="170" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q38" s="170" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="170" t="s">
+        <v>207</v>
+      </c>
+      <c r="S38" s="170" t="s">
+        <v>116</v>
+      </c>
+      <c r="T38" s="185" t="s">
+        <v>382</v>
+      </c>
+      <c r="U38" s="170" t="s">
+        <v>308</v>
+      </c>
+      <c r="V38" s="170" t="s">
+        <v>210</v>
+      </c>
+      <c r="W38" s="170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="7:23" ht="16.5">
+      <c r="G39" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="167" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="167">
+        <v>2</v>
+      </c>
+      <c r="J39" s="190"/>
+      <c r="K39" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="N39" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="O39" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="P39" s="170" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q39" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="R39" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="S39" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="U39" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="V39" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="W39" s="170" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="7:23" ht="16.5">
+      <c r="G40" s="167" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="167">
+        <v>1</v>
+      </c>
+      <c r="J40" s="189" t="s">
+        <v>133</v>
+      </c>
+      <c r="K40" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="186">
+        <v>1</v>
+      </c>
+      <c r="N40" s="187" t="s">
+        <v>384</v>
+      </c>
+      <c r="O40" s="186" t="s">
+        <v>202</v>
+      </c>
+      <c r="P40" s="186" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40" s="158" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" s="186">
+        <v>3</v>
+      </c>
+      <c r="S40" s="171" t="s">
+        <v>113</v>
+      </c>
+      <c r="T40" s="188">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="U40" s="158"/>
+      <c r="V40" s="186">
+        <v>3003000</v>
+      </c>
+      <c r="W40" s="188">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="41" spans="7:23">
+      <c r="G41" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" s="167">
+        <v>0</v>
+      </c>
+      <c r="J41" s="189" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="167" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="7:23">
+      <c r="G42" s="167" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="I42" s="167">
+        <v>0</v>
+      </c>
+      <c r="J42" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="167" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="S37:S40 T38">
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V37:W38">
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T37">
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37:U38">
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U37:U38">
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U39">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8905,12 +15425,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27.75">
       <c r="A1" s="130" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="C3" s="23" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>155</v>
@@ -8952,7 +15472,7 @@
         <v>192</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9038,20 +15558,20 @@
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="L18" s="131" t="s">
+      <c r="L18" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131" t="s">
+      <c r="M18" s="153"/>
+      <c r="N18" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131" t="s">
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="S18" s="131"/>
+      <c r="S18" s="153"/>
       <c r="T18" s="24" t="s">
         <v>44</v>
       </c>
@@ -9066,7 +15586,7 @@
     </row>
     <row r="22" spans="3:25">
       <c r="C22" s="23" t="s">
-        <v>222</v>
+        <v>420</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>164</v>
@@ -10085,10 +16605,10 @@
         <v>53</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17" t="s">
@@ -10167,7 +16687,7 @@
         <v>60</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>219</v>
@@ -10188,7 +16708,7 @@
         <v>194</v>
       </c>
       <c r="Q49" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R49" s="19" t="s">
         <v>309</v>
@@ -10214,7 +16734,7 @@
         <v>62</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>238</v>
@@ -10235,7 +16755,7 @@
         <v>234</v>
       </c>
       <c r="Q50" s="118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R50" s="19" t="s">
         <v>308</v>
@@ -10287,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L52" s="21" t="s">
         <v>202</v>
@@ -10324,7 +16844,7 @@
     </row>
     <row r="54" spans="3:24">
       <c r="C54" s="23" t="s">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>154</v>
@@ -10343,7 +16863,7 @@
         <v>134</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -10359,7 +16879,7 @@
         <v>143</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -10375,10 +16895,10 @@
         <v>46</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>381</v>
+        <v>217</v>
       </c>
       <c r="K57" s="17" t="s">
         <v>203</v>
@@ -10396,7 +16916,7 @@
         <v>135</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
@@ -10438,7 +16958,7 @@
         <v>219</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L60" s="19" t="s">
         <v>143</v>
@@ -10462,10 +16982,10 @@
         <v>215</v>
       </c>
       <c r="S60" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T60" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U60" s="19" t="s">
         <v>365</v>
@@ -10485,7 +17005,7 @@
         <v>238</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L61" s="19" t="s">
         <v>72</v>
@@ -10509,7 +17029,7 @@
         <v>236</v>
       </c>
       <c r="S61" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T61" s="19" t="s">
         <v>237</v>
@@ -10576,10 +17096,10 @@
     </row>
     <row r="63" spans="3:24">
       <c r="C63" s="23" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K63" s="21">
         <v>1</v>
@@ -10811,7 +17331,7 @@
         <v>379</v>
       </c>
       <c r="J72" s="122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K72" s="119" t="s">
         <v>253</v>
@@ -10838,7 +17358,7 @@
         <v>376</v>
       </c>
       <c r="J73" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K73" s="120" t="s">
         <v>255</v>
@@ -10871,7 +17391,7 @@
         <v>135</v>
       </c>
       <c r="J74" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K74" s="120" t="s">
         <v>256</v>
@@ -10898,7 +17418,7 @@
         <v>113</v>
       </c>
       <c r="J75" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K75" s="120" t="s">
         <v>257</v>
@@ -10925,7 +17445,7 @@
         <v>113</v>
       </c>
       <c r="J76" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K76" s="120" t="s">
         <v>259</v>
@@ -10946,7 +17466,7 @@
     </row>
     <row r="77" spans="3:22">
       <c r="J77" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K77" s="120" t="s">
         <v>261</v>
@@ -10967,7 +17487,7 @@
     </row>
     <row r="78" spans="3:22">
       <c r="J78" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" s="120" t="s">
         <v>263</v>
@@ -10988,7 +17508,7 @@
     </row>
     <row r="79" spans="3:22">
       <c r="J79" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K79" s="120" t="s">
         <v>265</v>
@@ -11015,7 +17535,7 @@
     </row>
     <row r="80" spans="3:22">
       <c r="J80" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K80" s="120" t="s">
         <v>266</v>
@@ -11039,7 +17559,7 @@
     </row>
     <row r="81" spans="10:22">
       <c r="J81" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K81" s="120" t="s">
         <v>268</v>
@@ -11060,7 +17580,7 @@
     </row>
     <row r="82" spans="10:22">
       <c r="J82" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K82" s="120" t="s">
         <v>270</v>
@@ -11081,7 +17601,7 @@
     </row>
     <row r="83" spans="10:22">
       <c r="J83" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K83" s="120" t="s">
         <v>271</v>
@@ -11102,7 +17622,7 @@
     </row>
     <row r="84" spans="10:22">
       <c r="J84" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K84" s="120" t="s">
         <v>273</v>
@@ -11125,7 +17645,7 @@
     </row>
     <row r="85" spans="10:22">
       <c r="J85" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K85" s="120" t="s">
         <v>274</v>
@@ -11148,7 +17668,7 @@
     </row>
     <row r="86" spans="10:22">
       <c r="J86" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K86" s="120" t="s">
         <v>275</v>
@@ -11175,7 +17695,7 @@
     </row>
     <row r="87" spans="10:22" ht="17.25" thickBot="1">
       <c r="J87" s="124" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K87" s="121" t="s">
         <v>276</v>
@@ -11196,7 +17716,7 @@
     </row>
     <row r="88" spans="10:22">
       <c r="J88" s="122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K88" s="119" t="s">
         <v>330</v>
@@ -11219,7 +17739,7 @@
     </row>
     <row r="89" spans="10:22">
       <c r="J89" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K89" s="120" t="s">
         <v>331</v>
@@ -11242,7 +17762,7 @@
     </row>
     <row r="90" spans="10:22">
       <c r="J90" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K90" s="120" t="s">
         <v>332</v>
@@ -11265,7 +17785,7 @@
     </row>
     <row r="91" spans="10:22">
       <c r="J91" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K91" s="120" t="s">
         <v>333</v>
@@ -11291,7 +17811,7 @@
     </row>
     <row r="92" spans="10:22">
       <c r="J92" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K92" s="120" t="s">
         <v>334</v>
@@ -11314,7 +17834,7 @@
     </row>
     <row r="93" spans="10:22">
       <c r="J93" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K93" s="120" t="s">
         <v>335</v>
@@ -11337,7 +17857,7 @@
     </row>
     <row r="94" spans="10:22" ht="17.25" thickBot="1">
       <c r="J94" s="124" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K94" s="121" t="s">
         <v>336</v>
@@ -11413,20 +17933,20 @@
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
       <c r="X99" s="51"/>
-      <c r="Y99" s="139" t="s">
+      <c r="Y99" s="133" t="s">
         <v>326</v>
       </c>
-      <c r="Z99" s="140"/>
+      <c r="Z99" s="134"/>
       <c r="AA99" s="52"/>
       <c r="AC99" s="101"/>
       <c r="AD99" s="50"/>
       <c r="AE99" s="51"/>
       <c r="AF99" s="51"/>
       <c r="AG99" s="51"/>
-      <c r="AH99" s="139" t="s">
+      <c r="AH99" s="133" t="s">
         <v>339</v>
       </c>
-      <c r="AI99" s="140"/>
+      <c r="AI99" s="134"/>
       <c r="AJ99" s="61"/>
       <c r="AK99" s="102" t="s">
         <v>353</v>
@@ -11617,32 +18137,32 @@
       <c r="AA103" s="67"/>
       <c r="AB103" s="17"/>
       <c r="AC103" s="66"/>
-      <c r="AD103" s="134" t="s">
+      <c r="AD103" s="151" t="s">
         <v>340</v>
       </c>
-      <c r="AE103" s="134" t="s">
+      <c r="AE103" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="AF103" s="144" t="s">
+      <c r="AF103" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="AG103" s="134" t="s">
+      <c r="AG103" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="AH103" s="134" t="s">
+      <c r="AH103" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="AI103" s="134" t="s">
+      <c r="AI103" s="151" t="s">
         <v>341</v>
       </c>
-      <c r="AJ103" s="134" t="s">
+      <c r="AJ103" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="AK103" s="134" t="s">
+      <c r="AK103" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="AL103" s="134"/>
-      <c r="AM103" s="134"/>
+      <c r="AL103" s="151"/>
+      <c r="AM103" s="151"/>
       <c r="AN103" s="67"/>
       <c r="AO103" s="17"/>
       <c r="AQ103" s="17"/>
@@ -11683,16 +18203,16 @@
       <c r="AA104" s="67"/>
       <c r="AB104" s="17"/>
       <c r="AC104" s="66"/>
-      <c r="AD104" s="134"/>
-      <c r="AE104" s="134"/>
-      <c r="AF104" s="144"/>
-      <c r="AG104" s="134"/>
-      <c r="AH104" s="134"/>
-      <c r="AI104" s="135"/>
-      <c r="AJ104" s="135"/>
-      <c r="AK104" s="135"/>
-      <c r="AL104" s="135"/>
-      <c r="AM104" s="135"/>
+      <c r="AD104" s="151"/>
+      <c r="AE104" s="151"/>
+      <c r="AF104" s="150"/>
+      <c r="AG104" s="151"/>
+      <c r="AH104" s="151"/>
+      <c r="AI104" s="152"/>
+      <c r="AJ104" s="152"/>
+      <c r="AK104" s="152"/>
+      <c r="AL104" s="152"/>
+      <c r="AM104" s="152"/>
       <c r="AN104" s="67"/>
       <c r="AO104" s="17"/>
       <c r="AQ104" s="17"/>
@@ -11705,10 +18225,10 @@
         <v>300</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L105" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M105" s="50"/>
       <c r="N105" s="42" t="s">
@@ -11761,11 +18281,11 @@
       <c r="AJ105" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="AK105" s="153" t="s">
+      <c r="AK105" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="AL105" s="154"/>
-      <c r="AM105" s="155"/>
+      <c r="AL105" s="145"/>
+      <c r="AM105" s="146"/>
       <c r="AN105" s="67"/>
       <c r="AO105" s="17"/>
       <c r="AQ105" s="17"/>
@@ -11806,7 +18326,7 @@
       <c r="AA106" s="67"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="66"/>
-      <c r="AD106" s="141" t="s">
+      <c r="AD106" s="147" t="s">
         <v>8</v>
       </c>
       <c r="AE106" s="86" t="s">
@@ -11827,9 +18347,9 @@
       <c r="AJ106" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="AK106" s="136"/>
-      <c r="AL106" s="137"/>
-      <c r="AM106" s="138"/>
+      <c r="AK106" s="135"/>
+      <c r="AL106" s="136"/>
+      <c r="AM106" s="137"/>
       <c r="AN106" s="67"/>
       <c r="AO106" s="17"/>
       <c r="AQ106" s="17"/>
@@ -11868,7 +18388,7 @@
       </c>
       <c r="AA107" s="52"/>
       <c r="AC107" s="49"/>
-      <c r="AD107" s="142"/>
+      <c r="AD107" s="148"/>
       <c r="AE107" s="87" t="s">
         <v>32</v>
       </c>
@@ -11885,9 +18405,9 @@
         <v>2035.2</v>
       </c>
       <c r="AJ107" s="95"/>
-      <c r="AK107" s="136"/>
-      <c r="AL107" s="137"/>
-      <c r="AM107" s="138"/>
+      <c r="AK107" s="135"/>
+      <c r="AL107" s="136"/>
+      <c r="AM107" s="137"/>
       <c r="AN107" s="52"/>
     </row>
     <row r="108" spans="9:45" ht="17.25" thickBot="1">
@@ -11922,7 +18442,7 @@
       </c>
       <c r="AA108" s="52"/>
       <c r="AC108" s="49"/>
-      <c r="AD108" s="142"/>
+      <c r="AD108" s="148"/>
       <c r="AE108" s="86" t="s">
         <v>32</v>
       </c>
@@ -11937,9 +18457,9 @@
       </c>
       <c r="AI108" s="90"/>
       <c r="AJ108" s="91"/>
-      <c r="AK108" s="136"/>
-      <c r="AL108" s="137"/>
-      <c r="AM108" s="138"/>
+      <c r="AK108" s="135"/>
+      <c r="AL108" s="136"/>
+      <c r="AM108" s="137"/>
       <c r="AN108" s="52"/>
     </row>
     <row r="109" spans="9:45" ht="18.75" thickBot="1">
@@ -11947,10 +18467,10 @@
       <c r="J109" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="K109" s="132" t="s">
+      <c r="K109" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="L109" s="133"/>
+      <c r="L109" s="155"/>
       <c r="M109" s="44" t="s">
         <v>291</v>
       </c>
@@ -11958,16 +18478,16 @@
         <v>72</v>
       </c>
       <c r="O109" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P109" s="44" t="s">
         <v>290</v>
       </c>
       <c r="Q109" s="44" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R109" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T109" s="49"/>
       <c r="U109" s="22" t="s">
@@ -11990,7 +18510,7 @@
       </c>
       <c r="AA109" s="52"/>
       <c r="AC109" s="49"/>
-      <c r="AD109" s="142"/>
+      <c r="AD109" s="148"/>
       <c r="AE109" s="86" t="s">
         <v>32</v>
       </c>
@@ -12005,15 +18525,15 @@
       </c>
       <c r="AI109" s="90"/>
       <c r="AJ109" s="91"/>
-      <c r="AK109" s="136"/>
-      <c r="AL109" s="137"/>
-      <c r="AM109" s="138"/>
+      <c r="AK109" s="135"/>
+      <c r="AL109" s="136"/>
+      <c r="AM109" s="137"/>
       <c r="AN109" s="52"/>
     </row>
     <row r="110" spans="9:45" ht="17.25" thickBot="1">
       <c r="I110" s="49"/>
       <c r="J110" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K110" s="63" t="s">
         <v>293</v>
@@ -12032,7 +18552,7 @@
         <v>43468</v>
       </c>
       <c r="Q110" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R110" s="21"/>
       <c r="T110" s="49"/>
@@ -12056,7 +18576,7 @@
       </c>
       <c r="AA110" s="52"/>
       <c r="AC110" s="49"/>
-      <c r="AD110" s="142"/>
+      <c r="AD110" s="148"/>
       <c r="AE110" s="86" t="s">
         <v>32</v>
       </c>
@@ -12071,15 +18591,15 @@
       </c>
       <c r="AI110" s="90"/>
       <c r="AJ110" s="91"/>
-      <c r="AK110" s="136"/>
-      <c r="AL110" s="137"/>
-      <c r="AM110" s="138"/>
+      <c r="AK110" s="135"/>
+      <c r="AL110" s="136"/>
+      <c r="AM110" s="137"/>
       <c r="AN110" s="52"/>
     </row>
     <row r="111" spans="9:45" ht="17.25" thickBot="1">
       <c r="I111" s="49"/>
       <c r="J111" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K111" s="63" t="s">
         <v>293</v>
@@ -12098,7 +18618,7 @@
         <v>43468</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R111" s="21"/>
       <c r="T111" s="49"/>
@@ -12122,7 +18642,7 @@
       </c>
       <c r="AA111" s="52"/>
       <c r="AC111" s="49"/>
-      <c r="AD111" s="143"/>
+      <c r="AD111" s="149"/>
       <c r="AE111" s="86" t="s">
         <v>32</v>
       </c>
@@ -12137,15 +18657,15 @@
       </c>
       <c r="AI111" s="90"/>
       <c r="AJ111" s="91"/>
-      <c r="AK111" s="136"/>
-      <c r="AL111" s="137"/>
-      <c r="AM111" s="138"/>
+      <c r="AK111" s="135"/>
+      <c r="AL111" s="136"/>
+      <c r="AM111" s="137"/>
       <c r="AN111" s="52"/>
     </row>
     <row r="112" spans="9:45" ht="17.25" thickBot="1">
       <c r="I112" s="49"/>
       <c r="J112" s="57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K112" s="71" t="s">
         <v>293</v>
@@ -12171,7 +18691,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="52"/>
       <c r="AC112" s="49"/>
-      <c r="AD112" s="141" t="s">
+      <c r="AD112" s="147" t="s">
         <v>16</v>
       </c>
       <c r="AE112" s="86" t="s">
@@ -12188,15 +18708,15 @@
       </c>
       <c r="AI112" s="90"/>
       <c r="AJ112" s="91"/>
-      <c r="AK112" s="136"/>
-      <c r="AL112" s="137"/>
-      <c r="AM112" s="138"/>
+      <c r="AK112" s="135"/>
+      <c r="AL112" s="136"/>
+      <c r="AM112" s="137"/>
       <c r="AN112" s="52"/>
     </row>
     <row r="113" spans="9:40" ht="17.25" thickBot="1">
       <c r="I113" s="49"/>
       <c r="J113" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K113" s="63" t="s">
         <v>293</v>
@@ -12218,12 +18738,12 @@
         <v>354</v>
       </c>
       <c r="R113" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T113" s="49"/>
       <c r="AA113" s="52"/>
       <c r="AC113" s="49"/>
-      <c r="AD113" s="142"/>
+      <c r="AD113" s="148"/>
       <c r="AE113" s="86" t="s">
         <v>32</v>
       </c>
@@ -12238,15 +18758,15 @@
       </c>
       <c r="AI113" s="90"/>
       <c r="AJ113" s="91"/>
-      <c r="AK113" s="136"/>
-      <c r="AL113" s="137"/>
-      <c r="AM113" s="138"/>
+      <c r="AK113" s="135"/>
+      <c r="AL113" s="136"/>
+      <c r="AM113" s="137"/>
       <c r="AN113" s="52"/>
     </row>
     <row r="114" spans="9:40" ht="17.25" thickBot="1">
       <c r="I114" s="49"/>
       <c r="J114" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K114" s="63" t="s">
         <v>293</v>
@@ -12268,7 +18788,7 @@
         <v>354</v>
       </c>
       <c r="R114" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T114" s="49"/>
       <c r="U114" s="51"/>
@@ -12277,7 +18797,7 @@
       <c r="X114" s="51"/>
       <c r="AA114" s="52"/>
       <c r="AC114" s="49"/>
-      <c r="AD114" s="142"/>
+      <c r="AD114" s="148"/>
       <c r="AE114" s="86" t="s">
         <v>32</v>
       </c>
@@ -12292,9 +18812,9 @@
       </c>
       <c r="AI114" s="90"/>
       <c r="AJ114" s="91"/>
-      <c r="AK114" s="136"/>
-      <c r="AL114" s="137"/>
-      <c r="AM114" s="138"/>
+      <c r="AK114" s="135"/>
+      <c r="AL114" s="136"/>
+      <c r="AM114" s="137"/>
       <c r="AN114" s="52"/>
     </row>
     <row r="115" spans="9:40" ht="17.25" thickBot="1">
@@ -12317,7 +18837,7 @@
       <c r="Z115" s="55"/>
       <c r="AA115" s="56"/>
       <c r="AC115" s="49"/>
-      <c r="AD115" s="142"/>
+      <c r="AD115" s="148"/>
       <c r="AE115" s="86" t="s">
         <v>17</v>
       </c>
@@ -12330,9 +18850,9 @@
       </c>
       <c r="AI115" s="90"/>
       <c r="AJ115" s="91"/>
-      <c r="AK115" s="136"/>
-      <c r="AL115" s="137"/>
-      <c r="AM115" s="138"/>
+      <c r="AK115" s="135"/>
+      <c r="AL115" s="136"/>
+      <c r="AM115" s="137"/>
       <c r="AN115" s="52"/>
     </row>
     <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
@@ -12347,7 +18867,7 @@
       <c r="Q116" s="50"/>
       <c r="R116" s="52"/>
       <c r="AC116" s="49"/>
-      <c r="AD116" s="143"/>
+      <c r="AD116" s="149"/>
       <c r="AE116" s="86" t="s">
         <v>20</v>
       </c>
@@ -12360,9 +18880,9 @@
       </c>
       <c r="AI116" s="90"/>
       <c r="AJ116" s="91"/>
-      <c r="AK116" s="136"/>
-      <c r="AL116" s="137"/>
-      <c r="AM116" s="138"/>
+      <c r="AK116" s="135"/>
+      <c r="AL116" s="136"/>
+      <c r="AM116" s="137"/>
       <c r="AN116" s="52"/>
     </row>
     <row r="117" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
@@ -12377,7 +18897,7 @@
       <c r="Q117" s="50"/>
       <c r="R117" s="52"/>
       <c r="AC117" s="49"/>
-      <c r="AD117" s="141" t="s">
+      <c r="AD117" s="147" t="s">
         <v>22</v>
       </c>
       <c r="AE117" s="86" t="s">
@@ -12409,7 +18929,7 @@
       <c r="Q118" s="50"/>
       <c r="R118" s="52"/>
       <c r="AC118" s="49"/>
-      <c r="AD118" s="142"/>
+      <c r="AD118" s="148"/>
       <c r="AE118" s="86" t="s">
         <v>25</v>
       </c>
@@ -12439,7 +18959,7 @@
       <c r="Q119" s="50"/>
       <c r="R119" s="52"/>
       <c r="AC119" s="49"/>
-      <c r="AD119" s="142"/>
+      <c r="AD119" s="148"/>
       <c r="AE119" s="86" t="s">
         <v>28</v>
       </c>
@@ -12469,7 +18989,7 @@
       <c r="Q120" s="50"/>
       <c r="R120" s="52"/>
       <c r="AC120" s="49"/>
-      <c r="AD120" s="143"/>
+      <c r="AD120" s="149"/>
       <c r="AE120" s="86" t="s">
         <v>27</v>
       </c>
@@ -12590,7 +19110,7 @@
       <c r="AL124" s="99">
         <v>9</v>
       </c>
-      <c r="AM124" s="149" t="s">
+      <c r="AM124" s="140" t="s">
         <v>294</v>
       </c>
       <c r="AN124" s="52"/>
@@ -12622,7 +19142,7 @@
       <c r="AL125" s="99">
         <v>6</v>
       </c>
-      <c r="AM125" s="150"/>
+      <c r="AM125" s="141"/>
       <c r="AN125" s="52"/>
     </row>
     <row r="126" spans="9:40" ht="36.75" customHeight="1">
@@ -12652,7 +19172,7 @@
       <c r="AL126" s="99">
         <v>3</v>
       </c>
-      <c r="AM126" s="147" t="s">
+      <c r="AM126" s="138" t="s">
         <v>345</v>
       </c>
       <c r="AN126" s="52"/>
@@ -12675,14 +19195,14 @@
       <c r="AG127" s="51"/>
       <c r="AH127" s="51"/>
       <c r="AI127" s="51"/>
-      <c r="AJ127" s="151">
+      <c r="AJ127" s="142">
         <v>0</v>
       </c>
-      <c r="AK127" s="152"/>
+      <c r="AK127" s="143"/>
       <c r="AL127" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="AM127" s="148"/>
+      <c r="AM127" s="139"/>
       <c r="AN127" s="52"/>
     </row>
     <row r="128" spans="9:40" ht="9" customHeight="1">
@@ -12751,7 +19271,7 @@
       <c r="AG130" s="51"/>
       <c r="AH130" s="51"/>
       <c r="AI130" s="51"/>
-      <c r="AJ130" s="145" t="s">
+      <c r="AJ130" s="131" t="s">
         <v>351</v>
       </c>
       <c r="AK130" s="100" t="s">
@@ -12760,7 +19280,7 @@
       <c r="AL130" s="100" t="s">
         <v>348</v>
       </c>
-      <c r="AM130" s="146" t="s">
+      <c r="AM130" s="132" t="s">
         <v>346</v>
       </c>
       <c r="AN130" s="52"/>
@@ -12783,14 +19303,14 @@
       <c r="AG131" s="51"/>
       <c r="AH131" s="51"/>
       <c r="AI131" s="51"/>
-      <c r="AJ131" s="145"/>
+      <c r="AJ131" s="131"/>
       <c r="AK131" s="100" t="s">
         <v>350</v>
       </c>
       <c r="AL131" s="100" t="s">
         <v>349</v>
       </c>
-      <c r="AM131" s="146"/>
+      <c r="AM131" s="132"/>
       <c r="AN131" s="52"/>
     </row>
     <row r="132" spans="9:40">
@@ -12835,14 +19355,14 @@
       <c r="AG133" s="51"/>
       <c r="AH133" s="51"/>
       <c r="AI133" s="51"/>
-      <c r="AJ133" s="145" t="s">
+      <c r="AJ133" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="AK133" s="145"/>
-      <c r="AL133" s="146" t="s">
-        <v>407</v>
-      </c>
-      <c r="AM133" s="146"/>
+      <c r="AK133" s="131"/>
+      <c r="AL133" s="132" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM133" s="132"/>
       <c r="AN133" s="52"/>
     </row>
     <row r="134" spans="9:40" ht="16.5" customHeight="1" thickBot="1">
@@ -12863,10 +19383,10 @@
       <c r="AG134" s="51"/>
       <c r="AH134" s="51"/>
       <c r="AI134" s="51"/>
-      <c r="AJ134" s="145"/>
-      <c r="AK134" s="145"/>
-      <c r="AL134" s="146"/>
-      <c r="AM134" s="146"/>
+      <c r="AJ134" s="131"/>
+      <c r="AK134" s="131"/>
+      <c r="AL134" s="132"/>
+      <c r="AM134" s="132"/>
       <c r="AN134" s="52"/>
     </row>
     <row r="135" spans="9:40">
@@ -13011,6 +19531,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="AK103:AM104"/>
+    <mergeCell ref="AK106:AM106"/>
+    <mergeCell ref="AK107:AM107"/>
+    <mergeCell ref="AK108:AM108"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="AD106:AD111"/>
+    <mergeCell ref="AI103:AI104"/>
+    <mergeCell ref="AJ103:AJ104"/>
+    <mergeCell ref="AG103:AG104"/>
+    <mergeCell ref="AH103:AH104"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AF103:AF104"/>
+    <mergeCell ref="AE103:AE104"/>
+    <mergeCell ref="AD103:AD104"/>
     <mergeCell ref="AJ133:AK134"/>
     <mergeCell ref="AL133:AM134"/>
     <mergeCell ref="AH99:AI99"/>
@@ -13027,27 +19568,6 @@
     <mergeCell ref="AM124:AM125"/>
     <mergeCell ref="AJ127:AK127"/>
     <mergeCell ref="AK105:AM105"/>
-    <mergeCell ref="AD112:AD116"/>
-    <mergeCell ref="AD117:AD120"/>
-    <mergeCell ref="AF103:AF104"/>
-    <mergeCell ref="AE103:AE104"/>
-    <mergeCell ref="AD103:AD104"/>
-    <mergeCell ref="Y99:Z99"/>
-    <mergeCell ref="AD106:AD111"/>
-    <mergeCell ref="AI103:AI104"/>
-    <mergeCell ref="AJ103:AJ104"/>
-    <mergeCell ref="AG103:AG104"/>
-    <mergeCell ref="AH103:AH104"/>
-    <mergeCell ref="AK103:AM104"/>
-    <mergeCell ref="AK106:AM106"/>
-    <mergeCell ref="AK107:AM107"/>
-    <mergeCell ref="AK108:AM108"/>
-    <mergeCell ref="AK109:AM109"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="K109:L109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P49:P52 Q50">
@@ -13105,7 +19625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS144"/>
   <sheetViews>
@@ -13151,7 +19671,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="27.75">
       <c r="B1" s="130" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -13198,7 +19718,7 @@
         <v>192</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -13284,20 +19804,20 @@
       </c>
     </row>
     <row r="18" spans="3:25">
-      <c r="L18" s="131" t="s">
+      <c r="L18" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131" t="s">
+      <c r="M18" s="153"/>
+      <c r="N18" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131" t="s">
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153" t="s">
         <v>221</v>
       </c>
-      <c r="S18" s="131"/>
+      <c r="S18" s="153"/>
       <c r="T18" s="24" t="s">
         <v>44</v>
       </c>
@@ -14331,14 +20851,14 @@
         <v>53</v>
       </c>
       <c r="J46" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>412</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
@@ -14408,7 +20928,7 @@
         <v>60</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>199</v>
@@ -14443,7 +20963,7 @@
         <v>62</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K50" s="19" t="s">
         <v>200</v>
@@ -14536,7 +21056,7 @@
         <v>134</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -14552,7 +21072,7 @@
         <v>143</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
@@ -14631,7 +21151,7 @@
         <v>219</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L60" s="19" t="s">
         <v>143</v>
@@ -14655,10 +21175,10 @@
         <v>215</v>
       </c>
       <c r="S60" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T60" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U60" s="19" t="s">
         <v>365</v>
@@ -14678,7 +21198,7 @@
         <v>238</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L61" s="19" t="s">
         <v>72</v>
@@ -14702,7 +21222,7 @@
         <v>236</v>
       </c>
       <c r="S61" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T61" s="19" t="s">
         <v>237</v>
@@ -14769,10 +21289,10 @@
     </row>
     <row r="63" spans="3:24">
       <c r="C63" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K63" s="21">
         <v>1</v>
@@ -15004,7 +21524,7 @@
         <v>194</v>
       </c>
       <c r="J72" s="122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K72" s="119" t="s">
         <v>253</v>
@@ -15031,7 +21551,7 @@
         <v>116</v>
       </c>
       <c r="J73" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K73" s="120" t="s">
         <v>255</v>
@@ -15064,7 +21584,7 @@
         <v>130</v>
       </c>
       <c r="J74" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K74" s="120" t="s">
         <v>256</v>
@@ -15091,7 +21611,7 @@
         <v>113</v>
       </c>
       <c r="J75" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K75" s="120" t="s">
         <v>257</v>
@@ -15118,7 +21638,7 @@
         <v>113</v>
       </c>
       <c r="J76" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K76" s="120" t="s">
         <v>259</v>
@@ -15139,7 +21659,7 @@
     </row>
     <row r="77" spans="3:22">
       <c r="J77" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K77" s="120" t="s">
         <v>261</v>
@@ -15160,7 +21680,7 @@
     </row>
     <row r="78" spans="3:22">
       <c r="J78" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" s="120" t="s">
         <v>263</v>
@@ -15181,7 +21701,7 @@
     </row>
     <row r="79" spans="3:22">
       <c r="J79" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K79" s="120" t="s">
         <v>265</v>
@@ -15208,7 +21728,7 @@
     </row>
     <row r="80" spans="3:22">
       <c r="J80" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K80" s="120" t="s">
         <v>266</v>
@@ -15232,7 +21752,7 @@
     </row>
     <row r="81" spans="10:22">
       <c r="J81" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K81" s="120" t="s">
         <v>268</v>
@@ -15253,7 +21773,7 @@
     </row>
     <row r="82" spans="10:22">
       <c r="J82" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K82" s="120" t="s">
         <v>270</v>
@@ -15274,7 +21794,7 @@
     </row>
     <row r="83" spans="10:22">
       <c r="J83" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K83" s="120" t="s">
         <v>271</v>
@@ -15295,7 +21815,7 @@
     </row>
     <row r="84" spans="10:22">
       <c r="J84" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K84" s="120" t="s">
         <v>273</v>
@@ -15318,7 +21838,7 @@
     </row>
     <row r="85" spans="10:22">
       <c r="J85" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K85" s="120" t="s">
         <v>274</v>
@@ -15341,7 +21861,7 @@
     </row>
     <row r="86" spans="10:22">
       <c r="J86" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K86" s="120" t="s">
         <v>275</v>
@@ -15368,7 +21888,7 @@
     </row>
     <row r="87" spans="10:22" ht="17.25" thickBot="1">
       <c r="J87" s="124" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K87" s="121" t="s">
         <v>276</v>
@@ -15389,7 +21909,7 @@
     </row>
     <row r="88" spans="10:22">
       <c r="J88" s="122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K88" s="119" t="s">
         <v>330</v>
@@ -15412,7 +21932,7 @@
     </row>
     <row r="89" spans="10:22">
       <c r="J89" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K89" s="120" t="s">
         <v>331</v>
@@ -15435,7 +21955,7 @@
     </row>
     <row r="90" spans="10:22">
       <c r="J90" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K90" s="120" t="s">
         <v>332</v>
@@ -15458,7 +21978,7 @@
     </row>
     <row r="91" spans="10:22">
       <c r="J91" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K91" s="120" t="s">
         <v>333</v>
@@ -15484,7 +22004,7 @@
     </row>
     <row r="92" spans="10:22">
       <c r="J92" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K92" s="120" t="s">
         <v>334</v>
@@ -15507,7 +22027,7 @@
     </row>
     <row r="93" spans="10:22">
       <c r="J93" s="123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K93" s="120" t="s">
         <v>335</v>
@@ -15530,7 +22050,7 @@
     </row>
     <row r="94" spans="10:22" ht="17.25" thickBot="1">
       <c r="J94" s="124" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K94" s="121" t="s">
         <v>336</v>
@@ -15611,7 +22131,7 @@
         <v>3003000</v>
       </c>
       <c r="P99" s="50" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q99" s="51"/>
       <c r="R99" s="52"/>
@@ -15620,20 +22140,20 @@
       <c r="V99" s="51"/>
       <c r="W99" s="51"/>
       <c r="X99" s="51"/>
-      <c r="Y99" s="139" t="s">
+      <c r="Y99" s="133" t="s">
         <v>326</v>
       </c>
-      <c r="Z99" s="140"/>
+      <c r="Z99" s="134"/>
       <c r="AA99" s="52"/>
       <c r="AC99" s="101"/>
       <c r="AD99" s="50"/>
       <c r="AE99" s="51"/>
       <c r="AF99" s="51"/>
       <c r="AG99" s="51"/>
-      <c r="AH99" s="139" t="s">
+      <c r="AH99" s="133" t="s">
         <v>339</v>
       </c>
-      <c r="AI99" s="140"/>
+      <c r="AI99" s="134"/>
       <c r="AJ99" s="61"/>
       <c r="AK99" s="102" t="s">
         <v>353</v>
@@ -15649,13 +22169,13 @@
     <row r="100" spans="9:45" ht="17.25" thickBot="1">
       <c r="I100" s="66"/>
       <c r="J100" s="70" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K100" s="40" t="s">
         <v>302</v>
       </c>
       <c r="L100" s="70" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M100" s="40">
         <v>3</v>
@@ -15818,32 +22338,32 @@
       <c r="AA103" s="67"/>
       <c r="AB103" s="17"/>
       <c r="AC103" s="66"/>
-      <c r="AD103" s="134" t="s">
+      <c r="AD103" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="AE103" s="134" t="s">
+      <c r="AE103" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AF103" s="144" t="s">
+      <c r="AF103" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="AG103" s="134" t="s">
+      <c r="AG103" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="AH103" s="134" t="s">
+      <c r="AH103" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="AI103" s="134" t="s">
+      <c r="AI103" s="151" t="s">
         <v>341</v>
       </c>
-      <c r="AJ103" s="134" t="s">
+      <c r="AJ103" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="AK103" s="134" t="s">
+      <c r="AK103" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="AL103" s="134"/>
-      <c r="AM103" s="134"/>
+      <c r="AL103" s="151"/>
+      <c r="AM103" s="151"/>
       <c r="AN103" s="67"/>
       <c r="AO103" s="17"/>
       <c r="AQ103" s="17"/>
@@ -15884,16 +22404,16 @@
       <c r="AA104" s="67"/>
       <c r="AB104" s="17"/>
       <c r="AC104" s="66"/>
-      <c r="AD104" s="134"/>
-      <c r="AE104" s="134"/>
-      <c r="AF104" s="144"/>
-      <c r="AG104" s="134"/>
-      <c r="AH104" s="134"/>
-      <c r="AI104" s="135"/>
-      <c r="AJ104" s="135"/>
-      <c r="AK104" s="135"/>
-      <c r="AL104" s="135"/>
-      <c r="AM104" s="135"/>
+      <c r="AD104" s="151"/>
+      <c r="AE104" s="151"/>
+      <c r="AF104" s="150"/>
+      <c r="AG104" s="151"/>
+      <c r="AH104" s="151"/>
+      <c r="AI104" s="152"/>
+      <c r="AJ104" s="152"/>
+      <c r="AK104" s="152"/>
+      <c r="AL104" s="152"/>
+      <c r="AM104" s="152"/>
       <c r="AN104" s="67"/>
       <c r="AO104" s="17"/>
       <c r="AQ104" s="17"/>
@@ -15906,10 +22426,10 @@
         <v>300</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L105" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M105" s="50"/>
       <c r="N105" s="42" t="s">
@@ -15962,11 +22482,11 @@
       <c r="AJ105" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="AK105" s="153" t="s">
+      <c r="AK105" s="144" t="s">
         <v>343</v>
       </c>
-      <c r="AL105" s="154"/>
-      <c r="AM105" s="155"/>
+      <c r="AL105" s="145"/>
+      <c r="AM105" s="146"/>
       <c r="AN105" s="67"/>
       <c r="AO105" s="17"/>
       <c r="AQ105" s="17"/>
@@ -16007,7 +22527,7 @@
       <c r="AA106" s="67"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="66"/>
-      <c r="AD106" s="141" t="s">
+      <c r="AD106" s="147" t="s">
         <v>8</v>
       </c>
       <c r="AE106" s="86" t="s">
@@ -16028,9 +22548,9 @@
       <c r="AJ106" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="AK106" s="136"/>
-      <c r="AL106" s="137"/>
-      <c r="AM106" s="138"/>
+      <c r="AK106" s="135"/>
+      <c r="AL106" s="136"/>
+      <c r="AM106" s="137"/>
       <c r="AN106" s="67"/>
       <c r="AO106" s="17"/>
       <c r="AQ106" s="17"/>
@@ -16069,7 +22589,7 @@
       </c>
       <c r="AA107" s="52"/>
       <c r="AC107" s="49"/>
-      <c r="AD107" s="142"/>
+      <c r="AD107" s="148"/>
       <c r="AE107" s="87" t="s">
         <v>32</v>
       </c>
@@ -16086,9 +22606,9 @@
         <v>2035.2</v>
       </c>
       <c r="AJ107" s="95"/>
-      <c r="AK107" s="136"/>
-      <c r="AL107" s="137"/>
-      <c r="AM107" s="138"/>
+      <c r="AK107" s="135"/>
+      <c r="AL107" s="136"/>
+      <c r="AM107" s="137"/>
       <c r="AN107" s="52"/>
     </row>
     <row r="108" spans="9:45" ht="17.25" thickBot="1">
@@ -16123,7 +22643,7 @@
       </c>
       <c r="AA108" s="52"/>
       <c r="AC108" s="49"/>
-      <c r="AD108" s="142"/>
+      <c r="AD108" s="148"/>
       <c r="AE108" s="86" t="s">
         <v>32</v>
       </c>
@@ -16138,9 +22658,9 @@
       </c>
       <c r="AI108" s="90"/>
       <c r="AJ108" s="91"/>
-      <c r="AK108" s="136"/>
-      <c r="AL108" s="137"/>
-      <c r="AM108" s="138"/>
+      <c r="AK108" s="135"/>
+      <c r="AL108" s="136"/>
+      <c r="AM108" s="137"/>
       <c r="AN108" s="52"/>
     </row>
     <row r="109" spans="9:45" ht="18.75" thickBot="1">
@@ -16148,10 +22668,10 @@
       <c r="J109" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="K109" s="132" t="s">
+      <c r="K109" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="L109" s="133"/>
+      <c r="L109" s="155"/>
       <c r="M109" s="110" t="s">
         <v>291</v>
       </c>
@@ -16159,7 +22679,7 @@
         <v>72</v>
       </c>
       <c r="O109" s="110" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P109" s="110" t="s">
         <v>290</v>
@@ -16191,7 +22711,7 @@
       </c>
       <c r="AA109" s="52"/>
       <c r="AC109" s="49"/>
-      <c r="AD109" s="142"/>
+      <c r="AD109" s="148"/>
       <c r="AE109" s="86" t="s">
         <v>32</v>
       </c>
@@ -16206,15 +22726,15 @@
       </c>
       <c r="AI109" s="90"/>
       <c r="AJ109" s="91"/>
-      <c r="AK109" s="136"/>
-      <c r="AL109" s="137"/>
-      <c r="AM109" s="138"/>
+      <c r="AK109" s="135"/>
+      <c r="AL109" s="136"/>
+      <c r="AM109" s="137"/>
       <c r="AN109" s="52"/>
     </row>
     <row r="110" spans="9:45" ht="17.25" thickBot="1">
       <c r="I110" s="49"/>
       <c r="J110" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K110" s="63" t="s">
         <v>293</v>
@@ -16233,7 +22753,7 @@
         <v>43468</v>
       </c>
       <c r="Q110" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R110" s="21"/>
       <c r="T110" s="49"/>
@@ -16257,7 +22777,7 @@
       </c>
       <c r="AA110" s="52"/>
       <c r="AC110" s="49"/>
-      <c r="AD110" s="142"/>
+      <c r="AD110" s="148"/>
       <c r="AE110" s="86" t="s">
         <v>32</v>
       </c>
@@ -16272,15 +22792,15 @@
       </c>
       <c r="AI110" s="90"/>
       <c r="AJ110" s="91"/>
-      <c r="AK110" s="136"/>
-      <c r="AL110" s="137"/>
-      <c r="AM110" s="138"/>
+      <c r="AK110" s="135"/>
+      <c r="AL110" s="136"/>
+      <c r="AM110" s="137"/>
       <c r="AN110" s="52"/>
     </row>
     <row r="111" spans="9:45" ht="17.25" thickBot="1">
       <c r="I111" s="49"/>
       <c r="J111" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K111" s="63" t="s">
         <v>293</v>
@@ -16299,7 +22819,7 @@
         <v>43468</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R111" s="21"/>
       <c r="T111" s="49"/>
@@ -16323,7 +22843,7 @@
       </c>
       <c r="AA111" s="52"/>
       <c r="AC111" s="49"/>
-      <c r="AD111" s="143"/>
+      <c r="AD111" s="149"/>
       <c r="AE111" s="86" t="s">
         <v>32</v>
       </c>
@@ -16338,15 +22858,15 @@
       </c>
       <c r="AI111" s="90"/>
       <c r="AJ111" s="91"/>
-      <c r="AK111" s="136"/>
-      <c r="AL111" s="137"/>
-      <c r="AM111" s="138"/>
+      <c r="AK111" s="135"/>
+      <c r="AL111" s="136"/>
+      <c r="AM111" s="137"/>
       <c r="AN111" s="52"/>
     </row>
     <row r="112" spans="9:45" ht="17.25" thickBot="1">
       <c r="I112" s="49"/>
       <c r="J112" s="57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K112" s="71" t="s">
         <v>293</v>
@@ -16372,7 +22892,7 @@
       <c r="Z112" s="51"/>
       <c r="AA112" s="52"/>
       <c r="AC112" s="49"/>
-      <c r="AD112" s="141" t="s">
+      <c r="AD112" s="147" t="s">
         <v>16</v>
       </c>
       <c r="AE112" s="86" t="s">
@@ -16389,15 +22909,15 @@
       </c>
       <c r="AI112" s="90"/>
       <c r="AJ112" s="91"/>
-      <c r="AK112" s="136"/>
-      <c r="AL112" s="137"/>
-      <c r="AM112" s="138"/>
+      <c r="AK112" s="135"/>
+      <c r="AL112" s="136"/>
+      <c r="AM112" s="137"/>
       <c r="AN112" s="52"/>
     </row>
     <row r="113" spans="9:40" ht="17.25" thickBot="1">
       <c r="I113" s="49"/>
       <c r="J113" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K113" s="63" t="s">
         <v>293</v>
@@ -16419,12 +22939,12 @@
         <v>354</v>
       </c>
       <c r="R113" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T113" s="49"/>
       <c r="AA113" s="52"/>
       <c r="AC113" s="49"/>
-      <c r="AD113" s="142"/>
+      <c r="AD113" s="148"/>
       <c r="AE113" s="86" t="s">
         <v>32</v>
       </c>
@@ -16439,15 +22959,15 @@
       </c>
       <c r="AI113" s="90"/>
       <c r="AJ113" s="91"/>
-      <c r="AK113" s="136"/>
-      <c r="AL113" s="137"/>
-      <c r="AM113" s="138"/>
+      <c r="AK113" s="135"/>
+      <c r="AL113" s="136"/>
+      <c r="AM113" s="137"/>
       <c r="AN113" s="52"/>
     </row>
     <row r="114" spans="9:40" ht="17.25" thickBot="1">
       <c r="I114" s="49"/>
       <c r="J114" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K114" s="63" t="s">
         <v>293</v>
@@ -16478,7 +22998,7 @@
       <c r="X114" s="51"/>
       <c r="AA114" s="52"/>
       <c r="AC114" s="49"/>
-      <c r="AD114" s="142"/>
+      <c r="AD114" s="148"/>
       <c r="AE114" s="86" t="s">
         <v>32</v>
       </c>
@@ -16493,9 +23013,9 @@
       </c>
       <c r="AI114" s="90"/>
       <c r="AJ114" s="91"/>
-      <c r="AK114" s="136"/>
-      <c r="AL114" s="137"/>
-      <c r="AM114" s="138"/>
+      <c r="AK114" s="135"/>
+      <c r="AL114" s="136"/>
+      <c r="AM114" s="137"/>
       <c r="AN114" s="52"/>
     </row>
     <row r="115" spans="9:40" ht="17.25" thickBot="1">
@@ -16518,7 +23038,7 @@
       <c r="Z115" s="55"/>
       <c r="AA115" s="56"/>
       <c r="AC115" s="49"/>
-      <c r="AD115" s="142"/>
+      <c r="AD115" s="148"/>
       <c r="AE115" s="86" t="s">
         <v>17</v>
       </c>
@@ -16531,9 +23051,9 @@
       </c>
       <c r="AI115" s="90"/>
       <c r="AJ115" s="91"/>
-      <c r="AK115" s="136"/>
-      <c r="AL115" s="137"/>
-      <c r="AM115" s="138"/>
+      <c r="AK115" s="135"/>
+      <c r="AL115" s="136"/>
+      <c r="AM115" s="137"/>
       <c r="AN115" s="52"/>
     </row>
     <row r="116" spans="9:40" ht="3" customHeight="1" thickBot="1">
@@ -16548,7 +23068,7 @@
       <c r="Q116" s="50"/>
       <c r="R116" s="52"/>
       <c r="AC116" s="49"/>
-      <c r="AD116" s="143"/>
+      <c r="AD116" s="149"/>
       <c r="AE116" s="86" t="s">
         <v>20</v>
       </c>
@@ -16561,9 +23081,9 @@
       </c>
       <c r="AI116" s="90"/>
       <c r="AJ116" s="91"/>
-      <c r="AK116" s="136"/>
-      <c r="AL116" s="137"/>
-      <c r="AM116" s="138"/>
+      <c r="AK116" s="135"/>
+      <c r="AL116" s="136"/>
+      <c r="AM116" s="137"/>
       <c r="AN116" s="52"/>
     </row>
     <row r="117" spans="9:40" ht="17.25" hidden="1" customHeight="1" thickBot="1">
@@ -16578,7 +23098,7 @@
       <c r="Q117" s="50"/>
       <c r="R117" s="52"/>
       <c r="AC117" s="49"/>
-      <c r="AD117" s="141" t="s">
+      <c r="AD117" s="147" t="s">
         <v>22</v>
       </c>
       <c r="AE117" s="86" t="s">
@@ -16610,7 +23130,7 @@
       <c r="Q118" s="50"/>
       <c r="R118" s="52"/>
       <c r="AC118" s="49"/>
-      <c r="AD118" s="142"/>
+      <c r="AD118" s="148"/>
       <c r="AE118" s="86" t="s">
         <v>25</v>
       </c>
@@ -16640,7 +23160,7 @@
       <c r="Q119" s="50"/>
       <c r="R119" s="52"/>
       <c r="AC119" s="49"/>
-      <c r="AD119" s="142"/>
+      <c r="AD119" s="148"/>
       <c r="AE119" s="86" t="s">
         <v>28</v>
       </c>
@@ -16670,7 +23190,7 @@
       <c r="Q120" s="50"/>
       <c r="R120" s="52"/>
       <c r="AC120" s="49"/>
-      <c r="AD120" s="143"/>
+      <c r="AD120" s="149"/>
       <c r="AE120" s="86" t="s">
         <v>27</v>
       </c>
@@ -16791,7 +23311,7 @@
       <c r="AL124" s="99">
         <v>9</v>
       </c>
-      <c r="AM124" s="149" t="s">
+      <c r="AM124" s="140" t="s">
         <v>294</v>
       </c>
       <c r="AN124" s="52"/>
@@ -16823,7 +23343,7 @@
       <c r="AL125" s="99">
         <v>6</v>
       </c>
-      <c r="AM125" s="150"/>
+      <c r="AM125" s="141"/>
       <c r="AN125" s="52"/>
     </row>
     <row r="126" spans="9:40" ht="36.75" customHeight="1">
@@ -16853,7 +23373,7 @@
       <c r="AL126" s="99">
         <v>3</v>
       </c>
-      <c r="AM126" s="147" t="s">
+      <c r="AM126" s="138" t="s">
         <v>345</v>
       </c>
       <c r="AN126" s="52"/>
@@ -16876,14 +23396,14 @@
       <c r="AG127" s="51"/>
       <c r="AH127" s="51"/>
       <c r="AI127" s="51"/>
-      <c r="AJ127" s="151">
+      <c r="AJ127" s="142">
         <v>0</v>
       </c>
-      <c r="AK127" s="152"/>
+      <c r="AK127" s="143"/>
       <c r="AL127" s="99" t="s">
         <v>344</v>
       </c>
-      <c r="AM127" s="148"/>
+      <c r="AM127" s="139"/>
       <c r="AN127" s="52"/>
     </row>
     <row r="128" spans="9:40" ht="9" customHeight="1">
@@ -16952,7 +23472,7 @@
       <c r="AG130" s="51"/>
       <c r="AH130" s="51"/>
       <c r="AI130" s="51"/>
-      <c r="AJ130" s="145" t="s">
+      <c r="AJ130" s="131" t="s">
         <v>351</v>
       </c>
       <c r="AK130" s="109" t="s">
@@ -16961,7 +23481,7 @@
       <c r="AL130" s="109" t="s">
         <v>348</v>
       </c>
-      <c r="AM130" s="146" t="s">
+      <c r="AM130" s="132" t="s">
         <v>346</v>
       </c>
       <c r="AN130" s="52"/>
@@ -16984,14 +23504,14 @@
       <c r="AG131" s="51"/>
       <c r="AH131" s="51"/>
       <c r="AI131" s="51"/>
-      <c r="AJ131" s="145"/>
+      <c r="AJ131" s="131"/>
       <c r="AK131" s="109" t="s">
         <v>350</v>
       </c>
       <c r="AL131" s="109" t="s">
         <v>349</v>
       </c>
-      <c r="AM131" s="146"/>
+      <c r="AM131" s="132"/>
       <c r="AN131" s="52"/>
     </row>
     <row r="132" spans="9:40">
@@ -17036,14 +23556,14 @@
       <c r="AG133" s="51"/>
       <c r="AH133" s="51"/>
       <c r="AI133" s="51"/>
-      <c r="AJ133" s="145" t="s">
+      <c r="AJ133" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="AK133" s="145"/>
-      <c r="AL133" s="146" t="s">
+      <c r="AK133" s="131"/>
+      <c r="AL133" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="AM133" s="146"/>
+      <c r="AM133" s="132"/>
       <c r="AN133" s="52"/>
     </row>
     <row r="134" spans="9:40" ht="16.5" customHeight="1" thickBot="1">
@@ -17064,10 +23584,10 @@
       <c r="AG134" s="51"/>
       <c r="AH134" s="51"/>
       <c r="AI134" s="51"/>
-      <c r="AJ134" s="145"/>
-      <c r="AK134" s="145"/>
-      <c r="AL134" s="146"/>
-      <c r="AM134" s="146"/>
+      <c r="AJ134" s="131"/>
+      <c r="AK134" s="131"/>
+      <c r="AL134" s="132"/>
+      <c r="AM134" s="132"/>
       <c r="AN134" s="52"/>
     </row>
     <row r="135" spans="9:40">
@@ -17212,24 +23732,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AJ133:AK134"/>
-    <mergeCell ref="AL133:AM134"/>
-    <mergeCell ref="AD117:AD120"/>
-    <mergeCell ref="AM124:AM125"/>
-    <mergeCell ref="AM126:AM127"/>
-    <mergeCell ref="AJ127:AK127"/>
-    <mergeCell ref="AJ130:AJ131"/>
-    <mergeCell ref="AM130:AM131"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="AK109:AM109"/>
-    <mergeCell ref="AK110:AM110"/>
-    <mergeCell ref="AK111:AM111"/>
-    <mergeCell ref="AD112:AD116"/>
-    <mergeCell ref="AK112:AM112"/>
-    <mergeCell ref="AK113:AM113"/>
-    <mergeCell ref="AK114:AM114"/>
-    <mergeCell ref="AK115:AM115"/>
-    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="Y99:Z99"/>
     <mergeCell ref="AJ103:AJ104"/>
     <mergeCell ref="AK103:AM104"/>
     <mergeCell ref="AK105:AM105"/>
@@ -17243,12 +23751,24 @@
     <mergeCell ref="AG103:AG104"/>
     <mergeCell ref="AH103:AH104"/>
     <mergeCell ref="AI103:AI104"/>
-    <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="Y99:Z99"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="AK109:AM109"/>
+    <mergeCell ref="AK110:AM110"/>
+    <mergeCell ref="AK111:AM111"/>
+    <mergeCell ref="AD112:AD116"/>
+    <mergeCell ref="AK112:AM112"/>
+    <mergeCell ref="AK113:AM113"/>
+    <mergeCell ref="AK114:AM114"/>
+    <mergeCell ref="AK115:AM115"/>
+    <mergeCell ref="AK116:AM116"/>
+    <mergeCell ref="AJ133:AK134"/>
+    <mergeCell ref="AL133:AM134"/>
+    <mergeCell ref="AD117:AD120"/>
+    <mergeCell ref="AM124:AM125"/>
+    <mergeCell ref="AM126:AM127"/>
+    <mergeCell ref="AJ127:AK127"/>
+    <mergeCell ref="AJ130:AJ131"/>
+    <mergeCell ref="AM130:AM131"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <conditionalFormatting sqref="P60:P63">
@@ -17303,7 +23823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:X58"/>
   <sheetViews>
@@ -18271,11 +24791,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AC13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="BF48" sqref="BF48"/>
     </sheetView>
   </sheetViews>
@@ -18283,6 +24803,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="检查画面" sheetId="17" r:id="rId11"/>
     <sheet name="账票出力" sheetId="18" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -853,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="493">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1453,10 +1453,6 @@
   </si>
   <si>
     <t>m_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_temp_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2601,10 +2597,6 @@
   </si>
   <si>
     <t>模板MS</t>
-  </si>
-  <si>
-    <t>模板MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产线：</t>
@@ -2798,6 +2790,66 @@
   </si>
   <si>
     <t>帐票样式   未确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_check_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_temp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_cd_temp_relation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2946,6 +2998,8 @@
       <sz val="18"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3010,6 +3064,8 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -3044,12 +3100,16 @@
       <sz val="9"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3117,12 +3177,16 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4189,6 +4253,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4263,15 +4336,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10132,7 +10196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -10147,7 +10213,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="24.75">
       <c r="A2" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="24.75">
@@ -10193,7 +10259,7 @@
       <c r="Q4" s="80"/>
       <c r="R4" s="81"/>
       <c r="Y4" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z4" s="42"/>
       <c r="AA4" s="42"/>
@@ -10201,7 +10267,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="82"/>
       <c r="G5" s="97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -10215,10 +10281,10 @@
       <c r="Q5" s="83"/>
       <c r="R5" s="84"/>
       <c r="Y5" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z5" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA5" s="42"/>
     </row>
@@ -10231,7 +10297,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -10266,10 +10332,10 @@
         <v>116</v>
       </c>
       <c r="Z7" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA7" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="6:27" ht="15" thickBot="1">
@@ -10290,7 +10356,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA8" s="67" t="s">
         <v>101</v>
@@ -10302,13 +10368,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="J9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="L9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -10319,7 +10385,7 @@
         <v>107</v>
       </c>
       <c r="Z9" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA9" s="67" t="s">
         <v>107</v>
@@ -10343,7 +10409,7 @@
         <v>49</v>
       </c>
       <c r="Z10" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA10" s="69" t="s">
         <v>100</v>
@@ -10356,10 +10422,10 @@
         <v>45</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
@@ -10370,26 +10436,26 @@
       <c r="Q11" s="83"/>
       <c r="R11" s="84"/>
       <c r="Y11" s="68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z11" s="68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="6:27" ht="15" thickBot="1">
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
@@ -10400,26 +10466,26 @@
       <c r="Q12" s="83"/>
       <c r="R12" s="84"/>
       <c r="Y12" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z12" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA12" s="69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="6:27">
       <c r="F13" s="82"/>
       <c r="G13" s="83"/>
       <c r="H13" s="89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I13" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="J13" s="89" t="s">
         <v>410</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>411</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
@@ -10430,26 +10496,26 @@
       <c r="Q13" s="83"/>
       <c r="R13" s="84"/>
       <c r="Y13" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z13" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="AA13" s="69" t="s">
         <v>408</v>
-      </c>
-      <c r="AA13" s="69" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="14" spans="6:27">
       <c r="F14" s="82"/>
       <c r="G14" s="83"/>
       <c r="H14" s="91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I14" s="91" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J14" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
@@ -10464,13 +10530,13 @@
       <c r="F15" s="82"/>
       <c r="G15" s="83"/>
       <c r="H15" s="90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J15" s="90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
@@ -10485,13 +10551,13 @@
       <c r="F16" s="82"/>
       <c r="G16" s="83"/>
       <c r="H16" s="90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -10825,31 +10891,31 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="176" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="176" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="178" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="176" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="X12" s="178" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
     <row r="14" spans="3:35" ht="18" thickBot="1">
       <c r="C14" s="160" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D14" s="114"/>
       <c r="E14" s="114"/>
@@ -10863,7 +10929,7 @@
       <c r="M14" s="115"/>
       <c r="N14" s="116"/>
       <c r="O14" s="160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P14" s="114"/>
       <c r="Q14" s="114"/>
@@ -10874,7 +10940,7 @@
       <c r="V14" s="115"/>
       <c r="W14" s="38"/>
       <c r="X14" s="160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y14" s="114"/>
       <c r="Z14" s="114"/>
@@ -10905,10 +10971,10 @@
       <c r="P15" s="116"/>
       <c r="Q15" s="116"/>
       <c r="R15" s="116"/>
-      <c r="S15" s="201" t="s">
-        <v>267</v>
-      </c>
-      <c r="T15" s="202"/>
+      <c r="S15" s="204" t="s">
+        <v>266</v>
+      </c>
+      <c r="T15" s="205"/>
       <c r="V15" s="117"/>
       <c r="W15" s="38"/>
       <c r="X15" s="123"/>
@@ -10916,78 +10982,78 @@
       <c r="Z15" s="116"/>
       <c r="AA15" s="116"/>
       <c r="AB15" s="116"/>
-      <c r="AC15" s="201" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD15" s="202"/>
+      <c r="AC15" s="204" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD15" s="205"/>
       <c r="AE15" s="131"/>
       <c r="AF15" s="131"/>
       <c r="AG15" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="AH15" s="118" t="s">
         <v>288</v>
-      </c>
-      <c r="AH15" s="118" t="s">
-        <v>289</v>
       </c>
       <c r="AI15" s="117"/>
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="177" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" s="133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="132" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="133" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="132" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="132" t="s">
-        <v>234</v>
       </c>
       <c r="H16" s="134">
         <v>3003000</v>
       </c>
       <c r="I16" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="116"/>
       <c r="L16" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="116"/>
       <c r="O16" s="116" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P16" s="135"/>
       <c r="Q16" s="116" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R16" s="135" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S16" s="116" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="T16" s="131"/>
       <c r="V16" s="117"/>
       <c r="W16" s="38"/>
       <c r="X16" s="123"/>
       <c r="Y16" s="116" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Z16" s="135"/>
       <c r="AA16" s="116" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AB16" s="135" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AC16" s="116" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AD16" s="131"/>
       <c r="AE16" s="131"/>
@@ -11034,25 +11100,25 @@
     <row r="18" spans="3:35" ht="15" thickBot="1">
       <c r="C18" s="123"/>
       <c r="D18" s="132" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="136"/>
       <c r="F18" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" s="116"/>
       <c r="H18" s="116"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
       <c r="K18" s="137" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L18" s="116"/>
       <c r="M18" s="117"/>
       <c r="N18" s="116"/>
       <c r="O18" s="123"/>
       <c r="P18" s="138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="139"/>
       <c r="R18" s="116"/>
@@ -11072,7 +11138,7 @@
       <c r="AF18" s="131"/>
       <c r="AG18" s="131"/>
       <c r="AH18" s="140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AI18" s="117"/>
     </row>
@@ -11099,32 +11165,32 @@
       <c r="V19" s="117"/>
       <c r="W19" s="38"/>
       <c r="X19" s="123"/>
-      <c r="Y19" s="196" t="s">
+      <c r="Y19" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="196" t="s">
+      <c r="Z19" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="203" t="s">
+      <c r="AA19" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="196" t="s">
+      <c r="AB19" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="196" t="s">
+      <c r="AC19" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE19" s="196" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF19" s="196" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG19" s="196"/>
-      <c r="AH19" s="196"/>
+      <c r="AD19" s="199" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE19" s="199" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF19" s="199" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
       <c r="AI19" s="117"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -11142,47 +11208,47 @@
       <c r="N20" s="116"/>
       <c r="O20" s="123"/>
       <c r="P20" s="142" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R20" s="142" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S20" s="142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T20" s="142" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V20" s="117"/>
       <c r="W20" s="38"/>
       <c r="X20" s="123"/>
-      <c r="Y20" s="196"/>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="203"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
-      <c r="AD20" s="197"/>
-      <c r="AE20" s="197"/>
-      <c r="AF20" s="197"/>
-      <c r="AG20" s="197"/>
-      <c r="AH20" s="197"/>
+      <c r="Y20" s="199"/>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="206"/>
+      <c r="AB20" s="199"/>
+      <c r="AC20" s="199"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
       <c r="AI20" s="117"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
       <c r="C21" s="123"/>
       <c r="D21" s="18"/>
       <c r="E21" s="137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F21" s="137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G21" s="116"/>
       <c r="H21" s="137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I21" s="116"/>
       <c r="J21" s="116"/>
@@ -11192,19 +11258,19 @@
       <c r="N21" s="116"/>
       <c r="O21" s="123"/>
       <c r="P21" s="143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q21" s="144" t="s">
+        <v>258</v>
+      </c>
+      <c r="R21" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="R21" s="144" t="s">
-        <v>260</v>
-      </c>
       <c r="S21" s="143" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T21" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V21" s="117"/>
       <c r="W21" s="38"/>
@@ -11223,16 +11289,16 @@
         <v>47</v>
       </c>
       <c r="AD21" s="147" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE21" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF21" s="201" t="s">
         <v>282</v>
       </c>
-      <c r="AE21" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF21" s="198" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG21" s="199"/>
-      <c r="AH21" s="200"/>
+      <c r="AG21" s="202"/>
+      <c r="AH21" s="203"/>
       <c r="AI21" s="117"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -11253,21 +11319,21 @@
         <v>35</v>
       </c>
       <c r="Q22" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="R22" s="174" t="s">
         <v>261</v>
-      </c>
-      <c r="R22" s="174" t="s">
-        <v>262</v>
       </c>
       <c r="S22" s="150" t="s">
         <v>35</v>
       </c>
       <c r="T22" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="38"/>
       <c r="X22" s="123"/>
-      <c r="Y22" s="185" t="s">
+      <c r="Y22" s="188" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="121" t="s">
@@ -11286,36 +11352,36 @@
         <v>2305.1</v>
       </c>
       <c r="AE22" s="122" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="184"/>
+        <v>241</v>
+      </c>
+      <c r="AF22" s="185"/>
+      <c r="AG22" s="186"/>
+      <c r="AH22" s="187"/>
       <c r="AI22" s="117"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
       <c r="C23" s="123"/>
       <c r="D23" s="142" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="194" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="195"/>
+        <v>187</v>
+      </c>
+      <c r="E23" s="197" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="198"/>
       <c r="G23" s="142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H23" s="142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I23" s="142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J23" s="142" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K23" s="161" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L23" s="116"/>
       <c r="M23" s="19"/>
@@ -11325,7 +11391,7 @@
         <v>37</v>
       </c>
       <c r="Q23" s="151" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R23" s="151" t="s">
         <v>50</v>
@@ -11334,12 +11400,12 @@
         <v>37</v>
       </c>
       <c r="T23" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="38"/>
       <c r="X23" s="123"/>
-      <c r="Y23" s="186"/>
+      <c r="Y23" s="189"/>
       <c r="Z23" s="124" t="s">
         <v>32</v>
       </c>
@@ -11356,22 +11422,22 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="125"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="184"/>
+      <c r="AF23" s="185"/>
+      <c r="AG23" s="186"/>
+      <c r="AH23" s="187"/>
       <c r="AI23" s="117"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
       <c r="C24" s="123"/>
       <c r="D24" s="143" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24" s="144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="144"/>
       <c r="G24" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="66">
         <v>43468</v>
@@ -11380,7 +11446,7 @@
         <v>43468</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="116"/>
@@ -11391,7 +11457,7 @@
         <v>38</v>
       </c>
       <c r="Q24" s="144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R24" s="144" t="s">
         <v>52</v>
@@ -11400,12 +11466,12 @@
         <v>38</v>
       </c>
       <c r="T24" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="38"/>
       <c r="X24" s="123"/>
-      <c r="Y24" s="186"/>
+      <c r="Y24" s="189"/>
       <c r="Z24" s="121" t="s">
         <v>32</v>
       </c>
@@ -11420,22 +11486,22 @@
       </c>
       <c r="AD24" s="153"/>
       <c r="AE24" s="126"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="184"/>
+      <c r="AF24" s="185"/>
+      <c r="AG24" s="186"/>
+      <c r="AH24" s="187"/>
       <c r="AI24" s="117"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
       <c r="C25" s="123"/>
       <c r="D25" s="143" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" s="144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" s="144"/>
       <c r="G25" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H25" s="66">
         <v>43468</v>
@@ -11444,7 +11510,7 @@
         <v>43468</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K25" s="162"/>
       <c r="L25" s="116"/>
@@ -11455,7 +11521,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="144" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R25" s="144" t="s">
         <v>54</v>
@@ -11464,12 +11530,12 @@
         <v>39</v>
       </c>
       <c r="T25" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="38"/>
       <c r="X25" s="123"/>
-      <c r="Y25" s="186"/>
+      <c r="Y25" s="189"/>
       <c r="Z25" s="121" t="s">
         <v>32</v>
       </c>
@@ -11484,22 +11550,22 @@
       </c>
       <c r="AD25" s="153"/>
       <c r="AE25" s="126"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="184"/>
+      <c r="AF25" s="185"/>
+      <c r="AG25" s="186"/>
+      <c r="AH25" s="187"/>
       <c r="AI25" s="117"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
       <c r="C26" s="123"/>
       <c r="D26" s="148" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E26" s="149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="149"/>
       <c r="G26" s="124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="155">
         <v>43468</v>
@@ -11508,7 +11574,7 @@
         <v>43468</v>
       </c>
       <c r="J26" s="124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K26" s="163"/>
       <c r="L26" s="116"/>
@@ -11519,7 +11585,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R26" s="144" t="s">
         <v>56</v>
@@ -11528,12 +11594,12 @@
         <v>40</v>
       </c>
       <c r="T26" s="145" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="38"/>
       <c r="X26" s="123"/>
-      <c r="Y26" s="186"/>
+      <c r="Y26" s="189"/>
       <c r="Z26" s="121" t="s">
         <v>32</v>
       </c>
@@ -11548,22 +11614,22 @@
       </c>
       <c r="AD26" s="153"/>
       <c r="AE26" s="126"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="184"/>
+      <c r="AF26" s="185"/>
+      <c r="AG26" s="186"/>
+      <c r="AH26" s="187"/>
       <c r="AI26" s="117"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
       <c r="C27" s="123"/>
       <c r="D27" s="143" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E27" s="144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27" s="66">
         <v>43468</v>
@@ -11572,10 +11638,10 @@
         <v>43468</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K27" s="164" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L27" s="116"/>
       <c r="M27" s="19"/>
@@ -11585,7 +11651,7 @@
         <v>42</v>
       </c>
       <c r="Q27" s="144" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R27" s="144" t="s">
         <v>58</v>
@@ -11594,12 +11660,12 @@
         <v>42</v>
       </c>
       <c r="T27" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="38"/>
       <c r="X27" s="123"/>
-      <c r="Y27" s="187"/>
+      <c r="Y27" s="190"/>
       <c r="Z27" s="121" t="s">
         <v>32</v>
       </c>
@@ -11610,26 +11676,26 @@
         <v>14</v>
       </c>
       <c r="AC27" s="150" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD27" s="153"/>
       <c r="AE27" s="126"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="184"/>
+      <c r="AF27" s="185"/>
+      <c r="AG27" s="186"/>
+      <c r="AH27" s="187"/>
       <c r="AI27" s="117"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
       <c r="C28" s="123"/>
       <c r="D28" s="143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E28" s="144" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F28" s="144"/>
       <c r="G28" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H28" s="66">
         <v>43468</v>
@@ -11638,10 +11704,10 @@
         <v>43468</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K28" s="162" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L28" s="116"/>
       <c r="M28" s="19"/>
@@ -11656,7 +11722,7 @@
       <c r="V28" s="117"/>
       <c r="W28" s="38"/>
       <c r="X28" s="123"/>
-      <c r="Y28" s="185" t="s">
+      <c r="Y28" s="188" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="121" t="s">
@@ -11673,9 +11739,9 @@
       </c>
       <c r="AD28" s="153"/>
       <c r="AE28" s="126"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="184"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="186"/>
+      <c r="AH28" s="187"/>
       <c r="AI28" s="117"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -11701,7 +11767,7 @@
       <c r="V29" s="117"/>
       <c r="W29" s="38"/>
       <c r="X29" s="123"/>
-      <c r="Y29" s="186"/>
+      <c r="Y29" s="189"/>
       <c r="Z29" s="121" t="s">
         <v>32</v>
       </c>
@@ -11712,13 +11778,13 @@
         <v>14</v>
       </c>
       <c r="AC29" s="150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD29" s="153"/>
       <c r="AE29" s="126"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="184"/>
+      <c r="AF29" s="185"/>
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="187"/>
       <c r="AI29" s="117"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -11744,7 +11810,7 @@
       <c r="V30" s="117"/>
       <c r="W30" s="38"/>
       <c r="X30" s="123"/>
-      <c r="Y30" s="186"/>
+      <c r="Y30" s="189"/>
       <c r="Z30" s="121" t="s">
         <v>32</v>
       </c>
@@ -11759,9 +11825,9 @@
       </c>
       <c r="AD30" s="153"/>
       <c r="AE30" s="126"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="184"/>
+      <c r="AF30" s="185"/>
+      <c r="AG30" s="186"/>
+      <c r="AH30" s="187"/>
       <c r="AI30" s="117"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -11787,7 +11853,7 @@
       <c r="V31" s="129"/>
       <c r="W31" s="38"/>
       <c r="X31" s="123"/>
-      <c r="Y31" s="186"/>
+      <c r="Y31" s="189"/>
       <c r="Z31" s="121" t="s">
         <v>17</v>
       </c>
@@ -11800,9 +11866,9 @@
       </c>
       <c r="AD31" s="153"/>
       <c r="AE31" s="126"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="184"/>
+      <c r="AF31" s="185"/>
+      <c r="AG31" s="186"/>
+      <c r="AH31" s="187"/>
       <c r="AI31" s="117"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -11828,7 +11894,7 @@
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
       <c r="X32" s="123"/>
-      <c r="Y32" s="187"/>
+      <c r="Y32" s="190"/>
       <c r="Z32" s="121" t="s">
         <v>20</v>
       </c>
@@ -11841,9 +11907,9 @@
       </c>
       <c r="AD32" s="153"/>
       <c r="AE32" s="126"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="184"/>
+      <c r="AF32" s="185"/>
+      <c r="AG32" s="186"/>
+      <c r="AH32" s="187"/>
       <c r="AI32" s="117"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -11869,7 +11935,7 @@
       <c r="V33" s="38"/>
       <c r="W33" s="38"/>
       <c r="X33" s="123"/>
-      <c r="Y33" s="185" t="s">
+      <c r="Y33" s="188" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="121" t="s">
@@ -11884,9 +11950,9 @@
       </c>
       <c r="AD33" s="153"/>
       <c r="AE33" s="126"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="184"/>
+      <c r="AF33" s="185"/>
+      <c r="AG33" s="186"/>
+      <c r="AH33" s="187"/>
       <c r="AI33" s="117"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -11912,7 +11978,7 @@
       <c r="V34" s="38"/>
       <c r="W34" s="38"/>
       <c r="X34" s="123"/>
-      <c r="Y34" s="186"/>
+      <c r="Y34" s="189"/>
       <c r="Z34" s="121" t="s">
         <v>25</v>
       </c>
@@ -11925,9 +11991,9 @@
       </c>
       <c r="AD34" s="153"/>
       <c r="AE34" s="126"/>
-      <c r="AF34" s="182"/>
-      <c r="AG34" s="183"/>
-      <c r="AH34" s="184"/>
+      <c r="AF34" s="185"/>
+      <c r="AG34" s="186"/>
+      <c r="AH34" s="187"/>
       <c r="AI34" s="117"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -11953,7 +12019,7 @@
       <c r="V35" s="38"/>
       <c r="W35" s="38"/>
       <c r="X35" s="123"/>
-      <c r="Y35" s="186"/>
+      <c r="Y35" s="189"/>
       <c r="Z35" s="121" t="s">
         <v>28</v>
       </c>
@@ -11966,9 +12032,9 @@
       </c>
       <c r="AD35" s="153"/>
       <c r="AE35" s="126"/>
-      <c r="AF35" s="182"/>
-      <c r="AG35" s="183"/>
-      <c r="AH35" s="184"/>
+      <c r="AF35" s="185"/>
+      <c r="AG35" s="186"/>
+      <c r="AH35" s="187"/>
       <c r="AI35" s="117"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -11994,7 +12060,7 @@
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
       <c r="X36" s="123"/>
-      <c r="Y36" s="187"/>
+      <c r="Y36" s="190"/>
       <c r="Z36" s="121" t="s">
         <v>27</v>
       </c>
@@ -12003,13 +12069,13 @@
         <v>18</v>
       </c>
       <c r="AC36" s="150" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD36" s="153"/>
       <c r="AE36" s="130"/>
-      <c r="AF36" s="182"/>
-      <c r="AG36" s="183"/>
-      <c r="AH36" s="184"/>
+      <c r="AF36" s="185"/>
+      <c r="AG36" s="186"/>
+      <c r="AH36" s="187"/>
       <c r="AI36" s="117"/>
     </row>
     <row r="37" spans="3:35">
@@ -12106,7 +12172,7 @@
       <c r="W39" s="38"/>
       <c r="X39" s="123"/>
       <c r="Y39" s="159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z39" s="116"/>
       <c r="AA39" s="116"/>
@@ -12114,7 +12180,7 @@
       <c r="AC39" s="116"/>
       <c r="AD39" s="116"/>
       <c r="AE39" s="159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF39" s="116"/>
       <c r="AG39" s="116"/>
@@ -12159,8 +12225,8 @@
       <c r="AG40" s="175">
         <v>9</v>
       </c>
-      <c r="AH40" s="188" t="s">
-        <v>241</v>
+      <c r="AH40" s="191" t="s">
+        <v>240</v>
       </c>
       <c r="AI40" s="117"/>
     </row>
@@ -12202,7 +12268,7 @@
       <c r="AG41" s="175">
         <v>6</v>
       </c>
-      <c r="AH41" s="189"/>
+      <c r="AH41" s="192"/>
       <c r="AI41" s="117"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -12243,8 +12309,8 @@
       <c r="AG42" s="175">
         <v>3</v>
       </c>
-      <c r="AH42" s="190" t="s">
-        <v>285</v>
+      <c r="AH42" s="193" t="s">
+        <v>284</v>
       </c>
       <c r="AI42" s="117"/>
     </row>
@@ -12277,14 +12343,14 @@
       <c r="AB43" s="116"/>
       <c r="AC43" s="116"/>
       <c r="AD43" s="116"/>
-      <c r="AE43" s="192">
+      <c r="AE43" s="195">
         <v>0</v>
       </c>
-      <c r="AF43" s="193"/>
+      <c r="AF43" s="196"/>
       <c r="AG43" s="175" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH43" s="191"/>
+        <v>283</v>
+      </c>
+      <c r="AH43" s="194"/>
       <c r="AI43" s="117"/>
     </row>
     <row r="44" spans="3:35">
@@ -12386,14 +12452,14 @@
       <c r="AB46" s="116"/>
       <c r="AC46" s="116"/>
       <c r="AD46" s="116"/>
-      <c r="AE46" s="180" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF46" s="180"/>
-      <c r="AG46" s="181" t="s">
+      <c r="AE46" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="AH46" s="181"/>
+      <c r="AF46" s="183"/>
+      <c r="AG46" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH46" s="184"/>
       <c r="AI46" s="117"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -12425,10 +12491,10 @@
       <c r="AB47" s="116"/>
       <c r="AC47" s="116"/>
       <c r="AD47" s="116"/>
-      <c r="AE47" s="180"/>
-      <c r="AF47" s="180"/>
-      <c r="AG47" s="181"/>
-      <c r="AH47" s="181"/>
+      <c r="AE47" s="183"/>
+      <c r="AF47" s="183"/>
+      <c r="AG47" s="184"/>
+      <c r="AH47" s="184"/>
       <c r="AI47" s="117"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -12727,7 +12793,7 @@
       <c r="L5" s="80"/>
       <c r="M5" s="81"/>
       <c r="O5" s="79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="P5" s="80"/>
       <c r="Q5" s="80"/>
@@ -12740,8 +12806,8 @@
       <c r="X5" s="81"/>
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
-      <c r="D6" s="204" t="s">
-        <v>474</v>
+      <c r="D6" s="179" t="s">
+        <v>472</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -12772,7 +12838,7 @@
       <c r="I7" s="83"/>
       <c r="J7" s="83"/>
       <c r="K7" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L7" s="83"/>
       <c r="M7" s="84"/>
@@ -12790,10 +12856,10 @@
     <row r="8" spans="4:24" ht="15" thickBot="1">
       <c r="D8" s="82"/>
       <c r="E8" s="110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F8" s="103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
@@ -12816,21 +12882,21 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="82"/>
       <c r="E9" s="110" t="s">
-        <v>476</v>
-      </c>
-      <c r="F9" s="205">
+        <v>474</v>
+      </c>
+      <c r="F9" s="180">
         <v>43466</v>
       </c>
-      <c r="G9" s="206" t="s">
-        <v>477</v>
-      </c>
-      <c r="H9" s="205">
+      <c r="G9" s="181" t="s">
+        <v>475</v>
+      </c>
+      <c r="H9" s="180">
         <v>43466</v>
       </c>
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
       <c r="K9" s="95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L9" s="83"/>
       <c r="M9" s="84"/>
@@ -13049,6 +13115,7 @@
     <hyperlink ref="K7" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13056,8 +13123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AD103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13091,7 +13158,7 @@
         <v>155</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>157</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="3:28" ht="16.5">
@@ -13102,10 +13169,10 @@
     </row>
     <row r="5" spans="3:28" ht="16.5">
       <c r="L5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="3:28" ht="16.5">
@@ -13113,7 +13180,7 @@
         <v>101</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="3:28" ht="16.5">
@@ -13126,40 +13193,40 @@
     </row>
     <row r="8" spans="3:28" ht="16.5">
       <c r="L8" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="3:28">
       <c r="M13" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="3:28">
       <c r="C14" s="42" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>66</v>
+        <v>480</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>126</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="3:28">
       <c r="C15" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>116</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>127</v>
@@ -13173,13 +13240,13 @@
     </row>
     <row r="16" spans="3:28">
       <c r="C16" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>68</v>
@@ -13192,20 +13259,20 @@
       </c>
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
-      <c r="O16" s="179" t="s">
+      <c r="O16" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179" t="s">
+      <c r="P16" s="182"/>
+      <c r="Q16" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="R16" s="179"/>
-      <c r="S16" s="179"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="179" t="s">
-        <v>182</v>
-      </c>
-      <c r="V16" s="179"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="182"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="182" t="s">
+        <v>181</v>
+      </c>
+      <c r="V16" s="182"/>
       <c r="W16" s="40" t="s">
         <v>44</v>
       </c>
@@ -13259,7 +13326,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>69</v>
@@ -13298,10 +13365,10 @@
         <v>8</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -13359,7 +13426,7 @@
         <v>116</v>
       </c>
       <c r="M21" s="165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N21" s="165" t="s">
         <v>130</v>
@@ -13374,7 +13441,7 @@
         <v>124</v>
       </c>
       <c r="R21" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S21" s="54" t="s">
         <v>131</v>
@@ -13425,7 +13492,7 @@
         <v>102</v>
       </c>
       <c r="R22" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S22" s="54" t="s">
         <v>4</v>
@@ -13458,10 +13525,10 @@
     </row>
     <row r="23" spans="3:28">
       <c r="G23" s="42" t="s">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>115</v>
+        <v>482</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
@@ -13502,7 +13569,7 @@
         <v>106</v>
       </c>
       <c r="X23" s="54" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="Y23" s="54" t="s">
         <v>138</v>
@@ -13583,7 +13650,7 @@
         <v>49</v>
       </c>
       <c r="M25" s="169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N25" s="170" t="s">
         <v>85</v>
@@ -13592,25 +13659,25 @@
         <v>70</v>
       </c>
       <c r="P25" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q25" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="Q25" s="41" t="s">
+      <c r="R25" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="R25" s="41" t="s">
+      <c r="S25" s="41" t="s">
         <v>327</v>
-      </c>
-      <c r="S25" s="41" t="s">
-        <v>328</v>
       </c>
       <c r="T25" s="41" t="s">
         <v>9</v>
       </c>
       <c r="U25" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="V25" s="41" t="s">
         <v>329</v>
-      </c>
-      <c r="V25" s="41" t="s">
-        <v>330</v>
       </c>
       <c r="W25" s="41"/>
       <c r="X25" s="41">
@@ -13655,7 +13722,7 @@
         <v>70</v>
       </c>
       <c r="P26" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="41" t="s">
         <v>61</v>
@@ -13664,16 +13731,16 @@
         <v>62</v>
       </c>
       <c r="S26" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T26" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U26" s="41" t="s">
         <v>151</v>
       </c>
       <c r="V26" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W26" s="41"/>
       <c r="X26" s="41"/>
@@ -14128,10 +14195,10 @@
     </row>
     <row r="35" spans="7:28">
       <c r="G35" s="42" t="s">
-        <v>60</v>
+        <v>485</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>125</v>
+        <v>484</v>
       </c>
       <c r="I35" s="40"/>
       <c r="L35" s="166" t="s">
@@ -14178,7 +14245,7 @@
         <v>116</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L36" s="166" t="s">
         <v>49</v>
@@ -14226,7 +14293,7 @@
         <v>45</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L37" s="166" t="s">
         <v>49</v>
@@ -14377,15 +14444,15 @@
     </row>
     <row r="43" spans="7:28">
       <c r="M43" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="7:28">
       <c r="G44" s="42" t="s">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>129</v>
+        <v>486</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -14394,7 +14461,7 @@
         <v>401</v>
       </c>
       <c r="N44" s="42" t="s">
-        <v>333</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="7:28">
@@ -14435,10 +14502,10 @@
         <v>116</v>
       </c>
       <c r="N46" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O46" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="7:28">
@@ -14452,16 +14519,16 @@
         <v>2</v>
       </c>
       <c r="J47" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="K47" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="K47" s="46" t="s">
-        <v>184</v>
       </c>
       <c r="M47" s="67" t="s">
         <v>45</v>
       </c>
       <c r="N47" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" s="67" t="s">
         <v>101</v>
@@ -14487,7 +14554,7 @@
         <v>107</v>
       </c>
       <c r="N48" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O48" s="67" t="s">
         <v>107</v>
@@ -14513,7 +14580,7 @@
         <v>49</v>
       </c>
       <c r="N49" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O49" s="69" t="s">
         <v>100</v>
@@ -14585,7 +14652,7 @@
         <v>79</v>
       </c>
       <c r="M53" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="7:23">
@@ -14605,10 +14672,10 @@
         <v>148</v>
       </c>
       <c r="M54" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="N54" s="42" t="s">
         <v>335</v>
-      </c>
-      <c r="N54" s="42" t="s">
-        <v>336</v>
       </c>
       <c r="O54" s="63"/>
       <c r="P54" s="63"/>
@@ -14635,80 +14702,80 @@
     </row>
     <row r="56" spans="7:23">
       <c r="M56" s="67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N56" s="67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O56" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q56" s="67" t="s">
         <v>116</v>
       </c>
       <c r="R56" s="62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S56" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T56" s="62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U56" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="V56" s="62" t="s">
         <v>174</v>
-      </c>
-      <c r="V56" s="62" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="57" spans="7:23">
       <c r="M57" s="67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N57" s="67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O57" s="67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P57" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q57" s="67" t="s">
         <v>45</v>
       </c>
       <c r="R57" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S57" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T57" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U57" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="V57" s="62" t="s">
         <v>172</v>
-      </c>
-      <c r="V57" s="62" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="58" spans="7:23">
       <c r="M58" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N58" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O58" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P58" s="67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q58" s="67" t="s">
         <v>107</v>
@@ -14734,13 +14801,13 @@
         <v>1</v>
       </c>
       <c r="N59" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O59" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P59" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q59" s="68" t="s">
         <v>49</v>
@@ -14761,10 +14828,10 @@
     </row>
     <row r="66" spans="13:30" ht="16.5">
       <c r="M66" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="N66" s="42" t="s">
         <v>338</v>
-      </c>
-      <c r="N66" s="42" t="s">
-        <v>339</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -14825,49 +14892,49 @@
     </row>
     <row r="69" spans="13:30" ht="16.5">
       <c r="M69" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O69" s="5" t="s">
         <v>116</v>
       </c>
       <c r="P69" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA69" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="AA69" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -14875,49 +14942,49 @@
     </row>
     <row r="70" spans="13:30" ht="16.5">
       <c r="M70" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O70" s="5" t="s">
         <v>45</v>
       </c>
       <c r="P70" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S70" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="U70" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="T70" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="U70" s="5" t="s">
+      <c r="V70" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="W70" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="V70" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="W70" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="X70" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z70" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA70" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
@@ -14925,28 +14992,28 @@
     </row>
     <row r="71" spans="13:30" ht="16.5">
       <c r="M71" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O71" s="5" t="s">
         <v>107</v>
       </c>
       <c r="P71" s="72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T71" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>112</v>
@@ -14958,10 +15025,10 @@
         <v>112</v>
       </c>
       <c r="X71" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z71" s="5" t="s">
         <v>112</v>
@@ -14975,19 +15042,19 @@
     </row>
     <row r="72" spans="13:30" ht="16.5">
       <c r="M72" s="74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N72" s="6">
         <v>1</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P72" s="73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R72" s="6">
         <v>3</v>
@@ -14999,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V72" s="16">
         <v>43468.423611111109</v>
@@ -15061,10 +15128,10 @@
     </row>
     <row r="75" spans="13:30">
       <c r="M75" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="N75" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="N75" s="42" t="s">
-        <v>341</v>
       </c>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
@@ -15125,37 +15192,37 @@
     </row>
     <row r="78" spans="13:30" ht="16.5">
       <c r="M78" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="T78" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="O78" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="P78" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="S78" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="T78" s="17" t="s">
+      <c r="U78" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="U78" s="17" t="s">
+      <c r="V78" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="V78" s="17" t="s">
+      <c r="W78" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="W78" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
@@ -15167,34 +15234,34 @@
     </row>
     <row r="79" spans="13:30" ht="16.5">
       <c r="M79" s="71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N79" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T79" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P79" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q79" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T79" s="17" t="s">
+      <c r="U79" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="U79" s="17" t="s">
+      <c r="V79" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="V79" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="W79" s="17" t="s">
         <v>134</v>
@@ -15209,37 +15276,37 @@
     </row>
     <row r="80" spans="13:30" ht="17.25" thickBot="1">
       <c r="M80" s="75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N80" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O80" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P80" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q80" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R80" s="28" t="s">
         <v>112</v>
       </c>
       <c r="S80" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="T80" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="U80" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V80" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="W80" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="U80" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="V80" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="W80" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -15251,10 +15318,10 @@
     </row>
     <row r="81" spans="13:30" ht="16.5">
       <c r="M81" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N81" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O81" s="13">
         <v>0</v>
@@ -15267,7 +15334,7 @@
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
       <c r="W81" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -15279,10 +15346,10 @@
     </row>
     <row r="82" spans="13:30" ht="16.5">
       <c r="M82" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N82" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O82" s="11">
         <v>0</v>
@@ -15313,10 +15380,10 @@
     </row>
     <row r="83" spans="13:30" ht="16.5">
       <c r="M83" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N83" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O83" s="11">
         <v>0</v>
@@ -15341,10 +15408,10 @@
     </row>
     <row r="84" spans="13:30" ht="16.5">
       <c r="M84" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N84" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O84" s="11">
         <v>0</v>
@@ -15357,7 +15424,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
@@ -15369,10 +15436,10 @@
     </row>
     <row r="85" spans="13:30" ht="16.5">
       <c r="M85" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N85" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O85" s="11">
         <v>0</v>
@@ -15385,7 +15452,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -15397,10 +15464,10 @@
     </row>
     <row r="86" spans="13:30" ht="16.5">
       <c r="M86" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N86" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O86" s="11">
         <v>0</v>
@@ -15413,7 +15480,7 @@
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
@@ -15425,10 +15492,10 @@
     </row>
     <row r="87" spans="13:30" ht="16.5">
       <c r="M87" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N87" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O87" s="11">
         <v>0</v>
@@ -15441,7 +15508,7 @@
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -15453,10 +15520,10 @@
     </row>
     <row r="88" spans="13:30" ht="16.5">
       <c r="M88" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N88" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O88" s="11">
         <v>0</v>
@@ -15487,10 +15554,10 @@
     </row>
     <row r="89" spans="13:30" ht="16.5">
       <c r="M89" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N89" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O89" s="11">
         <v>0</v>
@@ -15503,11 +15570,11 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
@@ -15517,10 +15584,10 @@
     </row>
     <row r="90" spans="13:30" ht="16.5">
       <c r="M90" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N90" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O90" s="11">
         <v>0</v>
@@ -15533,7 +15600,7 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -15545,10 +15612,10 @@
     </row>
     <row r="91" spans="13:30" ht="16.5">
       <c r="M91" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N91" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O91" s="11">
         <v>0</v>
@@ -15573,10 +15640,10 @@
     </row>
     <row r="92" spans="13:30" ht="16.5">
       <c r="M92" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N92" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O92" s="11">
         <v>0</v>
@@ -15589,7 +15656,7 @@
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
       <c r="W92" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
@@ -15601,10 +15668,10 @@
     </row>
     <row r="93" spans="13:30" ht="16.5">
       <c r="M93" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N93" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O93" s="11">
         <v>0</v>
@@ -15631,10 +15698,10 @@
     </row>
     <row r="94" spans="13:30" ht="16.5">
       <c r="M94" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N94" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O94" s="11">
         <v>0</v>
@@ -15661,10 +15728,10 @@
     </row>
     <row r="95" spans="13:30" ht="16.5">
       <c r="M95" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N95" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O95" s="11">
         <v>0</v>
@@ -15695,10 +15762,10 @@
     </row>
     <row r="96" spans="13:30" ht="17.25" thickBot="1">
       <c r="M96" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N96" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O96" s="26">
         <v>0</v>
@@ -15711,7 +15778,7 @@
       <c r="U96" s="24"/>
       <c r="V96" s="24"/>
       <c r="W96" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
@@ -15723,10 +15790,10 @@
     </row>
     <row r="97" spans="13:30" ht="16.5">
       <c r="M97" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N97" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O97" s="22">
         <v>1</v>
@@ -15734,11 +15801,11 @@
       <c r="P97" s="13"/>
       <c r="Q97" s="13"/>
       <c r="R97" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S97" s="13"/>
       <c r="T97" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U97" s="13"/>
       <c r="V97" s="13"/>
@@ -15753,10 +15820,10 @@
     </row>
     <row r="98" spans="13:30" ht="16.5">
       <c r="M98" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N98" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="20">
         <v>1</v>
@@ -15764,7 +15831,7 @@
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S98" s="11"/>
       <c r="T98" s="33" t="s">
@@ -15783,10 +15850,10 @@
     </row>
     <row r="99" spans="13:30" ht="16.5">
       <c r="M99" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N99" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O99" s="20">
         <v>1</v>
@@ -15794,7 +15861,7 @@
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S99" s="11"/>
       <c r="T99" s="7" t="s">
@@ -15813,10 +15880,10 @@
     </row>
     <row r="100" spans="13:30" ht="16.5">
       <c r="M100" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N100" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O100" s="20">
         <v>1</v>
@@ -15824,7 +15891,7 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S100" s="11"/>
       <c r="T100" s="7" t="s">
@@ -15835,7 +15902,7 @@
       <c r="W100" s="23"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
@@ -15845,10 +15912,10 @@
     </row>
     <row r="101" spans="13:30" ht="16.5">
       <c r="M101" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N101" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O101" s="20">
         <v>1</v>
@@ -15856,7 +15923,7 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S101" s="11"/>
       <c r="T101" s="7" t="s">
@@ -15875,10 +15942,10 @@
     </row>
     <row r="102" spans="13:30" ht="16.5">
       <c r="M102" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N102" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O102" s="20">
         <v>1</v>
@@ -15886,7 +15953,7 @@
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S102" s="11"/>
       <c r="T102" s="7" t="s">
@@ -15905,10 +15972,10 @@
     </row>
     <row r="103" spans="13:30" ht="17.25" thickBot="1">
       <c r="M103" s="78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N103" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O103" s="25">
         <v>1</v>
@@ -15916,7 +15983,7 @@
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
       <c r="R103" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S103" s="26"/>
       <c r="T103" s="24" t="s">
@@ -16003,7 +16070,7 @@
   <dimension ref="F3:AH19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AK31" sqref="AK31"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -16043,7 +16110,7 @@
     <row r="5" spans="6:34" ht="17.25">
       <c r="F5" s="82"/>
       <c r="G5" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -16108,26 +16175,26 @@
       <c r="F7" s="82"/>
       <c r="G7" s="83"/>
       <c r="I7" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J7" s="83"/>
       <c r="K7" s="83"/>
       <c r="L7" s="83"/>
       <c r="M7" s="83"/>
       <c r="N7" s="88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O7" s="83"/>
       <c r="P7" s="83"/>
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="88" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U7" s="83"/>
       <c r="V7" s="83"/>
-      <c r="W7" s="83" t="s">
-        <v>475</v>
+      <c r="W7" s="88" t="s">
+        <v>473</v>
       </c>
       <c r="X7" s="83"/>
       <c r="Y7" s="83"/>
@@ -16174,14 +16241,14 @@
       <c r="F9" s="82"/>
       <c r="G9" s="83"/>
       <c r="I9" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J9" s="83"/>
       <c r="K9" s="83"/>
       <c r="L9" s="83"/>
       <c r="M9" s="83"/>
       <c r="N9" s="88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
@@ -16361,7 +16428,7 @@
       <c r="F15" s="82"/>
       <c r="G15" s="83"/>
       <c r="I15" s="88" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J15" s="83"/>
       <c r="K15" s="83"/>
@@ -16524,6 +16591,7 @@
     <hyperlink ref="N9" location="商品模板关联!A1" display="商品模板关联"/>
     <hyperlink ref="N7" location="模板MS!A1" display="模板MS"/>
     <hyperlink ref="S7" location="检查画面!A1" display="检查画面"/>
+    <hyperlink ref="W7" location="账票出力!A1" display="账票出力"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16533,9 +16601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:AA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -16561,17 +16627,17 @@
       <c r="Q4" s="80"/>
       <c r="R4" s="81"/>
       <c r="Y4" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z4" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AA4" s="42"/>
     </row>
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="82"/>
       <c r="G5" s="97" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -16585,13 +16651,13 @@
       <c r="Q5" s="83"/>
       <c r="R5" s="84"/>
       <c r="Y5" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z5" s="46" t="s">
         <v>116</v>
       </c>
       <c r="AA5" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
@@ -16603,7 +16669,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -16611,13 +16677,13 @@
       <c r="Q6" s="83"/>
       <c r="R6" s="84"/>
       <c r="Y6" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z6" s="46" t="s">
         <v>45</v>
       </c>
       <c r="AA6" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="6:27">
@@ -16662,10 +16728,10 @@
         <v>3003000</v>
       </c>
       <c r="Z8" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA8" s="44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="6:27" ht="15" thickBot="1">
@@ -16674,13 +16740,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="J9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="L9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -16691,10 +16757,10 @@
         <v>3003001</v>
       </c>
       <c r="Z9" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA9" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="6:27">
@@ -16715,23 +16781,23 @@
         <v>3003002</v>
       </c>
       <c r="Z10" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA10" s="44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="6:27" ht="17.25" thickBot="1">
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
       <c r="H11" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="83"/>
@@ -16745,10 +16811,10 @@
         <v>3003003</v>
       </c>
       <c r="Z11" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA11" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="6:27" ht="15" thickBot="1">
@@ -16758,10 +16824,10 @@
         <v>3003001</v>
       </c>
       <c r="I12" s="103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J12" s="103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
@@ -16775,10 +16841,10 @@
         <v>3003004</v>
       </c>
       <c r="Z12" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA12" s="44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="6:27">
@@ -16788,10 +16854,10 @@
         <v>3003000</v>
       </c>
       <c r="I13" s="100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13" s="100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="83"/>
@@ -16809,10 +16875,10 @@
         <v>3003001</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J14" s="101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K14" s="83"/>
       <c r="L14" s="83"/>
@@ -16830,10 +16896,10 @@
         <v>3003002</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J15" s="105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K15" s="83"/>
       <c r="L15" s="83"/>
@@ -16851,10 +16917,10 @@
         <v>3003003</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J16" s="105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -16872,10 +16938,10 @@
         <v>3003004</v>
       </c>
       <c r="I17" s="105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J17" s="105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K17" s="83"/>
       <c r="L17" s="83"/>
@@ -16952,7 +17018,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="82"/>
       <c r="G5" s="97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -16982,7 +17048,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -17053,13 +17119,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="J9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="L9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -17137,10 +17203,10 @@
         <v>70</v>
       </c>
       <c r="I12" s="92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="83"/>
@@ -17233,7 +17299,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="83"/>
@@ -17604,7 +17670,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -17684,13 +17750,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="J9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="L9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -17741,16 +17807,16 @@
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
       <c r="H11" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
@@ -17779,13 +17845,13 @@
         <v>35</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="102" t="s">
         <v>261</v>
-      </c>
-      <c r="K12" s="102" t="s">
-        <v>262</v>
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
@@ -17811,16 +17877,16 @@
       <c r="F13" s="82"/>
       <c r="G13" s="83"/>
       <c r="H13" s="100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13" s="100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13" s="100" t="s">
+        <v>258</v>
+      </c>
+      <c r="K13" s="100" t="s">
         <v>259</v>
-      </c>
-      <c r="K13" s="100" t="s">
-        <v>260</v>
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
@@ -17849,13 +17915,13 @@
         <v>35</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J14" s="101" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="101" t="s">
         <v>261</v>
-      </c>
-      <c r="K14" s="101" t="s">
-        <v>262</v>
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
@@ -17884,10 +17950,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J15" s="105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" s="105" t="s">
         <v>50</v>
@@ -17907,10 +17973,10 @@
         <v>38</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J16" s="105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="105" t="s">
         <v>52</v>
@@ -17930,10 +17996,10 @@
         <v>39</v>
       </c>
       <c r="I17" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J17" s="105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K17" s="105" t="s">
         <v>54</v>
@@ -17953,10 +18019,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J18" s="105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K18" s="105" t="s">
         <v>56</v>
@@ -17976,10 +18042,10 @@
         <v>42</v>
       </c>
       <c r="I19" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J19" s="105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K19" s="105" t="s">
         <v>58</v>
@@ -18080,7 +18146,7 @@
   <sheetData>
     <row r="2" spans="6:27">
       <c r="F2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="6:27" ht="15" thickBot="1"/>
@@ -18129,7 +18195,7 @@
         <v>116</v>
       </c>
       <c r="AA5" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
@@ -18141,7 +18207,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -18155,20 +18221,20 @@
         <v>45</v>
       </c>
       <c r="AA6" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="82"/>
       <c r="G7" s="110" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7" s="103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I7" s="83"/>
       <c r="J7" s="95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K7" s="83"/>
       <c r="L7" s="83"/>
@@ -18220,7 +18286,7 @@
       <c r="J9" s="83"/>
       <c r="K9" s="83"/>
       <c r="L9" s="95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
@@ -18256,13 +18322,13 @@
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
       <c r="H11" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>366</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>367</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="79"/>
@@ -18280,10 +18346,10 @@
         <v>121</v>
       </c>
       <c r="I12" s="109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K12" s="83"/>
       <c r="L12" s="82"/>
@@ -18301,10 +18367,10 @@
         <v>63</v>
       </c>
       <c r="I13" s="109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="82"/>
@@ -18339,7 +18405,7 @@
       <c r="K15" s="83"/>
       <c r="L15" s="82"/>
       <c r="M15" s="83" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="84"/>
@@ -18475,10 +18541,10 @@
       <c r="J24" s="107"/>
       <c r="K24" s="108"/>
       <c r="L24" s="95" t="s">
+        <v>361</v>
+      </c>
+      <c r="M24" s="95" t="s">
         <v>362</v>
-      </c>
-      <c r="M24" s="95" t="s">
-        <v>363</v>
       </c>
       <c r="N24" s="83"/>
       <c r="O24" s="83"/>
@@ -18518,17 +18584,17 @@
     </row>
     <row r="30" spans="6:18">
       <c r="K30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="6:18">
       <c r="K31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -18567,7 +18633,7 @@
   <sheetData>
     <row r="2" spans="6:29">
       <c r="F2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="6:29" ht="15" thickBot="1"/>
@@ -18586,7 +18652,7 @@
       <c r="Q4" s="80"/>
       <c r="R4" s="81"/>
       <c r="Y4" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z4" s="42" t="s">
         <v>129</v>
@@ -18598,7 +18664,7 @@
     <row r="5" spans="6:29" ht="18.75" thickBot="1">
       <c r="F5" s="82"/>
       <c r="G5" s="97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -18628,7 +18694,7 @@
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -18675,10 +18741,10 @@
         <v>2</v>
       </c>
       <c r="AB7" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="AC7" s="46" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" spans="6:29" ht="15" thickBot="1">
@@ -18717,13 +18783,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="M9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="N9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="N9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="O9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P9" s="83"/>
       <c r="Q9" s="83"/>
@@ -18778,19 +18844,19 @@
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
       <c r="H11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="M11" s="83"/>
       <c r="N11" s="83"/>
@@ -18819,16 +18885,16 @@
         <v>76</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J12" s="102">
         <v>0</v>
       </c>
       <c r="K12" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="102" t="s">
         <v>387</v>
-      </c>
-      <c r="L12" s="102" t="s">
-        <v>388</v>
       </c>
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
@@ -18856,19 +18922,19 @@
       <c r="F13" s="82"/>
       <c r="G13" s="83"/>
       <c r="H13" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="100" t="s">
         <v>382</v>
-      </c>
-      <c r="I13" s="100" t="s">
-        <v>383</v>
       </c>
       <c r="J13" s="100">
         <v>1</v>
       </c>
       <c r="K13" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="L13" s="100" t="s">
         <v>384</v>
-      </c>
-      <c r="L13" s="100" t="s">
-        <v>385</v>
       </c>
       <c r="M13" s="83"/>
       <c r="N13" s="83"/>
@@ -18899,16 +18965,16 @@
         <v>76</v>
       </c>
       <c r="I14" s="101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J14" s="101">
         <v>0</v>
       </c>
       <c r="K14" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="L14" s="101" t="s">
         <v>387</v>
-      </c>
-      <c r="L14" s="101" t="s">
-        <v>388</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
@@ -18939,14 +19005,14 @@
         <v>77</v>
       </c>
       <c r="I15" s="105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J15" s="105">
         <v>2</v>
       </c>
       <c r="K15" s="105"/>
       <c r="L15" s="105" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
@@ -18962,16 +19028,16 @@
         <v>78</v>
       </c>
       <c r="I16" s="105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J16" s="105">
         <v>1</v>
       </c>
       <c r="K16" s="105" t="s">
+        <v>391</v>
+      </c>
+      <c r="L16" s="105" t="s">
         <v>392</v>
-      </c>
-      <c r="L16" s="105" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="83"/>
       <c r="N16" s="83"/>
@@ -18984,19 +19050,19 @@
       <c r="F17" s="82"/>
       <c r="G17" s="83"/>
       <c r="H17" s="105" t="s">
+        <v>393</v>
+      </c>
+      <c r="I17" s="105" t="s">
         <v>394</v>
-      </c>
-      <c r="I17" s="105" t="s">
-        <v>395</v>
       </c>
       <c r="J17" s="105">
         <v>0</v>
       </c>
       <c r="K17" s="105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L17" s="105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M17" s="83"/>
       <c r="N17" s="83"/>
@@ -19009,19 +19075,19 @@
       <c r="F18" s="82"/>
       <c r="G18" s="83"/>
       <c r="H18" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="105" t="s">
         <v>397</v>
-      </c>
-      <c r="I18" s="105" t="s">
-        <v>398</v>
       </c>
       <c r="J18" s="105">
         <v>0</v>
       </c>
       <c r="K18" s="105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L18" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M18" s="83"/>
       <c r="N18" s="83"/>
@@ -19186,7 +19252,7 @@
     <row r="5" spans="6:45" ht="18.75" thickBot="1">
       <c r="F5" s="82"/>
       <c r="G5" s="97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
@@ -19228,17 +19294,17 @@
     <row r="6" spans="6:45" ht="15" thickBot="1">
       <c r="F6" s="82"/>
       <c r="G6" s="110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H6" s="103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" s="83"/>
       <c r="J6" s="83"/>
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="98" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -19255,7 +19321,7 @@
         <v>116</v>
       </c>
       <c r="AE6" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF6" s="54" t="s">
         <v>130</v>
@@ -19270,7 +19336,7 @@
         <v>124</v>
       </c>
       <c r="AJ6" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK6" s="54" t="s">
         <v>131</v>
@@ -19303,21 +19369,21 @@
     <row r="7" spans="6:45" ht="15" thickBot="1">
       <c r="F7" s="82"/>
       <c r="G7" s="110" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H7" s="103" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I7" s="173" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="83"/>
       <c r="L7" s="95" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N7" s="83"/>
       <c r="O7" s="83"/>
@@ -19349,7 +19415,7 @@
         <v>102</v>
       </c>
       <c r="AJ7" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AK7" s="54" t="s">
         <v>4</v>
@@ -19454,13 +19520,13 @@
       <c r="H9" s="88"/>
       <c r="I9" s="83"/>
       <c r="L9" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="M9" s="95" t="s">
-        <v>347</v>
-      </c>
       <c r="N9" s="96" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O9" s="83"/>
       <c r="P9" s="83"/>
@@ -19533,7 +19599,7 @@
         <v>49</v>
       </c>
       <c r="AE10" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF10" s="53" t="s">
         <v>85</v>
@@ -19542,25 +19608,25 @@
         <v>70</v>
       </c>
       <c r="AH10" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI10" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="AI10" s="41" t="s">
+      <c r="AJ10" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="AJ10" s="41" t="s">
+      <c r="AK10" s="41" t="s">
         <v>327</v>
-      </c>
-      <c r="AK10" s="41" t="s">
-        <v>328</v>
       </c>
       <c r="AL10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="AM10" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN10" s="41" t="s">
         <v>329</v>
-      </c>
-      <c r="AN10" s="41" t="s">
-        <v>330</v>
       </c>
       <c r="AO10" s="41"/>
       <c r="AP10" s="41">
@@ -19580,46 +19646,46 @@
       <c r="F11" s="82"/>
       <c r="G11" s="83"/>
       <c r="H11" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="L11" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="N11" s="28" t="s">
+      <c r="O11" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="P11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="S11" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="S11" s="28" t="s">
+      <c r="T11" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="U11" s="28" t="s">
         <v>420</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>421</v>
       </c>
       <c r="V11" s="28" t="s">
         <v>134</v>
@@ -19639,7 +19705,7 @@
         <v>70</v>
       </c>
       <c r="AH11" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI11" s="41" t="s">
         <v>61</v>
@@ -19648,16 +19714,16 @@
         <v>62</v>
       </c>
       <c r="AK11" s="41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL11" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AM11" s="41" t="s">
         <v>151</v>
       </c>
       <c r="AN11" s="41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO11" s="41"/>
       <c r="AP11" s="41"/>
@@ -19671,7 +19737,7 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I12" s="93" t="s">
         <v>85</v>
@@ -19680,7 +19746,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L12" s="93" t="s">
         <v>121</v>
@@ -19689,16 +19755,16 @@
         <v>122</v>
       </c>
       <c r="N12" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="O12" s="93" t="s">
         <v>428</v>
-      </c>
-      <c r="O12" s="93" t="s">
-        <v>429</v>
       </c>
       <c r="P12" s="93" t="s">
         <v>76</v>
       </c>
       <c r="Q12" s="93" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R12" s="93"/>
       <c r="S12" s="93">
@@ -19711,7 +19777,7 @@
         <v>0.5</v>
       </c>
       <c r="V12" s="93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W12" s="83"/>
       <c r="X12" s="84"/>
@@ -19762,37 +19828,37 @@
       <c r="F13" s="82"/>
       <c r="G13" s="83"/>
       <c r="H13" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>425</v>
-      </c>
       <c r="K13" s="112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
       <c r="N13" s="112" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O13" s="112"/>
       <c r="P13" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q13" s="112" t="s">
         <v>382</v>
       </c>
-      <c r="Q13" s="112" t="s">
-        <v>383</v>
-      </c>
       <c r="R13" s="112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S13" s="112"/>
       <c r="T13" s="112"/>
       <c r="U13" s="112"/>
       <c r="V13" s="112" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W13" s="83"/>
       <c r="X13" s="84"/>
@@ -19843,7 +19909,7 @@
       <c r="F14" s="82"/>
       <c r="G14" s="83"/>
       <c r="H14" s="111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I14" s="111" t="s">
         <v>85</v>
@@ -19852,7 +19918,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L14" s="111" t="s">
         <v>121</v>
@@ -19861,16 +19927,16 @@
         <v>122</v>
       </c>
       <c r="N14" s="111" t="s">
+        <v>427</v>
+      </c>
+      <c r="O14" s="111" t="s">
         <v>428</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>429</v>
       </c>
       <c r="P14" s="111" t="s">
         <v>76</v>
       </c>
       <c r="Q14" s="111" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R14" s="111"/>
       <c r="S14" s="111">
@@ -19883,7 +19949,7 @@
         <v>0.5</v>
       </c>
       <c r="V14" s="111" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W14" s="83"/>
       <c r="X14" s="84"/>
@@ -19934,7 +20000,7 @@
       <c r="F15" s="82"/>
       <c r="G15" s="83"/>
       <c r="H15" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>86</v>
@@ -19943,7 +20009,7 @@
         <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>121</v>
@@ -19952,23 +20018,23 @@
         <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="P15" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W15" s="83"/>
       <c r="X15" s="84"/>
@@ -20019,7 +20085,7 @@
       <c r="F16" s="82"/>
       <c r="G16" s="83"/>
       <c r="H16" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>87</v>
@@ -20028,7 +20094,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>121</v>
@@ -20037,16 +20103,16 @@
         <v>122</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
@@ -20055,7 +20121,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W16" s="83"/>
       <c r="X16" s="84"/>
@@ -20110,7 +20176,7 @@
       <c r="F17" s="82"/>
       <c r="G17" s="83"/>
       <c r="H17" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>88</v>
@@ -20119,7 +20185,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>121</v>
@@ -20128,16 +20194,16 @@
         <v>122</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>37</v>
@@ -20197,7 +20263,7 @@
       <c r="F18" s="82"/>
       <c r="G18" s="83"/>
       <c r="H18" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>89</v>
@@ -20206,7 +20272,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>121</v>
@@ -20215,16 +20281,16 @@
         <v>122</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>38</v>
@@ -20284,7 +20350,7 @@
       <c r="F19" s="82"/>
       <c r="G19" s="83"/>
       <c r="H19" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>90</v>
@@ -20293,7 +20359,7 @@
         <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>121</v>
@@ -20302,16 +20368,16 @@
         <v>122</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>39</v>
@@ -20363,7 +20429,7 @@
       <c r="F20" s="82"/>
       <c r="G20" s="83"/>
       <c r="H20" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>91</v>
@@ -20372,7 +20438,7 @@
         <v>71</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>63</v>
@@ -20381,16 +20447,16 @@
         <v>64</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
@@ -20403,7 +20469,7 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W20" s="83"/>
       <c r="X20" s="84"/>
@@ -20446,7 +20512,7 @@
       <c r="F21" s="82"/>
       <c r="G21" s="83"/>
       <c r="H21" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>92</v>
@@ -20455,7 +20521,7 @@
         <v>71</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>63</v>
@@ -20464,16 +20530,16 @@
         <v>64</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>40</v>
@@ -20527,7 +20593,7 @@
       <c r="F22" s="82"/>
       <c r="G22" s="83"/>
       <c r="H22" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>93</v>
@@ -20536,7 +20602,7 @@
         <v>71</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>63</v>
@@ -20545,16 +20611,16 @@
         <v>64</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>42</v>
@@ -20608,7 +20674,7 @@
       <c r="F23" s="82"/>
       <c r="G23" s="83"/>
       <c r="H23" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>94</v>
@@ -20617,26 +20683,26 @@
         <v>71</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="W23" s="83"/>
       <c r="X23" s="84"/>
@@ -20685,7 +20751,7 @@
       <c r="F24" s="82"/>
       <c r="G24" s="83"/>
       <c r="H24" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>95</v>
@@ -20694,26 +20760,26 @@
         <v>71</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W24" s="83"/>
       <c r="X24" s="84"/>
@@ -20756,7 +20822,7 @@
       <c r="F25" s="82"/>
       <c r="G25" s="83"/>
       <c r="H25" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>96</v>
@@ -20765,28 +20831,28 @@
         <v>72</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W25" s="83"/>
       <c r="X25" s="84"/>
@@ -20795,7 +20861,7 @@
       <c r="F26" s="82"/>
       <c r="G26" s="83"/>
       <c r="H26" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>97</v>
@@ -20804,28 +20870,28 @@
         <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W26" s="83"/>
       <c r="X26" s="84"/>
@@ -20834,7 +20900,7 @@
       <c r="F27" s="82"/>
       <c r="G27" s="83"/>
       <c r="H27" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
@@ -20843,19 +20909,19 @@
         <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1">
@@ -20868,7 +20934,7 @@
         <v>20</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W27" s="83"/>
       <c r="X27" s="84"/>
@@ -20877,7 +20943,7 @@
       <c r="F28" s="82"/>
       <c r="G28" s="83"/>
       <c r="H28" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>150</v>
@@ -20886,26 +20952,26 @@
         <v>72</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W28" s="83"/>
       <c r="X28" s="84"/>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
     <sheet name="检查画面" sheetId="17" r:id="rId11"/>
     <sheet name="账票出力" sheetId="18" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -36,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="T22" authorId="0" shapeId="0">
+    <comment ref="U21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="0" shapeId="0">
+    <comment ref="W21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X22" authorId="0" shapeId="0">
+    <comment ref="Y21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA22" authorId="0" shapeId="0">
+    <comment ref="AB21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="1" shapeId="0">
+    <comment ref="I46" authorId="1">
       <text>
         <r>
           <rPr>
@@ -240,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J47" authorId="1" shapeId="0">
+    <comment ref="J46" authorId="1">
       <text>
         <r>
           <rPr>
@@ -263,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T70" authorId="0" shapeId="0">
+    <comment ref="V69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X70" authorId="0" shapeId="0">
+    <comment ref="Z69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y70" authorId="0" shapeId="0">
+    <comment ref="AA69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R79" authorId="0" shapeId="0">
+    <comment ref="S78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +474,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="AA7" authorId="0" shapeId="0">
+    <comment ref="AA7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0" shapeId="0">
+    <comment ref="AB7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +523,7 @@
     <author>AutoBVT</author>
   </authors>
   <commentList>
-    <comment ref="AL7" authorId="0" shapeId="0">
+    <comment ref="AL7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0" shapeId="0">
+    <comment ref="AN7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP7" authorId="0" shapeId="0">
+    <comment ref="AP7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS7" authorId="0" shapeId="0">
+    <comment ref="AS7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -726,7 +721,7 @@
     <author>AutoBVT</author>
   </authors>
   <commentList>
-    <comment ref="K16" authorId="0" shapeId="0">
+    <comment ref="K16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -785,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -800,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0">
+    <comment ref="F21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -853,7 +848,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="520">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2848,12 +2843,124 @@
     <t>nvarchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>画面迁移用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息登录 用  ，其中可以区分用户是哪个生产线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程信息登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目 的工程别用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治具信息登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目时 ， 需要确认治具是否取得的正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片信息登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为检查项目表示的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传后， 会把图片放到 上传者的 生产线命名的文件夹中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定的检查方法表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录 登录值和基准值 的计算关系  （计算公式 会事先做好）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">制作检查项目的模板 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是把 ，工程，图片 ，治具等MS的数据 关联起来  形成检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为商品CD 选择 要使用的检查模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品模板关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主要是从生产计划中 取得当日要检查的数据 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户选择对应的作番 就可以进行检查了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在检查项目前 ， 先检查一下需要使用的治具是否拿对了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实际的检查画面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要有 1. 扫码检查  2.录入数据 检查  3.自己判定 正确或者错误 检查规则 就是根据前面的检查方法MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的MS登录部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据MS 生产的检查规则 ， 以及检查结果登录部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个表数据 是以生产线 作为区分 （【检查方法】除外） ，到达 各个生产线的数据 不会互相影响的目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以 基础数据也要根据不同的生产线进行登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（这样做，用户也可以看到图片名称 马上就明白是什么图片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3191,8 +3298,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3256,6 +3370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3711,7 +3831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4249,6 +4369,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4324,33 +4468,14 @@
     <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8563,15 +8688,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>22406</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>22415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8615,15 +8740,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>33623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>974912</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8667,15 +8792,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>112066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1030938</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>156884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8719,15 +8844,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>861167</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>134479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>855568</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8771,15 +8896,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8828,15 +8953,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>125186</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>2721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8887,6 +9012,484 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="981075"/>
+          <a:ext cx="1143000" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="981075"/>
+          <a:ext cx="1143000" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="981075"/>
+          <a:ext cx="971550" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="981075"/>
+          <a:ext cx="971550" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="3914775"/>
+          <a:ext cx="1266825" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3539"/>
+            <a:gd name="adj2" fmla="val -157065"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为检查 登录各种基础数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形标注 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="3914775"/>
+          <a:ext cx="1266825" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3539"/>
+            <a:gd name="adj2" fmla="val -157065"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>为检查 登录检查模板</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>并且 把模板</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 和 商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>CD </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>进行关联</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="3905250"/>
+          <a:ext cx="1266825" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3539"/>
+            <a:gd name="adj2" fmla="val -157065"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>现场实际的检查画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形标注 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="3895725"/>
+          <a:ext cx="1266825" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3539"/>
+            <a:gd name="adj2" fmla="val -157065"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账票出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9139,10 +9742,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9115425" y="2152650"/>
+          <a:ext cx="1409700" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -165428"/>
+            <a:gd name="adj2" fmla="val 11545"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选择行时表示图片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9208,7 +9871,240 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305301" y="5534025"/>
+          <a:ext cx="1238250" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12483"/>
+            <a:gd name="adj2" fmla="val -102885"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>会有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POPUP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示图片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，让用户可以选择图片</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形标注 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848476" y="5610225"/>
+          <a:ext cx="1238250" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12483"/>
+            <a:gd name="adj2" fmla="val -102885"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>会有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POPUP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示图片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，让用户可以选择</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形标注 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296276" y="5629275"/>
+          <a:ext cx="1238250" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12483"/>
+            <a:gd name="adj2" fmla="val -102885"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>会有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>POPUP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示图片</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，让用户可以选择</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9924,7 +10820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9966,7 +10862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10001,7 +10897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10210,10 +11106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A40"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10232,8 +11128,16 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="24.75">
+    <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
+      <c r="C40" s="173" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" s="173" t="s">
+        <v>515</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10244,10 +11148,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AA34"/>
+  <dimension ref="F3:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:R34"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -10283,7 +11187,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>336</v>
+        <v>506</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -10614,250 +11518,30 @@
       <c r="Q18" s="80"/>
       <c r="R18" s="81"/>
     </row>
-    <row r="19" spans="6:18">
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="81"/>
-    </row>
-    <row r="20" spans="6:18">
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="81"/>
-    </row>
-    <row r="21" spans="6:18">
-      <c r="F21" s="79"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="81"/>
-    </row>
-    <row r="22" spans="6:18">
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
+    <row r="19" spans="6:18" ht="15" thickBot="1">
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
     </row>
     <row r="23" spans="6:18">
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-    </row>
-    <row r="24" spans="6:18">
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
-    </row>
-    <row r="25" spans="6:18">
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
-    </row>
-    <row r="26" spans="6:18">
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-    </row>
-    <row r="27" spans="6:18">
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-    </row>
-    <row r="28" spans="6:18">
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-    </row>
-    <row r="29" spans="6:18">
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-    </row>
-    <row r="30" spans="6:18">
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-    </row>
-    <row r="31" spans="6:18">
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-    </row>
-    <row r="32" spans="6:18">
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-    </row>
-    <row r="33" spans="6:18">
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-    </row>
-    <row r="34" spans="6:18" ht="15" thickBot="1">
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="G23" t="s">
+        <v>505</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AA7:AA13">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
@@ -10868,11 +11552,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:AI54"/>
+  <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -10987,10 +11669,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="180" t="s">
+      <c r="S15" s="188" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="181"/>
+      <c r="T15" s="189"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -10998,10 +11680,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="180" t="s">
+      <c r="AC15" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="181"/>
+      <c r="AD15" s="189"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -11181,32 +11863,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="182" t="s">
+      <c r="Y19" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="182" t="s">
+      <c r="Z19" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="183" t="s">
+      <c r="AA19" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="182" t="s">
+      <c r="AB19" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="182" t="s">
+      <c r="AC19" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="182" t="s">
+      <c r="AD19" s="190" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="182" t="s">
+      <c r="AE19" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="182" t="s">
+      <c r="AF19" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -11241,16 +11923,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="184"/>
-      <c r="AE20" s="184"/>
-      <c r="AF20" s="184"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -11310,11 +11992,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="185" t="s">
+      <c r="AF21" s="193" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="186"/>
-      <c r="AH21" s="187"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="195"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -11349,7 +12031,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="188" t="s">
+      <c r="Y22" s="196" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -11370,9 +12052,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="191"/>
-      <c r="AG22" s="192"/>
-      <c r="AH22" s="193"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="201"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -11380,10 +12062,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="200" t="s">
+      <c r="E23" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="201"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -11421,7 +12103,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="189"/>
+      <c r="Y23" s="197"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -11438,9 +12120,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="191"/>
-      <c r="AG23" s="192"/>
-      <c r="AH23" s="193"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="201"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -11487,7 +12169,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="189"/>
+      <c r="Y24" s="197"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -11502,9 +12184,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="191"/>
-      <c r="AG24" s="192"/>
-      <c r="AH24" s="193"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="201"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -11551,7 +12233,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="189"/>
+      <c r="Y25" s="197"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -11566,9 +12248,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="191"/>
-      <c r="AG25" s="192"/>
-      <c r="AH25" s="193"/>
+      <c r="AF25" s="199"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="201"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -11615,7 +12297,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="189"/>
+      <c r="Y26" s="197"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -11630,9 +12312,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="191"/>
-      <c r="AG26" s="192"/>
-      <c r="AH26" s="193"/>
+      <c r="AF26" s="199"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="201"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -11681,7 +12363,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="190"/>
+      <c r="Y27" s="198"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -11696,9 +12378,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="191"/>
-      <c r="AG27" s="192"/>
-      <c r="AH27" s="193"/>
+      <c r="AF27" s="199"/>
+      <c r="AG27" s="200"/>
+      <c r="AH27" s="201"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -11738,7 +12420,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="188" t="s">
+      <c r="Y28" s="196" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -11755,9 +12437,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="191"/>
-      <c r="AG28" s="192"/>
-      <c r="AH28" s="193"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="201"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -11783,7 +12465,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="189"/>
+      <c r="Y29" s="197"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -11798,9 +12480,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="191"/>
-      <c r="AG29" s="192"/>
-      <c r="AH29" s="193"/>
+      <c r="AF29" s="199"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="201"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -11826,7 +12508,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="189"/>
+      <c r="Y30" s="197"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -11841,9 +12523,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="192"/>
-      <c r="AH30" s="193"/>
+      <c r="AF30" s="199"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="201"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -11869,7 +12551,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="189"/>
+      <c r="Y31" s="197"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -11882,9 +12564,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="191"/>
-      <c r="AG31" s="192"/>
-      <c r="AH31" s="193"/>
+      <c r="AF31" s="199"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="201"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -11910,7 +12592,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="190"/>
+      <c r="Y32" s="198"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -11923,9 +12605,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="191"/>
-      <c r="AG32" s="192"/>
-      <c r="AH32" s="193"/>
+      <c r="AF32" s="199"/>
+      <c r="AG32" s="200"/>
+      <c r="AH32" s="201"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -11951,7 +12633,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="188" t="s">
+      <c r="Y33" s="196" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -11966,9 +12648,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="191"/>
-      <c r="AG33" s="192"/>
-      <c r="AH33" s="193"/>
+      <c r="AF33" s="199"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="201"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -11994,7 +12676,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="189"/>
+      <c r="Y34" s="197"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -12007,9 +12689,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="191"/>
-      <c r="AG34" s="192"/>
-      <c r="AH34" s="193"/>
+      <c r="AF34" s="199"/>
+      <c r="AG34" s="200"/>
+      <c r="AH34" s="201"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -12035,7 +12717,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="189"/>
+      <c r="Y35" s="197"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -12048,9 +12730,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="191"/>
-      <c r="AG35" s="192"/>
-      <c r="AH35" s="193"/>
+      <c r="AF35" s="199"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="201"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -12066,7 +12748,9 @@
       <c r="L36" s="113"/>
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
-      <c r="O36" s="35"/>
+      <c r="O36" s="35" t="s">
+        <v>509</v>
+      </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -12076,7 +12760,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="190"/>
+      <c r="Y36" s="198"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -12089,9 +12773,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="191"/>
-      <c r="AG36" s="192"/>
-      <c r="AH36" s="193"/>
+      <c r="AF36" s="199"/>
+      <c r="AG36" s="200"/>
+      <c r="AH36" s="201"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -12241,7 +12925,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="194" t="s">
+      <c r="AH40" s="202" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -12284,7 +12968,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="195"/>
+      <c r="AH41" s="203"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -12325,7 +13009,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="196" t="s">
+      <c r="AH42" s="204" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -12359,14 +13043,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="198">
+      <c r="AE43" s="206">
         <v>0</v>
       </c>
-      <c r="AF43" s="199"/>
+      <c r="AF43" s="207"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="197"/>
+      <c r="AH43" s="205"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -12468,14 +13152,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="202" t="s">
+      <c r="AE46" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="202"/>
-      <c r="AG46" s="203" t="s">
+      <c r="AF46" s="210"/>
+      <c r="AG46" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="203"/>
+      <c r="AH46" s="211"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -12507,10 +13191,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="202"/>
-      <c r="AF47" s="202"/>
-      <c r="AG47" s="203"/>
-      <c r="AH47" s="203"/>
+      <c r="AE47" s="210"/>
+      <c r="AF47" s="210"/>
+      <c r="AG47" s="211"/>
+      <c r="AH47" s="211"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -12619,7 +13303,9 @@
       <c r="AI50" s="126"/>
     </row>
     <row r="51" spans="3:35">
-      <c r="C51" s="35"/>
+      <c r="C51" s="35" t="s">
+        <v>507</v>
+      </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
@@ -12654,7 +13340,9 @@
       <c r="AI51" s="35"/>
     </row>
     <row r="52" spans="3:35">
-      <c r="C52" s="35"/>
+      <c r="C52" s="35" t="s">
+        <v>508</v>
+      </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
@@ -12723,7 +13411,9 @@
       <c r="U54" s="35"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
+      <c r="X54" s="35" t="s">
+        <v>510</v>
+      </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
       <c r="AA54" s="35"/>
@@ -12735,6 +13425,11 @@
       <c r="AG54" s="35"/>
       <c r="AH54" s="35"/>
       <c r="AI54" s="35"/>
+    </row>
+    <row r="55" spans="3:35">
+      <c r="Y55" s="9" t="s">
+        <v>511</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -12785,9 +13480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:X18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -13137,10 +13830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:AD103"/>
+  <dimension ref="B1:AE102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="L55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13153,173 +13846,242 @@
     <col min="8" max="8" width="20.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="39" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="39"/>
-    <col min="22" max="23" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="39"/>
-    <col min="25" max="25" width="12.42578125" style="39" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="39"/>
-    <col min="27" max="27" width="15.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="39"/>
+    <col min="11" max="12" width="26.140625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="39"/>
+    <col min="23" max="24" width="12.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="39"/>
+    <col min="26" max="26" width="12.42578125" style="39" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="39"/>
+    <col min="28" max="28" width="15.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:28" ht="16.5">
-      <c r="L3" s="3" t="s">
+    <row r="1" spans="2:29" ht="42.75" customHeight="1">
+      <c r="B1" s="185" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="184" t="s">
+        <v>513</v>
+      </c>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+    </row>
+    <row r="2" spans="2:29" ht="16.5">
+      <c r="M2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="3:28" ht="16.5">
-      <c r="L4" s="4" t="s">
+    <row r="3" spans="2:29" ht="16.5">
+      <c r="M3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="3:28" ht="16.5">
-      <c r="L5" s="5" t="s">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="2:29" ht="16.5">
+      <c r="M4" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="16.5">
       <c r="M5" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="3:28" ht="16.5">
-      <c r="L6" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="N5" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="16.5">
       <c r="M6" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="3:28" ht="16.5">
-      <c r="L7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="3:28" ht="16.5">
-      <c r="L8" s="2" t="s">
+    <row r="7" spans="2:29" ht="16.5">
+      <c r="M7" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="3:28">
-      <c r="M13" s="58" t="s">
+    <row r="12" spans="2:29">
+      <c r="N12" s="58" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="3:28">
-      <c r="C14" s="39" t="s">
+    <row r="13" spans="2:29">
+      <c r="C13" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D13" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G13" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="3:28">
+    <row r="14" spans="2:29">
+      <c r="C14" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29">
       <c r="C15" s="44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="3:28">
+        <v>67</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="187" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187" t="s">
+        <v>181</v>
+      </c>
+      <c r="W15" s="187"/>
+      <c r="X15" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+    </row>
+    <row r="16" spans="2:29">
       <c r="C16" s="44" t="s">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="37"/>
+        <v>106</v>
+      </c>
       <c r="N16" s="37"/>
-      <c r="O16" s="179" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="179"/>
-      <c r="Q16" s="179" t="s">
-        <v>60</v>
-      </c>
-      <c r="R16" s="179"/>
-      <c r="S16" s="179"/>
-      <c r="T16" s="179"/>
-      <c r="U16" s="179" t="s">
-        <v>181</v>
-      </c>
-      <c r="V16" s="179"/>
-      <c r="W16" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
-    </row>
-    <row r="17" spans="3:28">
-      <c r="C17" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="37"/>
+      <c r="AC16" s="37"/>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="41">
+        <v>3003000</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>5</v>
+      </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -13335,29 +14097,24 @@
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
-    </row>
-    <row r="18" spans="3:28">
-      <c r="C18" s="41">
-        <v>3003000</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>244</v>
-      </c>
+      <c r="AC17" s="37"/>
+    </row>
+    <row r="18" spans="3:29">
       <c r="G18" s="42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>49</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>483</v>
+      </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
@@ -13371,24 +14128,20 @@
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
-    </row>
-    <row r="19" spans="3:28">
+      <c r="AC18" s="37"/>
+    </row>
+    <row r="19" spans="3:29">
       <c r="G19" s="42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="O19" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
@@ -13402,435 +14155,466 @@
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
-    </row>
-    <row r="20" spans="3:28">
+      <c r="AC19" s="37"/>
+    </row>
+    <row r="20" spans="3:29">
       <c r="G20" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-    </row>
-    <row r="21" spans="3:28">
-      <c r="G21" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="T20" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="U20" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="W20" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="X20" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y20" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z20" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB20" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC20" s="37"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="M21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="162" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="T21" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC21" s="37"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="G22" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="M22" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="V22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="W22" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="X22" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA22" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB22" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC22" s="37"/>
+    </row>
+    <row r="23" spans="3:29">
+      <c r="G23" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" s="162" t="s">
-        <v>130</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="R21" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="S21" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="T21" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="U21" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="V21" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="W21" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="X21" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y21" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z21" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA21" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB21" s="37"/>
-    </row>
-    <row r="22" spans="3:28">
-      <c r="L22" s="44" t="s">
+      <c r="N23" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="165" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="W23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC23" s="37"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="G24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="S22" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="V22" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="W22" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="X22" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA22" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB22" s="37"/>
-    </row>
-    <row r="23" spans="3:28">
-      <c r="G23" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="L23" s="44" t="s">
+      <c r="I24" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="166" t="s">
+        <v>321</v>
+      </c>
+      <c r="O24" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="T24" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="W24" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38">
+        <v>2035</v>
+      </c>
+      <c r="Z24" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AA24" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AB24" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC24" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29">
+      <c r="G25" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="162" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="162" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="P23" s="43" t="s">
+      <c r="I25" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="Q23" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="S23" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="U23" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="V23" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="W23" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="Y23" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z23" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA23" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB23" s="37"/>
-    </row>
-    <row r="24" spans="3:28">
-      <c r="G24" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="L24" s="163" t="s">
+      <c r="J25" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="164" t="s">
+      <c r="N25" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N24" s="165" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="47" t="s">
+      <c r="O25" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="W25" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC25" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29">
+      <c r="G26" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47" t="s">
+      <c r="J26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="M26" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="168" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="169" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="V24" s="47" t="s">
+      <c r="W26" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="W24" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB24" s="37"/>
-    </row>
-    <row r="25" spans="3:28">
-      <c r="G25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="166" t="s">
-        <v>321</v>
-      </c>
-      <c r="N25" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q25" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="S25" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="T25" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="U25" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="V25" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38">
-        <v>2035</v>
-      </c>
-      <c r="Y25" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="Z25" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="AA25" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB25" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28">
-      <c r="G26" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="O26" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="T26" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="V26" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB26" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28">
+      <c r="X26" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC26" s="37"/>
+    </row>
+    <row r="27" spans="3:29">
       <c r="G27" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>49</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M27" s="168" t="s">
+      <c r="N27" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N27" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="49" t="s">
+      <c r="O27" s="167" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="P27" s="49" t="s">
+      <c r="Q27" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="49" t="s">
+      <c r="R27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="R27" s="49" t="s">
+      <c r="S27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="T27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="U27" s="49" t="s">
+      <c r="U27" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="V27" s="49" t="s">
+      <c r="W27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="W27" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB27" s="37"/>
-    </row>
-    <row r="28" spans="3:28">
+      <c r="X27" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="37"/>
+    </row>
+    <row r="28" spans="3:29">
       <c r="G28" s="38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>49</v>
@@ -13839,55 +14623,55 @@
         <v>8</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="163" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="166" t="s">
+      <c r="N28" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="167" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="167" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="Q28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="R28" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="S28" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S28" s="38" t="s">
+      <c r="T28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="38" t="s">
-        <v>15</v>
-      </c>
       <c r="U28" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="V28" s="38" t="s">
+      <c r="W28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="W28" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="X28" s="38"/>
+      <c r="X28" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
-      <c r="AA28" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB28" s="37"/>
-    </row>
-    <row r="29" spans="3:28">
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="37"/>
+    </row>
+    <row r="29" spans="3:29">
       <c r="G29" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>49</v>
@@ -13896,55 +14680,55 @@
         <v>8</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="163" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M29" s="166" t="s">
+      <c r="N29" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N29" s="167" t="s">
-        <v>89</v>
-      </c>
-      <c r="O29" s="38" t="s">
+      <c r="O29" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="P29" s="38" t="s">
+      <c r="Q29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="38" t="s">
+      <c r="R29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="S29" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="S29" s="38" t="s">
+      <c r="T29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="38" t="s">
-        <v>30</v>
-      </c>
       <c r="U29" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="V29" s="38" t="s">
+      <c r="W29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="W29" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="X29" s="38"/>
+      <c r="X29" s="38" t="s">
+        <v>39</v>
+      </c>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
-      <c r="AA29" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB29" s="37"/>
-    </row>
-    <row r="30" spans="3:28">
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" s="37"/>
+    </row>
+    <row r="30" spans="3:29">
       <c r="G30" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>49</v>
@@ -13953,116 +14737,116 @@
         <v>8</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="166" t="s">
+      <c r="N30" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N30" s="167" t="s">
-        <v>90</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>70</v>
+      <c r="O30" s="167" t="s">
+        <v>91</v>
       </c>
       <c r="P30" s="38" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="R30" s="38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S30" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="T30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="38" t="s">
-        <v>31</v>
-      </c>
       <c r="U30" s="38" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="V30" s="38" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="W30" s="38" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB30" s="37"/>
-    </row>
-    <row r="31" spans="3:28">
+      <c r="Y30" s="38">
+        <v>1596</v>
+      </c>
+      <c r="Z30" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AA30" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="AB30" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC30" s="37"/>
+    </row>
+    <row r="31" spans="3:29">
       <c r="G31" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="166" t="s">
+      <c r="N31" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="167" t="s">
-        <v>91</v>
-      </c>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="167" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="38" t="s">
+      <c r="Q31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="38" t="s">
+      <c r="R31" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="R31" s="38" t="s">
+      <c r="S31" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S31" s="38" t="s">
+      <c r="T31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="38" t="s">
-        <v>9</v>
-      </c>
       <c r="U31" s="38" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="V31" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38">
-        <v>1596</v>
-      </c>
-      <c r="Y31" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="Z31" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="AA31" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB31" s="37"/>
-    </row>
-    <row r="32" spans="3:28">
+        <v>75</v>
+      </c>
+      <c r="W31" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" s="37"/>
+    </row>
+    <row r="32" spans="3:29">
       <c r="G32" s="38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>49</v>
@@ -14071,791 +14855,764 @@
         <v>16</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="163" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="166" t="s">
+      <c r="N32" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N32" s="167" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="Q32" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="R32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="38" t="s">
+      <c r="S32" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S32" s="38" t="s">
+      <c r="T32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="38" t="s">
-        <v>13</v>
-      </c>
       <c r="U32" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="V32" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="V32" s="38" t="s">
+      <c r="W32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="W32" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="38"/>
+      <c r="X32" s="38" t="s">
+        <v>43</v>
+      </c>
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
-      <c r="AA32" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB32" s="37"/>
-    </row>
-    <row r="33" spans="7:28">
-      <c r="G33" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" s="38" t="s">
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC32" s="37"/>
+    </row>
+    <row r="33" spans="7:29">
+      <c r="M33" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="N33" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="O33" s="167" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N33" s="167" t="s">
-        <v>93</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q33" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="R33" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="S33" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
       <c r="T33" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="U33" s="38" t="s">
-        <v>75</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U33" s="38"/>
       <c r="V33" s="38" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="W33" s="38" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB33" s="37"/>
-    </row>
-    <row r="34" spans="7:28">
-      <c r="L34" s="163" t="s">
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC33" s="37"/>
+    </row>
+    <row r="34" spans="7:29">
+      <c r="G34" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="M34" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="166" t="s">
+      <c r="N34" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N34" s="167" t="s">
-        <v>94</v>
-      </c>
-      <c r="O34" s="38" t="s">
+      <c r="O34" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="38" t="s">
+      <c r="Q34" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
-      <c r="S34" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38" t="s">
+      <c r="S34" s="38"/>
+      <c r="T34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="V34" s="38" t="s">
+      <c r="W34" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="W34" s="38"/>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
-      <c r="AA34" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB34" s="37"/>
-    </row>
-    <row r="35" spans="7:28">
-      <c r="G35" s="39" t="s">
-        <v>479</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>478</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="L35" s="163" t="s">
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC34" s="37"/>
+    </row>
+    <row r="35" spans="7:29">
+      <c r="G35" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M35" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="166" t="s">
+      <c r="N35" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="167" t="s">
-        <v>95</v>
-      </c>
-      <c r="O35" s="38" t="s">
-        <v>71</v>
+      <c r="O35" s="167" t="s">
+        <v>96</v>
       </c>
       <c r="P35" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="38"/>
+        <v>72</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R35" s="38"/>
-      <c r="S35" s="38" t="s">
+      <c r="S35" s="38"/>
+      <c r="T35" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="W35" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC35" s="37"/>
+    </row>
+    <row r="36" spans="7:29">
+      <c r="G36" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="O36" s="167" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="W36" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC36" s="37"/>
+    </row>
+    <row r="37" spans="7:29">
+      <c r="G37" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="M37" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38">
+        <v>2007</v>
+      </c>
+      <c r="Z37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="38">
         <v>20</v>
       </c>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38" t="s">
+      <c r="AB37" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC37" s="37"/>
+    </row>
+    <row r="38" spans="7:29">
+      <c r="G38" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="163" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="166" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="167" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="V35" s="38" t="s">
+      <c r="W38" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB35" s="37"/>
-    </row>
-    <row r="36" spans="7:28">
-      <c r="G36" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="L36" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N36" s="167" t="s">
-        <v>96</v>
-      </c>
-      <c r="O36" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="V36" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB36" s="37"/>
-    </row>
-    <row r="37" spans="7:28">
-      <c r="G37" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="L37" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="167" t="s">
-        <v>97</v>
-      </c>
-      <c r="O37" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="V37" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB37" s="37"/>
-    </row>
-    <row r="38" spans="7:28">
-      <c r="G38" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M38" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N38" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="O38" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="V38" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38">
-        <v>2007</v>
-      </c>
-      <c r="Y38" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="38">
-        <v>20</v>
-      </c>
-      <c r="AA38" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB38" s="37"/>
-    </row>
-    <row r="39" spans="7:28">
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC38" s="37"/>
+    </row>
+    <row r="39" spans="7:29">
       <c r="G39" s="38" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>49</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="L39" s="163" t="s">
-        <v>49</v>
-      </c>
-      <c r="M39" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="N39" s="167" t="s">
-        <v>150</v>
-      </c>
-      <c r="O39" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="V39" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB39" s="37"/>
-    </row>
-    <row r="40" spans="7:28">
-      <c r="G40" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="7:28">
-      <c r="M43" s="58" t="s">
+    <row r="42" spans="7:29">
+      <c r="N42" s="58" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="7:28">
-      <c r="G44" s="39" t="s">
+    <row r="43" spans="7:29">
+      <c r="G43" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H43" s="39" t="s">
         <v>480</v>
       </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="N43" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="7:29">
+      <c r="G44" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
-      <c r="M44" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="45" spans="7:28">
-      <c r="G45" s="40" t="s">
+      <c r="L44" s="37"/>
+      <c r="N44" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="M45" s="61" t="s">
+      <c r="O44" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="N45" s="61" t="s">
+      <c r="P44" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="O45" s="61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="7:28">
+    </row>
+    <row r="45" spans="7:29">
+      <c r="G45" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="37"/>
+      <c r="N45" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="O45" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="P45" s="64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="7:29">
       <c r="G46" s="43" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="J46" s="43" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="K46" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" s="64" t="s">
-        <v>116</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="L46" s="37"/>
       <c r="N46" s="64" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="7:28">
+        <v>166</v>
+      </c>
+      <c r="P46" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="7:29">
       <c r="G47" s="43" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="I47" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="L47" s="37"/>
+      <c r="N47" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="O47" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="P47" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="7:29">
+      <c r="G48" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="45">
+        <v>1</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" s="37"/>
+      <c r="N48" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="P48" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="7:24">
+      <c r="G49" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="45">
+        <v>0</v>
+      </c>
+      <c r="J49" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" s="186"/>
+    </row>
+    <row r="50" spans="7:24">
+      <c r="G50" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="45">
         <v>2</v>
       </c>
-      <c r="J47" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="K47" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="M47" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="O47" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="7:28">
-      <c r="G48" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="I48" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="M48" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="N48" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="O48" s="64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="7:23">
-      <c r="G49" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="45">
+      <c r="J50" s="57"/>
+      <c r="K50" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="L50" s="186"/>
+    </row>
+    <row r="51" spans="7:24">
+      <c r="G51" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="45">
         <v>1</v>
       </c>
-      <c r="J49" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="K49" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="M49" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="N49" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="7:23">
-      <c r="G50" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I50" s="45">
+      <c r="J51" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" s="186"/>
+    </row>
+    <row r="52" spans="7:24">
+      <c r="G52" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="45">
         <v>0</v>
       </c>
-      <c r="J50" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" s="45" t="s">
+      <c r="J52" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="K52" s="45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="7:23">
-      <c r="G51" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="45">
-        <v>2</v>
-      </c>
-      <c r="J51" s="57"/>
-      <c r="K51" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="7:23">
-      <c r="G52" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="45">
-        <v>1</v>
-      </c>
-      <c r="J52" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="K52" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="7:23">
+      <c r="L52" s="186"/>
+      <c r="N52" s="58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="7:24">
       <c r="G53" s="45" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I53" s="45">
         <v>0</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="M53" s="58" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="7:23">
-      <c r="G54" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="I54" s="45">
-        <v>0</v>
-      </c>
-      <c r="J54" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="K54" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="M54" s="39" t="s">
+      <c r="L53" s="186"/>
+      <c r="N53" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="N54" s="39" t="s">
+      <c r="O53" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="55"/>
+      <c r="U53" s="55"/>
+      <c r="V53" s="55"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+    </row>
+    <row r="54" spans="7:24">
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
-    </row>
-    <row r="55" spans="7:23">
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-    </row>
-    <row r="56" spans="7:23">
-      <c r="M56" s="64" t="s">
+      <c r="X54" s="35"/>
+    </row>
+    <row r="55" spans="7:24">
+      <c r="N55" s="64" t="s">
         <v>304</v>
       </c>
+      <c r="O55" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q55" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="R55" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="S55" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="T55" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="U55" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="V55" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="W55" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="7:24">
       <c r="N56" s="64" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="P56" s="64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q56" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="R56" s="59" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="R56" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="S56" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="T56" s="59" t="s">
-        <v>254</v>
+        <v>168</v>
+      </c>
+      <c r="T56" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="U56" s="59" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="V56" s="59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="7:23">
-      <c r="M57" s="64" t="s">
-        <v>305</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="W56" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="7:24">
       <c r="N57" s="64" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P57" s="64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q57" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="R57" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="S57" s="62" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="R57" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="S57" s="59" t="s">
+        <v>107</v>
       </c>
       <c r="T57" s="59" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="U57" s="59" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="V57" s="59" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="7:23">
-      <c r="M58" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="N58" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="O58" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="P58" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q58" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="R58" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="S58" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="T58" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="U58" s="59" t="s">
+      <c r="W57" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="V58" s="59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="7:23">
-      <c r="M59" s="65">
+    </row>
+    <row r="58" spans="7:24">
+      <c r="N58" s="65">
         <v>1</v>
       </c>
-      <c r="N59" s="67" t="s">
+      <c r="O58" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="O59" s="65" t="s">
+      <c r="P58" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="P59" s="65" t="s">
+      <c r="Q58" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="Q59" s="65" t="s">
+      <c r="R58" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="R59" s="36">
+      <c r="S58" s="36">
         <v>3</v>
       </c>
-      <c r="S59" s="63">
+      <c r="T58" s="63">
         <v>43468.423611111109</v>
       </c>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36">
+      <c r="U58" s="36"/>
+      <c r="V58" s="36">
         <v>3003000</v>
       </c>
-      <c r="V59" s="63">
+      <c r="W58" s="63">
         <v>43468.423611111109</v>
       </c>
     </row>
-    <row r="66" spans="13:30" ht="16.5">
-      <c r="M66" s="39" t="s">
+    <row r="65" spans="14:31" ht="16.5">
+      <c r="N65" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="N66" s="39" t="s">
+      <c r="O65" s="39" t="s">
         <v>489</v>
       </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+    </row>
+    <row r="66" spans="14:31" ht="16.5">
+      <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-      <c r="S66" s="9"/>
+      <c r="S66" s="3"/>
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
@@ -14867,16 +15624,16 @@
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
-    </row>
-    <row r="67" spans="13:30" ht="16.5">
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+      <c r="AE66" s="9"/>
+    </row>
+    <row r="67" spans="14:31" ht="16.5">
+      <c r="N67" s="4"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
@@ -14887,231 +15644,239 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
-    </row>
-    <row r="68" spans="13:30" ht="16.5">
-      <c r="M68" s="4"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
+      <c r="AE67" s="9"/>
+    </row>
+    <row r="68" spans="14:31" ht="16.5">
+      <c r="N68" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="R68" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y68" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z68" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB68" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC68" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="AD68" s="9"/>
-    </row>
-    <row r="69" spans="13:30" ht="16.5">
-      <c r="M69" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>304</v>
+      <c r="AE68" s="9"/>
+    </row>
+    <row r="69" spans="14:31" ht="16.5">
+      <c r="N69" s="69" t="s">
+        <v>187</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P69" s="68" t="s">
-        <v>161</v>
+        <v>519</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>169</v>
+        <v>45</v>
+      </c>
+      <c r="R69" s="69" t="s">
+        <v>162</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Y69" s="5" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
+        <v>253</v>
+      </c>
+      <c r="AB69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC69" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="AD69" s="9"/>
-    </row>
-    <row r="70" spans="13:30" ht="16.5">
-      <c r="M70" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>305</v>
+      <c r="AE69" s="9"/>
+    </row>
+    <row r="70" spans="14:31" ht="16.5">
+      <c r="N70" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P70" s="69" t="s">
-        <v>162</v>
+        <v>517</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>168</v>
+        <v>107</v>
+      </c>
+      <c r="R70" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>303</v>
+        <v>179</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="X70" s="5" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
       <c r="Y70" s="5" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
+        <v>179</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="AD70" s="9"/>
-    </row>
-    <row r="71" spans="13:30" ht="16.5">
-      <c r="M71" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P71" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="S71" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="T71" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="U71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="V71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="W71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="X71" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y71" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA71" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
+      <c r="AE70" s="9"/>
+    </row>
+    <row r="71" spans="14:31" ht="16.5">
+      <c r="N71" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="O71" s="6">
+        <v>2019</v>
+      </c>
+      <c r="P71" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R71" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T71" s="6">
+        <v>3</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V71" s="11">
+        <v>0</v>
+      </c>
+      <c r="W71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="X71" s="16">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="Y71" s="16">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="6">
+        <v>3003000</v>
+      </c>
+      <c r="AC71" s="16">
+        <v>43468.423611111109</v>
+      </c>
       <c r="AD71" s="9"/>
-    </row>
-    <row r="72" spans="13:30" ht="16.5">
-      <c r="M72" s="71" t="s">
-        <v>300</v>
-      </c>
-      <c r="N72" s="6">
-        <v>1</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="P72" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R72" s="6">
-        <v>3</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T72" s="11">
-        <v>0</v>
-      </c>
-      <c r="U72" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="V72" s="16">
-        <v>43468.423611111109</v>
-      </c>
-      <c r="W72" s="16">
-        <v>43468.423611111109</v>
-      </c>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="6">
-        <v>3003000</v>
-      </c>
-      <c r="AA72" s="16">
-        <v>43468.423611111109</v>
-      </c>
+      <c r="AE71" s="9"/>
+    </row>
+    <row r="72" spans="14:31" ht="16.5">
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
-    </row>
-    <row r="73" spans="13:30" ht="16.5">
-      <c r="M73" s="3"/>
+      <c r="AE72" s="9"/>
+    </row>
+    <row r="73" spans="14:31" ht="16.5">
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
-      <c r="S73" s="9"/>
+      <c r="S73" s="3"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
@@ -15123,14 +15888,18 @@
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
-    </row>
-    <row r="74" spans="13:30" ht="16.5">
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
+      <c r="AE73" s="9"/>
+    </row>
+    <row r="74" spans="14:31">
+      <c r="N74" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
@@ -15143,14 +15912,10 @@
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
-    </row>
-    <row r="75" spans="13:30">
-      <c r="M75" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="N75" s="39" t="s">
-        <v>334</v>
-      </c>
+      <c r="AE74" s="9"/>
+    </row>
+    <row r="75" spans="14:31" ht="16.5">
+      <c r="N75" s="3"/>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
@@ -15167,10 +15932,10 @@
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
-    </row>
-    <row r="76" spans="13:30" ht="16.5">
-      <c r="M76" s="3"/>
-      <c r="N76" s="9"/>
+      <c r="AE75" s="9"/>
+    </row>
+    <row r="76" spans="14:31" ht="16.5">
+      <c r="N76" s="4"/>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
@@ -15187,997 +15952,978 @@
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
-    </row>
-    <row r="77" spans="13:30" ht="16.5">
-      <c r="M77" s="4"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
+      <c r="AE76" s="9"/>
+    </row>
+    <row r="77" spans="14:31" ht="16.5">
+      <c r="N77" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="O77" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="U77" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="V77" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="W77" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="X77" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y77" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z77" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
-    </row>
-    <row r="78" spans="13:30" ht="16.5">
-      <c r="M78" s="68" t="s">
-        <v>180</v>
-      </c>
+      <c r="AE77" s="9"/>
+    </row>
+    <row r="78" spans="14:31" ht="16.5">
       <c r="N78" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="O78" s="5" t="s">
-        <v>268</v>
+        <v>187</v>
+      </c>
+      <c r="O78" s="68" t="s">
+        <v>193</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="T78" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="U78" s="17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="V78" s="17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="W78" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="X78" s="5" t="s">
-        <v>173</v>
+        <v>196</v>
+      </c>
+      <c r="X78" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z78" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
-    </row>
-    <row r="79" spans="13:30" ht="16.5">
-      <c r="M79" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="N79" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="P79" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q79" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="T79" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="U79" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="V79" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="W79" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="X79" s="5" t="s">
-        <v>171</v>
+      <c r="AE78" s="9"/>
+    </row>
+    <row r="79" spans="14:31" ht="17.25" thickBot="1">
+      <c r="N79" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="O79" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="P79" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q79" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="R79" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="S79" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T79" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="U79" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="V79" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="W79" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="X79" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z79" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="Z79" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
       <c r="AD79" s="9"/>
-    </row>
-    <row r="80" spans="13:30" ht="17.25" thickBot="1">
-      <c r="M80" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="N80" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="O80" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="P80" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q80" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="R80" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="S80" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="T80" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="U80" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="V80" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="W80" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="X80" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y80" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z80" s="9"/>
+      <c r="AE79" s="9"/>
+    </row>
+    <row r="80" spans="14:31" ht="16.5">
+      <c r="N80" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="O80" s="179" t="s">
+        <v>200</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="21"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="X80" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y80" s="6">
+        <v>3003000</v>
+      </c>
+      <c r="Z80" s="16">
+        <v>43468.423611111109</v>
+      </c>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
-    </row>
-    <row r="81" spans="13:30" ht="16.5">
-      <c r="M81" s="73" t="s">
+      <c r="AE80" s="9"/>
+    </row>
+    <row r="81" spans="14:31" ht="16.5">
+      <c r="N81" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N81" s="204" t="s">
-        <v>200</v>
-      </c>
-      <c r="O81" s="13">
+      <c r="O81" s="180" t="s">
+        <v>202</v>
+      </c>
+      <c r="P81" s="11">
         <v>0</v>
       </c>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="X81" s="6">
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7">
+        <v>2035</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="X81" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y81" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y81" s="16">
+      <c r="Z81" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AD81" s="9"/>
-    </row>
-    <row r="82" spans="13:30" ht="16.5">
-      <c r="M82" s="74" t="s">
+      <c r="AE81" s="9"/>
+    </row>
+    <row r="82" spans="14:31" ht="16.5">
+      <c r="N82" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N82" s="205" t="s">
-        <v>202</v>
-      </c>
-      <c r="O82" s="11">
+      <c r="O82" s="180" t="s">
+        <v>203</v>
+      </c>
+      <c r="P82" s="11">
         <v>0</v>
       </c>
-      <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7">
-        <v>2035</v>
-      </c>
-      <c r="U82" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V82" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W82" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="X82" s="6">
+      <c r="R82" s="7"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y82" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y82" s="16">
+      <c r="Z82" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AD82" s="9"/>
-    </row>
-    <row r="83" spans="13:30" ht="16.5">
-      <c r="M83" s="74" t="s">
+      <c r="AE82" s="9"/>
+    </row>
+    <row r="83" spans="14:31" ht="16.5">
+      <c r="N83" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N83" s="205" t="s">
-        <v>203</v>
-      </c>
-      <c r="O83" s="11">
+      <c r="O83" s="180" t="s">
+        <v>204</v>
+      </c>
+      <c r="P83" s="11">
         <v>0</v>
       </c>
-      <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
-      <c r="R83" s="11"/>
-      <c r="S83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="11"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
-      <c r="W83" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="X83" s="6">
+      <c r="W83" s="7"/>
+      <c r="X83" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y83" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y83" s="16">
+      <c r="Z83" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
-    </row>
-    <row r="84" spans="13:30" ht="16.5">
-      <c r="M84" s="74" t="s">
+      <c r="AE83" s="9"/>
+    </row>
+    <row r="84" spans="14:31" ht="16.5">
+      <c r="N84" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N84" s="205" t="s">
-        <v>204</v>
-      </c>
-      <c r="O84" s="11">
+      <c r="O84" s="180" t="s">
+        <v>206</v>
+      </c>
+      <c r="P84" s="11">
         <v>0</v>
       </c>
-      <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="11"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
-      <c r="W84" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="X84" s="6">
+      <c r="W84" s="7"/>
+      <c r="X84" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y84" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y84" s="16">
+      <c r="Z84" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
-    </row>
-    <row r="85" spans="13:30" ht="16.5">
-      <c r="M85" s="74" t="s">
+      <c r="AE84" s="9"/>
+    </row>
+    <row r="85" spans="14:31" ht="16.5">
+      <c r="N85" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N85" s="205" t="s">
-        <v>206</v>
-      </c>
-      <c r="O85" s="11">
+      <c r="O85" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="P85" s="11">
         <v>0</v>
       </c>
-      <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="11"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="X85" s="6">
+      <c r="W85" s="7"/>
+      <c r="X85" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y85" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y85" s="16">
+      <c r="Z85" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AD85" s="9"/>
-    </row>
-    <row r="86" spans="13:30" ht="16.5">
-      <c r="M86" s="74" t="s">
+      <c r="AE85" s="9"/>
+    </row>
+    <row r="86" spans="14:31" ht="16.5">
+      <c r="N86" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N86" s="205" t="s">
-        <v>208</v>
-      </c>
-      <c r="O86" s="11">
+      <c r="O86" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="P86" s="11">
         <v>0</v>
       </c>
-      <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="11"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
-      <c r="W86" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="X86" s="6">
+      <c r="W86" s="7"/>
+      <c r="X86" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y86" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y86" s="16">
+      <c r="Z86" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
-    </row>
-    <row r="87" spans="13:30" ht="16.5">
-      <c r="M87" s="74" t="s">
+      <c r="AE86" s="9"/>
+    </row>
+    <row r="87" spans="14:31" ht="16.5">
+      <c r="N87" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N87" s="205" t="s">
-        <v>210</v>
-      </c>
-      <c r="O87" s="11">
+      <c r="O87" s="180" t="s">
+        <v>212</v>
+      </c>
+      <c r="P87" s="11">
         <v>0</v>
       </c>
-      <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="11"/>
       <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="X87" s="6">
+      <c r="U87" s="7">
+        <v>1596</v>
+      </c>
+      <c r="V87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="X87" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y87" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y87" s="16">
+      <c r="Z87" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
-    </row>
-    <row r="88" spans="13:30" ht="16.5">
-      <c r="M88" s="74" t="s">
+      <c r="AE87" s="9"/>
+    </row>
+    <row r="88" spans="14:31" ht="16.5">
+      <c r="N88" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N88" s="205" t="s">
-        <v>212</v>
-      </c>
-      <c r="O88" s="11">
+      <c r="O88" s="180" t="s">
+        <v>213</v>
+      </c>
+      <c r="P88" s="11">
         <v>0</v>
       </c>
-      <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7">
-        <v>1596</v>
-      </c>
-      <c r="U88" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="V88" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W88" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="X88" s="6">
+      <c r="R88" s="7"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y88" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y88" s="16">
+      <c r="Z88" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
-    </row>
-    <row r="89" spans="13:30" ht="16.5">
-      <c r="M89" s="74" t="s">
+      <c r="AE88" s="9"/>
+    </row>
+    <row r="89" spans="14:31" ht="16.5">
+      <c r="N89" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N89" s="205" t="s">
-        <v>213</v>
-      </c>
-      <c r="O89" s="11">
+      <c r="O89" s="180" t="s">
+        <v>215</v>
+      </c>
+      <c r="P89" s="11">
         <v>0</v>
       </c>
-      <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="11"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
-      <c r="W89" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="X89" s="6">
+      <c r="W89" s="7"/>
+      <c r="X89" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y89" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y89" s="16">
+      <c r="Z89" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
-    </row>
-    <row r="90" spans="13:30" ht="16.5">
-      <c r="M90" s="74" t="s">
+      <c r="AE89" s="9"/>
+    </row>
+    <row r="90" spans="14:31" ht="16.5">
+      <c r="N90" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N90" s="205" t="s">
-        <v>215</v>
-      </c>
-      <c r="O90" s="11">
+      <c r="O90" s="180" t="s">
+        <v>217</v>
+      </c>
+      <c r="P90" s="11">
         <v>0</v>
       </c>
-      <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="11"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
-      <c r="W90" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="X90" s="6">
+      <c r="W90" s="7"/>
+      <c r="X90" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y90" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y90" s="16">
+      <c r="Z90" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
-    </row>
-    <row r="91" spans="13:30" ht="16.5">
-      <c r="M91" s="74" t="s">
+      <c r="AE90" s="9"/>
+    </row>
+    <row r="91" spans="14:31" ht="16.5">
+      <c r="N91" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N91" s="205" t="s">
-        <v>217</v>
-      </c>
-      <c r="O91" s="11">
+      <c r="O91" s="180" t="s">
+        <v>218</v>
+      </c>
+      <c r="P91" s="11">
         <v>0</v>
       </c>
-      <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="11"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
-      <c r="W91" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="X91" s="6">
+      <c r="W91" s="7"/>
+      <c r="X91" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y91" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y91" s="16">
+      <c r="Z91" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
-    </row>
-    <row r="92" spans="13:30" ht="16.5">
-      <c r="M92" s="74" t="s">
+      <c r="AE91" s="9"/>
+    </row>
+    <row r="92" spans="14:31" ht="16.5">
+      <c r="N92" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N92" s="205" t="s">
-        <v>218</v>
-      </c>
-      <c r="O92" s="11">
+      <c r="O92" s="180" t="s">
+        <v>220</v>
+      </c>
+      <c r="P92" s="11">
         <v>0</v>
       </c>
-      <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="11"/>
       <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
+      <c r="U92" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="V92" s="7"/>
-      <c r="W92" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="X92" s="6">
+      <c r="W92" s="7"/>
+      <c r="X92" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y92" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y92" s="16">
+      <c r="Z92" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
-    </row>
-    <row r="93" spans="13:30" ht="16.5">
-      <c r="M93" s="74" t="s">
+      <c r="AE92" s="9"/>
+    </row>
+    <row r="93" spans="14:31" ht="16.5">
+      <c r="N93" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N93" s="205" t="s">
-        <v>220</v>
-      </c>
-      <c r="O93" s="11">
+      <c r="O93" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="P93" s="11">
         <v>0</v>
       </c>
-      <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
-      <c r="R93" s="11"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="V93" s="7"/>
-      <c r="W93" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="X93" s="6">
+      <c r="W93" s="7"/>
+      <c r="X93" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y93" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y93" s="16">
+      <c r="Z93" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AD93" s="9"/>
-    </row>
-    <row r="94" spans="13:30" ht="16.5">
-      <c r="M94" s="74" t="s">
+      <c r="AE93" s="9"/>
+    </row>
+    <row r="94" spans="14:31" ht="16.5">
+      <c r="N94" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N94" s="205" t="s">
-        <v>221</v>
-      </c>
-      <c r="O94" s="11">
+      <c r="O94" s="180" t="s">
+        <v>222</v>
+      </c>
+      <c r="P94" s="11">
         <v>0</v>
       </c>
-      <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X94" s="6">
+      <c r="R94" s="7"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7">
+        <v>2007</v>
+      </c>
+      <c r="V94" s="7">
+        <v>0</v>
+      </c>
+      <c r="W94" s="7">
+        <v>20</v>
+      </c>
+      <c r="X94" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y94" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y94" s="16">
+      <c r="Z94" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
-    </row>
-    <row r="95" spans="13:30" ht="16.5">
-      <c r="M95" s="74" t="s">
+      <c r="AE94" s="9"/>
+    </row>
+    <row r="95" spans="14:31" ht="17.25" thickBot="1">
+      <c r="N95" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="N95" s="205" t="s">
-        <v>222</v>
-      </c>
-      <c r="O95" s="11">
+      <c r="O95" s="181" t="s">
+        <v>223</v>
+      </c>
+      <c r="P95" s="26">
         <v>0</v>
       </c>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7">
-        <v>2007</v>
-      </c>
-      <c r="U95" s="7">
-        <v>0</v>
-      </c>
-      <c r="V95" s="7">
-        <v>20</v>
-      </c>
-      <c r="W95" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="X95" s="6">
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="24"/>
+      <c r="U95" s="24"/>
+      <c r="V95" s="24"/>
+      <c r="W95" s="24"/>
+      <c r="X95" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y95" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y95" s="16">
+      <c r="Z95" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
       <c r="AC95" s="9"/>
       <c r="AD95" s="9"/>
-    </row>
-    <row r="96" spans="13:30" ht="17.25" thickBot="1">
-      <c r="M96" s="75" t="s">
+      <c r="AE95" s="9"/>
+    </row>
+    <row r="96" spans="14:31" ht="16.5">
+      <c r="N96" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="N96" s="206" t="s">
-        <v>223</v>
-      </c>
-      <c r="O96" s="26">
-        <v>0</v>
-      </c>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="X96" s="6">
+      <c r="O96" s="179" t="s">
+        <v>270</v>
+      </c>
+      <c r="P96" s="22">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="T96" s="13"/>
+      <c r="U96" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y96" s="16">
+      <c r="Z96" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
-    </row>
-    <row r="97" spans="13:30" ht="16.5">
-      <c r="M97" s="73" t="s">
+      <c r="AE96" s="9"/>
+    </row>
+    <row r="97" spans="14:31" ht="16.5">
+      <c r="N97" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N97" s="204" t="s">
-        <v>270</v>
-      </c>
-      <c r="O97" s="22">
+      <c r="O97" s="180" t="s">
+        <v>271</v>
+      </c>
+      <c r="P97" s="20">
         <v>1</v>
       </c>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13" t="s">
+      <c r="Q97" s="11"/>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S97" s="13"/>
-      <c r="T97" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="6">
+      <c r="T97" s="11"/>
+      <c r="U97" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y97" s="16">
+      <c r="Z97" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
       <c r="AC97" s="9"/>
       <c r="AD97" s="9"/>
-    </row>
-    <row r="98" spans="13:30" ht="16.5">
-      <c r="M98" s="74" t="s">
+      <c r="AE97" s="9"/>
+    </row>
+    <row r="98" spans="14:31" ht="16.5">
+      <c r="N98" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N98" s="205" t="s">
-        <v>271</v>
-      </c>
-      <c r="O98" s="20">
+      <c r="O98" s="180" t="s">
+        <v>272</v>
+      </c>
+      <c r="P98" s="20">
         <v>1</v>
       </c>
-      <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="11"/>
+      <c r="S98" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S98" s="11"/>
-      <c r="T98" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="U98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="V98" s="11"/>
-      <c r="W98" s="23"/>
-      <c r="X98" s="6">
+      <c r="W98" s="11"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y98" s="16">
+      <c r="Z98" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
       <c r="AC98" s="9"/>
       <c r="AD98" s="9"/>
-    </row>
-    <row r="99" spans="13:30" ht="16.5">
-      <c r="M99" s="74" t="s">
+      <c r="AE98" s="9"/>
+    </row>
+    <row r="99" spans="14:31" ht="16.5">
+      <c r="N99" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N99" s="205" t="s">
-        <v>272</v>
-      </c>
-      <c r="O99" s="20">
+      <c r="O99" s="180" t="s">
+        <v>273</v>
+      </c>
+      <c r="P99" s="20">
         <v>1</v>
       </c>
-      <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="11"/>
+      <c r="S99" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="T99" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U99" s="11"/>
+      <c r="T99" s="11"/>
+      <c r="U99" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="V99" s="11"/>
-      <c r="W99" s="23"/>
-      <c r="X99" s="6">
+      <c r="W99" s="11"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y99" s="16">
+      <c r="Z99" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
       <c r="AC99" s="9"/>
       <c r="AD99" s="9"/>
-    </row>
-    <row r="100" spans="13:30" ht="16.5">
-      <c r="M100" s="74" t="s">
+      <c r="AE99" s="9"/>
+    </row>
+    <row r="100" spans="14:31" ht="16.5">
+      <c r="N100" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N100" s="205" t="s">
-        <v>273</v>
-      </c>
-      <c r="O100" s="20">
+      <c r="O100" s="180" t="s">
+        <v>274</v>
+      </c>
+      <c r="P100" s="20">
         <v>1</v>
       </c>
-      <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
-      <c r="R100" s="11" t="s">
+      <c r="R100" s="11"/>
+      <c r="S100" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S100" s="11"/>
-      <c r="T100" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U100" s="11"/>
+      <c r="T100" s="11"/>
+      <c r="U100" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="V100" s="11"/>
-      <c r="W100" s="23"/>
-      <c r="X100" s="6">
+      <c r="W100" s="11"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y100" s="16">
+      <c r="Z100" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
       <c r="AC100" s="9"/>
       <c r="AD100" s="9"/>
-    </row>
-    <row r="101" spans="13:30" ht="16.5">
-      <c r="M101" s="74" t="s">
+      <c r="AE100" s="9"/>
+    </row>
+    <row r="101" spans="14:31" ht="16.5">
+      <c r="N101" s="74" t="s">
         <v>300</v>
       </c>
-      <c r="N101" s="205" t="s">
-        <v>274</v>
-      </c>
-      <c r="O101" s="20">
+      <c r="O101" s="180" t="s">
+        <v>275</v>
+      </c>
+      <c r="P101" s="20">
         <v>1</v>
       </c>
-      <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
-      <c r="R101" s="11" t="s">
+      <c r="R101" s="11"/>
+      <c r="S101" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="S101" s="11"/>
-      <c r="T101" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U101" s="11"/>
+      <c r="T101" s="11"/>
+      <c r="U101" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="V101" s="11"/>
-      <c r="W101" s="23"/>
-      <c r="X101" s="6">
+      <c r="W101" s="11"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y101" s="16">
+      <c r="Z101" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
       <c r="AC101" s="9"/>
       <c r="AD101" s="9"/>
-    </row>
-    <row r="102" spans="13:30" ht="16.5">
-      <c r="M102" s="74" t="s">
+      <c r="AE101" s="9"/>
+    </row>
+    <row r="102" spans="14:31" ht="17.25" thickBot="1">
+      <c r="N102" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="N102" s="205" t="s">
-        <v>275</v>
-      </c>
-      <c r="O102" s="20">
+      <c r="O102" s="181" t="s">
+        <v>276</v>
+      </c>
+      <c r="P102" s="25">
         <v>1</v>
       </c>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="S102" s="11"/>
-      <c r="T102" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="23"/>
-      <c r="X102" s="6">
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="T102" s="26"/>
+      <c r="U102" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V102" s="26"/>
+      <c r="W102" s="26"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="6">
         <v>3003000</v>
       </c>
-      <c r="Y102" s="16">
+      <c r="Z102" s="16">
         <v>43468.423611111109</v>
       </c>
-      <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
       <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
-    </row>
-    <row r="103" spans="13:30" ht="17.25" thickBot="1">
-      <c r="M103" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="N103" s="206" t="s">
-        <v>276</v>
-      </c>
-      <c r="O103" s="25">
-        <v>1</v>
-      </c>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="S103" s="26"/>
-      <c r="T103" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="U103" s="26"/>
-      <c r="V103" s="26"/>
-      <c r="W103" s="27"/>
-      <c r="X103" s="6">
-        <v>3003000</v>
-      </c>
-      <c r="Y103" s="16">
-        <v>43468.423611111109</v>
-      </c>
-      <c r="Z103" s="9"/>
-      <c r="AA103" s="9"/>
-      <c r="AB103" s="9"/>
-      <c r="AC103" s="9"/>
-      <c r="AD103" s="9"/>
+      <c r="AE102" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="S57">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  <conditionalFormatting sqref="T56">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U56:V57">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+  <conditionalFormatting sqref="V55:W56">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S56">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="T55">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56:T57">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  <conditionalFormatting sqref="U55:U56">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T56:T57">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+  <conditionalFormatting sqref="U55:U56">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T58">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  <conditionalFormatting sqref="U57">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46:O49">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  <conditionalFormatting sqref="P45:P48">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S69:S72">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+  <conditionalFormatting sqref="U68:U71">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y69:AA70">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+  <conditionalFormatting sqref="AA68:AC69">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T71">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  <conditionalFormatting sqref="V70">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T69:T70">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  <conditionalFormatting sqref="V68:V69">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  <conditionalFormatting sqref="P79">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R78:R79">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  <conditionalFormatting sqref="S77:S78">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y69:Y70">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  <conditionalFormatting sqref="AA68:AA69">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y71">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  <conditionalFormatting sqref="AA70">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U69:U70 W69:X70">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+  <conditionalFormatting sqref="W68:W69 Y68:Z69">
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V69:V70">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="X68:X69">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X78:Y79">
+  <conditionalFormatting sqref="Y77:Z78">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16188,10 +16934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AH19"/>
+  <dimension ref="F3:AH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -16701,6 +17447,11 @@
       <c r="AG19" s="83"/>
       <c r="AH19" s="84"/>
     </row>
+    <row r="21" spans="6:34">
+      <c r="F21" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -16715,14 +17466,17 @@
     <hyperlink ref="W7" location="账票出力!A1" display="账票出力"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AA18"/>
+  <dimension ref="F3:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -17088,6 +17842,11 @@
       <c r="Q18" s="83"/>
       <c r="R18" s="84"/>
     </row>
+    <row r="22" spans="6:18">
+      <c r="F22" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -17099,10 +17858,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AA34"/>
+  <dimension ref="F3:AA26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -17506,200 +18265,30 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="81"/>
     </row>
-    <row r="22" spans="6:18">
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="81"/>
-    </row>
-    <row r="23" spans="6:18">
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="81"/>
-    </row>
-    <row r="24" spans="6:18">
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
+    <row r="22" spans="6:18" ht="15" thickBot="1">
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
     </row>
     <row r="25" spans="6:18">
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="26" spans="6:18">
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="81"/>
-    </row>
-    <row r="27" spans="6:18">
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="81"/>
-    </row>
-    <row r="28" spans="6:18">
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="81"/>
-    </row>
-    <row r="29" spans="6:18">
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="81"/>
-    </row>
-    <row r="30" spans="6:18">
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="81"/>
-    </row>
-    <row r="31" spans="6:18">
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-    </row>
-    <row r="32" spans="6:18">
-      <c r="F32" s="79"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="81"/>
-    </row>
-    <row r="33" spans="6:18">
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
-    </row>
-    <row r="34" spans="6:18" ht="15" thickBot="1">
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="H26" t="s">
+        <v>495</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17712,10 +18301,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AB23"/>
+  <dimension ref="F3:AB28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -18239,6 +18828,16 @@
       <c r="Q23" s="83"/>
       <c r="R23" s="84"/>
     </row>
+    <row r="27" spans="6:18">
+      <c r="G27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18">
+      <c r="H28" t="s">
+        <v>497</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -18250,10 +18849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:AA33"/>
+  <dimension ref="F2:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5:Z9"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -18549,7 +19148,7 @@
       <c r="Q16" s="80"/>
       <c r="R16" s="81"/>
     </row>
-    <row r="17" spans="6:18">
+    <row r="17" spans="6:22">
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="80"/>
@@ -18564,7 +19163,7 @@
       <c r="Q17" s="80"/>
       <c r="R17" s="81"/>
     </row>
-    <row r="18" spans="6:18">
+    <row r="18" spans="6:22">
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
@@ -18579,7 +19178,7 @@
       <c r="Q18" s="80"/>
       <c r="R18" s="81"/>
     </row>
-    <row r="19" spans="6:18">
+    <row r="19" spans="6:22">
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -18594,7 +19193,7 @@
       <c r="Q19" s="80"/>
       <c r="R19" s="81"/>
     </row>
-    <row r="20" spans="6:18" ht="15" thickBot="1">
+    <row r="20" spans="6:22" ht="15" thickBot="1">
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
@@ -18609,7 +19208,7 @@
       <c r="Q20" s="80"/>
       <c r="R20" s="81"/>
     </row>
-    <row r="21" spans="6:18">
+    <row r="21" spans="6:22">
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
@@ -18624,7 +19223,7 @@
       <c r="Q21" s="80"/>
       <c r="R21" s="81"/>
     </row>
-    <row r="22" spans="6:18">
+    <row r="22" spans="6:22">
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
@@ -18639,7 +19238,7 @@
       <c r="Q22" s="80"/>
       <c r="R22" s="81"/>
     </row>
-    <row r="23" spans="6:18" ht="15" thickBot="1">
+    <row r="23" spans="6:22" ht="15" thickBot="1">
       <c r="F23" s="79"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -18654,7 +19253,7 @@
       <c r="Q23" s="80"/>
       <c r="R23" s="81"/>
     </row>
-    <row r="24" spans="6:18" ht="15" thickBot="1">
+    <row r="24" spans="6:22" ht="15" thickBot="1">
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
       <c r="H24" s="103"/>
@@ -18673,7 +19272,7 @@
       <c r="Q24" s="80"/>
       <c r="R24" s="81"/>
     </row>
-    <row r="25" spans="6:18">
+    <row r="25" spans="6:22">
       <c r="F25" s="79"/>
       <c r="G25" s="80"/>
       <c r="H25" s="80"/>
@@ -18688,7 +19287,7 @@
       <c r="Q25" s="80"/>
       <c r="R25" s="81"/>
     </row>
-    <row r="26" spans="6:18" ht="15" thickBot="1">
+    <row r="26" spans="6:22" ht="15" thickBot="1">
       <c r="F26" s="82"/>
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
@@ -18703,19 +19302,37 @@
       <c r="Q26" s="83"/>
       <c r="R26" s="84"/>
     </row>
-    <row r="30" spans="6:18">
+    <row r="30" spans="6:22">
       <c r="K30" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="6:18">
+    <row r="31" spans="6:22">
       <c r="K31" t="s">
         <v>367</v>
+      </c>
+      <c r="V31" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
         <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="I56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="I57" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -18730,10 +19347,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:AC22"/>
+  <dimension ref="F2:AC30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19277,6 +19894,16 @@
       <c r="Q22" s="83"/>
       <c r="R22" s="84"/>
     </row>
+    <row r="28" spans="6:18">
+      <c r="F28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="6:18">
+      <c r="G30" t="s">
+        <v>502</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -19290,10 +19917,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AS34"/>
+  <dimension ref="F3:AS38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+    <sheetView showGridLines="0" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -21223,12 +21850,23 @@
       <c r="W34" s="83"/>
       <c r="X34" s="84"/>
     </row>
+    <row r="37" spans="6:24">
+      <c r="F37" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="38" spans="6:24">
+      <c r="G38" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="U21" authorId="0">
+    <comment ref="U21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W21" authorId="0">
+    <comment ref="W21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y21" authorId="0">
+    <comment ref="Y21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB21" authorId="0">
+    <comment ref="AB21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="1">
+    <comment ref="I46" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="1">
+    <comment ref="J46" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V69" authorId="0">
+    <comment ref="V69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z69" authorId="0">
+    <comment ref="Z69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA69" authorId="0">
+    <comment ref="AA69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S78" authorId="0">
+    <comment ref="S78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +479,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="AA7" authorId="0">
+    <comment ref="AA7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB7" authorId="0">
+    <comment ref="AB7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +528,7 @@
     <author>AutoBVT</author>
   </authors>
   <commentList>
-    <comment ref="AL7" authorId="0">
+    <comment ref="AL7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN7" authorId="0">
+    <comment ref="AN7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP7" authorId="0">
+    <comment ref="AP7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS7" authorId="0">
+    <comment ref="AS7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +726,7 @@
     <author>AutoBVT</author>
   </authors>
   <commentList>
-    <comment ref="K16" authorId="0">
+    <comment ref="K16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -848,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="523">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2954,6 +2959,15 @@
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线 :</t>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <t>也就是说 把下面的表信息 关联起来  形成检查项目</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +3005,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4396,28 +4410,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4428,15 +4433,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4462,15 +4458,33 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 强调文字颜色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
@@ -10101,6 +10115,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>599367</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>75399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="7400925"/>
+          <a:ext cx="5666667" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10820,7 +10872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10862,7 +10914,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10897,7 +10949,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11106,6 +11158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -11148,6 +11201,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="F3:AA23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -11552,9 +11606,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -11669,10 +11724,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="188" t="s">
+      <c r="S15" s="209" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="189"/>
+      <c r="T15" s="210"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -11680,10 +11735,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="188" t="s">
+      <c r="AC15" s="209" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="189"/>
+      <c r="AD15" s="210"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -11863,32 +11918,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="190" t="s">
+      <c r="Y19" s="204" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="190" t="s">
+      <c r="Z19" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="191" t="s">
+      <c r="AA19" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="190" t="s">
+      <c r="AB19" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="190" t="s">
+      <c r="AC19" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="190" t="s">
+      <c r="AD19" s="204" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="190" t="s">
+      <c r="AE19" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="190" t="s">
+      <c r="AF19" s="204" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
+      <c r="AG19" s="204"/>
+      <c r="AH19" s="204"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -11923,16 +11978,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="191"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="192"/>
-      <c r="AE20" s="192"/>
-      <c r="AF20" s="192"/>
-      <c r="AG20" s="192"/>
-      <c r="AH20" s="192"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="211"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="205"/>
+      <c r="AE20" s="205"/>
+      <c r="AF20" s="205"/>
+      <c r="AG20" s="205"/>
+      <c r="AH20" s="205"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -11992,11 +12047,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="193" t="s">
+      <c r="AF21" s="206" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="194"/>
-      <c r="AH21" s="195"/>
+      <c r="AG21" s="207"/>
+      <c r="AH21" s="208"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -12031,7 +12086,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="196" t="s">
+      <c r="Y22" s="193" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -12052,9 +12107,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="201"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="192"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -12062,10 +12117,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="208" t="s">
+      <c r="E23" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="209"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -12103,7 +12158,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="197"/>
+      <c r="Y23" s="194"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -12120,9 +12175,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="201"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="192"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -12169,7 +12224,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="197"/>
+      <c r="Y24" s="194"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -12184,9 +12239,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="201"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="192"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -12233,7 +12288,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="197"/>
+      <c r="Y25" s="194"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -12248,9 +12303,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="199"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="201"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="192"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -12297,7 +12352,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="197"/>
+      <c r="Y26" s="194"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -12312,9 +12367,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="201"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="192"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -12363,7 +12418,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="198"/>
+      <c r="Y27" s="195"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -12378,9 +12433,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="199"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="201"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="192"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -12420,7 +12475,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="196" t="s">
+      <c r="Y28" s="193" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -12437,9 +12492,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="201"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="192"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -12465,7 +12520,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="197"/>
+      <c r="Y29" s="194"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -12480,9 +12535,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="199"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="201"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="192"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -12508,7 +12563,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="197"/>
+      <c r="Y30" s="194"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -12523,9 +12578,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="199"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="201"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="192"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -12551,7 +12606,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="197"/>
+      <c r="Y31" s="194"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -12564,9 +12619,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="199"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="201"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="192"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -12592,7 +12647,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="198"/>
+      <c r="Y32" s="195"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -12605,9 +12660,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="200"/>
-      <c r="AH32" s="201"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="192"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -12633,7 +12688,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="196" t="s">
+      <c r="Y33" s="193" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -12648,9 +12703,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="199"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="201"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="192"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -12676,7 +12731,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="197"/>
+      <c r="Y34" s="194"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -12689,9 +12744,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="199"/>
-      <c r="AG34" s="200"/>
-      <c r="AH34" s="201"/>
+      <c r="AF34" s="190"/>
+      <c r="AG34" s="191"/>
+      <c r="AH34" s="192"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -12717,7 +12772,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="197"/>
+      <c r="Y35" s="194"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -12730,9 +12785,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="199"/>
-      <c r="AG35" s="200"/>
-      <c r="AH35" s="201"/>
+      <c r="AF35" s="190"/>
+      <c r="AG35" s="191"/>
+      <c r="AH35" s="192"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -12760,7 +12815,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="198"/>
+      <c r="Y36" s="195"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -12773,9 +12828,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="199"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="201"/>
+      <c r="AF36" s="190"/>
+      <c r="AG36" s="191"/>
+      <c r="AH36" s="192"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -12925,7 +12980,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="202" t="s">
+      <c r="AH40" s="196" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -12968,7 +13023,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="203"/>
+      <c r="AH41" s="197"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -13009,7 +13064,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="204" t="s">
+      <c r="AH42" s="198" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -13043,14 +13098,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="206">
+      <c r="AE43" s="200">
         <v>0</v>
       </c>
-      <c r="AF43" s="207"/>
+      <c r="AF43" s="201"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="205"/>
+      <c r="AH43" s="199"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -13152,14 +13207,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="210" t="s">
+      <c r="AE46" s="188" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="210"/>
-      <c r="AG46" s="211" t="s">
+      <c r="AF46" s="188"/>
+      <c r="AG46" s="189" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="211"/>
+      <c r="AH46" s="189"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -13191,10 +13246,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="210"/>
-      <c r="AF47" s="210"/>
-      <c r="AG47" s="211"/>
-      <c r="AH47" s="211"/>
+      <c r="AE47" s="188"/>
+      <c r="AF47" s="188"/>
+      <c r="AG47" s="189"/>
+      <c r="AH47" s="189"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -13433,12 +13488,21 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -13453,21 +13517,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13478,6 +13533,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="D4:X18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -13830,10 +13886,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView showGridLines="0" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16934,6 +16991,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="F3:AH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17472,6 +17530,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="F3:AA22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17858,10 +17917,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="F3:AA26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -17945,11 +18005,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="6:27" ht="16.5">
+    <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="G7" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>521</v>
+      </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -18301,10 +18367,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="F3:AB28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -18373,8 +18440,12 @@
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
       <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
+      <c r="G6" s="107" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
@@ -18400,12 +18471,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="6:28">
+    <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
+      <c r="G7" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>247</v>
+      </c>
       <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="J7" s="92" t="s">
+        <v>521</v>
+      </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
       <c r="M7" s="80"/>
@@ -18430,7 +18507,6 @@
     <row r="8" spans="6:28" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
       <c r="I8" s="80"/>
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
@@ -18849,6 +18925,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="F2:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -19347,10 +19424,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="F2:AC30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19917,10 +19995,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AS38"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -21860,6 +21939,11 @@
         <v>504</v>
       </c>
     </row>
+    <row r="39" spans="6:24">
+      <c r="G39" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="10"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -21,9 +21,12 @@
     <sheet name="图片MS" sheetId="13" r:id="rId7"/>
     <sheet name="检查方法MS" sheetId="14" r:id="rId8"/>
     <sheet name="模板MS" sheetId="16" r:id="rId9"/>
-    <sheet name="商品模板关联" sheetId="15" r:id="rId10"/>
-    <sheet name="检查画面" sheetId="17" r:id="rId11"/>
-    <sheet name="账票出力" sheetId="18" r:id="rId12"/>
+    <sheet name="生产计划作成" sheetId="20" r:id="rId10"/>
+    <sheet name="生产计划.TXT例" sheetId="19" r:id="rId11"/>
+    <sheet name="商品模板关联" sheetId="15" r:id="rId12"/>
+    <sheet name="商品模板关联.TXT例 " sheetId="21" r:id="rId13"/>
+    <sheet name="检查画面" sheetId="17" r:id="rId14"/>
+    <sheet name="账票出力" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -853,7 +856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="553">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2853,10 +2856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户信息登录 用  ，其中可以区分用户是哪个生产线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工程信息登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2968,6 +2967,99 @@
   </si>
   <si>
     <t>也就是说 把下面的表信息 关联起来  形成检查项目</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>用户信息登录 用  ，其中可以区分用户属于哪个生产线</t>
+  </si>
+  <si>
+    <t>生产计划作成</t>
+  </si>
+  <si>
+    <t>20190101000000000001</t>
+  </si>
+  <si>
+    <t>A00000001</t>
+  </si>
+  <si>
+    <t>A00000002</t>
+  </si>
+  <si>
+    <t>A00000003</t>
+  </si>
+  <si>
+    <t>A00000004</t>
+  </si>
+  <si>
+    <t>取入</t>
+  </si>
+  <si>
+    <t>作番</t>
+  </si>
+  <si>
+    <t>コード：</t>
+  </si>
+  <si>
+    <t>作番：</t>
+  </si>
+  <si>
+    <t>每日的生产计划做成 ， 也就是 检查前  需要现有计划</t>
+  </si>
+  <si>
+    <t>从Txt或者CSV 文件导入</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>检查模板编号：</t>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>模板名称</t>
+  </si>
+  <si>
+    <t>A商品</t>
+  </si>
+  <si>
+    <t>B商品</t>
+  </si>
+  <si>
+    <t>C商品</t>
+  </si>
+  <si>
+    <t>D商品</t>
+  </si>
+  <si>
+    <t>模板1</t>
+  </si>
+  <si>
+    <t>模板2</t>
+  </si>
+  <si>
+    <t>模板3</t>
+  </si>
+  <si>
+    <t>模板4</t>
   </si>
 </sst>
 </file>
@@ -3845,7 +3937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4410,19 +4502,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4433,6 +4534,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4458,29 +4568,32 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4489,7 +4602,157 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4805,16 +5068,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>71232</xdr:rowOff>
+      <xdr:rowOff>80757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4823,7 +5086,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="1652382"/>
+          <a:off x="5591175" y="1661907"/>
           <a:ext cx="1200150" cy="338344"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -4898,13 +5161,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>208248</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>59428</xdr:rowOff>
+      <xdr:rowOff>68954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4916,8 +5179,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5437473" y="1821553"/>
-          <a:ext cx="1258602" cy="150121"/>
+          <a:off x="5437473" y="1831079"/>
+          <a:ext cx="153702" cy="140596"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -8466,15 +8729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>179614</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>313082</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>236882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8485,7 +8748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4865914" y="2428875"/>
+          <a:off x="4789714" y="2743200"/>
           <a:ext cx="1181218" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8564,15 +8827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:colOff>323851</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>379345</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>436495</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8581,7 +8844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553201" y="2552700"/>
+          <a:off x="6610351" y="2647950"/>
           <a:ext cx="1331844" cy="409576"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -8642,15 +8905,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>313082</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>236882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8661,9 +8924,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6047132" y="2557463"/>
-          <a:ext cx="506069" cy="200025"/>
+        <a:xfrm flipV="1">
+          <a:off x="5970932" y="2852738"/>
+          <a:ext cx="639419" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8675,6 +8938,149 @@
             <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="流程图: 文档 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="2366757"/>
+          <a:ext cx="1200150" cy="338344"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品模板关联</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.TXT</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:latin typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>151099</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="肘形连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="1"/>
+          <a:endCxn id="259" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5380324" y="2535928"/>
+          <a:ext cx="201327" cy="207271"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -10158,6 +10564,84 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="762000"/>
+          <a:ext cx="1838325" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -91299"/>
+            <a:gd name="adj2" fmla="val -29167"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TXT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>或者 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>都可以</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
@@ -11161,8 +11645,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11184,12 +11668,12 @@
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -11201,18 +11685,774 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3:AH26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:34" ht="15" thickBot="1"/>
+    <row r="4" spans="6:34">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="78"/>
+      <c r="Y4" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+    </row>
+    <row r="5" spans="6:34" ht="18.75" thickBot="1">
+      <c r="F5" s="79"/>
+      <c r="G5" s="94" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
+      <c r="Y5" s="39" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="6:34" ht="15" thickBot="1">
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="81"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+    </row>
+    <row r="7" spans="6:34" ht="15" thickBot="1">
+      <c r="F7" s="79"/>
+      <c r="G7" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="81"/>
+      <c r="Y7" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z7" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA7" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC7" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE7" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF7" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG7" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH7" s="59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="6:34" ht="15" thickBot="1">
+      <c r="F8" s="79"/>
+      <c r="G8" s="107" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" s="99"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="81"/>
+      <c r="Y8" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC8" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE8" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF8" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG8" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH8" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="6:34" ht="15" thickBot="1">
+      <c r="F9" s="79"/>
+      <c r="G9" s="214" t="s">
+        <v>537</v>
+      </c>
+      <c r="H9" s="99"/>
+      <c r="I9" s="92" t="s">
+        <v>520</v>
+      </c>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
+      <c r="Y9" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z9" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA9" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC9" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD9" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF9" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG9" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH9" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="6:34">
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="81"/>
+      <c r="Y10" s="65">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA10" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB10" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="36">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="63">
+        <v>43468.423611111109</v>
+      </c>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36">
+        <v>3003000</v>
+      </c>
+      <c r="AH10" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="11" spans="6:34">
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="81"/>
+      <c r="Y11" s="65">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA11" s="65" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB11" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC11" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="36">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="63">
+        <v>43469</v>
+      </c>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36">
+        <v>3003001</v>
+      </c>
+      <c r="AH11" s="63">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="12" spans="6:34">
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="81"/>
+      <c r="Y12" s="65">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA12" s="65" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB12" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC12" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="36">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="63">
+        <v>43470</v>
+      </c>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36">
+        <v>3003002</v>
+      </c>
+      <c r="AH12" s="63">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="13" spans="6:34">
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="L13" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="81"/>
+    </row>
+    <row r="14" spans="6:34">
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="K14" s="109" t="s">
+        <v>522</v>
+      </c>
+      <c r="L14" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="109">
+        <v>3</v>
+      </c>
+      <c r="N14" s="213">
+        <v>43466</v>
+      </c>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="81"/>
+    </row>
+    <row r="15" spans="6:34">
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="11">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="K15" s="109" t="s">
+        <v>523</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+      <c r="N15" s="212">
+        <v>43467</v>
+      </c>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="81"/>
+    </row>
+    <row r="16" spans="6:34">
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="11">
+        <v>3</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="K16" s="109" t="s">
+        <v>524</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="212">
+        <v>43468</v>
+      </c>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="81"/>
+    </row>
+    <row r="17" spans="6:18">
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="K17" s="109" t="s">
+        <v>525</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6</v>
+      </c>
+      <c r="N17" s="212">
+        <v>43469</v>
+      </c>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="81"/>
+    </row>
+    <row r="18" spans="6:18">
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="81"/>
+    </row>
+    <row r="19" spans="6:18" ht="15" thickBot="1">
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="81"/>
+    </row>
+    <row r="20" spans="6:18" ht="15" thickBot="1">
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="93" t="s">
+        <v>535</v>
+      </c>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+    </row>
+    <row r="21" spans="6:18" ht="15" thickBot="1">
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+    </row>
+    <row r="25" spans="6:18">
+      <c r="H25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18">
+      <c r="H26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7:AH8">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7:AF8">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7:AF8">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="36">
+        <v>3</v>
+      </c>
+      <c r="E2" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="36">
+        <v>4</v>
+      </c>
+      <c r="E3" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5</v>
+      </c>
+      <c r="E4" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="36">
+        <v>6</v>
+      </c>
+      <c r="E5" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="36">
+        <v>7</v>
+      </c>
+      <c r="E6" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" s="36">
+        <v>8</v>
+      </c>
+      <c r="E7" s="63">
+        <v>43468.423611111109</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="F3:AA23"/>
+  <dimension ref="F3:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
     <col min="8" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="13" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" customWidth="1"/>
     <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11241,7 +12481,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -11264,10 +12504,12 @@
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
       <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="107" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>247</v>
+      </c>
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
@@ -11288,11 +12530,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="6:27">
+    <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
+      <c r="H7" s="107" t="s">
+        <v>537</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>398</v>
+      </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -11314,10 +12559,15 @@
     </row>
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="H8" s="107" t="s">
+        <v>542</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>520</v>
+      </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
       <c r="M8" s="80"/>
@@ -11336,20 +12586,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="6:27" ht="15" thickBot="1">
+    <row r="9" spans="6:27">
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="K9" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="93" t="s">
-        <v>338</v>
-      </c>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
@@ -11389,20 +12634,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="6:27" ht="17.25" thickBot="1">
+    <row r="11" spans="6:27" ht="16.5">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
+      <c r="L11" s="28" t="s">
+        <v>544</v>
+      </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="80"/>
@@ -11419,20 +12668,24 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="6:27" ht="15" thickBot="1">
+    <row r="12" spans="6:27">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
-      <c r="H12" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="I12" s="89" t="s">
-        <v>398</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>396</v>
-      </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
+      <c r="H12" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>549</v>
+      </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
       <c r="O12" s="80"/>
@@ -11452,17 +12705,21 @@
     <row r="13" spans="6:27">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
-      <c r="H13" s="86" t="s">
-        <v>442</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>403</v>
-      </c>
-      <c r="J13" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="H13" s="218" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="218" t="s">
+        <v>398</v>
+      </c>
+      <c r="J13" s="218" t="s">
+        <v>546</v>
+      </c>
+      <c r="K13" s="218" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="218" t="s">
+        <v>550</v>
+      </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
       <c r="O13" s="80"/>
@@ -11482,17 +12739,21 @@
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
-      <c r="H14" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>398</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
+      <c r="H14" s="218" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="218" t="s">
+        <v>400</v>
+      </c>
+      <c r="J14" s="218" t="s">
+        <v>547</v>
+      </c>
+      <c r="K14" s="218" t="s">
+        <v>397</v>
+      </c>
+      <c r="L14" s="218" t="s">
+        <v>551</v>
+      </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
@@ -11503,17 +12764,21 @@
     <row r="15" spans="6:27">
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
-      <c r="H15" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>400</v>
-      </c>
-      <c r="J15" s="87" t="s">
-        <v>397</v>
-      </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
+      <c r="H15" s="218" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="218" t="s">
+        <v>445</v>
+      </c>
+      <c r="J15" s="218" t="s">
+        <v>548</v>
+      </c>
+      <c r="K15" s="218" t="s">
+        <v>402</v>
+      </c>
+      <c r="L15" s="218" t="s">
+        <v>552</v>
+      </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
       <c r="O15" s="80"/>
@@ -11524,15 +12789,6 @@
     <row r="16" spans="6:27">
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
-      <c r="H16" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="J16" s="87" t="s">
-        <v>402</v>
-      </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
       <c r="M16" s="80"/>
@@ -11557,7 +12813,7 @@
       <c r="Q17" s="80"/>
       <c r="R17" s="81"/>
     </row>
-    <row r="18" spans="6:18">
+    <row r="18" spans="6:18" ht="15" thickBot="1">
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
@@ -11573,23 +12829,55 @@
       <c r="R18" s="81"/>
     </row>
     <row r="19" spans="6:18" ht="15" thickBot="1">
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="84"/>
-    </row>
-    <row r="23" spans="6:18">
-      <c r="G23" t="s">
-        <v>505</v>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="81"/>
+    </row>
+    <row r="20" spans="6:18">
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="81"/>
+    </row>
+    <row r="21" spans="6:18" ht="15" thickBot="1">
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+    </row>
+    <row r="25" spans="6:18">
+      <c r="G25" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -11601,15 +12889,86 @@
     <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="86" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -11724,10 +13083,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="209" t="s">
+      <c r="S15" s="188" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="210"/>
+      <c r="T15" s="189"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -11735,10 +13094,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="209" t="s">
+      <c r="AC15" s="188" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="210"/>
+      <c r="AD15" s="189"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -11918,32 +13277,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="204" t="s">
+      <c r="Y19" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="204" t="s">
+      <c r="Z19" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="211" t="s">
+      <c r="AA19" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="204" t="s">
+      <c r="AB19" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="204" t="s">
+      <c r="AC19" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="204" t="s">
+      <c r="AD19" s="190" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="204" t="s">
+      <c r="AE19" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="204" t="s">
+      <c r="AF19" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="204"/>
-      <c r="AH19" s="204"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -11978,16 +13337,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="211"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="205"/>
-      <c r="AE20" s="205"/>
-      <c r="AF20" s="205"/>
-      <c r="AG20" s="205"/>
-      <c r="AH20" s="205"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="192"/>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="192"/>
+      <c r="AH20" s="192"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -12047,11 +13406,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="206" t="s">
+      <c r="AF21" s="193" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="208"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="195"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -12086,7 +13445,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="193" t="s">
+      <c r="Y22" s="196" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -12107,9 +13466,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="190"/>
-      <c r="AG22" s="191"/>
-      <c r="AH22" s="192"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="201"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -12117,10 +13476,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="202" t="s">
+      <c r="E23" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="203"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -12158,7 +13517,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="194"/>
+      <c r="Y23" s="197"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -12175,9 +13534,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="190"/>
-      <c r="AG23" s="191"/>
-      <c r="AH23" s="192"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="201"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -12224,7 +13583,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="194"/>
+      <c r="Y24" s="197"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -12239,9 +13598,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="190"/>
-      <c r="AG24" s="191"/>
-      <c r="AH24" s="192"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="201"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -12288,7 +13647,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="194"/>
+      <c r="Y25" s="197"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -12303,9 +13662,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="190"/>
-      <c r="AG25" s="191"/>
-      <c r="AH25" s="192"/>
+      <c r="AF25" s="199"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="201"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -12352,7 +13711,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="194"/>
+      <c r="Y26" s="197"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -12367,9 +13726,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="190"/>
-      <c r="AG26" s="191"/>
-      <c r="AH26" s="192"/>
+      <c r="AF26" s="199"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="201"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -12418,7 +13777,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="195"/>
+      <c r="Y27" s="198"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -12433,9 +13792,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="190"/>
-      <c r="AG27" s="191"/>
-      <c r="AH27" s="192"/>
+      <c r="AF27" s="199"/>
+      <c r="AG27" s="200"/>
+      <c r="AH27" s="201"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -12475,7 +13834,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="193" t="s">
+      <c r="Y28" s="196" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -12492,9 +13851,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="190"/>
-      <c r="AG28" s="191"/>
-      <c r="AH28" s="192"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="201"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -12520,7 +13879,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="194"/>
+      <c r="Y29" s="197"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -12535,9 +13894,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="190"/>
-      <c r="AG29" s="191"/>
-      <c r="AH29" s="192"/>
+      <c r="AF29" s="199"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="201"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -12563,7 +13922,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="194"/>
+      <c r="Y30" s="197"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -12578,9 +13937,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="192"/>
+      <c r="AF30" s="199"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="201"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -12606,7 +13965,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="194"/>
+      <c r="Y31" s="197"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -12619,9 +13978,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="190"/>
-      <c r="AG31" s="191"/>
-      <c r="AH31" s="192"/>
+      <c r="AF31" s="199"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="201"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -12647,7 +14006,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="195"/>
+      <c r="Y32" s="198"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -12660,9 +14019,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="190"/>
-      <c r="AG32" s="191"/>
-      <c r="AH32" s="192"/>
+      <c r="AF32" s="199"/>
+      <c r="AG32" s="200"/>
+      <c r="AH32" s="201"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -12688,7 +14047,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="193" t="s">
+      <c r="Y33" s="196" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -12703,9 +14062,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="191"/>
-      <c r="AH33" s="192"/>
+      <c r="AF33" s="199"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="201"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -12731,7 +14090,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="194"/>
+      <c r="Y34" s="197"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -12744,9 +14103,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="190"/>
-      <c r="AG34" s="191"/>
-      <c r="AH34" s="192"/>
+      <c r="AF34" s="199"/>
+      <c r="AG34" s="200"/>
+      <c r="AH34" s="201"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -12772,7 +14131,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="194"/>
+      <c r="Y35" s="197"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -12785,9 +14144,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="190"/>
-      <c r="AG35" s="191"/>
-      <c r="AH35" s="192"/>
+      <c r="AF35" s="199"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="201"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -12804,7 +14163,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -12815,7 +14174,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="195"/>
+      <c r="Y36" s="198"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -12828,9 +14187,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="190"/>
-      <c r="AG36" s="191"/>
-      <c r="AH36" s="192"/>
+      <c r="AF36" s="199"/>
+      <c r="AG36" s="200"/>
+      <c r="AH36" s="201"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -12980,7 +14339,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="196" t="s">
+      <c r="AH40" s="202" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -13023,7 +14382,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="197"/>
+      <c r="AH41" s="203"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -13064,7 +14423,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="198" t="s">
+      <c r="AH42" s="204" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -13098,14 +14457,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="200">
+      <c r="AE43" s="206">
         <v>0</v>
       </c>
-      <c r="AF43" s="201"/>
+      <c r="AF43" s="207"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="199"/>
+      <c r="AH43" s="205"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -13207,14 +14566,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="188" t="s">
+      <c r="AE46" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="188"/>
-      <c r="AG46" s="189" t="s">
+      <c r="AF46" s="210"/>
+      <c r="AG46" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="189"/>
+      <c r="AH46" s="211"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -13246,10 +14605,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="188"/>
-      <c r="AF47" s="188"/>
-      <c r="AG47" s="189"/>
-      <c r="AH47" s="189"/>
+      <c r="AE47" s="210"/>
+      <c r="AF47" s="210"/>
+      <c r="AG47" s="211"/>
+      <c r="AH47" s="211"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -13359,7 +14718,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -13396,7 +14755,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -13467,7 +14826,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -13483,26 +14842,17 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -13517,12 +14867,21 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13531,7 +14890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="D4:X18"/>
@@ -13889,8 +15248,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView showGridLines="0" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52:W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13923,7 +15282,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -13936,7 +15295,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -15708,7 +17067,7 @@
         <v>180</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>304</v>
@@ -15760,7 +17119,7 @@
         <v>187</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>305</v>
@@ -15812,7 +17171,7 @@
         <v>163</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>163</v>
@@ -16930,58 +18289,58 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T56">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V55:W56">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55:U56">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55:U56">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U57">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P48">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68:U71">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA68:AC69">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V70">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V68:V69">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P79">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S77:S78">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA68:AA69">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA70">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68:W69 Y68:Z69">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X68:X69">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y77:Z78">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16995,7 +18354,7 @@
   <dimension ref="F3:AH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -17235,7 +18594,9 @@
       <c r="K11" s="80"/>
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="N11" s="85" t="s">
+        <v>529</v>
+      </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
@@ -17522,6 +18883,7 @@
     <hyperlink ref="N7" location="模板MS!A1" display="模板MS"/>
     <hyperlink ref="S7" location="检查画面!A1" display="检查画面"/>
     <hyperlink ref="W7" location="账票出力!A1" display="账票出力"/>
+    <hyperlink ref="N11" location="生产计划作成!A1" display="生产计划作成"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17534,7 +18896,7 @@
   <dimension ref="F3:AA22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -17903,7 +19265,7 @@
     </row>
     <row r="22" spans="6:18">
       <c r="F22" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -17921,7 +19283,7 @@
   <dimension ref="F3:AA26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -18008,13 +19370,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -18348,12 +19710,12 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -18474,14 +19836,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -18906,12 +20268,12 @@
     </row>
     <row r="27" spans="6:18">
       <c r="G27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="H28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -18929,7 +20291,7 @@
   <dimension ref="F2:AA57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19389,7 +20751,7 @@
         <v>367</v>
       </c>
       <c r="V31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="11:11">
@@ -19399,17 +20761,17 @@
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -19427,9 +20789,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="F2:AC30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -19974,12 +21334,12 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -19998,9 +21358,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -21931,17 +23289,17 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="11"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="563">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2718,10 +2718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>テスト者 （生产线：SRM1312A）</t>
   </si>
   <si>
@@ -3060,6 +3056,39 @@
   </si>
   <si>
     <t>模板4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">操作：  </t>
+  </si>
+  <si>
+    <t>行选择  删除</t>
+  </si>
+  <si>
+    <t>行选择  值修正  更新</t>
+  </si>
+  <si>
+    <t>值入力  登录</t>
+  </si>
+  <si>
+    <t>Key入力  查询</t>
+  </si>
+  <si>
+    <t>文件选择 导入</t>
+  </si>
+  <si>
+    <t>实际画面例： 所有的MS画面 的操作 基本是一致的 ，如果没有特殊  就不重复叙述</t>
+  </si>
+  <si>
+    <t>查询时  适当的采用模糊检索  （生产线 不模糊检索）</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>登录</t>
   </si>
 </sst>
 </file>
@@ -4499,6 +4528,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4574,27 +4624,6 @@
     <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
@@ -4602,77 +4631,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9913,6 +9872,421 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>132417</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="5762625"/>
+          <a:ext cx="7466667" cy="5514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200572</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>42785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292679" y="12042321"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200572</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292679" y="19294929"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>132536</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="19294929"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>50893</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15280821" y="19294929"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200572</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292679" y="26370643"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>132536</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="26370643"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200572</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292679" y="32915679"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>132536</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="32915679"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>50893</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>42786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15280821" y="32915679"/>
+          <a:ext cx="6514286" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -10217,72 +10591,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>选择行时表示图片</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1162050" y="390525"/>
-          <a:ext cx="11515725" cy="3971925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-            <a:alpha val="48000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11645,9 +11953,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -11668,12 +11974,12 @@
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -11685,9 +11991,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:AH26"/>
+  <dimension ref="F3:AH30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:J30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -11735,7 +12043,7 @@
     <row r="5" spans="6:34" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -11749,10 +12057,10 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -11793,7 +12101,7 @@
     <row r="7" spans="6:34" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
@@ -11841,7 +12149,7 @@
     <row r="8" spans="6:34" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="107" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H8" s="99"/>
       <c r="J8" s="80"/>
@@ -11886,12 +12194,12 @@
     </row>
     <row r="9" spans="6:34" ht="15" thickBot="1">
       <c r="F9" s="79"/>
-      <c r="G9" s="214" t="s">
-        <v>537</v>
+      <c r="G9" s="189" t="s">
+        <v>536</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -11983,7 +12291,7 @@
         <v>300</v>
       </c>
       <c r="AA11" s="65" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB11" s="65" t="s">
         <v>167</v>
@@ -12026,7 +12334,7 @@
         <v>300</v>
       </c>
       <c r="AA12" s="65" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB12" s="65" t="s">
         <v>167</v>
@@ -12058,7 +12366,7 @@
         <v>187</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K13" s="64" t="s">
         <v>405</v>
@@ -12084,13 +12392,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>531</v>
-      </c>
       <c r="K14" s="109" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L14" s="109" t="s">
         <v>247</v>
@@ -12098,7 +12406,7 @@
       <c r="M14" s="109">
         <v>3</v>
       </c>
-      <c r="N14" s="213">
+      <c r="N14" s="188">
         <v>43466</v>
       </c>
       <c r="O14" s="80"/>
@@ -12113,13 +12421,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K15" s="109" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>247</v>
@@ -12127,7 +12435,7 @@
       <c r="M15" s="1">
         <v>4</v>
       </c>
-      <c r="N15" s="212">
+      <c r="N15" s="187">
         <v>43467</v>
       </c>
       <c r="O15" s="80"/>
@@ -12142,13 +12450,13 @@
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K16" s="109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>247</v>
@@ -12156,7 +12464,7 @@
       <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="N16" s="212">
+      <c r="N16" s="187">
         <v>43468</v>
       </c>
       <c r="O16" s="80"/>
@@ -12171,13 +12479,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K17" s="109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>247</v>
@@ -12185,7 +12493,7 @@
       <c r="M17" s="1">
         <v>6</v>
       </c>
-      <c r="N17" s="212">
+      <c r="N17" s="187">
         <v>43469</v>
       </c>
       <c r="O17" s="80"/>
@@ -12233,7 +12541,7 @@
       <c r="L20" s="104"/>
       <c r="M20" s="105"/>
       <c r="N20" s="93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -12257,12 +12565,25 @@
     </row>
     <row r="25" spans="6:18">
       <c r="H25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18">
+      <c r="H29" t="s">
+        <v>552</v>
+      </c>
+      <c r="J29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="6:18">
+      <c r="J30" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -12335,7 +12656,7 @@
         <v>164</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D2" s="36">
         <v>3</v>
@@ -12352,7 +12673,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D3" s="36">
         <v>4</v>
@@ -12369,7 +12690,7 @@
         <v>164</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D4" s="36">
         <v>5</v>
@@ -12386,7 +12707,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D5" s="36">
         <v>6</v>
@@ -12403,7 +12724,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="36">
         <v>7</v>
@@ -12420,7 +12741,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D7" s="36">
         <v>8</v>
@@ -12441,10 +12762,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="F3:AA25"/>
+  <dimension ref="F3:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -12481,7 +12802,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -12533,7 +12854,7 @@
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="H7" s="107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>398</v>
@@ -12560,13 +12881,13 @@
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="H8" s="107" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I8" s="89" t="s">
         <v>396</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -12644,13 +12965,13 @@
         <v>405</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>406</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
@@ -12678,13 +12999,13 @@
         <v>403</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>404</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -12705,20 +13026,20 @@
     <row r="13" spans="6:27">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
-      <c r="H13" s="218" t="s">
+      <c r="H13" s="193" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="218" t="s">
+      <c r="I13" s="193" t="s">
         <v>398</v>
       </c>
-      <c r="J13" s="218" t="s">
-        <v>546</v>
-      </c>
-      <c r="K13" s="218" t="s">
+      <c r="J13" s="193" t="s">
+        <v>545</v>
+      </c>
+      <c r="K13" s="193" t="s">
         <v>396</v>
       </c>
-      <c r="L13" s="218" t="s">
-        <v>550</v>
+      <c r="L13" s="193" t="s">
+        <v>549</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -12739,20 +13060,20 @@
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
-      <c r="H14" s="218" t="s">
+      <c r="H14" s="193" t="s">
         <v>250</v>
       </c>
-      <c r="I14" s="218" t="s">
+      <c r="I14" s="193" t="s">
         <v>400</v>
       </c>
-      <c r="J14" s="218" t="s">
-        <v>547</v>
-      </c>
-      <c r="K14" s="218" t="s">
+      <c r="J14" s="193" t="s">
+        <v>546</v>
+      </c>
+      <c r="K14" s="193" t="s">
         <v>397</v>
       </c>
-      <c r="L14" s="218" t="s">
-        <v>551</v>
+      <c r="L14" s="193" t="s">
+        <v>550</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -12764,20 +13085,20 @@
     <row r="15" spans="6:27">
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
-      <c r="H15" s="218" t="s">
+      <c r="H15" s="193" t="s">
         <v>251</v>
       </c>
-      <c r="I15" s="218" t="s">
+      <c r="I15" s="193" t="s">
         <v>445</v>
       </c>
-      <c r="J15" s="218" t="s">
-        <v>548</v>
-      </c>
-      <c r="K15" s="218" t="s">
+      <c r="J15" s="193" t="s">
+        <v>547</v>
+      </c>
+      <c r="K15" s="193" t="s">
         <v>402</v>
       </c>
-      <c r="L15" s="218" t="s">
-        <v>552</v>
+      <c r="L15" s="193" t="s">
+        <v>551</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -12831,13 +13152,13 @@
     <row r="19" spans="6:18" ht="15" thickBot="1">
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="217"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
       <c r="M19" s="92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
@@ -12877,7 +13198,20 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18">
+      <c r="H27" t="s">
+        <v>552</v>
+      </c>
+      <c r="J27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18">
+      <c r="J28" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -12968,7 +13302,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -13003,25 +13337,25 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="173" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="173" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="175" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="173" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X12" s="175" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
@@ -13083,10 +13417,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="188" t="s">
+      <c r="S15" s="195" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="189"/>
+      <c r="T15" s="196"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -13094,10 +13428,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="188" t="s">
+      <c r="AC15" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="189"/>
+      <c r="AD15" s="196"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -13110,7 +13444,7 @@
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="174" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D16" s="130" t="s">
         <v>164</v>
@@ -13148,7 +13482,7 @@
         <v>449</v>
       </c>
       <c r="S16" s="113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T16" s="128"/>
       <c r="V16" s="114"/>
@@ -13165,7 +13499,7 @@
         <v>452</v>
       </c>
       <c r="AC16" s="113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AD16" s="128"/>
       <c r="AE16" s="128"/>
@@ -13277,32 +13611,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="190" t="s">
+      <c r="Y19" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="190" t="s">
+      <c r="Z19" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="191" t="s">
+      <c r="AA19" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="190" t="s">
+      <c r="AB19" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="190" t="s">
+      <c r="AC19" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="190" t="s">
+      <c r="AD19" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="190" t="s">
+      <c r="AE19" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="190" t="s">
+      <c r="AF19" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -13337,16 +13671,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="191"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="192"/>
-      <c r="AE20" s="192"/>
-      <c r="AF20" s="192"/>
-      <c r="AG20" s="192"/>
-      <c r="AH20" s="192"/>
+      <c r="Y20" s="197"/>
+      <c r="Z20" s="197"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="199"/>
+      <c r="AE20" s="199"/>
+      <c r="AF20" s="199"/>
+      <c r="AG20" s="199"/>
+      <c r="AH20" s="199"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -13406,11 +13740,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="193" t="s">
+      <c r="AF21" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="194"/>
-      <c r="AH21" s="195"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="202"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -13445,7 +13779,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="196" t="s">
+      <c r="Y22" s="203" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -13466,9 +13800,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="201"/>
+      <c r="AF22" s="206"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="208"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -13476,10 +13810,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="208" t="s">
+      <c r="E23" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="209"/>
+      <c r="F23" s="216"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -13517,7 +13851,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="197"/>
+      <c r="Y23" s="204"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -13534,9 +13868,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="201"/>
+      <c r="AF23" s="206"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="208"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -13583,7 +13917,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="197"/>
+      <c r="Y24" s="204"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -13598,9 +13932,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="201"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="208"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -13647,7 +13981,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="197"/>
+      <c r="Y25" s="204"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -13662,9 +13996,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="199"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="201"/>
+      <c r="AF25" s="206"/>
+      <c r="AG25" s="207"/>
+      <c r="AH25" s="208"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -13711,7 +14045,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="197"/>
+      <c r="Y26" s="204"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -13726,9 +14060,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="201"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="208"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -13777,7 +14111,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="198"/>
+      <c r="Y27" s="205"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -13792,9 +14126,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="199"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="201"/>
+      <c r="AF27" s="206"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="208"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -13834,7 +14168,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="196" t="s">
+      <c r="Y28" s="203" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -13851,9 +14185,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="201"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="208"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -13879,7 +14213,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="197"/>
+      <c r="Y29" s="204"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -13894,9 +14228,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="199"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="201"/>
+      <c r="AF29" s="206"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="208"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -13922,7 +14256,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="197"/>
+      <c r="Y30" s="204"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -13937,9 +14271,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="199"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="201"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="208"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -13965,7 +14299,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="197"/>
+      <c r="Y31" s="204"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -13978,9 +14312,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="199"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="201"/>
+      <c r="AF31" s="206"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="208"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -14006,7 +14340,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="198"/>
+      <c r="Y32" s="205"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -14019,9 +14353,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="200"/>
-      <c r="AH32" s="201"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
+      <c r="AH32" s="208"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -14047,7 +14381,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="196" t="s">
+      <c r="Y33" s="203" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -14062,9 +14396,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="199"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="201"/>
+      <c r="AF33" s="206"/>
+      <c r="AG33" s="207"/>
+      <c r="AH33" s="208"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -14090,7 +14424,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="197"/>
+      <c r="Y34" s="204"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -14103,9 +14437,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="199"/>
-      <c r="AG34" s="200"/>
-      <c r="AH34" s="201"/>
+      <c r="AF34" s="206"/>
+      <c r="AG34" s="207"/>
+      <c r="AH34" s="208"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -14131,7 +14465,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="197"/>
+      <c r="Y35" s="204"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -14144,9 +14478,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="199"/>
-      <c r="AG35" s="200"/>
-      <c r="AH35" s="201"/>
+      <c r="AF35" s="206"/>
+      <c r="AG35" s="207"/>
+      <c r="AH35" s="208"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -14163,7 +14497,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -14174,7 +14508,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="198"/>
+      <c r="Y36" s="205"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -14187,9 +14521,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="199"/>
-      <c r="AG36" s="200"/>
-      <c r="AH36" s="201"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="207"/>
+      <c r="AH36" s="208"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -14339,7 +14673,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="202" t="s">
+      <c r="AH40" s="209" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -14382,7 +14716,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="203"/>
+      <c r="AH41" s="210"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -14423,7 +14757,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="204" t="s">
+      <c r="AH42" s="211" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -14457,14 +14791,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="206">
+      <c r="AE43" s="213">
         <v>0</v>
       </c>
-      <c r="AF43" s="207"/>
+      <c r="AF43" s="214"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="205"/>
+      <c r="AH43" s="212"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -14566,14 +14900,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="210" t="s">
+      <c r="AE46" s="217" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="210"/>
-      <c r="AG46" s="211" t="s">
+      <c r="AF46" s="217"/>
+      <c r="AG46" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="211"/>
+      <c r="AH46" s="218"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -14605,10 +14939,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="210"/>
-      <c r="AF47" s="210"/>
-      <c r="AG47" s="211"/>
-      <c r="AH47" s="211"/>
+      <c r="AE47" s="217"/>
+      <c r="AF47" s="217"/>
+      <c r="AG47" s="218"/>
+      <c r="AH47" s="218"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -14718,7 +15052,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -14755,7 +15089,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -14826,7 +15160,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -14842,7 +15176,7 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -14917,7 +15251,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="O5" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
@@ -14931,7 +15265,7 @@
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
       <c r="D6" s="176" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -15006,13 +15340,13 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="79"/>
       <c r="E9" s="107" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F9" s="177">
         <v>43466</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H9" s="177">
         <v>43466</v>
@@ -15020,7 +15354,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="92" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="81"/>
@@ -15282,7 +15616,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -15295,7 +15629,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -15319,7 +15653,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="16.5">
@@ -15367,16 +15701,16 @@
     </row>
     <row r="13" spans="2:29">
       <c r="C13" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>474</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="14" spans="2:29">
@@ -15420,20 +15754,20 @@
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="187" t="s">
+      <c r="P15" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187" t="s">
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187" t="s">
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194" t="s">
         <v>181</v>
       </c>
-      <c r="W15" s="187"/>
+      <c r="W15" s="194"/>
       <c r="X15" s="37" t="s">
         <v>44</v>
       </c>
@@ -15526,10 +15860,10 @@
         <v>8</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -15686,10 +16020,10 @@
     </row>
     <row r="22" spans="3:29">
       <c r="G22" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -15730,7 +16064,7 @@
         <v>106</v>
       </c>
       <c r="Y22" s="51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Z22" s="51" t="s">
         <v>138</v>
@@ -16356,10 +16690,10 @@
     </row>
     <row r="34" spans="7:29">
       <c r="G34" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="163" t="s">
@@ -16610,10 +16944,10 @@
     </row>
     <row r="43" spans="7:29">
       <c r="G43" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -16623,7 +16957,7 @@
         <v>395</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="7:29">
@@ -16844,10 +17178,10 @@
       </c>
       <c r="L53" s="186"/>
       <c r="N53" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -17000,10 +17334,10 @@
     </row>
     <row r="65" spans="14:31" ht="16.5">
       <c r="N65" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -17067,7 +17401,7 @@
         <v>180</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>304</v>
@@ -17119,7 +17453,7 @@
         <v>187</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>305</v>
@@ -17171,7 +17505,7 @@
         <v>163</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>163</v>
@@ -17485,7 +17819,7 @@
         <v>230</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>198</v>
@@ -18478,7 +18812,7 @@
       <c r="U7" s="80"/>
       <c r="V7" s="80"/>
       <c r="W7" s="85" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="X7" s="80"/>
       <c r="Y7" s="80"/>
@@ -18595,7 +18929,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
@@ -18868,7 +19202,7 @@
     </row>
     <row r="21" spans="6:34">
       <c r="F21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -18893,11 +19227,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="F3:AA22"/>
+  <dimension ref="F3:AA185"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -19265,7 +19597,50 @@
     </row>
     <row r="22" spans="6:18">
       <c r="F22" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18">
+      <c r="F24" t="s">
+        <v>552</v>
+      </c>
+      <c r="H24" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18">
+      <c r="H25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18">
+      <c r="H26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18">
+      <c r="F29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -19274,16 +19649,17 @@
     <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="F3:AA26"/>
+  <dimension ref="F3:AA34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G31" sqref="G31:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19370,13 +19746,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -19710,12 +20086,35 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>494</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18">
+      <c r="G31" t="s">
+        <v>552</v>
+      </c>
+      <c r="I31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18">
+      <c r="I32" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -19730,10 +20129,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="F3:AB28"/>
+  <dimension ref="F3:AB35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19836,14 +20235,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -20268,12 +20667,35 @@
     </row>
     <row r="27" spans="6:18">
       <c r="G27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="H28" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18">
+      <c r="H32" t="s">
+        <v>552</v>
+      </c>
+      <c r="J32" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -20751,7 +21173,7 @@
         <v>367</v>
       </c>
       <c r="V31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="11:11">
@@ -20761,17 +21183,17 @@
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -20787,9 +21209,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="F2:AC30"/>
+  <dimension ref="F2:AC36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -20893,7 +21317,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="6:29">
+    <row r="7" spans="6:29" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="80"/>
       <c r="H7" s="80"/>
@@ -20926,9 +21350,15 @@
     <row r="8" spans="6:29" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="H8" s="107" t="s">
+        <v>518</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>519</v>
+      </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
       <c r="M8" s="80"/>
@@ -21334,12 +21764,35 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>501</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" t="s">
+        <v>552</v>
+      </c>
+      <c r="H33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="H34" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="H35" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="H36" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -21348,8 +21801,7 @@
     <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21358,7 +21810,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -21488,9 +21942,6 @@
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
-      <c r="M6" s="95" t="s">
-        <v>341</v>
-      </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
       <c r="P6" s="80"/>
@@ -21499,7 +21950,9 @@
       <c r="S6" s="80"/>
       <c r="T6" s="80"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
+      <c r="V6" s="95" t="s">
+        <v>341</v>
+      </c>
       <c r="W6" s="80"/>
       <c r="X6" s="81"/>
       <c r="AD6" s="44" t="s">
@@ -21564,11 +22017,8 @@
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="92" t="s">
+      <c r="M7" s="92" t="s">
         <v>352</v>
-      </c>
-      <c r="M7" s="92" t="s">
-        <v>458</v>
       </c>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
@@ -23289,23 +23739,23 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M6" location="画面MENU!A1" display="返回"/>
+    <hyperlink ref="V6" location="画面MENU!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -4552,28 +4552,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4584,15 +4575,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4618,11 +4600,29 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11953,7 +11953,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -13417,10 +13419,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="195" t="s">
+      <c r="S15" s="216" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="196"/>
+      <c r="T15" s="217"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -13428,10 +13430,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="195" t="s">
+      <c r="AC15" s="216" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="196"/>
+      <c r="AD15" s="217"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -13611,32 +13613,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="197" t="s">
+      <c r="Y19" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="197" t="s">
+      <c r="Z19" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="198" t="s">
+      <c r="AA19" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="197" t="s">
+      <c r="AB19" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="197" t="s">
+      <c r="AC19" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="197" t="s">
+      <c r="AD19" s="211" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="197" t="s">
+      <c r="AE19" s="211" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="197" t="s">
+      <c r="AF19" s="211" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="197"/>
+      <c r="AG19" s="211"/>
+      <c r="AH19" s="211"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -13671,16 +13673,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="197"/>
-      <c r="Z20" s="197"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="197"/>
-      <c r="AC20" s="197"/>
-      <c r="AD20" s="199"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="199"/>
-      <c r="AG20" s="199"/>
-      <c r="AH20" s="199"/>
+      <c r="Y20" s="211"/>
+      <c r="Z20" s="211"/>
+      <c r="AA20" s="218"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="211"/>
+      <c r="AD20" s="212"/>
+      <c r="AE20" s="212"/>
+      <c r="AF20" s="212"/>
+      <c r="AG20" s="212"/>
+      <c r="AH20" s="212"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -13740,11 +13742,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="200" t="s">
+      <c r="AF21" s="213" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="202"/>
+      <c r="AG21" s="214"/>
+      <c r="AH21" s="215"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -13779,7 +13781,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="203" t="s">
+      <c r="Y22" s="200" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -13800,9 +13802,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="206"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="208"/>
+      <c r="AF22" s="197"/>
+      <c r="AG22" s="198"/>
+      <c r="AH22" s="199"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -13810,10 +13812,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="216"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -13851,7 +13853,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="204"/>
+      <c r="Y23" s="201"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -13868,9 +13870,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="206"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="208"/>
+      <c r="AF23" s="197"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="199"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -13917,7 +13919,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="204"/>
+      <c r="Y24" s="201"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -13932,9 +13934,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="207"/>
-      <c r="AH24" s="208"/>
+      <c r="AF24" s="197"/>
+      <c r="AG24" s="198"/>
+      <c r="AH24" s="199"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -13981,7 +13983,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="204"/>
+      <c r="Y25" s="201"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -13996,9 +13998,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="206"/>
-      <c r="AG25" s="207"/>
-      <c r="AH25" s="208"/>
+      <c r="AF25" s="197"/>
+      <c r="AG25" s="198"/>
+      <c r="AH25" s="199"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -14045,7 +14047,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="204"/>
+      <c r="Y26" s="201"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -14060,9 +14062,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="206"/>
-      <c r="AG26" s="207"/>
-      <c r="AH26" s="208"/>
+      <c r="AF26" s="197"/>
+      <c r="AG26" s="198"/>
+      <c r="AH26" s="199"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -14111,7 +14113,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="205"/>
+      <c r="Y27" s="202"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -14126,9 +14128,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="207"/>
-      <c r="AH27" s="208"/>
+      <c r="AF27" s="197"/>
+      <c r="AG27" s="198"/>
+      <c r="AH27" s="199"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -14168,7 +14170,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="203" t="s">
+      <c r="Y28" s="200" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -14185,9 +14187,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="208"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="198"/>
+      <c r="AH28" s="199"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -14213,7 +14215,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="204"/>
+      <c r="Y29" s="201"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -14228,9 +14230,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="206"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="208"/>
+      <c r="AF29" s="197"/>
+      <c r="AG29" s="198"/>
+      <c r="AH29" s="199"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -14256,7 +14258,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="204"/>
+      <c r="Y30" s="201"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -14271,9 +14273,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="206"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="208"/>
+      <c r="AF30" s="197"/>
+      <c r="AG30" s="198"/>
+      <c r="AH30" s="199"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -14299,7 +14301,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="204"/>
+      <c r="Y31" s="201"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -14312,9 +14314,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="206"/>
-      <c r="AG31" s="207"/>
-      <c r="AH31" s="208"/>
+      <c r="AF31" s="197"/>
+      <c r="AG31" s="198"/>
+      <c r="AH31" s="199"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -14340,7 +14342,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="205"/>
+      <c r="Y32" s="202"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -14353,9 +14355,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
-      <c r="AH32" s="208"/>
+      <c r="AF32" s="197"/>
+      <c r="AG32" s="198"/>
+      <c r="AH32" s="199"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -14381,7 +14383,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="203" t="s">
+      <c r="Y33" s="200" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -14396,9 +14398,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="206"/>
-      <c r="AG33" s="207"/>
-      <c r="AH33" s="208"/>
+      <c r="AF33" s="197"/>
+      <c r="AG33" s="198"/>
+      <c r="AH33" s="199"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -14424,7 +14426,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="204"/>
+      <c r="Y34" s="201"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -14437,9 +14439,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="206"/>
-      <c r="AG34" s="207"/>
-      <c r="AH34" s="208"/>
+      <c r="AF34" s="197"/>
+      <c r="AG34" s="198"/>
+      <c r="AH34" s="199"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -14465,7 +14467,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="204"/>
+      <c r="Y35" s="201"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -14478,9 +14480,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="206"/>
-      <c r="AG35" s="207"/>
-      <c r="AH35" s="208"/>
+      <c r="AF35" s="197"/>
+      <c r="AG35" s="198"/>
+      <c r="AH35" s="199"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -14508,7 +14510,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="205"/>
+      <c r="Y36" s="202"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -14521,9 +14523,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="206"/>
-      <c r="AG36" s="207"/>
-      <c r="AH36" s="208"/>
+      <c r="AF36" s="197"/>
+      <c r="AG36" s="198"/>
+      <c r="AH36" s="199"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -14673,7 +14675,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="209" t="s">
+      <c r="AH40" s="203" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -14716,7 +14718,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="210"/>
+      <c r="AH41" s="204"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -14757,7 +14759,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="211" t="s">
+      <c r="AH42" s="205" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -14791,14 +14793,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="213">
+      <c r="AE43" s="207">
         <v>0</v>
       </c>
-      <c r="AF43" s="214"/>
+      <c r="AF43" s="208"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="212"/>
+      <c r="AH43" s="206"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -14900,14 +14902,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="217" t="s">
+      <c r="AE46" s="195" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="217"/>
-      <c r="AG46" s="218" t="s">
+      <c r="AF46" s="195"/>
+      <c r="AG46" s="196" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="218"/>
+      <c r="AH46" s="196"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -14939,10 +14941,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="217"/>
-      <c r="AF47" s="217"/>
-      <c r="AG47" s="218"/>
-      <c r="AH47" s="218"/>
+      <c r="AE47" s="195"/>
+      <c r="AF47" s="195"/>
+      <c r="AG47" s="196"/>
+      <c r="AH47" s="196"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -15181,12 +15183,21 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -15201,21 +15212,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18688,7 +18690,7 @@
   <dimension ref="F3:AH21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19229,7 +19231,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="F3:AA185"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -20712,8 +20714,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="F2:AA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -21810,8 +21812,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="检查画面" sheetId="17" r:id="rId14"/>
     <sheet name="账票出力" sheetId="18" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="581">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3090,12 +3090,99 @@
   <si>
     <t>登录</t>
   </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者2_1</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者2_2</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者2_3</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者2_4</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者2_5</t>
+    <rPh sb="3" eb="4">
+      <t>しゃ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic_conn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varbinary(MAX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -3126,7 +3213,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3439,6 +3526,12 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3966,7 +4059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4552,19 +4645,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4575,6 +4677,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4600,36 +4711,24 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -10293,8 +10392,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>179962</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>437137</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>75896</xdr:rowOff>
     </xdr:to>
@@ -11664,7 +11763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12589,6 +12688,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48"/>
   <conditionalFormatting sqref="N13">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
@@ -12753,6 +12853,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48"/>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
@@ -13295,6 +13396,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13304,7 +13406,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -13419,10 +13523,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="216" t="s">
+      <c r="S15" s="195" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="217"/>
+      <c r="T15" s="196"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -13430,10 +13534,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="216" t="s">
+      <c r="AC15" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="217"/>
+      <c r="AD15" s="196"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -13613,32 +13717,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="211" t="s">
+      <c r="Y19" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="211" t="s">
+      <c r="Z19" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="218" t="s">
+      <c r="AA19" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="211" t="s">
+      <c r="AB19" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="211" t="s">
+      <c r="AC19" s="197" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="211" t="s">
+      <c r="AD19" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="211" t="s">
+      <c r="AE19" s="197" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="211" t="s">
+      <c r="AF19" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="211"/>
-      <c r="AH19" s="211"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -13673,16 +13777,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="211"/>
-      <c r="Z20" s="211"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="211"/>
-      <c r="AC20" s="211"/>
-      <c r="AD20" s="212"/>
-      <c r="AE20" s="212"/>
-      <c r="AF20" s="212"/>
-      <c r="AG20" s="212"/>
-      <c r="AH20" s="212"/>
+      <c r="Y20" s="197"/>
+      <c r="Z20" s="197"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="199"/>
+      <c r="AE20" s="199"/>
+      <c r="AF20" s="199"/>
+      <c r="AG20" s="199"/>
+      <c r="AH20" s="199"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -13742,11 +13846,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="213" t="s">
+      <c r="AF21" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="214"/>
-      <c r="AH21" s="215"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="202"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -13781,7 +13885,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="200" t="s">
+      <c r="Y22" s="203" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -13802,9 +13906,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="197"/>
-      <c r="AG22" s="198"/>
-      <c r="AH22" s="199"/>
+      <c r="AF22" s="206"/>
+      <c r="AG22" s="207"/>
+      <c r="AH22" s="208"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -13812,10 +13916,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="209" t="s">
+      <c r="E23" s="215" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="210"/>
+      <c r="F23" s="216"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -13853,7 +13957,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="201"/>
+      <c r="Y23" s="204"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -13870,9 +13974,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="197"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="199"/>
+      <c r="AF23" s="206"/>
+      <c r="AG23" s="207"/>
+      <c r="AH23" s="208"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -13919,7 +14023,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="201"/>
+      <c r="Y24" s="204"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -13934,9 +14038,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="197"/>
-      <c r="AG24" s="198"/>
-      <c r="AH24" s="199"/>
+      <c r="AF24" s="206"/>
+      <c r="AG24" s="207"/>
+      <c r="AH24" s="208"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -13983,7 +14087,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="201"/>
+      <c r="Y25" s="204"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -13998,9 +14102,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="197"/>
-      <c r="AG25" s="198"/>
-      <c r="AH25" s="199"/>
+      <c r="AF25" s="206"/>
+      <c r="AG25" s="207"/>
+      <c r="AH25" s="208"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -14047,7 +14151,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="201"/>
+      <c r="Y26" s="204"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -14062,9 +14166,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="197"/>
-      <c r="AG26" s="198"/>
-      <c r="AH26" s="199"/>
+      <c r="AF26" s="206"/>
+      <c r="AG26" s="207"/>
+      <c r="AH26" s="208"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -14113,7 +14217,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="202"/>
+      <c r="Y27" s="205"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -14128,9 +14232,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="197"/>
-      <c r="AG27" s="198"/>
-      <c r="AH27" s="199"/>
+      <c r="AF27" s="206"/>
+      <c r="AG27" s="207"/>
+      <c r="AH27" s="208"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -14170,7 +14274,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="200" t="s">
+      <c r="Y28" s="203" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -14187,9 +14291,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="197"/>
-      <c r="AG28" s="198"/>
-      <c r="AH28" s="199"/>
+      <c r="AF28" s="206"/>
+      <c r="AG28" s="207"/>
+      <c r="AH28" s="208"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -14215,7 +14319,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="201"/>
+      <c r="Y29" s="204"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -14230,9 +14334,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="197"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="199"/>
+      <c r="AF29" s="206"/>
+      <c r="AG29" s="207"/>
+      <c r="AH29" s="208"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -14258,7 +14362,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="201"/>
+      <c r="Y30" s="204"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -14273,9 +14377,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="198"/>
-      <c r="AH30" s="199"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="207"/>
+      <c r="AH30" s="208"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -14301,7 +14405,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="201"/>
+      <c r="Y31" s="204"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -14314,9 +14418,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="197"/>
-      <c r="AG31" s="198"/>
-      <c r="AH31" s="199"/>
+      <c r="AF31" s="206"/>
+      <c r="AG31" s="207"/>
+      <c r="AH31" s="208"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -14342,7 +14446,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="202"/>
+      <c r="Y32" s="205"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -14355,9 +14459,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="197"/>
-      <c r="AG32" s="198"/>
-      <c r="AH32" s="199"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
+      <c r="AH32" s="208"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -14383,7 +14487,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="200" t="s">
+      <c r="Y33" s="203" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -14398,9 +14502,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="197"/>
-      <c r="AG33" s="198"/>
-      <c r="AH33" s="199"/>
+      <c r="AF33" s="206"/>
+      <c r="AG33" s="207"/>
+      <c r="AH33" s="208"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -14426,7 +14530,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="201"/>
+      <c r="Y34" s="204"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -14439,9 +14543,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="197"/>
-      <c r="AG34" s="198"/>
-      <c r="AH34" s="199"/>
+      <c r="AF34" s="206"/>
+      <c r="AG34" s="207"/>
+      <c r="AH34" s="208"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -14467,7 +14571,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="201"/>
+      <c r="Y35" s="204"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -14480,9 +14584,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="197"/>
-      <c r="AG35" s="198"/>
-      <c r="AH35" s="199"/>
+      <c r="AF35" s="206"/>
+      <c r="AG35" s="207"/>
+      <c r="AH35" s="208"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -14510,7 +14614,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="202"/>
+      <c r="Y36" s="205"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -14523,9 +14627,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="197"/>
-      <c r="AG36" s="198"/>
-      <c r="AH36" s="199"/>
+      <c r="AF36" s="206"/>
+      <c r="AG36" s="207"/>
+      <c r="AH36" s="208"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -14675,7 +14779,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="203" t="s">
+      <c r="AH40" s="209" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -14718,7 +14822,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="204"/>
+      <c r="AH41" s="210"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -14759,7 +14863,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="205" t="s">
+      <c r="AH42" s="211" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -14793,14 +14897,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="207">
+      <c r="AE43" s="213">
         <v>0</v>
       </c>
-      <c r="AF43" s="208"/>
+      <c r="AF43" s="214"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="206"/>
+      <c r="AH43" s="212"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -14902,14 +15006,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="195" t="s">
+      <c r="AE46" s="217" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="195"/>
-      <c r="AG46" s="196" t="s">
+      <c r="AF46" s="217"/>
+      <c r="AG46" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="196"/>
+      <c r="AH46" s="218"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -14941,10 +15045,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="195"/>
-      <c r="AF47" s="195"/>
-      <c r="AG47" s="196"/>
-      <c r="AH47" s="196"/>
+      <c r="AE47" s="217"/>
+      <c r="AF47" s="217"/>
+      <c r="AG47" s="218"/>
+      <c r="AH47" s="218"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -15183,21 +15287,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -15212,12 +15307,21 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19231,7 +19335,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="F3:AA185"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="H24:M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
   <cols>
@@ -19355,10 +19461,10 @@
       <c r="Q8" s="80"/>
       <c r="R8" s="81"/>
       <c r="Y8" s="41">
-        <v>3003000</v>
-      </c>
-      <c r="Z8" s="41" t="s">
-        <v>247</v>
+        <v>3000000</v>
+      </c>
+      <c r="Z8" s="219" t="s">
+        <v>563</v>
       </c>
       <c r="AA8" s="41" t="s">
         <v>346</v>
@@ -19384,10 +19490,10 @@
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="41">
-        <v>3003001</v>
-      </c>
-      <c r="Z9" s="41" t="s">
-        <v>249</v>
+        <v>3000001</v>
+      </c>
+      <c r="Z9" s="219" t="s">
+        <v>563</v>
       </c>
       <c r="AA9" s="41" t="s">
         <v>347</v>
@@ -19408,10 +19514,10 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="41">
-        <v>3003002</v>
-      </c>
-      <c r="Z10" s="41" t="s">
-        <v>250</v>
+        <v>3000002</v>
+      </c>
+      <c r="Z10" s="219" t="s">
+        <v>563</v>
       </c>
       <c r="AA10" s="41" t="s">
         <v>348</v>
@@ -19438,10 +19544,10 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="41">
-        <v>3003003</v>
-      </c>
-      <c r="Z11" s="41" t="s">
-        <v>251</v>
+        <v>3000003</v>
+      </c>
+      <c r="Z11" s="219" t="s">
+        <v>563</v>
       </c>
       <c r="AA11" s="41" t="s">
         <v>349</v>
@@ -19468,10 +19574,10 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="41">
-        <v>3003004</v>
-      </c>
-      <c r="Z12" s="41" t="s">
-        <v>252</v>
+        <v>3000004</v>
+      </c>
+      <c r="Z12" s="219" t="s">
+        <v>563</v>
       </c>
       <c r="AA12" s="41" t="s">
         <v>350</v>
@@ -19497,6 +19603,15 @@
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
+      <c r="Y13" s="41">
+        <v>4000000</v>
+      </c>
+      <c r="Z13" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA13" s="41" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
@@ -19518,6 +19633,15 @@
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
+      <c r="Y14" s="41">
+        <v>4000001</v>
+      </c>
+      <c r="Z14" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA14" s="41" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="15" spans="6:27">
       <c r="F15" s="79"/>
@@ -19539,6 +19663,15 @@
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
       <c r="R15" s="81"/>
+      <c r="Y15" s="41">
+        <v>4000002</v>
+      </c>
+      <c r="Z15" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA15" s="41" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="16" spans="6:27">
       <c r="F16" s="79"/>
@@ -19560,8 +19693,17 @@
       <c r="P16" s="80"/>
       <c r="Q16" s="80"/>
       <c r="R16" s="81"/>
-    </row>
-    <row r="17" spans="6:18">
+      <c r="Y16" s="41">
+        <v>4000003</v>
+      </c>
+      <c r="Z16" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA16" s="41" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="6:27">
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="102">
@@ -19581,8 +19723,17 @@
       <c r="P17" s="80"/>
       <c r="Q17" s="80"/>
       <c r="R17" s="81"/>
-    </row>
-    <row r="18" spans="6:18" ht="15" thickBot="1">
+      <c r="Y17" s="41">
+        <v>4000004</v>
+      </c>
+      <c r="Z17" s="219" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA17" s="41" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="18" spans="6:27" ht="15" thickBot="1">
       <c r="F18" s="82"/>
       <c r="G18" s="83"/>
       <c r="H18" s="83"/>
@@ -19597,12 +19748,12 @@
       <c r="Q18" s="83"/>
       <c r="R18" s="84"/>
     </row>
-    <row r="22" spans="6:18">
+    <row r="22" spans="6:27">
       <c r="F22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="6:18">
+    <row r="24" spans="6:27">
       <c r="F24" t="s">
         <v>552</v>
       </c>
@@ -19610,17 +19761,17 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="6:18">
+    <row r="25" spans="6:27">
       <c r="H25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="6:18">
+    <row r="26" spans="6:27">
       <c r="H26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="29" spans="6:18">
+    <row r="29" spans="6:27">
       <c r="F29" t="s">
         <v>558</v>
       </c>
@@ -19660,8 +19811,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="F3:AA34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:J34"/>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -19821,8 +19972,8 @@
       <c r="Y9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" s="11" t="s">
-        <v>49</v>
+      <c r="Z9" s="220" t="s">
+        <v>570</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>5</v>
@@ -19845,8 +19996,8 @@
       <c r="Y10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>49</v>
+      <c r="Z10" s="220" t="s">
+        <v>570</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>8</v>
@@ -19875,8 +20026,8 @@
       <c r="Y11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>49</v>
+      <c r="Z11" s="220" t="s">
+        <v>570</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>16</v>
@@ -19905,8 +20056,8 @@
       <c r="Y12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z12" s="11" t="s">
-        <v>49</v>
+      <c r="Z12" s="220" t="s">
+        <v>570</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>22</v>
@@ -19932,6 +20083,15 @@
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
+      <c r="Y13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" s="220" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
@@ -19953,6 +20113,15 @@
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
+      <c r="Y14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z14" s="220" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="6:27">
       <c r="F15" s="79"/>
@@ -19974,6 +20143,15 @@
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
       <c r="R15" s="81"/>
+      <c r="Y15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z15" s="220" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="6:27">
       <c r="F16" s="79"/>
@@ -19995,6 +20173,15 @@
       <c r="P16" s="80"/>
       <c r="Q16" s="80"/>
       <c r="R16" s="81"/>
+      <c r="Y16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="220" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="6:18">
       <c r="F17" s="79"/>
@@ -20134,7 +20321,7 @@
   <dimension ref="F3:AB35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -20283,8 +20470,8 @@
       <c r="Y8" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="38" t="s">
-        <v>49</v>
+      <c r="Z8" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>5</v>
@@ -20315,8 +20502,8 @@
       <c r="Y9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="38" t="s">
-        <v>49</v>
+      <c r="Z9" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>8</v>
@@ -20342,8 +20529,8 @@
       <c r="Y10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Z10" s="38" t="s">
-        <v>49</v>
+      <c r="Z10" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA10" s="38" t="s">
         <v>8</v>
@@ -20377,8 +20564,8 @@
       <c r="Y11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="38" t="s">
-        <v>49</v>
+      <c r="Z11" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA11" s="38" t="s">
         <v>8</v>
@@ -20412,8 +20599,8 @@
       <c r="Y12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="38" t="s">
-        <v>49</v>
+      <c r="Z12" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA12" s="38" t="s">
         <v>8</v>
@@ -20447,8 +20634,8 @@
       <c r="Y13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="38" t="s">
-        <v>49</v>
+      <c r="Z13" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA13" s="38" t="s">
         <v>16</v>
@@ -20467,7 +20654,7 @@
         <v>247</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>260</v>
+        <v>574</v>
       </c>
       <c r="K14" s="98" t="s">
         <v>261</v>
@@ -20482,8 +20669,8 @@
       <c r="Y14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="Z14" s="38" t="s">
-        <v>49</v>
+      <c r="Z14" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AA14" s="38" t="s">
         <v>16</v>
@@ -20514,6 +20701,18 @@
       <c r="P15" s="80"/>
       <c r="Q15" s="80"/>
       <c r="R15" s="81"/>
+      <c r="Y15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z15" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="6:28">
       <c r="F16" s="79"/>
@@ -20537,8 +20736,20 @@
       <c r="P16" s="80"/>
       <c r="Q16" s="80"/>
       <c r="R16" s="81"/>
-    </row>
-    <row r="17" spans="6:18">
+      <c r="Y16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA16" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="6:28">
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="102" t="s">
@@ -20560,8 +20771,20 @@
       <c r="P17" s="80"/>
       <c r="Q17" s="80"/>
       <c r="R17" s="81"/>
-    </row>
-    <row r="18" spans="6:18">
+      <c r="Y17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:28">
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="102" t="s">
@@ -20583,8 +20806,20 @@
       <c r="P18" s="80"/>
       <c r="Q18" s="80"/>
       <c r="R18" s="81"/>
-    </row>
-    <row r="19" spans="6:18">
+      <c r="Y18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA18" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="6:28">
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
       <c r="H19" s="102" t="s">
@@ -20606,8 +20841,20 @@
       <c r="P19" s="80"/>
       <c r="Q19" s="80"/>
       <c r="R19" s="81"/>
-    </row>
-    <row r="20" spans="6:18">
+      <c r="Y19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="6:28">
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
       <c r="H20" s="101"/>
@@ -20621,8 +20868,20 @@
       <c r="P20" s="80"/>
       <c r="Q20" s="80"/>
       <c r="R20" s="81"/>
-    </row>
-    <row r="21" spans="6:18">
+      <c r="Y20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="6:28">
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="101"/>
@@ -20636,8 +20895,20 @@
       <c r="P21" s="80"/>
       <c r="Q21" s="80"/>
       <c r="R21" s="81"/>
-    </row>
-    <row r="22" spans="6:18">
+      <c r="Y21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA21" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="6:28">
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="101"/>
@@ -20652,7 +20923,7 @@
       <c r="Q22" s="80"/>
       <c r="R22" s="81"/>
     </row>
-    <row r="23" spans="6:18" ht="15" thickBot="1">
+    <row r="23" spans="6:28" ht="15" thickBot="1">
       <c r="F23" s="82"/>
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
@@ -20667,17 +20938,17 @@
       <c r="Q23" s="83"/>
       <c r="R23" s="84"/>
     </row>
-    <row r="27" spans="6:18">
+    <row r="27" spans="6:28">
       <c r="G27" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="6:18">
+    <row r="28" spans="6:28">
       <c r="H28" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="6:18">
+    <row r="32" spans="6:28">
       <c r="H32" t="s">
         <v>552</v>
       </c>
@@ -20712,10 +20983,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="F2:AA57"/>
+  <dimension ref="F2:AB57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -20725,15 +20996,16 @@
     <col min="11" max="13" width="10.42578125" customWidth="1"/>
     <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:27">
+    <row r="2" spans="6:28">
       <c r="F2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="6:27" ht="15" thickBot="1"/>
-    <row r="4" spans="6:27">
+    <row r="3" spans="6:28" ht="15" thickBot="1"/>
+    <row r="4" spans="6:28">
       <c r="F4" s="76"/>
       <c r="G4" s="77"/>
       <c r="H4" s="77"/>
@@ -20755,7 +21027,7 @@
       </c>
       <c r="AA4" s="37"/>
     </row>
-    <row r="5" spans="6:27" ht="18.75" thickBot="1">
+    <row r="5" spans="6:28" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
         <v>60</v>
@@ -20780,8 +21052,11 @@
       <c r="AA5" s="43" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="6:27" ht="15" thickBot="1">
+      <c r="AB5" s="43" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="6:28" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="G6" s="80"/>
       <c r="H6" s="80"/>
@@ -20806,8 +21081,11 @@
       <c r="AA6" s="43" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="6:27" ht="15" thickBot="1">
+      <c r="AB6" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
         <v>416</v>
@@ -20836,8 +21114,11 @@
       <c r="AA7" s="43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="6:27" ht="15" thickBot="1">
+      <c r="AB7" s="43" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="6:28" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
       <c r="H8" s="80"/>
@@ -20860,8 +21141,11 @@
       <c r="AA8" s="38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="6:27" ht="15" thickBot="1">
+      <c r="AB8" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="6:28" ht="15" thickBot="1">
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="H9" s="85"/>
@@ -20885,8 +21169,11 @@
       <c r="AA9" s="38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="6:27" ht="15" thickBot="1">
+      <c r="AB9" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="6:28" ht="15" thickBot="1">
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
@@ -20901,7 +21188,7 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
     </row>
-    <row r="11" spans="6:27" ht="16.5">
+    <row r="11" spans="6:28" ht="16.5">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
@@ -20922,7 +21209,7 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
     </row>
-    <row r="12" spans="6:27">
+    <row r="12" spans="6:28">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="106" t="s">
@@ -20943,7 +21230,7 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
     </row>
-    <row r="13" spans="6:27">
+    <row r="13" spans="6:28">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="106" t="s">
@@ -20964,7 +21251,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
     </row>
-    <row r="14" spans="6:27">
+    <row r="14" spans="6:28">
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="80"/>
@@ -20979,7 +21266,7 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
     </row>
-    <row r="15" spans="6:27">
+    <row r="15" spans="6:28">
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
@@ -20996,7 +21283,7 @@
       <c r="Q15" s="80"/>
       <c r="R15" s="81"/>
     </row>
-    <row r="16" spans="6:27">
+    <row r="16" spans="6:28">
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
@@ -21213,8 +21500,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="F2:AC36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:I36"/>
+    <sheetView showGridLines="0" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -21403,7 +21690,7 @@
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="45" t="s">
-        <v>75</v>
+        <v>575</v>
       </c>
       <c r="Z9" s="45" t="s">
         <v>14</v>
@@ -21418,14 +21705,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="6:29">
+    <row r="10" spans="6:29" ht="15" thickBot="1">
       <c r="F10" s="79"/>
       <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="H10" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="J10" s="99">
+        <v>0</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="L10" s="99" t="s">
+        <v>381</v>
+      </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
@@ -21433,39 +21730,29 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="45" t="s">
-        <v>76</v>
+        <v>576</v>
       </c>
       <c r="Z10" s="45" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="56" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="AC10" s="45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="6:29" ht="17.25" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="6:29" ht="15" thickBot="1">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
-      <c r="H11" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>374</v>
-      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
       <c r="O11" s="80"/>
@@ -21473,36 +21760,38 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="45" t="s">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="AA11" s="45">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="57"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="AC11" s="45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="6:29" ht="15" thickBot="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="6:29">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
-      <c r="H12" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" s="99">
-        <v>0</v>
-      </c>
-      <c r="K12" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="L12" s="99" t="s">
-        <v>381</v>
+      <c r="H12" s="97" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="97">
+        <v>1</v>
+      </c>
+      <c r="K12" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="L12" s="97" t="s">
+        <v>378</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -21511,38 +21800,38 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="45" t="s">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="Z12" s="45" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="AA12" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="56" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="AC12" s="45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="6:29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="6:29" ht="16.5">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
-      <c r="H13" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="I13" s="97" t="s">
-        <v>376</v>
-      </c>
-      <c r="J13" s="97">
-        <v>1</v>
-      </c>
-      <c r="K13" s="97" t="s">
-        <v>377</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>378</v>
+      <c r="H13" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -21551,19 +21840,17 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="45" t="s">
-        <v>120</v>
+        <v>579</v>
       </c>
       <c r="Z13" s="45" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="AA13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="56" t="s">
-        <v>147</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="57"/>
       <c r="AC13" s="45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="6:29">
@@ -21591,7 +21878,7 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
       <c r="Y14" s="45" t="s">
-        <v>151</v>
+        <v>580</v>
       </c>
       <c r="Z14" s="45" t="s">
         <v>148</v>
@@ -21813,7 +22100,7 @@
   <dimension ref="F3:AS39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -22175,8 +22462,8 @@
       <c r="V9" s="80"/>
       <c r="W9" s="80"/>
       <c r="X9" s="81"/>
-      <c r="AD9" s="38" t="s">
-        <v>49</v>
+      <c r="AD9" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>100</v>
@@ -22232,8 +22519,8 @@
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
       <c r="X10" s="81"/>
-      <c r="AD10" s="38" t="s">
-        <v>49</v>
+      <c r="AD10" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE10" s="54" t="s">
         <v>321</v>
@@ -22329,8 +22616,8 @@
       </c>
       <c r="W11" s="80"/>
       <c r="X11" s="81"/>
-      <c r="AD11" s="38" t="s">
-        <v>49</v>
+      <c r="AD11" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>100</v>
@@ -22418,8 +22705,8 @@
       </c>
       <c r="W12" s="80"/>
       <c r="X12" s="81"/>
-      <c r="AD12" s="38" t="s">
-        <v>49</v>
+      <c r="AD12" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>100</v>
@@ -22499,8 +22786,8 @@
       </c>
       <c r="W13" s="80"/>
       <c r="X13" s="81"/>
-      <c r="AD13" s="38" t="s">
-        <v>49</v>
+      <c r="AD13" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE13" s="54" t="s">
         <v>100</v>
@@ -22590,8 +22877,8 @@
       </c>
       <c r="W14" s="80"/>
       <c r="X14" s="81"/>
-      <c r="AD14" s="38" t="s">
-        <v>49</v>
+      <c r="AD14" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE14" s="54" t="s">
         <v>100</v>
@@ -22675,8 +22962,8 @@
       </c>
       <c r="W15" s="80"/>
       <c r="X15" s="81"/>
-      <c r="AD15" s="38" t="s">
-        <v>49</v>
+      <c r="AD15" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE15" s="54" t="s">
         <v>100</v>
@@ -22762,8 +23049,8 @@
       </c>
       <c r="W16" s="80"/>
       <c r="X16" s="81"/>
-      <c r="AD16" s="38" t="s">
-        <v>49</v>
+      <c r="AD16" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE16" s="54" t="s">
         <v>100</v>
@@ -22853,8 +23140,8 @@
       </c>
       <c r="W17" s="80"/>
       <c r="X17" s="81"/>
-      <c r="AD17" s="38" t="s">
-        <v>49</v>
+      <c r="AD17" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE17" s="54" t="s">
         <v>100</v>
@@ -22940,8 +23227,8 @@
       </c>
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
-      <c r="AD18" s="38" t="s">
-        <v>49</v>
+      <c r="AD18" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE18" s="54" t="s">
         <v>100</v>
@@ -23027,8 +23314,8 @@
       </c>
       <c r="W19" s="80"/>
       <c r="X19" s="81"/>
-      <c r="AD19" s="38" t="s">
-        <v>49</v>
+      <c r="AD19" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE19" s="54" t="s">
         <v>100</v>
@@ -23110,8 +23397,8 @@
       </c>
       <c r="W20" s="80"/>
       <c r="X20" s="81"/>
-      <c r="AD20" s="38" t="s">
-        <v>49</v>
+      <c r="AD20" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>100</v>
@@ -23189,8 +23476,8 @@
       </c>
       <c r="W21" s="80"/>
       <c r="X21" s="81"/>
-      <c r="AD21" s="38" t="s">
-        <v>49</v>
+      <c r="AD21" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>100</v>
@@ -23270,8 +23557,8 @@
       </c>
       <c r="W22" s="80"/>
       <c r="X22" s="81"/>
-      <c r="AD22" s="38" t="s">
-        <v>49</v>
+      <c r="AD22" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE22" s="54" t="s">
         <v>100</v>
@@ -23343,8 +23630,8 @@
       </c>
       <c r="W23" s="80"/>
       <c r="X23" s="81"/>
-      <c r="AD23" s="38" t="s">
-        <v>49</v>
+      <c r="AD23" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE23" s="54" t="s">
         <v>100</v>
@@ -23420,8 +23707,8 @@
       </c>
       <c r="W24" s="80"/>
       <c r="X24" s="81"/>
-      <c r="AD24" s="38" t="s">
-        <v>49</v>
+      <c r="AD24" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="AE24" s="54" t="s">
         <v>100</v>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -2702,10 +2702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>312M0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>切断、纵框、鸭居、捆包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3176,6 +3172,9 @@
   <si>
     <t>Z1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_name</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3212,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4642,31 +4641,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4677,15 +4673,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4711,24 +4698,36 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9"/>
+    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -11763,7 +11762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12075,12 +12074,12 @@
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -12144,7 +12143,7 @@
     <row r="5" spans="6:34" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -12158,10 +12157,10 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -12202,7 +12201,7 @@
     <row r="7" spans="6:34" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
@@ -12250,7 +12249,7 @@
     <row r="8" spans="6:34" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H8" s="99"/>
       <c r="J8" s="80"/>
@@ -12296,11 +12295,11 @@
     <row r="9" spans="6:34" ht="15" thickBot="1">
       <c r="F9" s="79"/>
       <c r="G9" s="189" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -12392,7 +12391,7 @@
         <v>300</v>
       </c>
       <c r="AA11" s="65" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB11" s="65" t="s">
         <v>167</v>
@@ -12435,7 +12434,7 @@
         <v>300</v>
       </c>
       <c r="AA12" s="65" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB12" s="65" t="s">
         <v>167</v>
@@ -12467,7 +12466,7 @@
         <v>187</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K13" s="64" t="s">
         <v>405</v>
@@ -12493,13 +12492,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>530</v>
-      </c>
       <c r="K14" s="109" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L14" s="109" t="s">
         <v>247</v>
@@ -12522,13 +12521,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K15" s="109" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>247</v>
@@ -12551,13 +12550,13 @@
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K16" s="109" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>247</v>
@@ -12580,13 +12579,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K17" s="109" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>247</v>
@@ -12642,7 +12641,7 @@
       <c r="L20" s="104"/>
       <c r="M20" s="105"/>
       <c r="N20" s="93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -12666,25 +12665,25 @@
     </row>
     <row r="25" spans="6:18">
       <c r="H25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="6:18">
       <c r="H29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="J30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -12758,7 +12757,7 @@
         <v>164</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D2" s="36">
         <v>3</v>
@@ -12775,7 +12774,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D3" s="36">
         <v>4</v>
@@ -12792,7 +12791,7 @@
         <v>164</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D4" s="36">
         <v>5</v>
@@ -12809,7 +12808,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D5" s="36">
         <v>6</v>
@@ -12826,7 +12825,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" s="36">
         <v>7</v>
@@ -12843,7 +12842,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D7" s="36">
         <v>8</v>
@@ -12867,7 +12866,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="F3:AA28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -12905,7 +12904,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -12957,7 +12956,7 @@
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="H7" s="107" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>398</v>
@@ -12984,13 +12983,13 @@
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="H8" s="107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I8" s="89" t="s">
         <v>396</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -13068,13 +13067,13 @@
         <v>405</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>406</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
@@ -13102,13 +13101,13 @@
         <v>403</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>404</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -13136,13 +13135,13 @@
         <v>398</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K13" s="193" t="s">
         <v>396</v>
       </c>
       <c r="L13" s="193" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -13170,13 +13169,13 @@
         <v>400</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K14" s="193" t="s">
         <v>397</v>
       </c>
       <c r="L14" s="193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -13195,13 +13194,13 @@
         <v>445</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K15" s="193" t="s">
         <v>402</v>
       </c>
       <c r="L15" s="193" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -13261,7 +13260,7 @@
       <c r="K19" s="191"/>
       <c r="L19" s="192"/>
       <c r="M19" s="92" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
@@ -13301,20 +13300,20 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="6:18">
       <c r="H27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="J28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -13443,25 +13442,25 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="173" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="175" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="173" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="X12" s="175" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
@@ -13523,10 +13522,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="195" t="s">
+      <c r="S15" s="218" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="196"/>
+      <c r="T15" s="219"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -13534,10 +13533,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="195" t="s">
+      <c r="AC15" s="218" t="s">
         <v>278</v>
       </c>
-      <c r="AD15" s="196"/>
+      <c r="AD15" s="219"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -13550,7 +13549,7 @@
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="174" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16" s="130" t="s">
         <v>164</v>
@@ -13588,7 +13587,7 @@
         <v>449</v>
       </c>
       <c r="S16" s="113" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="T16" s="128"/>
       <c r="V16" s="114"/>
@@ -13605,7 +13604,7 @@
         <v>452</v>
       </c>
       <c r="AC16" s="113" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AD16" s="128"/>
       <c r="AE16" s="128"/>
@@ -13717,32 +13716,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="197" t="s">
+      <c r="Y19" s="213" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="197" t="s">
+      <c r="Z19" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="198" t="s">
+      <c r="AA19" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="197" t="s">
+      <c r="AB19" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="197" t="s">
+      <c r="AC19" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="197" t="s">
+      <c r="AD19" s="213" t="s">
         <v>279</v>
       </c>
-      <c r="AE19" s="197" t="s">
+      <c r="AE19" s="213" t="s">
         <v>267</v>
       </c>
-      <c r="AF19" s="197" t="s">
+      <c r="AF19" s="213" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="197"/>
-      <c r="AH19" s="197"/>
+      <c r="AG19" s="213"/>
+      <c r="AH19" s="213"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -13777,16 +13776,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="197"/>
-      <c r="Z20" s="197"/>
-      <c r="AA20" s="198"/>
-      <c r="AB20" s="197"/>
-      <c r="AC20" s="197"/>
-      <c r="AD20" s="199"/>
-      <c r="AE20" s="199"/>
-      <c r="AF20" s="199"/>
-      <c r="AG20" s="199"/>
-      <c r="AH20" s="199"/>
+      <c r="Y20" s="213"/>
+      <c r="Z20" s="213"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="213"/>
+      <c r="AC20" s="213"/>
+      <c r="AD20" s="214"/>
+      <c r="AE20" s="214"/>
+      <c r="AF20" s="214"/>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="214"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -13846,11 +13845,11 @@
       <c r="AE21" s="117" t="s">
         <v>242</v>
       </c>
-      <c r="AF21" s="200" t="s">
+      <c r="AF21" s="215" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="202"/>
+      <c r="AG21" s="216"/>
+      <c r="AH21" s="217"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -13885,7 +13884,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="203" t="s">
+      <c r="Y22" s="202" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -13906,9 +13905,9 @@
       <c r="AE22" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="AF22" s="206"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="208"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="201"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -13916,10 +13915,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="216"/>
+      <c r="F23" s="212"/>
       <c r="G23" s="139" t="s">
         <v>237</v>
       </c>
@@ -13957,7 +13956,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="204"/>
+      <c r="Y23" s="203"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -13974,9 +13973,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="206"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="208"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="201"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -14023,7 +14022,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="204"/>
+      <c r="Y24" s="203"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -14038,9 +14037,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="207"/>
-      <c r="AH24" s="208"/>
+      <c r="AF24" s="199"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="201"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -14087,7 +14086,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="204"/>
+      <c r="Y25" s="203"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -14102,9 +14101,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="206"/>
-      <c r="AG25" s="207"/>
-      <c r="AH25" s="208"/>
+      <c r="AF25" s="199"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="201"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -14151,7 +14150,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="204"/>
+      <c r="Y26" s="203"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -14166,9 +14165,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="206"/>
-      <c r="AG26" s="207"/>
-      <c r="AH26" s="208"/>
+      <c r="AF26" s="199"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="201"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -14217,7 +14216,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="205"/>
+      <c r="Y27" s="204"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -14232,9 +14231,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="207"/>
-      <c r="AH27" s="208"/>
+      <c r="AF27" s="199"/>
+      <c r="AG27" s="200"/>
+      <c r="AH27" s="201"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -14274,7 +14273,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="203" t="s">
+      <c r="Y28" s="202" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -14291,9 +14290,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="208"/>
+      <c r="AF28" s="199"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="201"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -14319,7 +14318,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="204"/>
+      <c r="Y29" s="203"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -14334,9 +14333,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="206"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="208"/>
+      <c r="AF29" s="199"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="201"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -14362,7 +14361,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="204"/>
+      <c r="Y30" s="203"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -14377,9 +14376,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="206"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="208"/>
+      <c r="AF30" s="199"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="201"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -14405,7 +14404,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="204"/>
+      <c r="Y31" s="203"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -14418,9 +14417,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="206"/>
-      <c r="AG31" s="207"/>
-      <c r="AH31" s="208"/>
+      <c r="AF31" s="199"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="201"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -14446,7 +14445,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="205"/>
+      <c r="Y32" s="204"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -14459,9 +14458,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
-      <c r="AH32" s="208"/>
+      <c r="AF32" s="199"/>
+      <c r="AG32" s="200"/>
+      <c r="AH32" s="201"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -14487,7 +14486,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="203" t="s">
+      <c r="Y33" s="202" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -14502,9 +14501,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="206"/>
-      <c r="AG33" s="207"/>
-      <c r="AH33" s="208"/>
+      <c r="AF33" s="199"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="201"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -14530,7 +14529,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="204"/>
+      <c r="Y34" s="203"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -14543,9 +14542,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="206"/>
-      <c r="AG34" s="207"/>
-      <c r="AH34" s="208"/>
+      <c r="AF34" s="199"/>
+      <c r="AG34" s="200"/>
+      <c r="AH34" s="201"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -14571,7 +14570,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="204"/>
+      <c r="Y35" s="203"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -14584,9 +14583,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="206"/>
-      <c r="AG35" s="207"/>
-      <c r="AH35" s="208"/>
+      <c r="AF35" s="199"/>
+      <c r="AG35" s="200"/>
+      <c r="AH35" s="201"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -14603,7 +14602,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -14614,7 +14613,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="205"/>
+      <c r="Y36" s="204"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -14627,9 +14626,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="206"/>
-      <c r="AG36" s="207"/>
-      <c r="AH36" s="208"/>
+      <c r="AF36" s="199"/>
+      <c r="AG36" s="200"/>
+      <c r="AH36" s="201"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -14779,7 +14778,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="209" t="s">
+      <c r="AH40" s="205" t="s">
         <v>240</v>
       </c>
       <c r="AI40" s="114"/>
@@ -14822,7 +14821,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="210"/>
+      <c r="AH41" s="206"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -14863,7 +14862,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="211" t="s">
+      <c r="AH42" s="207" t="s">
         <v>283</v>
       </c>
       <c r="AI42" s="114"/>
@@ -14897,14 +14896,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="213">
+      <c r="AE43" s="209">
         <v>0</v>
       </c>
-      <c r="AF43" s="214"/>
+      <c r="AF43" s="210"/>
       <c r="AG43" s="172" t="s">
         <v>282</v>
       </c>
-      <c r="AH43" s="212"/>
+      <c r="AH43" s="208"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -15006,14 +15005,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="217" t="s">
+      <c r="AE46" s="197" t="s">
         <v>242</v>
       </c>
-      <c r="AF46" s="217"/>
-      <c r="AG46" s="218" t="s">
+      <c r="AF46" s="197"/>
+      <c r="AG46" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="AH46" s="218"/>
+      <c r="AH46" s="198"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -15045,10 +15044,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="217"/>
-      <c r="AF47" s="217"/>
-      <c r="AG47" s="218"/>
-      <c r="AH47" s="218"/>
+      <c r="AE47" s="197"/>
+      <c r="AF47" s="197"/>
+      <c r="AG47" s="198"/>
+      <c r="AH47" s="198"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -15158,7 +15157,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -15195,7 +15194,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -15266,7 +15265,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -15282,17 +15281,26 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -15307,21 +15315,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15357,7 +15356,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="O5" s="76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
@@ -15371,7 +15370,7 @@
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
       <c r="D6" s="176" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -15446,13 +15445,13 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="79"/>
       <c r="E9" s="107" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" s="177">
         <v>43466</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H9" s="177">
         <v>43466</v>
@@ -15460,7 +15459,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="92" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="81"/>
@@ -15688,8 +15687,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52:W58"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15722,7 +15721,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -15735,7 +15734,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -15759,7 +15758,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="16.5">
@@ -15794,10 +15793,10 @@
     </row>
     <row r="7" spans="2:29" ht="16.5">
       <c r="M7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="2:29">
@@ -15807,16 +15806,16 @@
     </row>
     <row r="13" spans="2:29">
       <c r="C13" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>473</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="14" spans="2:29">
@@ -15860,20 +15859,20 @@
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="194" t="s">
+      <c r="P15" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="194"/>
-      <c r="R15" s="194" t="s">
+      <c r="Q15" s="196"/>
+      <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="194"/>
-      <c r="T15" s="194"/>
-      <c r="U15" s="194"/>
-      <c r="V15" s="194" t="s">
+      <c r="S15" s="196"/>
+      <c r="T15" s="196"/>
+      <c r="U15" s="196"/>
+      <c r="V15" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="W15" s="194"/>
+      <c r="W15" s="196"/>
       <c r="X15" s="37" t="s">
         <v>44</v>
       </c>
@@ -15966,10 +15965,10 @@
         <v>8</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -16126,10 +16125,10 @@
     </row>
     <row r="22" spans="3:29">
       <c r="G22" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -16170,7 +16169,7 @@
         <v>106</v>
       </c>
       <c r="Y22" s="51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z22" s="51" t="s">
         <v>138</v>
@@ -16796,10 +16795,10 @@
     </row>
     <row r="34" spans="7:29">
       <c r="G34" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="163" t="s">
@@ -17050,10 +17049,10 @@
     </row>
     <row r="43" spans="7:29">
       <c r="G43" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -17063,7 +17062,7 @@
         <v>395</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="7:29">
@@ -17284,10 +17283,10 @@
       </c>
       <c r="L53" s="186"/>
       <c r="N53" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -17440,10 +17439,10 @@
     </row>
     <row r="65" spans="14:31" ht="16.5">
       <c r="N65" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -17507,7 +17506,7 @@
         <v>180</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>304</v>
@@ -17559,7 +17558,7 @@
         <v>187</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>305</v>
@@ -17611,7 +17610,7 @@
         <v>163</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>163</v>
@@ -17925,7 +17924,7 @@
         <v>230</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>198</v>
@@ -18918,7 +18917,7 @@
       <c r="U7" s="80"/>
       <c r="V7" s="80"/>
       <c r="W7" s="85" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="X7" s="80"/>
       <c r="Y7" s="80"/>
@@ -19035,7 +19034,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
@@ -19308,7 +19307,7 @@
     </row>
     <row r="21" spans="6:34">
       <c r="F21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -19463,8 +19462,8 @@
       <c r="Y8" s="41">
         <v>3000000</v>
       </c>
-      <c r="Z8" s="219" t="s">
-        <v>563</v>
+      <c r="Z8" s="194" t="s">
+        <v>562</v>
       </c>
       <c r="AA8" s="41" t="s">
         <v>346</v>
@@ -19492,8 +19491,8 @@
       <c r="Y9" s="41">
         <v>3000001</v>
       </c>
-      <c r="Z9" s="219" t="s">
-        <v>563</v>
+      <c r="Z9" s="194" t="s">
+        <v>562</v>
       </c>
       <c r="AA9" s="41" t="s">
         <v>347</v>
@@ -19516,8 +19515,8 @@
       <c r="Y10" s="41">
         <v>3000002</v>
       </c>
-      <c r="Z10" s="219" t="s">
-        <v>563</v>
+      <c r="Z10" s="194" t="s">
+        <v>562</v>
       </c>
       <c r="AA10" s="41" t="s">
         <v>348</v>
@@ -19546,8 +19545,8 @@
       <c r="Y11" s="41">
         <v>3000003</v>
       </c>
-      <c r="Z11" s="219" t="s">
-        <v>563</v>
+      <c r="Z11" s="194" t="s">
+        <v>562</v>
       </c>
       <c r="AA11" s="41" t="s">
         <v>349</v>
@@ -19576,8 +19575,8 @@
       <c r="Y12" s="41">
         <v>3000004</v>
       </c>
-      <c r="Z12" s="219" t="s">
-        <v>563</v>
+      <c r="Z12" s="194" t="s">
+        <v>562</v>
       </c>
       <c r="AA12" s="41" t="s">
         <v>350</v>
@@ -19606,11 +19605,11 @@
       <c r="Y13" s="41">
         <v>4000000</v>
       </c>
-      <c r="Z13" s="219" t="s">
+      <c r="Z13" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA13" s="41" t="s">
         <v>564</v>
-      </c>
-      <c r="AA13" s="41" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" spans="6:27">
@@ -19636,11 +19635,11 @@
       <c r="Y14" s="41">
         <v>4000001</v>
       </c>
-      <c r="Z14" s="219" t="s">
-        <v>564</v>
+      <c r="Z14" s="194" t="s">
+        <v>563</v>
       </c>
       <c r="AA14" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="6:27">
@@ -19666,11 +19665,11 @@
       <c r="Y15" s="41">
         <v>4000002</v>
       </c>
-      <c r="Z15" s="219" t="s">
-        <v>564</v>
+      <c r="Z15" s="194" t="s">
+        <v>563</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="6:27">
@@ -19696,11 +19695,11 @@
       <c r="Y16" s="41">
         <v>4000003</v>
       </c>
-      <c r="Z16" s="219" t="s">
-        <v>564</v>
+      <c r="Z16" s="194" t="s">
+        <v>563</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="6:27">
@@ -19726,11 +19725,11 @@
       <c r="Y17" s="41">
         <v>4000004</v>
       </c>
-      <c r="Z17" s="219" t="s">
-        <v>564</v>
+      <c r="Z17" s="194" t="s">
+        <v>563</v>
       </c>
       <c r="AA17" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="6:27" ht="15" thickBot="1">
@@ -19750,50 +19749,50 @@
     </row>
     <row r="22" spans="6:27">
       <c r="F22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="6:27">
       <c r="F24" t="s">
+        <v>551</v>
+      </c>
+      <c r="H24" t="s">
         <v>552</v>
-      </c>
-      <c r="H24" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="25" spans="6:27">
       <c r="H25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="6:27">
       <c r="H26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="6:27">
       <c r="F29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -19899,13 +19898,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -19972,8 +19971,8 @@
       <c r="Y9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Z9" s="220" t="s">
-        <v>570</v>
+      <c r="Z9" s="195" t="s">
+        <v>569</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>5</v>
@@ -19996,8 +19995,8 @@
       <c r="Y10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="220" t="s">
-        <v>570</v>
+      <c r="Z10" s="195" t="s">
+        <v>569</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>8</v>
@@ -20026,8 +20025,8 @@
       <c r="Y11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="220" t="s">
-        <v>570</v>
+      <c r="Z11" s="195" t="s">
+        <v>569</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>16</v>
@@ -20056,8 +20055,8 @@
       <c r="Y12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z12" s="220" t="s">
-        <v>570</v>
+      <c r="Z12" s="195" t="s">
+        <v>569</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>22</v>
@@ -20086,8 +20085,8 @@
       <c r="Y13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Z13" s="220" t="s">
-        <v>571</v>
+      <c r="Z13" s="195" t="s">
+        <v>570</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>5</v>
@@ -20116,8 +20115,8 @@
       <c r="Y14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Z14" s="220" t="s">
-        <v>571</v>
+      <c r="Z14" s="195" t="s">
+        <v>570</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>8</v>
@@ -20146,8 +20145,8 @@
       <c r="Y15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" s="220" t="s">
-        <v>571</v>
+      <c r="Z15" s="195" t="s">
+        <v>570</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>16</v>
@@ -20176,8 +20175,8 @@
       <c r="Y16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z16" s="220" t="s">
-        <v>571</v>
+      <c r="Z16" s="195" t="s">
+        <v>570</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>22</v>
@@ -20275,35 +20274,35 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="6:18">
       <c r="G31" t="s">
+        <v>551</v>
+      </c>
+      <c r="I31" t="s">
         <v>552</v>
-      </c>
-      <c r="I31" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="32" spans="6:18">
       <c r="I32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -20321,7 +20320,7 @@
   <dimension ref="F3:AB35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -20385,7 +20384,7 @@
         <v>117</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>119</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -20424,14 +20423,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>247</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -20471,7 +20470,7 @@
         <v>34</v>
       </c>
       <c r="Z8" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>5</v>
@@ -20503,7 +20502,7 @@
         <v>35</v>
       </c>
       <c r="Z9" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>8</v>
@@ -20530,7 +20529,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA10" s="38" t="s">
         <v>8</v>
@@ -20565,7 +20564,7 @@
         <v>38</v>
       </c>
       <c r="Z11" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA11" s="38" t="s">
         <v>8</v>
@@ -20600,7 +20599,7 @@
         <v>39</v>
       </c>
       <c r="Z12" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA12" s="38" t="s">
         <v>8</v>
@@ -20635,7 +20634,7 @@
         <v>40</v>
       </c>
       <c r="Z13" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA13" s="38" t="s">
         <v>16</v>
@@ -20654,7 +20653,7 @@
         <v>247</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K14" s="98" t="s">
         <v>261</v>
@@ -20670,7 +20669,7 @@
         <v>42</v>
       </c>
       <c r="Z14" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA14" s="38" t="s">
         <v>16</v>
@@ -20705,7 +20704,7 @@
         <v>34</v>
       </c>
       <c r="Z15" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA15" s="38" t="s">
         <v>5</v>
@@ -20740,7 +20739,7 @@
         <v>35</v>
       </c>
       <c r="Z16" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA16" s="38" t="s">
         <v>8</v>
@@ -20775,7 +20774,7 @@
         <v>37</v>
       </c>
       <c r="Z17" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA17" s="38" t="s">
         <v>8</v>
@@ -20810,7 +20809,7 @@
         <v>38</v>
       </c>
       <c r="Z18" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA18" s="38" t="s">
         <v>8</v>
@@ -20845,7 +20844,7 @@
         <v>39</v>
       </c>
       <c r="Z19" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA19" s="38" t="s">
         <v>8</v>
@@ -20872,7 +20871,7 @@
         <v>40</v>
       </c>
       <c r="Z20" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA20" s="38" t="s">
         <v>16</v>
@@ -20899,7 +20898,7 @@
         <v>42</v>
       </c>
       <c r="Z21" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA21" s="38" t="s">
         <v>16</v>
@@ -20940,35 +20939,35 @@
     </row>
     <row r="27" spans="6:28">
       <c r="G27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="6:28">
       <c r="H28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="6:28">
       <c r="H32" t="s">
+        <v>551</v>
+      </c>
+      <c r="J32" t="s">
         <v>552</v>
-      </c>
-      <c r="J32" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -21053,7 +21052,7 @@
         <v>314</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -21115,7 +21114,7 @@
         <v>123</v>
       </c>
       <c r="AB7" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="6:28" ht="15" thickBot="1">
@@ -21462,7 +21461,7 @@
         <v>367</v>
       </c>
       <c r="V31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="11:11">
@@ -21472,17 +21471,17 @@
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -21640,13 +21639,13 @@
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
       <c r="H8" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I8" s="99" t="s">
         <v>247</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -21690,7 +21689,7 @@
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z9" s="45" t="s">
         <v>14</v>
@@ -21730,7 +21729,7 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Z10" s="45" t="s">
         <v>7</v>
@@ -21760,7 +21759,7 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z11" s="45" t="s">
         <v>145</v>
@@ -21800,7 +21799,7 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z12" s="45" t="s">
         <v>144</v>
@@ -21840,7 +21839,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="45" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z13" s="45" t="s">
         <v>18</v>
@@ -21878,7 +21877,7 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
       <c r="Y14" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="Z14" s="45" t="s">
         <v>148</v>
@@ -22053,35 +22052,35 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
+        <v>551</v>
+      </c>
+      <c r="H33" t="s">
         <v>552</v>
-      </c>
-      <c r="H33" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="H34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="H35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="H36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -22099,8 +22098,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AN11" sqref="AN11:AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -22296,13 +22295,13 @@
     <row r="7" spans="6:45" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H7" s="100" t="s">
         <v>404</v>
       </c>
       <c r="I7" s="170" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="80"/>
@@ -22463,7 +22462,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="81"/>
       <c r="AD9" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>100</v>
@@ -22520,7 +22519,7 @@
       <c r="W10" s="80"/>
       <c r="X10" s="81"/>
       <c r="AD10" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE10" s="54" t="s">
         <v>321</v>
@@ -22617,7 +22616,7 @@
       <c r="W11" s="80"/>
       <c r="X11" s="81"/>
       <c r="AD11" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>100</v>
@@ -22706,7 +22705,7 @@
       <c r="W12" s="80"/>
       <c r="X12" s="81"/>
       <c r="AD12" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>100</v>
@@ -22787,7 +22786,7 @@
       <c r="W13" s="80"/>
       <c r="X13" s="81"/>
       <c r="AD13" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE13" s="54" t="s">
         <v>100</v>
@@ -22878,7 +22877,7 @@
       <c r="W14" s="80"/>
       <c r="X14" s="81"/>
       <c r="AD14" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE14" s="54" t="s">
         <v>100</v>
@@ -22963,7 +22962,7 @@
       <c r="W15" s="80"/>
       <c r="X15" s="81"/>
       <c r="AD15" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE15" s="54" t="s">
         <v>100</v>
@@ -23050,7 +23049,7 @@
       <c r="W16" s="80"/>
       <c r="X16" s="81"/>
       <c r="AD16" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE16" s="54" t="s">
         <v>100</v>
@@ -23141,7 +23140,7 @@
       <c r="W17" s="80"/>
       <c r="X17" s="81"/>
       <c r="AD17" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE17" s="54" t="s">
         <v>100</v>
@@ -23228,7 +23227,7 @@
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
       <c r="AD18" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE18" s="54" t="s">
         <v>100</v>
@@ -23315,7 +23314,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="81"/>
       <c r="AD19" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE19" s="54" t="s">
         <v>100</v>
@@ -23398,7 +23397,7 @@
       <c r="W20" s="80"/>
       <c r="X20" s="81"/>
       <c r="AD20" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>100</v>
@@ -23477,7 +23476,7 @@
       <c r="W21" s="80"/>
       <c r="X21" s="81"/>
       <c r="AD21" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>100</v>
@@ -23558,7 +23557,7 @@
       <c r="W22" s="80"/>
       <c r="X22" s="81"/>
       <c r="AD22" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE22" s="54" t="s">
         <v>100</v>
@@ -23631,7 +23630,7 @@
       <c r="W23" s="80"/>
       <c r="X23" s="81"/>
       <c r="AD23" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE23" s="54" t="s">
         <v>100</v>
@@ -23708,7 +23707,7 @@
       <c r="W24" s="80"/>
       <c r="X24" s="81"/>
       <c r="AD24" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AE24" s="54" t="s">
         <v>100</v>
@@ -24028,17 +24027,17 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -1801,14 +1801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查日：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未入力时 7日内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查完了日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3599,6 +3591,12 @@
   </si>
   <si>
     <t>テスト者46</t>
+  </si>
+  <si>
+    <t>检查日：</t>
+  </si>
+  <si>
+    <t>未入力时 7日内</t>
   </si>
 </sst>
 </file>
@@ -5071,31 +5069,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5106,15 +5098,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5140,14 +5123,29 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5156,27 +5154,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12515,18 +12493,18 @@
   <sheetData>
     <row r="2" spans="1:1" ht="24.75">
       <c r="A2" s="34" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -12622,7 +12600,7 @@
     <row r="5" spans="6:45" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -12664,10 +12642,10 @@
     <row r="6" spans="6:45" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="G6" s="107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
@@ -12682,7 +12660,7 @@
       <c r="T6" s="80"/>
       <c r="U6" s="80"/>
       <c r="V6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W6" s="80"/>
       <c r="X6" s="81"/>
@@ -12705,7 +12683,7 @@
         <v>124</v>
       </c>
       <c r="AJ6" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AK6" s="51" t="s">
         <v>131</v>
@@ -12738,18 +12716,18 @@
     <row r="7" spans="6:45" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H7" s="100" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I7" s="170" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="80"/>
       <c r="M7" s="92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
@@ -12781,7 +12759,7 @@
         <v>102</v>
       </c>
       <c r="AJ7" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AK7" s="51" t="s">
         <v>4</v>
@@ -12886,13 +12864,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="L9" s="91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N9" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
@@ -12905,7 +12883,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="81"/>
       <c r="AD9" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>100</v>
@@ -12962,10 +12940,10 @@
       <c r="W10" s="80"/>
       <c r="X10" s="81"/>
       <c r="AD10" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF10" s="50" t="s">
         <v>85</v>
@@ -12974,25 +12952,25 @@
         <v>70</v>
       </c>
       <c r="AH10" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI10" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ10" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="AI10" s="38" t="s">
+      <c r="AK10" s="38" t="s">
         <v>323</v>
-      </c>
-      <c r="AJ10" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="AK10" s="38" t="s">
-        <v>325</v>
       </c>
       <c r="AL10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AM10" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AN10" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AO10" s="38"/>
       <c r="AP10" s="38">
@@ -13012,46 +12990,46 @@
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="O11" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" s="28" t="s">
+      <c r="P11" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="S11" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="T11" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="S11" s="28" t="s">
+      <c r="U11" s="28" t="s">
         <v>412</v>
-      </c>
-      <c r="T11" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>414</v>
       </c>
       <c r="V11" s="28" t="s">
         <v>134</v>
@@ -13059,7 +13037,7 @@
       <c r="W11" s="80"/>
       <c r="X11" s="81"/>
       <c r="AD11" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>100</v>
@@ -13071,7 +13049,7 @@
         <v>70</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AI11" s="38" t="s">
         <v>61</v>
@@ -13080,16 +13058,16 @@
         <v>62</v>
       </c>
       <c r="AK11" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL11" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AM11" s="38" t="s">
         <v>151</v>
       </c>
       <c r="AN11" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
@@ -13103,7 +13081,7 @@
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="90" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I12" s="90" t="s">
         <v>85</v>
@@ -13112,7 +13090,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="110" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L12" s="90" t="s">
         <v>121</v>
@@ -13121,16 +13099,16 @@
         <v>122</v>
       </c>
       <c r="N12" s="90" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O12" s="90" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P12" s="90" t="s">
         <v>76</v>
       </c>
       <c r="Q12" s="90" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R12" s="90"/>
       <c r="S12" s="90">
@@ -13143,12 +13121,12 @@
         <v>0.5</v>
       </c>
       <c r="V12" s="90" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W12" s="80"/>
       <c r="X12" s="81"/>
       <c r="AD12" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>100</v>
@@ -13194,42 +13172,42 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K13" s="109" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
       <c r="N13" s="109" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O13" s="109"/>
       <c r="P13" s="109" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R13" s="109" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S13" s="109"/>
       <c r="T13" s="109"/>
       <c r="U13" s="109"/>
       <c r="V13" s="109" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="W13" s="80"/>
       <c r="X13" s="81"/>
       <c r="AD13" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE13" s="54" t="s">
         <v>100</v>
@@ -13275,7 +13253,7 @@
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="108" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I14" s="108" t="s">
         <v>85</v>
@@ -13284,7 +13262,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L14" s="108" t="s">
         <v>121</v>
@@ -13293,16 +13271,16 @@
         <v>122</v>
       </c>
       <c r="N14" s="108" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O14" s="108" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P14" s="108" t="s">
         <v>76</v>
       </c>
       <c r="Q14" s="108" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="108">
@@ -13315,12 +13293,12 @@
         <v>0.5</v>
       </c>
       <c r="V14" s="108" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="W14" s="80"/>
       <c r="X14" s="81"/>
       <c r="AD14" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE14" s="54" t="s">
         <v>100</v>
@@ -13366,7 +13344,7 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>86</v>
@@ -13375,7 +13353,7 @@
         <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>121</v>
@@ -13384,28 +13362,28 @@
         <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="W15" s="80"/>
       <c r="X15" s="81"/>
       <c r="AD15" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE15" s="54" t="s">
         <v>100</v>
@@ -13451,7 +13429,7 @@
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
       <c r="H16" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>87</v>
@@ -13460,7 +13438,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>121</v>
@@ -13469,16 +13447,16 @@
         <v>122</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
@@ -13487,12 +13465,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W16" s="80"/>
       <c r="X16" s="81"/>
       <c r="AD16" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE16" s="54" t="s">
         <v>100</v>
@@ -13542,7 +13520,7 @@
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>88</v>
@@ -13551,7 +13529,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>121</v>
@@ -13560,16 +13538,16 @@
         <v>122</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>37</v>
@@ -13583,7 +13561,7 @@
       <c r="W17" s="80"/>
       <c r="X17" s="81"/>
       <c r="AD17" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE17" s="54" t="s">
         <v>100</v>
@@ -13629,7 +13607,7 @@
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>89</v>
@@ -13638,7 +13616,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>121</v>
@@ -13647,16 +13625,16 @@
         <v>122</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>38</v>
@@ -13670,7 +13648,7 @@
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
       <c r="AD18" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE18" s="54" t="s">
         <v>100</v>
@@ -13716,7 +13694,7 @@
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
       <c r="H19" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>90</v>
@@ -13725,7 +13703,7 @@
         <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>121</v>
@@ -13734,16 +13712,16 @@
         <v>122</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>39</v>
@@ -13757,7 +13735,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="81"/>
       <c r="AD19" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE19" s="54" t="s">
         <v>100</v>
@@ -13795,7 +13773,7 @@
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
       <c r="H20" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>91</v>
@@ -13804,7 +13782,7 @@
         <v>71</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>63</v>
@@ -13813,16 +13791,16 @@
         <v>64</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
@@ -13835,12 +13813,12 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W20" s="80"/>
       <c r="X20" s="81"/>
       <c r="AD20" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>100</v>
@@ -13878,7 +13856,7 @@
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>92</v>
@@ -13887,7 +13865,7 @@
         <v>71</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>63</v>
@@ -13896,16 +13874,16 @@
         <v>64</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>40</v>
@@ -13919,7 +13897,7 @@
       <c r="W21" s="80"/>
       <c r="X21" s="81"/>
       <c r="AD21" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>100</v>
@@ -13959,7 +13937,7 @@
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>93</v>
@@ -13968,7 +13946,7 @@
         <v>71</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>63</v>
@@ -13977,16 +13955,16 @@
         <v>64</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>42</v>
@@ -14000,7 +13978,7 @@
       <c r="W22" s="80"/>
       <c r="X22" s="81"/>
       <c r="AD22" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE22" s="54" t="s">
         <v>100</v>
@@ -14040,7 +14018,7 @@
       <c r="F23" s="79"/>
       <c r="G23" s="80"/>
       <c r="H23" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>94</v>
@@ -14049,31 +14027,31 @@
         <v>71</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W23" s="80"/>
       <c r="X23" s="81"/>
       <c r="AD23" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE23" s="54" t="s">
         <v>100</v>
@@ -14117,7 +14095,7 @@
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
       <c r="H24" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>95</v>
@@ -14126,31 +14104,31 @@
         <v>71</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W24" s="80"/>
       <c r="X24" s="81"/>
       <c r="AD24" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE24" s="54" t="s">
         <v>100</v>
@@ -14188,7 +14166,7 @@
       <c r="F25" s="79"/>
       <c r="G25" s="80"/>
       <c r="H25" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>96</v>
@@ -14197,28 +14175,28 @@
         <v>72</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="W25" s="80"/>
       <c r="X25" s="81"/>
@@ -14227,7 +14205,7 @@
       <c r="F26" s="79"/>
       <c r="G26" s="80"/>
       <c r="H26" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>97</v>
@@ -14236,28 +14214,28 @@
         <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="W26" s="80"/>
       <c r="X26" s="81"/>
@@ -14266,7 +14244,7 @@
       <c r="F27" s="79"/>
       <c r="G27" s="80"/>
       <c r="H27" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
@@ -14275,19 +14253,19 @@
         <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1">
@@ -14300,7 +14278,7 @@
         <v>20</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W27" s="80"/>
       <c r="X27" s="81"/>
@@ -14309,7 +14287,7 @@
       <c r="F28" s="79"/>
       <c r="G28" s="80"/>
       <c r="H28" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>150</v>
@@ -14318,26 +14296,26 @@
         <v>72</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W28" s="80"/>
       <c r="X28" s="81"/>
@@ -14470,17 +14448,17 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -14498,8 +14476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:AH30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7:AH9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X29" sqref="I27:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -14533,7 +14511,7 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -14548,7 +14526,7 @@
     <row r="5" spans="6:34" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -14562,10 +14540,10 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -14585,7 +14563,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -14606,10 +14584,10 @@
     <row r="7" spans="6:34" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -14621,7 +14599,7 @@
       <c r="Q7" s="80"/>
       <c r="R7" s="81"/>
       <c r="Y7" s="64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Z7" s="64" t="s">
         <v>180</v>
@@ -14639,22 +14617,22 @@
         <v>169</v>
       </c>
       <c r="AE7" s="59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF7" s="59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AG7" s="59" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AH7" s="59" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8" spans="6:34" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="107" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H8" s="99"/>
       <c r="J8" s="80"/>
@@ -14667,7 +14645,7 @@
       <c r="Q8" s="80"/>
       <c r="R8" s="81"/>
       <c r="Y8" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z8" s="64" t="s">
         <v>187</v>
@@ -14685,26 +14663,26 @@
         <v>168</v>
       </c>
       <c r="AE8" s="62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF8" s="59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AG8" s="59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AH8" s="59" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="6:34" ht="15" thickBot="1">
       <c r="F9" s="79"/>
       <c r="G9" s="189" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -14737,7 +14715,7 @@
         <v>112</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="6:34">
@@ -14750,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA10" s="65" t="s">
         <v>164</v>
@@ -14793,10 +14771,10 @@
         <v>2</v>
       </c>
       <c r="Z11" s="67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA11" s="65" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AB11" s="65" t="s">
         <v>167</v>
@@ -14836,10 +14814,10 @@
         <v>3</v>
       </c>
       <c r="Z12" s="67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA12" s="65" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AB12" s="65" t="s">
         <v>167</v>
@@ -14865,16 +14843,16 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I13" s="64" t="s">
         <v>187</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L13" s="64" t="s">
         <v>45</v>
@@ -14883,7 +14861,7 @@
         <v>168</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
@@ -14897,16 +14875,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K14" s="109" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L14" s="109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M14" s="109">
         <v>3</v>
@@ -14926,16 +14904,16 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>530</v>
-      </c>
       <c r="K15" s="109" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M15" s="1">
         <v>4</v>
@@ -14955,16 +14933,16 @@
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K16" s="109" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
@@ -14984,16 +14962,16 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K17" s="109" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M17" s="1">
         <v>6</v>
@@ -15046,7 +15024,7 @@
       <c r="L20" s="104"/>
       <c r="M20" s="105"/>
       <c r="N20" s="93" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -15070,25 +15048,25 @@
     </row>
     <row r="25" spans="6:18">
       <c r="H25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="6:18">
       <c r="H29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="J30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -15151,7 +15129,7 @@
         <v>168</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15162,7 +15140,7 @@
         <v>164</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D2" s="36">
         <v>3</v>
@@ -15179,7 +15157,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D3" s="36">
         <v>4</v>
@@ -15196,7 +15174,7 @@
         <v>164</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D4" s="36">
         <v>5</v>
@@ -15213,7 +15191,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D5" s="36">
         <v>6</v>
@@ -15230,7 +15208,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D6" s="36">
         <v>7</v>
@@ -15247,7 +15225,7 @@
         <v>164</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D7" s="36">
         <v>8</v>
@@ -15301,7 +15279,7 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -15309,7 +15287,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -15323,25 +15301,25 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AA5" s="39"/>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="H6" s="107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -15361,10 +15339,10 @@
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="H7" s="107" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -15388,13 +15366,13 @@
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="H8" s="107" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -15469,16 +15447,16 @@
         <v>45</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
@@ -15487,32 +15465,32 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="65" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z11" s="65" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA11" s="66" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="6:27">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -15521,32 +15499,32 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z12" s="65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AA12" s="66" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="6:27">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="193" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K13" s="193" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L13" s="193" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -15555,32 +15533,32 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z13" s="65" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AA13" s="66" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="193" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I14" s="193" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K14" s="193" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L14" s="193" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -15593,19 +15571,19 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="193" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I15" s="193" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K15" s="193" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L15" s="193" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -15665,7 +15643,7 @@
       <c r="K19" s="191"/>
       <c r="L19" s="192"/>
       <c r="M19" s="92" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
@@ -15705,20 +15683,20 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="6:18">
       <c r="H27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="J28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -15749,54 +15727,54 @@
         <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="87" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="87" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -15810,8 +15788,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15847,31 +15825,31 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="173" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="173" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="175" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="173" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="X12" s="175" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
     <row r="14" spans="3:35" ht="18" thickBot="1">
       <c r="C14" s="157" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
@@ -15885,7 +15863,7 @@
       <c r="M14" s="112"/>
       <c r="N14" s="113"/>
       <c r="O14" s="157" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
@@ -15896,7 +15874,7 @@
       <c r="V14" s="112"/>
       <c r="W14" s="35"/>
       <c r="X14" s="157" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y14" s="111"/>
       <c r="Z14" s="111"/>
@@ -15927,10 +15905,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="197" t="s">
-        <v>266</v>
-      </c>
-      <c r="T15" s="198"/>
+      <c r="S15" s="219" t="s">
+        <v>264</v>
+      </c>
+      <c r="T15" s="220"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -15938,23 +15916,23 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="197" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD15" s="198"/>
+      <c r="AC15" s="219" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD15" s="220"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH15" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="174" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D16" s="130" t="s">
         <v>164</v>
@@ -15972,44 +15950,44 @@
         <v>3003000</v>
       </c>
       <c r="I16" s="113" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="113"/>
       <c r="L16" s="134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="113"/>
       <c r="O16" s="113" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P16" s="132"/>
       <c r="Q16" s="113" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R16" s="132" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S16" s="113" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T16" s="128"/>
       <c r="V16" s="114"/>
       <c r="W16" s="35"/>
       <c r="X16" s="120"/>
       <c r="Y16" s="113" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Z16" s="132"/>
       <c r="AA16" s="113" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AB16" s="132" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AC16" s="113" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AD16" s="128"/>
       <c r="AE16" s="128"/>
@@ -16056,25 +16034,25 @@
     <row r="18" spans="3:35" ht="15" thickBot="1">
       <c r="C18" s="120"/>
       <c r="D18" s="129" t="s">
-        <v>234</v>
+        <v>720</v>
       </c>
       <c r="E18" s="133"/>
       <c r="F18" s="113" t="s">
-        <v>235</v>
+        <v>721</v>
       </c>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
       <c r="I18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="134" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L18" s="113"/>
       <c r="M18" s="114"/>
       <c r="N18" s="113"/>
       <c r="O18" s="120"/>
       <c r="P18" s="135" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="136"/>
       <c r="R18" s="113"/>
@@ -16094,7 +16072,7 @@
       <c r="AF18" s="128"/>
       <c r="AG18" s="128"/>
       <c r="AH18" s="137" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI18" s="114"/>
     </row>
@@ -16121,32 +16099,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="199" t="s">
+      <c r="Y19" s="214" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Z19" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="200" t="s">
+      <c r="AA19" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="199" t="s">
+      <c r="AB19" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="199" t="s">
+      <c r="AC19" s="214" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="199" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE19" s="199" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF19" s="199" t="s">
+      <c r="AD19" s="214" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE19" s="214" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF19" s="214" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="199"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="214"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -16164,47 +16142,47 @@
       <c r="N20" s="113"/>
       <c r="O20" s="120"/>
       <c r="P20" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="139" t="s">
         <v>255</v>
       </c>
-      <c r="Q20" s="139" t="s">
-        <v>257</v>
-      </c>
       <c r="R20" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="S20" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="T20" s="139" t="s">
         <v>265</v>
-      </c>
-      <c r="S20" s="139" t="s">
-        <v>264</v>
-      </c>
-      <c r="T20" s="139" t="s">
-        <v>267</v>
       </c>
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="199"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="201"/>
-      <c r="AE20" s="201"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="201"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="215"/>
+      <c r="AE20" s="215"/>
+      <c r="AF20" s="215"/>
+      <c r="AG20" s="215"/>
+      <c r="AH20" s="215"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
       <c r="C21" s="120"/>
       <c r="D21" s="18"/>
       <c r="E21" s="134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G21" s="113"/>
       <c r="H21" s="134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -16214,19 +16192,19 @@
       <c r="N21" s="113"/>
       <c r="O21" s="120"/>
       <c r="P21" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q21" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="Q21" s="141" t="s">
-        <v>258</v>
-      </c>
       <c r="R21" s="141" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S21" s="140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T21" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V21" s="114"/>
       <c r="W21" s="35"/>
@@ -16245,16 +16223,16 @@
         <v>47</v>
       </c>
       <c r="AD21" s="144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AE21" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF21" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG21" s="203"/>
-      <c r="AH21" s="204"/>
+        <v>240</v>
+      </c>
+      <c r="AF21" s="216" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG21" s="217"/>
+      <c r="AH21" s="218"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -16275,21 +16253,21 @@
         <v>35</v>
       </c>
       <c r="Q22" s="171" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R22" s="171" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S22" s="147" t="s">
         <v>35</v>
       </c>
       <c r="T22" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="205" t="s">
+      <c r="Y22" s="203" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -16308,11 +16286,11 @@
         <v>2305.1</v>
       </c>
       <c r="AE22" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="209"/>
-      <c r="AH22" s="210"/>
+        <v>239</v>
+      </c>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="202"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -16320,24 +16298,24 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="218"/>
+      <c r="F23" s="213"/>
       <c r="G23" s="139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H23" s="139" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I23" s="139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J23" s="139" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K23" s="158" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L23" s="113"/>
       <c r="M23" s="19"/>
@@ -16347,7 +16325,7 @@
         <v>37</v>
       </c>
       <c r="Q23" s="148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R23" s="148" t="s">
         <v>50</v>
@@ -16356,12 +16334,12 @@
         <v>37</v>
       </c>
       <c r="T23" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="206"/>
+      <c r="Y23" s="204"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -16378,22 +16356,22 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="208"/>
-      <c r="AG23" s="209"/>
-      <c r="AH23" s="210"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="202"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
       <c r="C24" s="120"/>
       <c r="D24" s="140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E24" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F24" s="141"/>
       <c r="G24" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H24" s="63">
         <v>43468</v>
@@ -16402,7 +16380,7 @@
         <v>43468</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K24" s="159"/>
       <c r="L24" s="113"/>
@@ -16413,7 +16391,7 @@
         <v>38</v>
       </c>
       <c r="Q24" s="141" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R24" s="141" t="s">
         <v>52</v>
@@ -16422,12 +16400,12 @@
         <v>38</v>
       </c>
       <c r="T24" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="206"/>
+      <c r="Y24" s="204"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -16442,22 +16420,22 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="208"/>
-      <c r="AG24" s="209"/>
-      <c r="AH24" s="210"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="202"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
       <c r="C25" s="120"/>
       <c r="D25" s="140" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E25" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F25" s="141"/>
       <c r="G25" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H25" s="63">
         <v>43468</v>
@@ -16466,7 +16444,7 @@
         <v>43468</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K25" s="159"/>
       <c r="L25" s="113"/>
@@ -16477,7 +16455,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="141" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R25" s="141" t="s">
         <v>54</v>
@@ -16486,12 +16464,12 @@
         <v>39</v>
       </c>
       <c r="T25" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="206"/>
+      <c r="Y25" s="204"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -16506,22 +16484,22 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="208"/>
-      <c r="AG25" s="209"/>
-      <c r="AH25" s="210"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="202"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
       <c r="C26" s="120"/>
       <c r="D26" s="145" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E26" s="146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F26" s="146"/>
       <c r="G26" s="121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H26" s="152">
         <v>43468</v>
@@ -16530,7 +16508,7 @@
         <v>43468</v>
       </c>
       <c r="J26" s="121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K26" s="160"/>
       <c r="L26" s="113"/>
@@ -16541,7 +16519,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R26" s="141" t="s">
         <v>56</v>
@@ -16550,12 +16528,12 @@
         <v>40</v>
       </c>
       <c r="T26" s="142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="206"/>
+      <c r="Y26" s="204"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -16570,22 +16548,22 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="208"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="210"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="201"/>
+      <c r="AH26" s="202"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
       <c r="C27" s="120"/>
       <c r="D27" s="140" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E27" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F27" s="141"/>
       <c r="G27" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H27" s="63">
         <v>43468</v>
@@ -16594,10 +16572,10 @@
         <v>43468</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K27" s="161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L27" s="113"/>
       <c r="M27" s="19"/>
@@ -16607,7 +16585,7 @@
         <v>42</v>
       </c>
       <c r="Q27" s="141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R27" s="141" t="s">
         <v>58</v>
@@ -16616,12 +16594,12 @@
         <v>42</v>
       </c>
       <c r="T27" s="151" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="207"/>
+      <c r="Y27" s="205"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -16636,22 +16614,22 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="208"/>
-      <c r="AG27" s="209"/>
-      <c r="AH27" s="210"/>
+      <c r="AF27" s="200"/>
+      <c r="AG27" s="201"/>
+      <c r="AH27" s="202"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
       <c r="C28" s="120"/>
       <c r="D28" s="140" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E28" s="141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F28" s="141"/>
       <c r="G28" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H28" s="63">
         <v>43468</v>
@@ -16660,10 +16638,10 @@
         <v>43468</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K28" s="159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L28" s="113"/>
       <c r="M28" s="19"/>
@@ -16678,7 +16656,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="205" t="s">
+      <c r="Y28" s="203" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -16695,9 +16673,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="209"/>
-      <c r="AH28" s="210"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="202"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -16723,7 +16701,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="206"/>
+      <c r="Y29" s="204"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -16738,9 +16716,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="208"/>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="210"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="202"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -16766,7 +16744,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="206"/>
+      <c r="Y30" s="204"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -16781,9 +16759,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="208"/>
-      <c r="AG30" s="209"/>
-      <c r="AH30" s="210"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="202"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -16809,7 +16787,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="206"/>
+      <c r="Y31" s="204"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -16822,9 +16800,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="208"/>
-      <c r="AG31" s="209"/>
-      <c r="AH31" s="210"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="201"/>
+      <c r="AH31" s="202"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -16850,7 +16828,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="207"/>
+      <c r="Y32" s="205"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -16863,9 +16841,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="209"/>
-      <c r="AH32" s="210"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="201"/>
+      <c r="AH32" s="202"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -16891,7 +16869,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="205" t="s">
+      <c r="Y33" s="203" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -16906,9 +16884,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="208"/>
-      <c r="AG33" s="209"/>
-      <c r="AH33" s="210"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="201"/>
+      <c r="AH33" s="202"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -16934,7 +16912,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="206"/>
+      <c r="Y34" s="204"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -16947,9 +16925,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="208"/>
-      <c r="AG34" s="209"/>
-      <c r="AH34" s="210"/>
+      <c r="AF34" s="200"/>
+      <c r="AG34" s="201"/>
+      <c r="AH34" s="202"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -16975,7 +16953,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="206"/>
+      <c r="Y35" s="204"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -16988,9 +16966,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="208"/>
-      <c r="AG35" s="209"/>
-      <c r="AH35" s="210"/>
+      <c r="AF35" s="200"/>
+      <c r="AG35" s="201"/>
+      <c r="AH35" s="202"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -17007,7 +16985,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -17018,7 +16996,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="207"/>
+      <c r="Y36" s="205"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -17031,9 +17009,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="208"/>
-      <c r="AG36" s="209"/>
-      <c r="AH36" s="210"/>
+      <c r="AF36" s="200"/>
+      <c r="AG36" s="201"/>
+      <c r="AH36" s="202"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -17130,7 +17108,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="120"/>
       <c r="Y39" s="156" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Z39" s="113"/>
       <c r="AA39" s="113"/>
@@ -17138,7 +17116,7 @@
       <c r="AC39" s="113"/>
       <c r="AD39" s="113"/>
       <c r="AE39" s="156" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF39" s="113"/>
       <c r="AG39" s="113"/>
@@ -17183,8 +17161,8 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="211" t="s">
-        <v>240</v>
+      <c r="AH40" s="206" t="s">
+        <v>238</v>
       </c>
       <c r="AI40" s="114"/>
     </row>
@@ -17226,7 +17204,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="212"/>
+      <c r="AH41" s="207"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -17267,8 +17245,8 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="213" t="s">
-        <v>283</v>
+      <c r="AH42" s="208" t="s">
+        <v>281</v>
       </c>
       <c r="AI42" s="114"/>
     </row>
@@ -17301,14 +17279,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="215">
+      <c r="AE43" s="210">
         <v>0</v>
       </c>
-      <c r="AF43" s="216"/>
+      <c r="AF43" s="211"/>
       <c r="AG43" s="172" t="s">
-        <v>282</v>
-      </c>
-      <c r="AH43" s="214"/>
+        <v>280</v>
+      </c>
+      <c r="AH43" s="209"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -17410,14 +17388,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="219" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF46" s="219"/>
-      <c r="AG46" s="220" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH46" s="220"/>
+      <c r="AE46" s="198" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF46" s="198"/>
+      <c r="AG46" s="199" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH46" s="199"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -17449,10 +17427,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="219"/>
-      <c r="AF47" s="219"/>
-      <c r="AG47" s="220"/>
-      <c r="AH47" s="220"/>
+      <c r="AE47" s="198"/>
+      <c r="AF47" s="198"/>
+      <c r="AG47" s="199"/>
+      <c r="AH47" s="199"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -17562,7 +17540,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -17599,7 +17577,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -17670,7 +17648,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -17686,17 +17664,26 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -17711,21 +17698,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17761,7 +17739,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="O5" s="76" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
@@ -17775,7 +17753,7 @@
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
       <c r="D6" s="176" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -17806,7 +17784,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
       <c r="K7" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L7" s="80"/>
       <c r="M7" s="81"/>
@@ -17824,10 +17802,10 @@
     <row r="8" spans="4:24" ht="15" thickBot="1">
       <c r="D8" s="79"/>
       <c r="E8" s="107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="80"/>
@@ -17850,13 +17828,13 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="79"/>
       <c r="E9" s="107" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F9" s="177">
         <v>43466</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H9" s="177">
         <v>43466</v>
@@ -17864,7 +17842,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="92" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="81"/>
@@ -18092,8 +18070,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18126,7 +18104,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -18139,7 +18117,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -18163,7 +18141,7 @@
         <v>155</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="16.5">
@@ -18198,40 +18176,40 @@
     </row>
     <row r="7" spans="2:29" ht="16.5">
       <c r="M7" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="2:29">
       <c r="N12" s="58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="2:29">
       <c r="C13" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>471</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="14" spans="2:29">
       <c r="C14" s="44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>127</v>
@@ -18245,13 +18223,13 @@
     </row>
     <row r="15" spans="2:29">
       <c r="C15" s="44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>68</v>
@@ -18264,20 +18242,20 @@
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="196" t="s">
+      <c r="P15" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196" t="s">
+      <c r="Q15" s="197"/>
+      <c r="R15" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="196"/>
-      <c r="T15" s="196"/>
-      <c r="U15" s="196"/>
-      <c r="V15" s="196" t="s">
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="W15" s="196"/>
+      <c r="W15" s="197"/>
       <c r="X15" s="37" t="s">
         <v>44</v>
       </c>
@@ -18331,7 +18309,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>69</v>
@@ -18370,10 +18348,10 @@
         <v>8</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -18446,7 +18424,7 @@
         <v>124</v>
       </c>
       <c r="S20" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T20" s="51" t="s">
         <v>131</v>
@@ -18497,7 +18475,7 @@
         <v>102</v>
       </c>
       <c r="S21" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T21" s="51" t="s">
         <v>4</v>
@@ -18530,10 +18508,10 @@
     </row>
     <row r="22" spans="3:29">
       <c r="G22" s="39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -18574,7 +18552,7 @@
         <v>106</v>
       </c>
       <c r="Y22" s="51" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Z22" s="51" t="s">
         <v>138</v>
@@ -18655,7 +18633,7 @@
         <v>49</v>
       </c>
       <c r="N24" s="166" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O24" s="167" t="s">
         <v>85</v>
@@ -18664,25 +18642,25 @@
         <v>70</v>
       </c>
       <c r="Q24" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="S24" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="T24" s="38" t="s">
         <v>323</v>
-      </c>
-      <c r="S24" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="T24" s="38" t="s">
-        <v>325</v>
       </c>
       <c r="U24" s="38" t="s">
         <v>9</v>
       </c>
       <c r="V24" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W24" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38">
@@ -18727,7 +18705,7 @@
         <v>70</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="R25" s="38" t="s">
         <v>61</v>
@@ -18736,16 +18714,16 @@
         <v>62</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U25" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V25" s="38" t="s">
         <v>151</v>
       </c>
       <c r="W25" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
@@ -19200,10 +19178,10 @@
     </row>
     <row r="34" spans="7:29">
       <c r="G34" s="39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="163" t="s">
@@ -19250,7 +19228,7 @@
         <v>116</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M35" s="163" t="s">
         <v>49</v>
@@ -19298,7 +19276,7 @@
         <v>45</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M36" s="163" t="s">
         <v>49</v>
@@ -19449,25 +19427,25 @@
     </row>
     <row r="42" spans="7:29">
       <c r="N42" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="7:29">
       <c r="G43" s="39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="N43" s="39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="7:29">
@@ -19667,7 +19645,7 @@
       </c>
       <c r="L52" s="186"/>
       <c r="N52" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="7:24">
@@ -19688,10 +19666,10 @@
       </c>
       <c r="L53" s="186"/>
       <c r="N53" s="39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -19718,7 +19696,7 @@
     </row>
     <row r="55" spans="7:24">
       <c r="N55" s="64" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O55" s="64" t="s">
         <v>180</v>
@@ -19736,21 +19714,21 @@
         <v>169</v>
       </c>
       <c r="T55" s="59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="U55" s="59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="W55" s="59" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="7:24">
       <c r="N56" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O56" s="64" t="s">
         <v>187</v>
@@ -19768,16 +19746,16 @@
         <v>168</v>
       </c>
       <c r="T56" s="62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U56" s="59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V56" s="59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W56" s="59" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="7:24">
@@ -19809,7 +19787,7 @@
         <v>112</v>
       </c>
       <c r="W57" s="59" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="7:24">
@@ -19817,7 +19795,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="67" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P58" s="65" t="s">
         <v>164</v>
@@ -19844,10 +19822,10 @@
     </row>
     <row r="65" spans="14:31" ht="16.5">
       <c r="N65" s="39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -19911,10 +19889,10 @@
         <v>180</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>116</v>
@@ -19938,16 +19916,16 @@
         <v>176</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AB68" s="5" t="s">
         <v>173</v>
@@ -19963,10 +19941,10 @@
         <v>187</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q69" s="5" t="s">
         <v>45</v>
@@ -19990,16 +19968,16 @@
         <v>185</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y69" s="5" t="s">
         <v>186</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AB69" s="5" t="s">
         <v>171</v>
@@ -20015,7 +19993,7 @@
         <v>163</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>163</v>
@@ -20064,7 +20042,7 @@
     </row>
     <row r="71" spans="14:31" ht="16.5">
       <c r="N71" s="71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O71" s="6">
         <v>2019</v>
@@ -20073,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R71" s="70" t="s">
         <v>164</v>
@@ -20152,10 +20130,10 @@
     </row>
     <row r="74" spans="14:31">
       <c r="N74" s="39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O74" s="39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
@@ -20222,7 +20200,7 @@
         <v>188</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q77" s="5" t="s">
         <v>227</v>
@@ -20268,7 +20246,7 @@
         <v>193</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q78" s="5" t="s">
         <v>225</v>
@@ -20329,7 +20307,7 @@
         <v>230</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>198</v>
@@ -20354,7 +20332,7 @@
     </row>
     <row r="80" spans="14:31" ht="16.5">
       <c r="N80" s="73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O80" s="179" t="s">
         <v>200</v>
@@ -20386,7 +20364,7 @@
     </row>
     <row r="81" spans="14:31" ht="16.5">
       <c r="N81" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O81" s="180" t="s">
         <v>202</v>
@@ -20424,7 +20402,7 @@
     </row>
     <row r="82" spans="14:31" ht="16.5">
       <c r="N82" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O82" s="180" t="s">
         <v>203</v>
@@ -20456,7 +20434,7 @@
     </row>
     <row r="83" spans="14:31" ht="16.5">
       <c r="N83" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O83" s="180" t="s">
         <v>204</v>
@@ -20488,7 +20466,7 @@
     </row>
     <row r="84" spans="14:31" ht="16.5">
       <c r="N84" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O84" s="180" t="s">
         <v>206</v>
@@ -20520,7 +20498,7 @@
     </row>
     <row r="85" spans="14:31" ht="16.5">
       <c r="N85" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O85" s="180" t="s">
         <v>208</v>
@@ -20552,7 +20530,7 @@
     </row>
     <row r="86" spans="14:31" ht="16.5">
       <c r="N86" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O86" s="180" t="s">
         <v>210</v>
@@ -20584,7 +20562,7 @@
     </row>
     <row r="87" spans="14:31" ht="16.5">
       <c r="N87" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O87" s="180" t="s">
         <v>212</v>
@@ -20622,7 +20600,7 @@
     </row>
     <row r="88" spans="14:31" ht="16.5">
       <c r="N88" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O88" s="180" t="s">
         <v>213</v>
@@ -20654,7 +20632,7 @@
     </row>
     <row r="89" spans="14:31" ht="16.5">
       <c r="N89" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O89" s="180" t="s">
         <v>215</v>
@@ -20686,7 +20664,7 @@
     </row>
     <row r="90" spans="14:31" ht="16.5">
       <c r="N90" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O90" s="180" t="s">
         <v>217</v>
@@ -20718,7 +20696,7 @@
     </row>
     <row r="91" spans="14:31" ht="16.5">
       <c r="N91" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O91" s="180" t="s">
         <v>218</v>
@@ -20750,7 +20728,7 @@
     </row>
     <row r="92" spans="14:31" ht="16.5">
       <c r="N92" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O92" s="180" t="s">
         <v>220</v>
@@ -20784,7 +20762,7 @@
     </row>
     <row r="93" spans="14:31" ht="16.5">
       <c r="N93" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O93" s="180" t="s">
         <v>221</v>
@@ -20818,7 +20796,7 @@
     </row>
     <row r="94" spans="14:31" ht="16.5">
       <c r="N94" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O94" s="180" t="s">
         <v>222</v>
@@ -20856,7 +20834,7 @@
     </row>
     <row r="95" spans="14:31" ht="17.25" thickBot="1">
       <c r="N95" s="75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O95" s="181" t="s">
         <v>223</v>
@@ -20888,10 +20866,10 @@
     </row>
     <row r="96" spans="14:31" ht="16.5">
       <c r="N96" s="73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O96" s="179" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P96" s="22">
         <v>1</v>
@@ -20899,11 +20877,11 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T96" s="13"/>
       <c r="U96" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="V96" s="13"/>
       <c r="W96" s="13"/>
@@ -20922,10 +20900,10 @@
     </row>
     <row r="97" spans="14:31" ht="16.5">
       <c r="N97" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O97" s="180" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P97" s="20">
         <v>1</v>
@@ -20933,7 +20911,7 @@
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
       <c r="S97" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T97" s="11"/>
       <c r="U97" s="33" t="s">
@@ -20956,10 +20934,10 @@
     </row>
     <row r="98" spans="14:31" ht="16.5">
       <c r="N98" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O98" s="180" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P98" s="20">
         <v>1</v>
@@ -20967,7 +20945,7 @@
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
       <c r="S98" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T98" s="11"/>
       <c r="U98" s="7" t="s">
@@ -20990,10 +20968,10 @@
     </row>
     <row r="99" spans="14:31" ht="16.5">
       <c r="N99" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O99" s="180" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P99" s="20">
         <v>1</v>
@@ -21001,7 +20979,7 @@
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
       <c r="S99" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T99" s="11"/>
       <c r="U99" s="7" t="s">
@@ -21024,10 +21002,10 @@
     </row>
     <row r="100" spans="14:31" ht="16.5">
       <c r="N100" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O100" s="180" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P100" s="20">
         <v>1</v>
@@ -21035,7 +21013,7 @@
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
       <c r="S100" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T100" s="11"/>
       <c r="U100" s="7" t="s">
@@ -21058,10 +21036,10 @@
     </row>
     <row r="101" spans="14:31" ht="16.5">
       <c r="N101" s="74" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O101" s="180" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P101" s="20">
         <v>1</v>
@@ -21069,7 +21047,7 @@
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
       <c r="S101" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T101" s="11"/>
       <c r="U101" s="7" t="s">
@@ -21092,10 +21070,10 @@
     </row>
     <row r="102" spans="14:31" ht="17.25" thickBot="1">
       <c r="N102" s="75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O102" s="181" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P102" s="25">
         <v>1</v>
@@ -21103,7 +21081,7 @@
       <c r="Q102" s="26"/>
       <c r="R102" s="26"/>
       <c r="S102" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T102" s="26"/>
       <c r="U102" s="24" t="s">
@@ -21133,7 +21111,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="T56">
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T55">
     <cfRule type="duplicateValues" dxfId="25" priority="17"/>
@@ -21196,8 +21174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21208,513 +21186,513 @@
   <sheetData>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="196" t="s">
+        <v>628</v>
+      </c>
+      <c r="C5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="196" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="196" t="s">
         <v>630</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="196" t="s">
+        <v>631</v>
+      </c>
+      <c r="C8" t="s">
         <v>587</v>
       </c>
-      <c r="D5" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="221" t="s">
-        <v>631</v>
-      </c>
-      <c r="C6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="221" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" s="196" t="s">
         <v>632</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>588</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="221" t="s">
+    <row r="10" spans="1:4">
+      <c r="B10" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>589</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="221" t="s">
+    <row r="11" spans="1:4">
+      <c r="B11" s="196" t="s">
         <v>634</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>590</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="221" t="s">
+    <row r="12" spans="1:4">
+      <c r="B12" s="196" t="s">
         <v>635</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>591</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="221" t="s">
+    <row r="13" spans="1:4">
+      <c r="B13" s="196" t="s">
         <v>636</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>592</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="221" t="s">
+    <row r="14" spans="1:4">
+      <c r="B14" s="196" t="s">
         <v>637</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>593</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="221" t="s">
+    <row r="15" spans="1:4">
+      <c r="B15" s="196" t="s">
         <v>638</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>594</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="221" t="s">
+    <row r="16" spans="1:4">
+      <c r="B16" s="196" t="s">
         <v>639</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>595</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="221" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" s="196" t="s">
         <v>640</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>596</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="221" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="196" t="s">
         <v>641</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>597</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="221" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="196" t="s">
         <v>642</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>598</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="221" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="196" t="s">
         <v>643</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>599</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="221" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="196" t="s">
         <v>644</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>600</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="221" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="196" t="s">
         <v>645</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="196" t="s">
+        <v>646</v>
+      </c>
+      <c r="C23" t="s">
         <v>601</v>
       </c>
-      <c r="D20" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="221" t="s">
-        <v>646</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="196" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" t="s">
         <v>602</v>
       </c>
-      <c r="D21" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="221" t="s">
-        <v>647</v>
-      </c>
-      <c r="C22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="221" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="196" t="s">
         <v>648</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>603</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="221" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" s="196" t="s">
         <v>649</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>604</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="221" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="196" t="s">
         <v>650</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>605</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="221" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="196" t="s">
         <v>651</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>606</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="221" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="196" t="s">
         <v>652</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>607</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="221" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="196" t="s">
         <v>653</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>608</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="221" t="s">
+    <row r="31" spans="2:4">
+      <c r="B31" s="196" t="s">
         <v>654</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>609</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="221" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="196" t="s">
         <v>655</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>610</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="221" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="196" t="s">
         <v>656</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>611</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="221" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="196" t="s">
         <v>657</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>612</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="221" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="196" t="s">
         <v>658</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="196" t="s">
+        <v>659</v>
+      </c>
+      <c r="C36" t="s">
         <v>613</v>
       </c>
-      <c r="D33" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="221" t="s">
-        <v>659</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="196" t="s">
+        <v>660</v>
+      </c>
+      <c r="C37" t="s">
         <v>614</v>
       </c>
-      <c r="D34" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="221" t="s">
-        <v>660</v>
-      </c>
-      <c r="C35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="221" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="196" t="s">
         <v>661</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>615</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="221" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="196" t="s">
         <v>662</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>616</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="221" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="196" t="s">
         <v>663</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>617</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="221" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="196" t="s">
         <v>664</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>618</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="221" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="196" t="s">
         <v>665</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>619</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="221" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="196" t="s">
         <v>666</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>620</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="221" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="196" t="s">
         <v>667</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>621</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="221" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="196" t="s">
         <v>668</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>622</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="221" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="196" t="s">
         <v>669</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>623</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="221" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="196" t="s">
         <v>670</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>624</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="221" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="196" t="s">
         <v>671</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>625</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="221" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="196" t="s">
         <v>672</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>626</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="221" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="196" t="s">
         <v>673</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>627</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="221" t="s">
-        <v>674</v>
-      </c>
-      <c r="C49" t="s">
-        <v>628</v>
-      </c>
-      <c r="D49" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="221" t="s">
-        <v>675</v>
-      </c>
-      <c r="C50" t="s">
-        <v>629</v>
-      </c>
-      <c r="D50" t="s">
-        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -21768,7 +21746,7 @@
     <row r="5" spans="6:34" ht="17.25">
       <c r="F5" s="79"/>
       <c r="G5" s="96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -21833,26 +21811,26 @@
       <c r="F7" s="79"/>
       <c r="G7" s="80"/>
       <c r="I7" s="85" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
       <c r="M7" s="80"/>
       <c r="N7" s="85" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
       <c r="R7" s="80"/>
       <c r="S7" s="85" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U7" s="80"/>
       <c r="V7" s="80"/>
       <c r="W7" s="85" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X7" s="80"/>
       <c r="Y7" s="80"/>
@@ -21899,14 +21877,14 @@
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="I9" s="85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
       <c r="L9" s="80"/>
       <c r="M9" s="80"/>
       <c r="N9" s="85" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
@@ -21969,7 +21947,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="85" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
@@ -22088,7 +22066,7 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="I15" s="85" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J15" s="80"/>
       <c r="K15" s="80"/>
@@ -22242,7 +22220,7 @@
     </row>
     <row r="21" spans="6:34">
       <c r="F21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -22297,17 +22275,17 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -22321,13 +22299,13 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Z5" s="43" t="s">
         <v>116</v>
       </c>
       <c r="AA5" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
@@ -22339,7 +22317,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -22347,13 +22325,13 @@
       <c r="Q6" s="80"/>
       <c r="R6" s="81"/>
       <c r="Y6" s="44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="6:27">
@@ -22398,10 +22376,10 @@
         <v>3000000</v>
       </c>
       <c r="Z8" s="194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA8" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="6:27" ht="15" thickBot="1">
@@ -22410,13 +22388,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -22427,10 +22405,10 @@
         <v>3000001</v>
       </c>
       <c r="Z9" s="194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA9" s="41" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="6:27">
@@ -22451,23 +22429,23 @@
         <v>3000002</v>
       </c>
       <c r="Z10" s="194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA10" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="6:27" ht="17.25" thickBot="1">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80"/>
@@ -22481,10 +22459,10 @@
         <v>3000003</v>
       </c>
       <c r="Z11" s="194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA11" s="41" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="6:27" ht="15" thickBot="1">
@@ -22494,10 +22472,10 @@
         <v>3003001</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J12" s="100" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
@@ -22511,10 +22489,10 @@
         <v>3000004</v>
       </c>
       <c r="Z12" s="194" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AA12" s="41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="6:27">
@@ -22524,10 +22502,10 @@
         <v>3003000</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J13" s="97" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="80"/>
@@ -22541,10 +22519,10 @@
         <v>4000000</v>
       </c>
       <c r="Z13" s="194" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA13" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="6:27">
@@ -22554,10 +22532,10 @@
         <v>3003001</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
@@ -22571,10 +22549,10 @@
         <v>4000001</v>
       </c>
       <c r="Z14" s="194" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA14" s="41" t="s">
         <v>563</v>
-      </c>
-      <c r="AA14" s="41" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="15" spans="6:27">
@@ -22584,10 +22562,10 @@
         <v>3003002</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
@@ -22601,10 +22579,10 @@
         <v>4000002</v>
       </c>
       <c r="Z15" s="194" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="6:27">
@@ -22614,10 +22592,10 @@
         <v>3003003</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -22631,10 +22609,10 @@
         <v>4000003</v>
       </c>
       <c r="Z16" s="194" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="6:27">
@@ -22644,10 +22622,10 @@
         <v>3003004</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K17" s="80"/>
       <c r="L17" s="80"/>
@@ -22661,10 +22639,10 @@
         <v>4000004</v>
       </c>
       <c r="Z17" s="194" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AA17" s="41" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="6:27" ht="15" thickBot="1">
@@ -22684,50 +22662,50 @@
     </row>
     <row r="22" spans="6:27">
       <c r="F22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="6:27">
       <c r="F24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="6:27">
       <c r="H25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="6:27">
       <c r="H26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="6:27">
       <c r="F29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -22783,7 +22761,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -22813,7 +22791,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -22833,13 +22811,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -22890,13 +22868,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -22907,7 +22885,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>5</v>
@@ -22931,7 +22909,7 @@
         <v>70</v>
       </c>
       <c r="Z10" s="195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>8</v>
@@ -22961,7 +22939,7 @@
         <v>71</v>
       </c>
       <c r="Z11" s="195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>16</v>
@@ -22974,10 +22952,10 @@
         <v>70</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
@@ -22991,7 +22969,7 @@
         <v>72</v>
       </c>
       <c r="Z12" s="195" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>22</v>
@@ -23021,7 +22999,7 @@
         <v>69</v>
       </c>
       <c r="Z13" s="195" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>5</v>
@@ -23051,7 +23029,7 @@
         <v>70</v>
       </c>
       <c r="Z14" s="195" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>8</v>
@@ -23081,7 +23059,7 @@
         <v>71</v>
       </c>
       <c r="Z15" s="195" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>16</v>
@@ -23097,7 +23075,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -23111,7 +23089,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="195" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>22</v>
@@ -23209,35 +23187,35 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="6:18">
       <c r="G31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="6:18">
       <c r="I32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -23319,13 +23297,13 @@
         <v>117</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="G6" s="107" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H6" s="99" t="s">
         <v>35</v>
@@ -23335,7 +23313,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -23358,14 +23336,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -23405,7 +23383,7 @@
         <v>34</v>
       </c>
       <c r="Z8" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>5</v>
@@ -23420,13 +23398,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K9" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L9" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -23437,7 +23415,7 @@
         <v>35</v>
       </c>
       <c r="Z9" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>8</v>
@@ -23464,7 +23442,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA10" s="38" t="s">
         <v>8</v>
@@ -23477,16 +23455,16 @@
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
@@ -23499,7 +23477,7 @@
         <v>38</v>
       </c>
       <c r="Z11" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA11" s="38" t="s">
         <v>8</v>
@@ -23515,13 +23493,13 @@
         <v>35</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J12" s="99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K12" s="99" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L12" s="80"/>
       <c r="M12" s="80"/>
@@ -23534,7 +23512,7 @@
         <v>39</v>
       </c>
       <c r="Z12" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA12" s="38" t="s">
         <v>8</v>
@@ -23547,16 +23525,16 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="J13" s="97" t="s">
-        <v>258</v>
-      </c>
       <c r="K13" s="97" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
@@ -23569,7 +23547,7 @@
         <v>40</v>
       </c>
       <c r="Z13" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA13" s="38" t="s">
         <v>16</v>
@@ -23585,13 +23563,13 @@
         <v>35</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L14" s="80"/>
       <c r="M14" s="80"/>
@@ -23604,7 +23582,7 @@
         <v>42</v>
       </c>
       <c r="Z14" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AA14" s="38" t="s">
         <v>16</v>
@@ -23620,10 +23598,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K15" s="102" t="s">
         <v>50</v>
@@ -23639,7 +23617,7 @@
         <v>34</v>
       </c>
       <c r="Z15" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA15" s="38" t="s">
         <v>5</v>
@@ -23655,10 +23633,10 @@
         <v>38</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K16" s="102" t="s">
         <v>52</v>
@@ -23674,7 +23652,7 @@
         <v>35</v>
       </c>
       <c r="Z16" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA16" s="38" t="s">
         <v>8</v>
@@ -23690,10 +23668,10 @@
         <v>39</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K17" s="102" t="s">
         <v>54</v>
@@ -23709,7 +23687,7 @@
         <v>37</v>
       </c>
       <c r="Z17" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA17" s="38" t="s">
         <v>8</v>
@@ -23725,10 +23703,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J18" s="102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K18" s="102" t="s">
         <v>56</v>
@@ -23744,7 +23722,7 @@
         <v>38</v>
       </c>
       <c r="Z18" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA18" s="38" t="s">
         <v>8</v>
@@ -23760,10 +23738,10 @@
         <v>42</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J19" s="102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K19" s="102" t="s">
         <v>58</v>
@@ -23779,7 +23757,7 @@
         <v>39</v>
       </c>
       <c r="Z19" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA19" s="38" t="s">
         <v>8</v>
@@ -23806,7 +23784,7 @@
         <v>40</v>
       </c>
       <c r="Z20" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA20" s="38" t="s">
         <v>16</v>
@@ -23833,7 +23811,7 @@
         <v>42</v>
       </c>
       <c r="Z21" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA21" s="38" t="s">
         <v>16</v>
@@ -23874,35 +23852,35 @@
     </row>
     <row r="27" spans="6:28">
       <c r="G27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="6:28">
       <c r="H28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="6:28">
       <c r="H32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -23935,7 +23913,7 @@
   <sheetData>
     <row r="2" spans="6:28">
       <c r="F2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="6:28" ht="15" thickBot="1"/>
@@ -23984,10 +23962,10 @@
         <v>116</v>
       </c>
       <c r="AA5" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -23999,7 +23977,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -24013,23 +23991,23 @@
         <v>45</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H7" s="100" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -24049,7 +24027,7 @@
         <v>123</v>
       </c>
       <c r="AB7" s="43" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="6:28" ht="15" thickBot="1">
@@ -24087,7 +24065,7 @@
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
       <c r="L9" s="92" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -24126,13 +24104,13 @@
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="76"/>
@@ -24150,10 +24128,10 @@
         <v>121</v>
       </c>
       <c r="I12" s="106" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J12" s="106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="79"/>
@@ -24171,10 +24149,10 @@
         <v>63</v>
       </c>
       <c r="I13" s="106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J13" s="106" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="79"/>
@@ -24209,7 +24187,7 @@
       <c r="K15" s="80"/>
       <c r="L15" s="79"/>
       <c r="M15" s="80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N15" s="80"/>
       <c r="O15" s="81"/>
@@ -24345,10 +24323,10 @@
       <c r="J24" s="104"/>
       <c r="K24" s="105"/>
       <c r="L24" s="92" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M24" s="92" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
@@ -24388,35 +24366,35 @@
     </row>
     <row r="30" spans="6:22">
       <c r="K30" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="6:22">
       <c r="K31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="V31" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -24456,7 +24434,7 @@
   <sheetData>
     <row r="2" spans="6:29">
       <c r="F2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="6:29" ht="15" thickBot="1"/>
@@ -24475,7 +24453,7 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z4" s="39" t="s">
         <v>129</v>
@@ -24487,7 +24465,7 @@
     <row r="5" spans="6:29" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -24517,7 +24495,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -24574,13 +24552,13 @@
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
       <c r="H8" s="107" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I8" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -24612,19 +24590,19 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="M9" s="91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N9" s="92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O9" s="93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Z9" s="45" t="s">
         <v>14</v>
@@ -24646,16 +24624,16 @@
         <v>76</v>
       </c>
       <c r="I10" s="99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J10" s="99">
         <v>0</v>
       </c>
       <c r="K10" s="99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L10" s="99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
@@ -24664,7 +24642,7 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z10" s="45" t="s">
         <v>7</v>
@@ -24694,7 +24672,7 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Z11" s="45" t="s">
         <v>145</v>
@@ -24713,19 +24691,19 @@
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="97" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I12" s="97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J12" s="97">
         <v>1</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -24734,7 +24712,7 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="Z12" s="45" t="s">
         <v>144</v>
@@ -24753,19 +24731,19 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>374</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -24774,7 +24752,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Z13" s="45" t="s">
         <v>18</v>
@@ -24794,16 +24772,16 @@
         <v>76</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J14" s="98">
         <v>0</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L14" s="98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -24812,7 +24790,7 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
       <c r="Y14" s="45" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Z14" s="45" t="s">
         <v>148</v>
@@ -24834,14 +24812,14 @@
         <v>77</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J15" s="102">
         <v>2</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -24857,16 +24835,16 @@
         <v>78</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J16" s="102">
         <v>1</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L16" s="102" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M16" s="80"/>
       <c r="N16" s="80"/>
@@ -24879,19 +24857,19 @@
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="102" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J17" s="102">
         <v>0</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L17" s="102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
@@ -24904,19 +24882,19 @@
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="102" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J18" s="102">
         <v>0</v>
       </c>
       <c r="K18" s="102" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L18" s="102" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M18" s="80"/>
       <c r="N18" s="80"/>
@@ -24987,35 +24965,35 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="H34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="H35" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="H36" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="732">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3597,6 +3597,36 @@
   </si>
   <si>
     <t>未入力时 7日内</t>
+  </si>
+  <si>
+    <t>0000000001_纵框.JPG</t>
+  </si>
+  <si>
+    <t>0000000002_鸭居.JPG</t>
+  </si>
+  <si>
+    <t>0000000001</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0000000002</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -4480,7 +4510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5069,25 +5099,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5098,6 +5134,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5123,29 +5168,17 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -15788,8 +15821,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21:AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15905,10 +15938,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="219" t="s">
+      <c r="S15" s="197" t="s">
         <v>264</v>
       </c>
-      <c r="T15" s="220"/>
+      <c r="T15" s="198"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -15916,10 +15949,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="219" t="s">
+      <c r="AC15" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="AD15" s="220"/>
+      <c r="AD15" s="198"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -16099,32 +16132,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="214" t="s">
+      <c r="Y19" s="199" t="s">
         <v>128</v>
       </c>
-      <c r="Z19" s="214" t="s">
+      <c r="Z19" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="221" t="s">
+      <c r="AA19" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="214" t="s">
+      <c r="AB19" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="214" t="s">
+      <c r="AC19" s="199" t="s">
         <v>134</v>
       </c>
-      <c r="AD19" s="214" t="s">
+      <c r="AD19" s="199" t="s">
         <v>277</v>
       </c>
-      <c r="AE19" s="214" t="s">
+      <c r="AE19" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="AF19" s="214" t="s">
+      <c r="AF19" s="199" t="s">
         <v>229</v>
       </c>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
+      <c r="AG19" s="199"/>
+      <c r="AH19" s="199"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -16159,16 +16192,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="214"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="214"/>
-      <c r="AD20" s="215"/>
-      <c r="AE20" s="215"/>
-      <c r="AF20" s="215"/>
-      <c r="AG20" s="215"/>
-      <c r="AH20" s="215"/>
+      <c r="Y20" s="199"/>
+      <c r="Z20" s="199"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="199"/>
+      <c r="AC20" s="199"/>
+      <c r="AD20" s="201"/>
+      <c r="AE20" s="201"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="201"/>
+      <c r="AH20" s="201"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -16228,11 +16261,11 @@
       <c r="AE21" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="AF21" s="216" t="s">
+      <c r="AF21" s="202" t="s">
         <v>279</v>
       </c>
-      <c r="AG21" s="217"/>
-      <c r="AH21" s="218"/>
+      <c r="AG21" s="203"/>
+      <c r="AH21" s="204"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -16267,7 +16300,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="203" t="s">
+      <c r="Y22" s="205" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -16288,9 +16321,9 @@
       <c r="AE22" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="201"/>
-      <c r="AH22" s="202"/>
+      <c r="AF22" s="208"/>
+      <c r="AG22" s="209"/>
+      <c r="AH22" s="210"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -16298,10 +16331,10 @@
       <c r="D23" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="212" t="s">
+      <c r="E23" s="217" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="213"/>
+      <c r="F23" s="218"/>
       <c r="G23" s="139" t="s">
         <v>235</v>
       </c>
@@ -16339,7 +16372,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="204"/>
+      <c r="Y23" s="206"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -16356,9 +16389,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="202"/>
+      <c r="AF23" s="208"/>
+      <c r="AG23" s="209"/>
+      <c r="AH23" s="210"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -16405,7 +16438,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="204"/>
+      <c r="Y24" s="206"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -16420,9 +16453,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="202"/>
+      <c r="AF24" s="208"/>
+      <c r="AG24" s="209"/>
+      <c r="AH24" s="210"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -16469,7 +16502,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="204"/>
+      <c r="Y25" s="206"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -16484,9 +16517,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="201"/>
-      <c r="AH25" s="202"/>
+      <c r="AF25" s="208"/>
+      <c r="AG25" s="209"/>
+      <c r="AH25" s="210"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -16533,7 +16566,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="204"/>
+      <c r="Y26" s="206"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -16548,9 +16581,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="201"/>
-      <c r="AH26" s="202"/>
+      <c r="AF26" s="208"/>
+      <c r="AG26" s="209"/>
+      <c r="AH26" s="210"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -16599,7 +16632,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="205"/>
+      <c r="Y27" s="207"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -16614,9 +16647,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="201"/>
-      <c r="AH27" s="202"/>
+      <c r="AF27" s="208"/>
+      <c r="AG27" s="209"/>
+      <c r="AH27" s="210"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -16656,7 +16689,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="203" t="s">
+      <c r="Y28" s="205" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -16673,9 +16706,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="201"/>
-      <c r="AH28" s="202"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="209"/>
+      <c r="AH28" s="210"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -16701,7 +16734,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="204"/>
+      <c r="Y29" s="206"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -16716,9 +16749,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="201"/>
-      <c r="AH29" s="202"/>
+      <c r="AF29" s="208"/>
+      <c r="AG29" s="209"/>
+      <c r="AH29" s="210"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -16744,7 +16777,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="204"/>
+      <c r="Y30" s="206"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -16759,9 +16792,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="201"/>
-      <c r="AH30" s="202"/>
+      <c r="AF30" s="208"/>
+      <c r="AG30" s="209"/>
+      <c r="AH30" s="210"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -16787,7 +16820,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="204"/>
+      <c r="Y31" s="206"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -16800,9 +16833,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="201"/>
-      <c r="AH31" s="202"/>
+      <c r="AF31" s="208"/>
+      <c r="AG31" s="209"/>
+      <c r="AH31" s="210"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -16828,7 +16861,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="205"/>
+      <c r="Y32" s="207"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -16841,9 +16874,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="201"/>
-      <c r="AH32" s="202"/>
+      <c r="AF32" s="208"/>
+      <c r="AG32" s="209"/>
+      <c r="AH32" s="210"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -16869,7 +16902,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="203" t="s">
+      <c r="Y33" s="205" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -16884,9 +16917,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="201"/>
-      <c r="AH33" s="202"/>
+      <c r="AF33" s="208"/>
+      <c r="AG33" s="209"/>
+      <c r="AH33" s="210"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -16912,7 +16945,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="204"/>
+      <c r="Y34" s="206"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -16925,9 +16958,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="200"/>
-      <c r="AG34" s="201"/>
-      <c r="AH34" s="202"/>
+      <c r="AF34" s="208"/>
+      <c r="AG34" s="209"/>
+      <c r="AH34" s="210"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -16953,7 +16986,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="204"/>
+      <c r="Y35" s="206"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -16966,9 +16999,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="200"/>
-      <c r="AG35" s="201"/>
-      <c r="AH35" s="202"/>
+      <c r="AF35" s="208"/>
+      <c r="AG35" s="209"/>
+      <c r="AH35" s="210"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -16996,7 +17029,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="205"/>
+      <c r="Y36" s="207"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -17009,9 +17042,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="200"/>
-      <c r="AG36" s="201"/>
-      <c r="AH36" s="202"/>
+      <c r="AF36" s="208"/>
+      <c r="AG36" s="209"/>
+      <c r="AH36" s="210"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -17161,7 +17194,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="206" t="s">
+      <c r="AH40" s="211" t="s">
         <v>238</v>
       </c>
       <c r="AI40" s="114"/>
@@ -17204,7 +17237,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="207"/>
+      <c r="AH41" s="212"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -17245,7 +17278,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="208" t="s">
+      <c r="AH42" s="213" t="s">
         <v>281</v>
       </c>
       <c r="AI42" s="114"/>
@@ -17279,14 +17312,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="210">
+      <c r="AE43" s="215">
         <v>0</v>
       </c>
-      <c r="AF43" s="211"/>
+      <c r="AF43" s="216"/>
       <c r="AG43" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="AH43" s="209"/>
+      <c r="AH43" s="214"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -17388,14 +17421,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="198" t="s">
+      <c r="AE46" s="219" t="s">
         <v>240</v>
       </c>
-      <c r="AF46" s="198"/>
-      <c r="AG46" s="199" t="s">
+      <c r="AF46" s="219"/>
+      <c r="AG46" s="220" t="s">
         <v>239</v>
       </c>
-      <c r="AH46" s="199"/>
+      <c r="AH46" s="220"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -17427,10 +17460,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="198"/>
-      <c r="AF47" s="198"/>
-      <c r="AG47" s="199"/>
-      <c r="AH47" s="199"/>
+      <c r="AE47" s="219"/>
+      <c r="AF47" s="219"/>
+      <c r="AG47" s="220"/>
+      <c r="AH47" s="220"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -17669,21 +17702,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -17698,12 +17722,21 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18070,8 +18103,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+    <sheetView showGridLines="0" topLeftCell="K61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18242,20 +18275,20 @@
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="197" t="s">
+      <c r="P15" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="197"/>
-      <c r="R15" s="197" t="s">
+      <c r="Q15" s="196"/>
+      <c r="R15" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="197"/>
-      <c r="T15" s="197"/>
-      <c r="U15" s="197"/>
-      <c r="V15" s="197" t="s">
+      <c r="S15" s="196"/>
+      <c r="T15" s="196"/>
+      <c r="U15" s="196"/>
+      <c r="V15" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="W15" s="197"/>
+      <c r="W15" s="196"/>
       <c r="X15" s="37" t="s">
         <v>44</v>
       </c>
@@ -21172,531 +21205,1101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D50"/>
+  <dimension ref="A4:U50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="221"/>
+    <col min="3" max="3" width="13.85546875" style="221" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="221" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="221"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" s="221" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="196" t="s">
+    <row r="5" spans="1:21">
+      <c r="B5" s="222" t="s">
         <v>628</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="221" t="s">
         <v>585</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="221" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="196" t="s">
+      <c r="F5" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="221" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="221" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" s="221" t="s">
+        <v>256</v>
+      </c>
+      <c r="M5" s="221" t="s">
+        <v>417</v>
+      </c>
+      <c r="O5" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q5" s="221" t="s">
+        <v>254</v>
+      </c>
+      <c r="U5" s="221" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="222" t="s">
         <v>629</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="221" t="s">
         <v>249</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="221" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="196" t="s">
+      <c r="F6" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" s="221" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="221" t="s">
+        <v>724</v>
+      </c>
+      <c r="L6" s="221" t="s">
+        <v>722</v>
+      </c>
+      <c r="M6" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N6" s="221" t="s">
+        <v>420</v>
+      </c>
+      <c r="O6" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="221" t="s">
+        <v>421</v>
+      </c>
+      <c r="R6" s="221" t="s">
+        <v>725</v>
+      </c>
+      <c r="S6" s="221" t="s">
+        <v>726</v>
+      </c>
+      <c r="T6" s="221" t="s">
+        <v>726</v>
+      </c>
+      <c r="U6" s="221" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="222" t="s">
         <v>630</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="221" t="s">
         <v>586</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="221" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="196" t="s">
+      <c r="F7" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" s="221" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="221" t="s">
+        <v>727</v>
+      </c>
+      <c r="L7" s="221" t="s">
+        <v>723</v>
+      </c>
+      <c r="M7" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N7" s="221" t="s">
+        <v>420</v>
+      </c>
+      <c r="O7" s="221" t="s">
+        <v>388</v>
+      </c>
+      <c r="P7" s="221" t="s">
+        <v>389</v>
+      </c>
+      <c r="U7" s="221" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="222" t="s">
         <v>631</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="221" t="s">
         <v>587</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="221" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="196" t="s">
+      <c r="F8" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G8" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" s="221" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="221" t="s">
+        <v>724</v>
+      </c>
+      <c r="L8" s="221" t="s">
+        <v>722</v>
+      </c>
+      <c r="M8" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N8" s="221" t="s">
+        <v>423</v>
+      </c>
+      <c r="O8" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P8" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q8" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="221" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="222" t="s">
         <v>632</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="221" t="s">
         <v>588</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="221" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="196" t="s">
+      <c r="F9" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H9" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" s="221" t="s">
+        <v>724</v>
+      </c>
+      <c r="L9" s="221" t="s">
+        <v>722</v>
+      </c>
+      <c r="M9" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N9" s="221" t="s">
+        <v>424</v>
+      </c>
+      <c r="O9" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P9" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q9" s="221" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="221" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="221" t="s">
         <v>589</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="221" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="196" t="s">
+      <c r="F10" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10" s="221" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="221" t="s">
+        <v>727</v>
+      </c>
+      <c r="L10" s="221" t="s">
+        <v>722</v>
+      </c>
+      <c r="M10" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N10" s="221" t="s">
+        <v>425</v>
+      </c>
+      <c r="O10" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P10" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="221" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="221" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="222" t="s">
         <v>634</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="221" t="s">
         <v>590</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="221" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="196" t="s">
+      <c r="F11" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="221" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="221" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="221" t="s">
+        <v>727</v>
+      </c>
+      <c r="L11" s="221" t="s">
+        <v>723</v>
+      </c>
+      <c r="M11" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N11" s="221" t="s">
+        <v>426</v>
+      </c>
+      <c r="O11" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P11" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q11" s="221" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="221" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="222" t="s">
         <v>635</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="221" t="s">
         <v>591</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="221" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="196" t="s">
+      <c r="F12" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="221" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="221" t="s">
+        <v>727</v>
+      </c>
+      <c r="L12" s="221" t="s">
+        <v>723</v>
+      </c>
+      <c r="M12" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N12" s="221" t="s">
+        <v>420</v>
+      </c>
+      <c r="O12" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="221" t="s">
+        <v>421</v>
+      </c>
+      <c r="R12" s="221" t="s">
+        <v>728</v>
+      </c>
+      <c r="S12" s="221" t="s">
+        <v>726</v>
+      </c>
+      <c r="T12" s="221" t="s">
+        <v>726</v>
+      </c>
+      <c r="U12" s="221" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" s="222" t="s">
         <v>636</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="221" t="s">
         <v>592</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="221" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="196" t="s">
+      <c r="F13" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H13" s="221" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="221" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="221" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N13" s="221" t="s">
+        <v>423</v>
+      </c>
+      <c r="O13" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P13" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q13" s="221" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="221" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" s="222" t="s">
         <v>637</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="221" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="196" t="s">
+      <c r="F14" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H14" s="221" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="K14" s="221" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="221" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="N14" s="221" t="s">
+        <v>424</v>
+      </c>
+      <c r="O14" s="221" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="221" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q14" s="221" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="222" t="s">
         <v>638</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="221" t="s">
         <v>594</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="221" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="196" t="s">
+      <c r="F15" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H15" s="221" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15" s="221" t="s">
+        <v>428</v>
+      </c>
+      <c r="O15" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="221" t="s">
+        <v>380</v>
+      </c>
+      <c r="U15" s="221" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="222" t="s">
         <v>639</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="221" t="s">
         <v>595</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="221" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="196" t="s">
+      <c r="F16" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H16" s="221" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="221" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="221" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" s="221" t="s">
+        <v>430</v>
+      </c>
+      <c r="O16" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="221" t="s">
+        <v>380</v>
+      </c>
+      <c r="U16" s="221" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="222" t="s">
         <v>640</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="221" t="s">
         <v>596</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="221" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="196" t="s">
+      <c r="F17" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="221" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="221" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="M17" s="221" t="s">
+        <v>432</v>
+      </c>
+      <c r="O17" s="221" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="221" t="s">
+        <v>382</v>
+      </c>
+      <c r="R17" s="221" t="s">
+        <v>433</v>
+      </c>
+      <c r="U17" s="221" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="222" t="s">
         <v>641</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="221" t="s">
         <v>597</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="221" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="196" t="s">
+      <c r="F18" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H18" s="221" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="221" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="M18" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="O18" s="221" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="221" t="s">
+        <v>382</v>
+      </c>
+      <c r="R18" s="221" t="s">
+        <v>435</v>
+      </c>
+      <c r="U18" s="221" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="222" t="s">
         <v>642</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="221" t="s">
         <v>598</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="221" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="196" t="s">
+      <c r="F19" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H19" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="221" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="M19" s="221" t="s">
+        <v>436</v>
+      </c>
+      <c r="O19" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="221" t="s">
+        <v>421</v>
+      </c>
+      <c r="R19" s="221" t="s">
+        <v>729</v>
+      </c>
+      <c r="S19" s="221" t="s">
+        <v>730</v>
+      </c>
+      <c r="T19" s="221" t="s">
+        <v>731</v>
+      </c>
+      <c r="U19" s="221" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="222" t="s">
         <v>643</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="221" t="s">
         <v>599</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="221" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="196" t="s">
+      <c r="F20" s="221" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="H20" s="221" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="221" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="221" t="s">
+        <v>360</v>
+      </c>
+      <c r="M20" s="221" t="s">
+        <v>438</v>
+      </c>
+      <c r="O20" s="221" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="221" t="s">
+        <v>380</v>
+      </c>
+      <c r="U20" s="221" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="222" t="s">
         <v>644</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="221" t="s">
         <v>600</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="221" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="196" t="s">
+    <row r="22" spans="2:21">
+      <c r="B22" s="222" t="s">
         <v>645</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="221" t="s">
         <v>245</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="221" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="196" t="s">
+    <row r="23" spans="2:21">
+      <c r="B23" s="222" t="s">
         <v>646</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="221" t="s">
         <v>601</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="221" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="196" t="s">
+    <row r="24" spans="2:21">
+      <c r="B24" s="222" t="s">
         <v>647</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="221" t="s">
         <v>602</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="221" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="196" t="s">
+    <row r="25" spans="2:21">
+      <c r="B25" s="222" t="s">
         <v>648</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="221" t="s">
         <v>603</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="221" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="196" t="s">
+    <row r="26" spans="2:21">
+      <c r="B26" s="222" t="s">
         <v>649</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="221" t="s">
         <v>604</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="221" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="196" t="s">
+    <row r="27" spans="2:21">
+      <c r="B27" s="222" t="s">
         <v>650</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="221" t="s">
         <v>605</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="221" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="196" t="s">
+    <row r="28" spans="2:21">
+      <c r="B28" s="222" t="s">
         <v>651</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="221" t="s">
         <v>606</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="221" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="196" t="s">
+    <row r="29" spans="2:21">
+      <c r="B29" s="222" t="s">
         <v>652</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="221" t="s">
         <v>607</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="221" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="196" t="s">
+    <row r="30" spans="2:21">
+      <c r="B30" s="222" t="s">
         <v>653</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="221" t="s">
         <v>608</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="221" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="196" t="s">
+    <row r="31" spans="2:21">
+      <c r="B31" s="222" t="s">
         <v>654</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="221" t="s">
         <v>609</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="221" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="196" t="s">
+    <row r="32" spans="2:21">
+      <c r="B32" s="222" t="s">
         <v>655</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="221" t="s">
         <v>610</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="221" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="196" t="s">
+      <c r="B33" s="222" t="s">
         <v>656</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="221" t="s">
         <v>611</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="221" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="222" t="s">
         <v>657</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="221" t="s">
         <v>612</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="221" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="196" t="s">
+      <c r="B35" s="222" t="s">
         <v>658</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="221" t="s">
         <v>250</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="221" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="196" t="s">
+      <c r="B36" s="222" t="s">
         <v>659</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="221" t="s">
         <v>613</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="221" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="196" t="s">
+      <c r="B37" s="222" t="s">
         <v>660</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="221" t="s">
         <v>614</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="221" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="196" t="s">
+      <c r="B38" s="222" t="s">
         <v>661</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="221" t="s">
         <v>615</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="221" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="222" t="s">
         <v>662</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="221" t="s">
         <v>616</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="221" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="196" t="s">
+      <c r="B40" s="222" t="s">
         <v>663</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="221" t="s">
         <v>617</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="221" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="196" t="s">
+      <c r="B41" s="222" t="s">
         <v>664</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="221" t="s">
         <v>618</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="221" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="196" t="s">
+      <c r="B42" s="222" t="s">
         <v>665</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="221" t="s">
         <v>619</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="221" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="196" t="s">
+      <c r="B43" s="222" t="s">
         <v>666</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="221" t="s">
         <v>620</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="221" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="196" t="s">
+      <c r="B44" s="222" t="s">
         <v>667</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="221" t="s">
         <v>621</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="221" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="196" t="s">
+      <c r="B45" s="222" t="s">
         <v>668</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="221" t="s">
         <v>622</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="221" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="196" t="s">
+      <c r="B46" s="222" t="s">
         <v>669</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="221" t="s">
         <v>623</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="221" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="196" t="s">
+      <c r="B47" s="222" t="s">
         <v>670</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="221" t="s">
         <v>624</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="221" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="196" t="s">
+      <c r="B48" s="222" t="s">
         <v>671</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="221" t="s">
         <v>625</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="221" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="196" t="s">
+      <c r="B49" s="222" t="s">
         <v>672</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="221" t="s">
         <v>626</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="221" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="196" t="s">
+      <c r="B50" s="222" t="s">
         <v>673</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="221" t="s">
         <v>627</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="221" t="s">
         <v>719</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ILIKEMAKE2017\GKL\仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WINSHARE\GKL\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="733">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1333,10 +1333,6 @@
   </si>
   <si>
     <t>project_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工程名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3627,6 +3623,14 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>图片标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3664,7 +3668,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5099,31 +5103,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5134,15 +5135,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5168,24 +5160,36 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="40% - 着色 1" xfId="1" builtinId="31"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9"/>
+    <cellStyle name="40% - アクセント 1" xfId="1" builtinId="31"/>
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -12220,7 +12224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12526,18 +12530,18 @@
   <sheetData>
     <row r="2" spans="1:1" ht="24.75">
       <c r="A2" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -12611,10 +12615,10 @@
       <c r="W4" s="77"/>
       <c r="X4" s="78"/>
       <c r="AE4" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF4" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG4" s="37"/>
       <c r="AH4" s="37"/>
@@ -12633,7 +12637,7 @@
     <row r="5" spans="6:45" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -12675,10 +12679,10 @@
     <row r="6" spans="6:45" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="G6" s="107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H6" s="100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
@@ -12693,7 +12697,7 @@
       <c r="T6" s="80"/>
       <c r="U6" s="80"/>
       <c r="V6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W6" s="80"/>
       <c r="X6" s="81"/>
@@ -12701,10 +12705,10 @@
         <v>116</v>
       </c>
       <c r="AE6" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF6" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG6" s="43" t="s">
         <v>127</v>
@@ -12716,13 +12720,13 @@
         <v>124</v>
       </c>
       <c r="AJ6" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AK6" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL6" s="51" t="s">
         <v>131</v>
-      </c>
-      <c r="AL6" s="51" t="s">
-        <v>132</v>
       </c>
       <c r="AM6" s="43" t="s">
         <v>104</v>
@@ -12734,33 +12738,33 @@
         <v>118</v>
       </c>
       <c r="AP6" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ6" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AQ6" s="51" t="s">
+      <c r="AR6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AR6" s="51" t="s">
-        <v>137</v>
-      </c>
       <c r="AS6" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="6:45" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" s="170" t="s">
         <v>453</v>
-      </c>
-      <c r="H7" s="100" t="s">
-        <v>402</v>
-      </c>
-      <c r="I7" s="170" t="s">
-        <v>454</v>
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="80"/>
       <c r="M7" s="92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N7" s="80"/>
       <c r="O7" s="80"/>
@@ -12792,7 +12796,7 @@
         <v>102</v>
       </c>
       <c r="AJ7" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK7" s="51" t="s">
         <v>4</v>
@@ -12819,7 +12823,7 @@
         <v>12</v>
       </c>
       <c r="AS7" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="6:45" ht="15" thickBot="1">
@@ -12867,7 +12871,7 @@
         <v>123</v>
       </c>
       <c r="AL8" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM8" s="43" t="s">
         <v>107</v>
@@ -12879,13 +12883,13 @@
         <v>106</v>
       </c>
       <c r="AP8" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AQ8" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR8" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS8" s="51" t="s">
         <v>123</v>
@@ -12897,13 +12901,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="L9" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="M9" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="M9" s="92" t="s">
-        <v>338</v>
-      </c>
       <c r="N9" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
@@ -12916,7 +12920,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="81"/>
       <c r="AD9" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>100</v>
@@ -12973,10 +12977,10 @@
       <c r="W10" s="80"/>
       <c r="X10" s="81"/>
       <c r="AD10" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE10" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF10" s="50" t="s">
         <v>85</v>
@@ -12985,25 +12989,25 @@
         <v>70</v>
       </c>
       <c r="AH10" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI10" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="AI10" s="38" t="s">
+      <c r="AJ10" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="AJ10" s="38" t="s">
+      <c r="AK10" s="38" t="s">
         <v>322</v>
-      </c>
-      <c r="AK10" s="38" t="s">
-        <v>323</v>
       </c>
       <c r="AL10" s="38" t="s">
         <v>9</v>
       </c>
       <c r="AM10" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN10" s="38" t="s">
         <v>324</v>
-      </c>
-      <c r="AN10" s="38" t="s">
-        <v>325</v>
       </c>
       <c r="AO10" s="38"/>
       <c r="AP10" s="38">
@@ -13016,61 +13020,61 @@
         <v>0.5</v>
       </c>
       <c r="AS10" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="6:45" ht="17.25" thickBot="1">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="L11" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="N11" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="L11" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="N11" s="28" t="s">
+      <c r="O11" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="P11" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="S11" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="R11" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="S11" s="28" t="s">
+      <c r="T11" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="U11" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="U11" s="28" t="s">
-        <v>412</v>
-      </c>
       <c r="V11" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W11" s="80"/>
       <c r="X11" s="81"/>
       <c r="AD11" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>100</v>
@@ -13082,7 +13086,7 @@
         <v>70</v>
       </c>
       <c r="AH11" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI11" s="38" t="s">
         <v>61</v>
@@ -13091,30 +13095,30 @@
         <v>62</v>
       </c>
       <c r="AK11" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL11" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM11" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN11" s="38" t="s">
         <v>326</v>
-      </c>
-      <c r="AM11" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN11" s="38" t="s">
-        <v>327</v>
       </c>
       <c r="AO11" s="38"/>
       <c r="AP11" s="38"/>
       <c r="AQ11" s="38"/>
       <c r="AR11" s="38"/>
       <c r="AS11" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="6:45" ht="15" thickBot="1">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I12" s="90" t="s">
         <v>85</v>
@@ -13123,7 +13127,7 @@
         <v>70</v>
       </c>
       <c r="K12" s="110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L12" s="90" t="s">
         <v>121</v>
@@ -13132,16 +13136,16 @@
         <v>122</v>
       </c>
       <c r="N12" s="90" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="90" t="s">
         <v>419</v>
-      </c>
-      <c r="O12" s="90" t="s">
-        <v>420</v>
       </c>
       <c r="P12" s="90" t="s">
         <v>76</v>
       </c>
       <c r="Q12" s="90" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R12" s="90"/>
       <c r="S12" s="90">
@@ -13154,12 +13158,12 @@
         <v>0.5</v>
       </c>
       <c r="V12" s="90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W12" s="80"/>
       <c r="X12" s="81"/>
       <c r="AD12" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>100</v>
@@ -13205,42 +13209,42 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I13" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>416</v>
-      </c>
       <c r="K13" s="109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
       <c r="N13" s="109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O13" s="109"/>
       <c r="P13" s="109" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="Q13" s="109" t="s">
-        <v>374</v>
-      </c>
       <c r="R13" s="109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S13" s="109"/>
       <c r="T13" s="109"/>
       <c r="U13" s="109"/>
       <c r="V13" s="109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W13" s="80"/>
       <c r="X13" s="81"/>
       <c r="AD13" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE13" s="54" t="s">
         <v>100</v>
@@ -13286,7 +13290,7 @@
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I14" s="108" t="s">
         <v>85</v>
@@ -13295,7 +13299,7 @@
         <v>70</v>
       </c>
       <c r="K14" s="108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L14" s="108" t="s">
         <v>121</v>
@@ -13304,16 +13308,16 @@
         <v>122</v>
       </c>
       <c r="N14" s="108" t="s">
+        <v>418</v>
+      </c>
+      <c r="O14" s="108" t="s">
         <v>419</v>
-      </c>
-      <c r="O14" s="108" t="s">
-        <v>420</v>
       </c>
       <c r="P14" s="108" t="s">
         <v>76</v>
       </c>
       <c r="Q14" s="108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="108">
@@ -13326,12 +13330,12 @@
         <v>0.5</v>
       </c>
       <c r="V14" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W14" s="80"/>
       <c r="X14" s="81"/>
       <c r="AD14" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE14" s="54" t="s">
         <v>100</v>
@@ -13377,7 +13381,7 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>86</v>
@@ -13386,7 +13390,7 @@
         <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>121</v>
@@ -13395,28 +13399,28 @@
         <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="P15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W15" s="80"/>
       <c r="X15" s="81"/>
       <c r="AD15" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE15" s="54" t="s">
         <v>100</v>
@@ -13462,7 +13466,7 @@
       <c r="F16" s="79"/>
       <c r="G16" s="80"/>
       <c r="H16" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>87</v>
@@ -13471,7 +13475,7 @@
         <v>70</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>121</v>
@@ -13480,16 +13484,16 @@
         <v>122</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>35</v>
@@ -13498,12 +13502,12 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W16" s="80"/>
       <c r="X16" s="81"/>
       <c r="AD16" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE16" s="54" t="s">
         <v>100</v>
@@ -13546,14 +13550,14 @@
         <v>0.5</v>
       </c>
       <c r="AS16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="6:45">
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>88</v>
@@ -13562,7 +13566,7 @@
         <v>70</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>121</v>
@@ -13571,16 +13575,16 @@
         <v>122</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>37</v>
@@ -13594,7 +13598,7 @@
       <c r="W17" s="80"/>
       <c r="X17" s="81"/>
       <c r="AD17" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE17" s="54" t="s">
         <v>100</v>
@@ -13640,7 +13644,7 @@
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>89</v>
@@ -13649,7 +13653,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>121</v>
@@ -13658,16 +13662,16 @@
         <v>122</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>38</v>
@@ -13681,7 +13685,7 @@
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
       <c r="AD18" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE18" s="54" t="s">
         <v>100</v>
@@ -13727,7 +13731,7 @@
       <c r="F19" s="79"/>
       <c r="G19" s="80"/>
       <c r="H19" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>90</v>
@@ -13736,7 +13740,7 @@
         <v>70</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>121</v>
@@ -13745,16 +13749,16 @@
         <v>122</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>39</v>
@@ -13768,7 +13772,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="81"/>
       <c r="AD19" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE19" s="54" t="s">
         <v>100</v>
@@ -13806,7 +13810,7 @@
       <c r="F20" s="79"/>
       <c r="G20" s="80"/>
       <c r="H20" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>91</v>
@@ -13815,7 +13819,7 @@
         <v>71</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>63</v>
@@ -13824,16 +13828,16 @@
         <v>64</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
@@ -13846,12 +13850,12 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W20" s="80"/>
       <c r="X20" s="81"/>
       <c r="AD20" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>100</v>
@@ -13889,7 +13893,7 @@
       <c r="F21" s="79"/>
       <c r="G21" s="80"/>
       <c r="H21" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>92</v>
@@ -13898,7 +13902,7 @@
         <v>71</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>63</v>
@@ -13907,16 +13911,16 @@
         <v>64</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>40</v>
@@ -13930,7 +13934,7 @@
       <c r="W21" s="80"/>
       <c r="X21" s="81"/>
       <c r="AD21" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>100</v>
@@ -13970,7 +13974,7 @@
       <c r="F22" s="79"/>
       <c r="G22" s="80"/>
       <c r="H22" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>93</v>
@@ -13979,7 +13983,7 @@
         <v>71</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>63</v>
@@ -13988,16 +13992,16 @@
         <v>64</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P22" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>42</v>
@@ -14011,7 +14015,7 @@
       <c r="W22" s="80"/>
       <c r="X22" s="81"/>
       <c r="AD22" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE22" s="54" t="s">
         <v>100</v>
@@ -14051,7 +14055,7 @@
       <c r="F23" s="79"/>
       <c r="G23" s="80"/>
       <c r="H23" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>94</v>
@@ -14060,31 +14064,31 @@
         <v>71</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W23" s="80"/>
       <c r="X23" s="81"/>
       <c r="AD23" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE23" s="54" t="s">
         <v>100</v>
@@ -14121,14 +14125,14 @@
         <v>20</v>
       </c>
       <c r="AS23" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="6:45">
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
       <c r="H24" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>95</v>
@@ -14137,37 +14141,37 @@
         <v>71</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W24" s="80"/>
       <c r="X24" s="81"/>
       <c r="AD24" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE24" s="54" t="s">
         <v>100</v>
       </c>
       <c r="AF24" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG24" s="38" t="s">
         <v>72</v>
@@ -14199,7 +14203,7 @@
       <c r="F25" s="79"/>
       <c r="G25" s="80"/>
       <c r="H25" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>96</v>
@@ -14208,28 +14212,28 @@
         <v>72</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="W25" s="80"/>
       <c r="X25" s="81"/>
@@ -14238,7 +14242,7 @@
       <c r="F26" s="79"/>
       <c r="G26" s="80"/>
       <c r="H26" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>97</v>
@@ -14247,28 +14251,28 @@
         <v>72</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W26" s="80"/>
       <c r="X26" s="81"/>
@@ -14277,7 +14281,7 @@
       <c r="F27" s="79"/>
       <c r="G27" s="80"/>
       <c r="H27" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
@@ -14286,19 +14290,19 @@
         <v>72</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1">
@@ -14311,7 +14315,7 @@
         <v>20</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="W27" s="80"/>
       <c r="X27" s="81"/>
@@ -14320,35 +14324,35 @@
       <c r="F28" s="79"/>
       <c r="G28" s="80"/>
       <c r="H28" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="W28" s="80"/>
       <c r="X28" s="81"/>
@@ -14481,17 +14485,17 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -14544,7 +14548,7 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -14559,7 +14563,7 @@
     <row r="5" spans="6:34" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -14573,10 +14577,10 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -14596,7 +14600,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -14617,10 +14621,10 @@
     <row r="7" spans="6:34" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -14632,40 +14636,40 @@
       <c r="Q7" s="80"/>
       <c r="R7" s="81"/>
       <c r="Y7" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z7" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA7" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB7" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC7" s="64" t="s">
         <v>116</v>
       </c>
       <c r="AD7" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE7" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF7" s="59" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG7" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH7" s="59" t="s">
         <v>583</v>
-      </c>
-      <c r="AH7" s="59" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="8" spans="6:34" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="107" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H8" s="99"/>
       <c r="J8" s="80"/>
@@ -14678,59 +14682,59 @@
       <c r="Q8" s="80"/>
       <c r="R8" s="81"/>
       <c r="Y8" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z8" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA8" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB8" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC8" s="64" t="s">
         <v>45</v>
       </c>
       <c r="AD8" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE8" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF8" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG8" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH8" s="59" t="s">
         <v>580</v>
-      </c>
-      <c r="AH8" s="59" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="9" spans="6:34" ht="15" thickBot="1">
       <c r="F9" s="79"/>
       <c r="G9" s="189" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC9" s="64" t="s">
         <v>107</v>
@@ -14748,7 +14752,7 @@
         <v>112</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="6:34">
@@ -14761,13 +14765,13 @@
         <v>1</v>
       </c>
       <c r="Z10" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA10" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB10" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC10" s="65" t="s">
         <v>49</v>
@@ -14804,13 +14808,13 @@
         <v>2</v>
       </c>
       <c r="Z11" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA11" s="65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB11" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC11" s="65" t="s">
         <v>49</v>
@@ -14847,13 +14851,13 @@
         <v>3</v>
       </c>
       <c r="Z12" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AA12" s="65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB12" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="65" t="s">
         <v>49</v>
@@ -14876,25 +14880,25 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L13" s="64" t="s">
         <v>45</v>
       </c>
       <c r="M13" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" s="59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
@@ -14908,16 +14912,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>527</v>
-      </c>
       <c r="K14" s="109" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L14" s="109" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M14" s="109">
         <v>3</v>
@@ -14937,16 +14941,16 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K15" s="109" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M15" s="1">
         <v>4</v>
@@ -14966,16 +14970,16 @@
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K16" s="109" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M16" s="1">
         <v>5</v>
@@ -14995,16 +14999,16 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K17" s="109" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M17" s="1">
         <v>6</v>
@@ -15057,7 +15061,7 @@
       <c r="L20" s="104"/>
       <c r="M20" s="105"/>
       <c r="N20" s="93" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -15081,25 +15085,25 @@
     </row>
     <row r="25" spans="6:18">
       <c r="H25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="6:18">
       <c r="H29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="J30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -15153,16 +15157,16 @@
         <v>45</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15170,10 +15174,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D2" s="36">
         <v>3</v>
@@ -15187,10 +15191,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D3" s="36">
         <v>4</v>
@@ -15204,10 +15208,10 @@
         <v>49</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D4" s="36">
         <v>5</v>
@@ -15221,10 +15225,10 @@
         <v>49</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" s="36">
         <v>6</v>
@@ -15238,10 +15242,10 @@
         <v>49</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D6" s="36">
         <v>7</v>
@@ -15255,10 +15259,10 @@
         <v>49</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D7" s="36">
         <v>8</v>
@@ -15312,7 +15316,7 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -15320,7 +15324,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -15334,25 +15338,25 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AA5" s="39"/>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="H6" s="107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I6" s="100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -15372,10 +15376,10 @@
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="H7" s="107" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I7" s="89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -15390,22 +15394,22 @@
         <v>116</v>
       </c>
       <c r="Z7" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA7" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="H8" s="107" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I8" s="89" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -15419,7 +15423,7 @@
         <v>45</v>
       </c>
       <c r="Z8" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA8" s="64" t="s">
         <v>101</v>
@@ -15443,7 +15447,7 @@
         <v>107</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA9" s="64" t="s">
         <v>107</v>
@@ -15467,7 +15471,7 @@
         <v>49</v>
       </c>
       <c r="Z10" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA10" s="66" t="s">
         <v>100</v>
@@ -15480,16 +15484,16 @@
         <v>45</v>
       </c>
       <c r="I11" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="L11" s="28" t="s">
         <v>539</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>540</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
@@ -15498,32 +15502,32 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z11" s="65" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA11" s="66" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="6:27">
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="L12" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -15532,32 +15536,32 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z12" s="65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA12" s="66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="6:27">
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="193" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K13" s="193" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L13" s="193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -15566,32 +15570,32 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z13" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA13" s="66" t="s">
         <v>399</v>
-      </c>
-      <c r="AA13" s="66" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="6:27">
       <c r="F14" s="79"/>
       <c r="G14" s="80"/>
       <c r="H14" s="193" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I14" s="193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K14" s="193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L14" s="193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -15604,19 +15608,19 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="H15" s="193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I15" s="193" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K15" s="193" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L15" s="193" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -15676,7 +15680,7 @@
       <c r="K19" s="191"/>
       <c r="L19" s="192"/>
       <c r="M19" s="92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
@@ -15716,20 +15720,20 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="6:18">
       <c r="H27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="J28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -15760,54 +15764,54 @@
         <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="86" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="86" t="s">
+        <v>400</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>401</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="87" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -15821,8 +15825,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21:AH22"/>
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15858,31 +15862,31 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="173" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="175" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="173" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="X12" s="175" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
     <row r="14" spans="3:35" ht="18" thickBot="1">
       <c r="C14" s="157" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
@@ -15896,7 +15900,7 @@
       <c r="M14" s="112"/>
       <c r="N14" s="113"/>
       <c r="O14" s="157" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
@@ -15907,7 +15911,7 @@
       <c r="V14" s="112"/>
       <c r="W14" s="35"/>
       <c r="X14" s="157" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y14" s="111"/>
       <c r="Z14" s="111"/>
@@ -15938,10 +15942,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="197" t="s">
-        <v>264</v>
-      </c>
-      <c r="T15" s="198"/>
+      <c r="S15" s="220" t="s">
+        <v>263</v>
+      </c>
+      <c r="T15" s="221"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -15949,78 +15953,78 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="197" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD15" s="198"/>
+      <c r="AC15" s="220" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD15" s="221"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH15" s="115" t="s">
         <v>283</v>
-      </c>
-      <c r="AH15" s="115" t="s">
-        <v>284</v>
       </c>
       <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="174" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D16" s="130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="129" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="129" t="s">
         <v>232</v>
-      </c>
-      <c r="F16" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="129" t="s">
-        <v>233</v>
       </c>
       <c r="H16" s="131">
         <v>3003000</v>
       </c>
       <c r="I16" s="113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="113"/>
       <c r="L16" s="134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="113"/>
       <c r="O16" s="113" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P16" s="132"/>
       <c r="Q16" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="R16" s="132" t="s">
         <v>446</v>
       </c>
-      <c r="R16" s="132" t="s">
-        <v>447</v>
-      </c>
       <c r="S16" s="113" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T16" s="128"/>
       <c r="V16" s="114"/>
       <c r="W16" s="35"/>
       <c r="X16" s="120"/>
       <c r="Y16" s="113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z16" s="132"/>
       <c r="AA16" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB16" s="132" t="s">
         <v>449</v>
       </c>
-      <c r="AB16" s="132" t="s">
-        <v>450</v>
-      </c>
       <c r="AC16" s="113" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AD16" s="128"/>
       <c r="AE16" s="128"/>
@@ -16067,25 +16071,25 @@
     <row r="18" spans="3:35" ht="15" thickBot="1">
       <c r="C18" s="120"/>
       <c r="D18" s="129" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E18" s="133"/>
       <c r="F18" s="113" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
       <c r="I18" s="113"/>
       <c r="J18" s="113"/>
       <c r="K18" s="134" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L18" s="113"/>
       <c r="M18" s="114"/>
       <c r="N18" s="113"/>
       <c r="O18" s="120"/>
       <c r="P18" s="135" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="136"/>
       <c r="R18" s="113"/>
@@ -16105,7 +16109,7 @@
       <c r="AF18" s="128"/>
       <c r="AG18" s="128"/>
       <c r="AH18" s="137" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI18" s="114"/>
     </row>
@@ -16132,32 +16136,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="199" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z19" s="199" t="s">
+      <c r="Y19" s="215" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="199" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="199" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD19" s="199" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE19" s="199" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF19" s="199" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG19" s="199"/>
-      <c r="AH19" s="199"/>
+      <c r="AA19" s="222" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB19" s="215" t="s">
+        <v>732</v>
+      </c>
+      <c r="AC19" s="215" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD19" s="215" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE19" s="215" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF19" s="215" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG19" s="215"/>
+      <c r="AH19" s="215"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -16175,47 +16179,47 @@
       <c r="N20" s="113"/>
       <c r="O20" s="120"/>
       <c r="P20" s="139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R20" s="139" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S20" s="139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T20" s="139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="199"/>
-      <c r="Z20" s="199"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="199"/>
-      <c r="AC20" s="199"/>
-      <c r="AD20" s="201"/>
-      <c r="AE20" s="201"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="201"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="215"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="215"/>
+      <c r="AC20" s="215"/>
+      <c r="AD20" s="216"/>
+      <c r="AE20" s="216"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="216"/>
+      <c r="AH20" s="216"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
       <c r="C21" s="120"/>
       <c r="D21" s="18"/>
       <c r="E21" s="134" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G21" s="113"/>
       <c r="H21" s="134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" s="113"/>
       <c r="J21" s="113"/>
@@ -16225,19 +16229,19 @@
       <c r="N21" s="113"/>
       <c r="O21" s="120"/>
       <c r="P21" s="140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="141" t="s">
+        <v>255</v>
+      </c>
+      <c r="R21" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="R21" s="141" t="s">
-        <v>257</v>
-      </c>
       <c r="S21" s="140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T21" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V21" s="114"/>
       <c r="W21" s="35"/>
@@ -16256,16 +16260,16 @@
         <v>47</v>
       </c>
       <c r="AD21" s="144" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE21" s="117" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF21" s="217" t="s">
         <v>278</v>
       </c>
-      <c r="AE21" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF21" s="202" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG21" s="203"/>
-      <c r="AH21" s="204"/>
+      <c r="AG21" s="218"/>
+      <c r="AH21" s="219"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -16286,21 +16290,21 @@
         <v>35</v>
       </c>
       <c r="Q22" s="171" t="s">
+        <v>257</v>
+      </c>
+      <c r="R22" s="171" t="s">
         <v>258</v>
-      </c>
-      <c r="R22" s="171" t="s">
-        <v>259</v>
       </c>
       <c r="S22" s="147" t="s">
         <v>35</v>
       </c>
       <c r="T22" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="205" t="s">
+      <c r="Y22" s="204" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -16313,42 +16317,42 @@
         <v>10</v>
       </c>
       <c r="AC22" s="147" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD22" s="144">
         <v>2305.1</v>
       </c>
       <c r="AE22" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="209"/>
-      <c r="AH22" s="210"/>
+        <v>238</v>
+      </c>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="202"/>
+      <c r="AH22" s="203"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
       <c r="C23" s="120"/>
       <c r="D23" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="217" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="218"/>
+        <v>186</v>
+      </c>
+      <c r="E23" s="213" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="214"/>
       <c r="G23" s="139" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H23" s="139" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I23" s="139" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J23" s="139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K23" s="158" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L23" s="113"/>
       <c r="M23" s="19"/>
@@ -16358,7 +16362,7 @@
         <v>37</v>
       </c>
       <c r="Q23" s="148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R23" s="148" t="s">
         <v>50</v>
@@ -16367,12 +16371,12 @@
         <v>37</v>
       </c>
       <c r="T23" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="206"/>
+      <c r="Y23" s="205"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -16380,31 +16384,31 @@
         <v>9</v>
       </c>
       <c r="AB23" s="121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC23" s="149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD23" s="144">
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="208"/>
-      <c r="AG23" s="209"/>
-      <c r="AH23" s="210"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="202"/>
+      <c r="AH23" s="203"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
       <c r="C24" s="120"/>
       <c r="D24" s="140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F24" s="141"/>
       <c r="G24" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H24" s="63">
         <v>43468</v>
@@ -16413,7 +16417,7 @@
         <v>43468</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K24" s="159"/>
       <c r="L24" s="113"/>
@@ -16424,7 +16428,7 @@
         <v>38</v>
       </c>
       <c r="Q24" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R24" s="141" t="s">
         <v>52</v>
@@ -16433,12 +16437,12 @@
         <v>38</v>
       </c>
       <c r="T24" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="206"/>
+      <c r="Y24" s="205"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -16453,22 +16457,22 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="208"/>
-      <c r="AG24" s="209"/>
-      <c r="AH24" s="210"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="202"/>
+      <c r="AH24" s="203"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
       <c r="C25" s="120"/>
       <c r="D25" s="140" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F25" s="141"/>
       <c r="G25" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H25" s="63">
         <v>43468</v>
@@ -16477,7 +16481,7 @@
         <v>43468</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K25" s="159"/>
       <c r="L25" s="113"/>
@@ -16488,7 +16492,7 @@
         <v>39</v>
       </c>
       <c r="Q25" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R25" s="141" t="s">
         <v>54</v>
@@ -16497,12 +16501,12 @@
         <v>39</v>
       </c>
       <c r="T25" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="206"/>
+      <c r="Y25" s="205"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -16517,22 +16521,22 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="208"/>
-      <c r="AG25" s="209"/>
-      <c r="AH25" s="210"/>
+      <c r="AF25" s="201"/>
+      <c r="AG25" s="202"/>
+      <c r="AH25" s="203"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
       <c r="C26" s="120"/>
       <c r="D26" s="145" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F26" s="146"/>
       <c r="G26" s="121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H26" s="152">
         <v>43468</v>
@@ -16541,7 +16545,7 @@
         <v>43468</v>
       </c>
       <c r="J26" s="121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K26" s="160"/>
       <c r="L26" s="113"/>
@@ -16552,7 +16556,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R26" s="141" t="s">
         <v>56</v>
@@ -16561,12 +16565,12 @@
         <v>40</v>
       </c>
       <c r="T26" s="142" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="206"/>
+      <c r="Y26" s="205"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -16581,22 +16585,22 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="208"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="210"/>
+      <c r="AF26" s="201"/>
+      <c r="AG26" s="202"/>
+      <c r="AH26" s="203"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
       <c r="C27" s="120"/>
       <c r="D27" s="140" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E27" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F27" s="141"/>
       <c r="G27" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H27" s="63">
         <v>43468</v>
@@ -16605,10 +16609,10 @@
         <v>43468</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K27" s="161" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L27" s="113"/>
       <c r="M27" s="19"/>
@@ -16618,7 +16622,7 @@
         <v>42</v>
       </c>
       <c r="Q27" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R27" s="141" t="s">
         <v>58</v>
@@ -16627,12 +16631,12 @@
         <v>42</v>
       </c>
       <c r="T27" s="151" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="207"/>
+      <c r="Y27" s="206"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -16643,26 +16647,26 @@
         <v>14</v>
       </c>
       <c r="AC27" s="147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="208"/>
-      <c r="AG27" s="209"/>
-      <c r="AH27" s="210"/>
+      <c r="AF27" s="201"/>
+      <c r="AG27" s="202"/>
+      <c r="AH27" s="203"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
       <c r="C28" s="120"/>
       <c r="D28" s="140" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="141"/>
       <c r="G28" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="63">
         <v>43468</v>
@@ -16671,10 +16675,10 @@
         <v>43468</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K28" s="159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L28" s="113"/>
       <c r="M28" s="19"/>
@@ -16689,7 +16693,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="205" t="s">
+      <c r="Y28" s="204" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -16702,13 +16706,13 @@
         <v>10</v>
       </c>
       <c r="AC28" s="147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="209"/>
-      <c r="AH28" s="210"/>
+      <c r="AF28" s="201"/>
+      <c r="AG28" s="202"/>
+      <c r="AH28" s="203"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -16734,7 +16738,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="206"/>
+      <c r="Y29" s="205"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -16745,13 +16749,13 @@
         <v>14</v>
       </c>
       <c r="AC29" s="147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="208"/>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="210"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="202"/>
+      <c r="AH29" s="203"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -16777,7 +16781,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="206"/>
+      <c r="Y30" s="205"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -16792,9 +16796,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="208"/>
-      <c r="AG30" s="209"/>
-      <c r="AH30" s="210"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="202"/>
+      <c r="AH30" s="203"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -16820,7 +16824,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="206"/>
+      <c r="Y31" s="205"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -16833,9 +16837,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="208"/>
-      <c r="AG31" s="209"/>
-      <c r="AH31" s="210"/>
+      <c r="AF31" s="201"/>
+      <c r="AG31" s="202"/>
+      <c r="AH31" s="203"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -16861,7 +16865,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="207"/>
+      <c r="Y32" s="206"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -16874,9 +16878,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="209"/>
-      <c r="AH32" s="210"/>
+      <c r="AF32" s="201"/>
+      <c r="AG32" s="202"/>
+      <c r="AH32" s="203"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -16902,7 +16906,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="205" t="s">
+      <c r="Y33" s="204" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -16917,9 +16921,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="208"/>
-      <c r="AG33" s="209"/>
-      <c r="AH33" s="210"/>
+      <c r="AF33" s="201"/>
+      <c r="AG33" s="202"/>
+      <c r="AH33" s="203"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -16945,7 +16949,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="206"/>
+      <c r="Y34" s="205"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -16958,9 +16962,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="208"/>
-      <c r="AG34" s="209"/>
-      <c r="AH34" s="210"/>
+      <c r="AF34" s="201"/>
+      <c r="AG34" s="202"/>
+      <c r="AH34" s="203"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -16986,7 +16990,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="206"/>
+      <c r="Y35" s="205"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -16995,13 +16999,13 @@
         <v>10</v>
       </c>
       <c r="AC35" s="147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="208"/>
-      <c r="AG35" s="209"/>
-      <c r="AH35" s="210"/>
+      <c r="AF35" s="201"/>
+      <c r="AG35" s="202"/>
+      <c r="AH35" s="203"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -17018,7 +17022,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -17029,7 +17033,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="207"/>
+      <c r="Y36" s="206"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -17038,13 +17042,13 @@
         <v>18</v>
       </c>
       <c r="AC36" s="147" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="208"/>
-      <c r="AG36" s="209"/>
-      <c r="AH36" s="210"/>
+      <c r="AF36" s="201"/>
+      <c r="AG36" s="202"/>
+      <c r="AH36" s="203"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -17141,7 +17145,7 @@
       <c r="W39" s="35"/>
       <c r="X39" s="120"/>
       <c r="Y39" s="156" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Z39" s="113"/>
       <c r="AA39" s="113"/>
@@ -17149,7 +17153,7 @@
       <c r="AC39" s="113"/>
       <c r="AD39" s="113"/>
       <c r="AE39" s="156" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF39" s="113"/>
       <c r="AG39" s="113"/>
@@ -17194,8 +17198,8 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="211" t="s">
-        <v>238</v>
+      <c r="AH40" s="207" t="s">
+        <v>237</v>
       </c>
       <c r="AI40" s="114"/>
     </row>
@@ -17237,7 +17241,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="212"/>
+      <c r="AH41" s="208"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -17278,8 +17282,8 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="213" t="s">
-        <v>281</v>
+      <c r="AH42" s="209" t="s">
+        <v>280</v>
       </c>
       <c r="AI42" s="114"/>
     </row>
@@ -17312,14 +17316,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="215">
+      <c r="AE43" s="211">
         <v>0</v>
       </c>
-      <c r="AF43" s="216"/>
+      <c r="AF43" s="212"/>
       <c r="AG43" s="172" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH43" s="214"/>
+        <v>279</v>
+      </c>
+      <c r="AH43" s="210"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -17421,14 +17425,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="219" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF46" s="219"/>
-      <c r="AG46" s="220" t="s">
+      <c r="AE46" s="199" t="s">
         <v>239</v>
       </c>
-      <c r="AH46" s="220"/>
+      <c r="AF46" s="199"/>
+      <c r="AG46" s="200" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH46" s="200"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -17460,10 +17464,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="219"/>
-      <c r="AF47" s="219"/>
-      <c r="AG47" s="220"/>
-      <c r="AH47" s="220"/>
+      <c r="AE47" s="199"/>
+      <c r="AF47" s="199"/>
+      <c r="AG47" s="200"/>
+      <c r="AH47" s="200"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -17573,7 +17577,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -17610,7 +17614,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -17681,7 +17685,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -17697,17 +17701,26 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -17722,21 +17735,12 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17772,7 +17776,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="O5" s="76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
@@ -17786,7 +17790,7 @@
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
       <c r="D6" s="176" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -17817,7 +17821,7 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
       <c r="K7" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L7" s="80"/>
       <c r="M7" s="81"/>
@@ -17835,10 +17839,10 @@
     <row r="8" spans="4:24" ht="15" thickBot="1">
       <c r="D8" s="79"/>
       <c r="E8" s="107" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F8" s="100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="80"/>
@@ -17861,13 +17865,13 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="79"/>
       <c r="E9" s="107" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F9" s="177">
         <v>43466</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H9" s="177">
         <v>43466</v>
@@ -17875,7 +17879,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="81"/>
@@ -18103,8 +18107,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z49" sqref="Z49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18137,7 +18141,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -18150,7 +18154,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -18171,10 +18175,10 @@
     </row>
     <row r="2" spans="2:29" ht="16.5">
       <c r="M2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="16.5">
@@ -18185,10 +18189,10 @@
     </row>
     <row r="4" spans="2:29" ht="16.5">
       <c r="M4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:29" ht="16.5">
@@ -18196,7 +18200,7 @@
         <v>101</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="16.5">
@@ -18209,40 +18213,40 @@
     </row>
     <row r="7" spans="2:29" ht="16.5">
       <c r="M7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:29">
       <c r="N12" s="58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="2:29">
       <c r="C13" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>470</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="14" spans="2:29">
       <c r="C14" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>116</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>127</v>
@@ -18256,13 +18260,13 @@
     </row>
     <row r="15" spans="2:29">
       <c r="C15" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>68</v>
@@ -18275,20 +18279,20 @@
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
-      <c r="P15" s="196" t="s">
+      <c r="P15" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196" t="s">
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="196"/>
-      <c r="T15" s="196"/>
-      <c r="U15" s="196"/>
-      <c r="V15" s="196" t="s">
-        <v>181</v>
-      </c>
-      <c r="W15" s="196"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="198"/>
+      <c r="V15" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" s="198"/>
       <c r="X15" s="37" t="s">
         <v>44</v>
       </c>
@@ -18306,7 +18310,7 @@
         <v>107</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>107</v>
@@ -18342,7 +18346,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>69</v>
@@ -18381,10 +18385,10 @@
         <v>8</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -18442,10 +18446,10 @@
         <v>116</v>
       </c>
       <c r="N20" s="162" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O20" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P20" s="43" t="s">
         <v>127</v>
@@ -18457,13 +18461,13 @@
         <v>124</v>
       </c>
       <c r="S20" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T20" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="U20" s="51" t="s">
         <v>131</v>
-      </c>
-      <c r="U20" s="51" t="s">
-        <v>132</v>
       </c>
       <c r="V20" s="43" t="s">
         <v>104</v>
@@ -18475,16 +18479,16 @@
         <v>118</v>
       </c>
       <c r="Y20" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="Z20" s="51" t="s">
+      <c r="AA20" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AA20" s="51" t="s">
-        <v>137</v>
-      </c>
       <c r="AB20" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC20" s="37"/>
     </row>
@@ -18508,7 +18512,7 @@
         <v>102</v>
       </c>
       <c r="S21" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T21" s="51" t="s">
         <v>4</v>
@@ -18535,16 +18539,16 @@
         <v>12</v>
       </c>
       <c r="AB21" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC21" s="37"/>
     </row>
     <row r="22" spans="3:29">
       <c r="G22" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -18573,7 +18577,7 @@
         <v>123</v>
       </c>
       <c r="U22" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V22" s="43" t="s">
         <v>107</v>
@@ -18585,13 +18589,13 @@
         <v>106</v>
       </c>
       <c r="Y22" s="51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Z22" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA22" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB22" s="51" t="s">
         <v>123</v>
@@ -18666,7 +18670,7 @@
         <v>49</v>
       </c>
       <c r="N24" s="166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O24" s="167" t="s">
         <v>85</v>
@@ -18675,25 +18679,25 @@
         <v>70</v>
       </c>
       <c r="Q24" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="R24" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="S24" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="S24" s="38" t="s">
+      <c r="T24" s="38" t="s">
         <v>322</v>
-      </c>
-      <c r="T24" s="38" t="s">
-        <v>323</v>
       </c>
       <c r="U24" s="38" t="s">
         <v>9</v>
       </c>
       <c r="V24" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="W24" s="38" t="s">
         <v>324</v>
-      </c>
-      <c r="W24" s="38" t="s">
-        <v>325</v>
       </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38">
@@ -18706,10 +18710,10 @@
         <v>0.5</v>
       </c>
       <c r="AB24" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC24" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="3:29">
@@ -18738,7 +18742,7 @@
         <v>70</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R25" s="38" t="s">
         <v>61</v>
@@ -18747,26 +18751,26 @@
         <v>62</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U25" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="W25" s="38" t="s">
         <v>326</v>
-      </c>
-      <c r="V25" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="W25" s="38" t="s">
-        <v>327</v>
       </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
       <c r="AB25" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC25" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="3:29">
@@ -19054,7 +19058,7 @@
         <v>0.5</v>
       </c>
       <c r="AB30" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC30" s="37"/>
     </row>
@@ -19211,10 +19215,10 @@
     </row>
     <row r="34" spans="7:29">
       <c r="G34" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="163" t="s">
@@ -19261,7 +19265,7 @@
         <v>116</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M35" s="163" t="s">
         <v>49</v>
@@ -19309,7 +19313,7 @@
         <v>45</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M36" s="163" t="s">
         <v>49</v>
@@ -19397,7 +19401,7 @@
         <v>20</v>
       </c>
       <c r="AB37" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC37" s="37"/>
     </row>
@@ -19418,7 +19422,7 @@
         <v>100</v>
       </c>
       <c r="O38" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P38" s="38" t="s">
         <v>72</v>
@@ -19460,25 +19464,25 @@
     </row>
     <row r="42" spans="7:29">
       <c r="N42" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="7:29">
       <c r="G43" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
       <c r="L43" s="37"/>
       <c r="N43" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="7:29">
@@ -19514,17 +19518,17 @@
         <v>108</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" s="37"/>
       <c r="N45" s="64" t="s">
         <v>116</v>
       </c>
       <c r="O45" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P45" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="7:29">
@@ -19538,17 +19542,17 @@
         <v>2</v>
       </c>
       <c r="J46" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="K46" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="L46" s="37"/>
       <c r="N46" s="64" t="s">
         <v>45</v>
       </c>
       <c r="O46" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P46" s="64" t="s">
         <v>101</v>
@@ -19575,7 +19579,7 @@
         <v>107</v>
       </c>
       <c r="O47" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P47" s="64" t="s">
         <v>107</v>
@@ -19602,7 +19606,7 @@
         <v>49</v>
       </c>
       <c r="O48" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P48" s="66" t="s">
         <v>100</v>
@@ -19613,13 +19617,13 @@
         <v>76</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="45">
         <v>0</v>
       </c>
       <c r="J49" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K49" s="45" t="s">
         <v>79</v>
@@ -19665,44 +19669,44 @@
         <v>120</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I52" s="45">
         <v>0</v>
       </c>
       <c r="J52" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K52" s="45" t="s">
         <v>79</v>
       </c>
       <c r="L52" s="186"/>
       <c r="N52" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="7:24">
       <c r="G53" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I53" s="45">
         <v>0</v>
       </c>
       <c r="J53" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K53" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L53" s="186"/>
       <c r="N53" s="39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -19729,80 +19733,80 @@
     </row>
     <row r="55" spans="7:24">
       <c r="N55" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O55" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P55" s="64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q55" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R55" s="64" t="s">
         <v>116</v>
       </c>
       <c r="S55" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T55" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U55" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V55" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="W55" s="59" t="s">
         <v>583</v>
-      </c>
-      <c r="W55" s="59" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="56" spans="7:24">
       <c r="N56" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O56" s="64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P56" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q56" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R56" s="64" t="s">
         <v>45</v>
       </c>
       <c r="S56" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T56" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U56" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V56" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="W56" s="59" t="s">
         <v>580</v>
-      </c>
-      <c r="W56" s="59" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="57" spans="7:24">
       <c r="N57" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O57" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P57" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q57" s="64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R57" s="64" t="s">
         <v>107</v>
@@ -19820,7 +19824,7 @@
         <v>112</v>
       </c>
       <c r="W57" s="59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="7:24">
@@ -19828,13 +19832,13 @@
         <v>1</v>
       </c>
       <c r="O58" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P58" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q58" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R58" s="65" t="s">
         <v>49</v>
@@ -19855,10 +19859,10 @@
     </row>
     <row r="65" spans="14:31" ht="16.5">
       <c r="N65" s="39" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -19919,135 +19923,135 @@
     </row>
     <row r="68" spans="14:31" ht="16.5">
       <c r="N68" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>116</v>
       </c>
       <c r="R68" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA68" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB68" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC68" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="AC68" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
     </row>
     <row r="69" spans="14:31" ht="16.5">
       <c r="N69" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q69" s="5" t="s">
         <v>45</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T69" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="W69" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="V69" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="W69" s="5" t="s">
+      <c r="X69" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y69" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="X69" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y69" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="Z69" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA69" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC69" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="AC69" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
     </row>
     <row r="70" spans="14:31" ht="16.5">
       <c r="N70" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>107</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W70" s="5" t="s">
         <v>112</v>
@@ -20059,10 +20063,10 @@
         <v>112</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA70" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB70" s="5" t="s">
         <v>112</v>
@@ -20075,7 +20079,7 @@
     </row>
     <row r="71" spans="14:31" ht="16.5">
       <c r="N71" s="71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O71" s="6">
         <v>2019</v>
@@ -20084,13 +20088,13 @@
         <v>1</v>
       </c>
       <c r="Q71" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R71" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T71" s="6">
         <v>3</v>
@@ -20102,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X71" s="16">
         <v>43468.423611111109</v>
@@ -20163,10 +20167,10 @@
     </row>
     <row r="74" spans="14:31">
       <c r="N74" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O74" s="39" t="s">
         <v>331</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>332</v>
       </c>
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
@@ -20227,43 +20231,43 @@
     </row>
     <row r="77" spans="14:31" ht="16.5">
       <c r="N77" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O77" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U77" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="P77" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q77" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="R77" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="S77" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="T77" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="U77" s="17" t="s">
+      <c r="V77" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="V77" s="17" t="s">
+      <c r="W77" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="W77" s="17" t="s">
+      <c r="X77" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="X77" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="Y77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z77" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="Z77" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -20273,43 +20277,43 @@
     </row>
     <row r="78" spans="14:31" ht="16.5">
       <c r="N78" s="68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O78" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="U78" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="P78" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="S78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="T78" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="U78" s="17" t="s">
+      <c r="V78" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="V78" s="17" t="s">
+      <c r="W78" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="W78" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="X78" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y78" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z78" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="Z78" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -20319,37 +20323,37 @@
     </row>
     <row r="79" spans="14:31" ht="17.25" thickBot="1">
       <c r="N79" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O79" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P79" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q79" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R79" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S79" s="28" t="s">
         <v>112</v>
       </c>
       <c r="T79" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V79" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="W79" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="X79" s="29" t="s">
         <v>198</v>
-      </c>
-      <c r="W79" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="X79" s="29" t="s">
-        <v>199</v>
       </c>
       <c r="Y79" s="5" t="s">
         <v>112</v>
@@ -20365,10 +20369,10 @@
     </row>
     <row r="80" spans="14:31" ht="16.5">
       <c r="N80" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O80" s="179" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P80" s="13">
         <v>0</v>
@@ -20381,7 +20385,7 @@
       <c r="V80" s="21"/>
       <c r="W80" s="21"/>
       <c r="X80" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y80" s="6">
         <v>3003000</v>
@@ -20397,10 +20401,10 @@
     </row>
     <row r="81" spans="14:31" ht="16.5">
       <c r="N81" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O81" s="180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P81" s="11">
         <v>0</v>
@@ -20419,7 +20423,7 @@
         <v>0.5</v>
       </c>
       <c r="X81" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y81" s="6">
         <v>3003000</v>
@@ -20435,10 +20439,10 @@
     </row>
     <row r="82" spans="14:31" ht="16.5">
       <c r="N82" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O82" s="180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P82" s="11">
         <v>0</v>
@@ -20451,7 +20455,7 @@
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
       <c r="X82" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y82" s="6">
         <v>3003000</v>
@@ -20467,10 +20471,10 @@
     </row>
     <row r="83" spans="14:31" ht="16.5">
       <c r="N83" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O83" s="180" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P83" s="11">
         <v>0</v>
@@ -20483,7 +20487,7 @@
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y83" s="6">
         <v>3003000</v>
@@ -20499,10 +20503,10 @@
     </row>
     <row r="84" spans="14:31" ht="16.5">
       <c r="N84" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O84" s="180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P84" s="11">
         <v>0</v>
@@ -20515,7 +20519,7 @@
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y84" s="6">
         <v>3003000</v>
@@ -20531,10 +20535,10 @@
     </row>
     <row r="85" spans="14:31" ht="16.5">
       <c r="N85" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O85" s="180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P85" s="11">
         <v>0</v>
@@ -20547,7 +20551,7 @@
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
       <c r="X85" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y85" s="6">
         <v>3003000</v>
@@ -20563,10 +20567,10 @@
     </row>
     <row r="86" spans="14:31" ht="16.5">
       <c r="N86" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O86" s="180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P86" s="11">
         <v>0</v>
@@ -20579,7 +20583,7 @@
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y86" s="6">
         <v>3003000</v>
@@ -20595,10 +20599,10 @@
     </row>
     <row r="87" spans="14:31" ht="16.5">
       <c r="N87" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O87" s="180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P87" s="11">
         <v>0</v>
@@ -20617,7 +20621,7 @@
         <v>0.5</v>
       </c>
       <c r="X87" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y87" s="6">
         <v>3003000</v>
@@ -20633,10 +20637,10 @@
     </row>
     <row r="88" spans="14:31" ht="16.5">
       <c r="N88" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O88" s="180" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P88" s="11">
         <v>0</v>
@@ -20649,7 +20653,7 @@
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
       <c r="X88" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y88" s="6">
         <v>3003000</v>
@@ -20665,10 +20669,10 @@
     </row>
     <row r="89" spans="14:31" ht="16.5">
       <c r="N89" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O89" s="180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P89" s="11">
         <v>0</v>
@@ -20681,7 +20685,7 @@
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
       <c r="X89" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y89" s="6">
         <v>3003000</v>
@@ -20697,10 +20701,10 @@
     </row>
     <row r="90" spans="14:31" ht="16.5">
       <c r="N90" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O90" s="180" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P90" s="11">
         <v>0</v>
@@ -20729,10 +20733,10 @@
     </row>
     <row r="91" spans="14:31" ht="16.5">
       <c r="N91" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O91" s="180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P91" s="11">
         <v>0</v>
@@ -20745,7 +20749,7 @@
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y91" s="6">
         <v>3003000</v>
@@ -20761,10 +20765,10 @@
     </row>
     <row r="92" spans="14:31" ht="16.5">
       <c r="N92" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O92" s="180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P92" s="11">
         <v>0</v>
@@ -20795,10 +20799,10 @@
     </row>
     <row r="93" spans="14:31" ht="16.5">
       <c r="N93" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O93" s="180" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P93" s="11">
         <v>0</v>
@@ -20829,10 +20833,10 @@
     </row>
     <row r="94" spans="14:31" ht="16.5">
       <c r="N94" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O94" s="180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P94" s="11">
         <v>0</v>
@@ -20851,7 +20855,7 @@
         <v>20</v>
       </c>
       <c r="X94" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y94" s="6">
         <v>3003000</v>
@@ -20867,10 +20871,10 @@
     </row>
     <row r="95" spans="14:31" ht="17.25" thickBot="1">
       <c r="N95" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O95" s="181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P95" s="26">
         <v>0</v>
@@ -20883,7 +20887,7 @@
       <c r="V95" s="24"/>
       <c r="W95" s="24"/>
       <c r="X95" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y95" s="6">
         <v>3003000</v>
@@ -20899,10 +20903,10 @@
     </row>
     <row r="96" spans="14:31" ht="16.5">
       <c r="N96" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O96" s="179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P96" s="22">
         <v>1</v>
@@ -20910,11 +20914,11 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
       <c r="S96" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T96" s="13"/>
       <c r="U96" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V96" s="13"/>
       <c r="W96" s="13"/>
@@ -20933,10 +20937,10 @@
     </row>
     <row r="97" spans="14:31" ht="16.5">
       <c r="N97" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O97" s="180" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P97" s="20">
         <v>1</v>
@@ -20944,7 +20948,7 @@
       <c r="Q97" s="11"/>
       <c r="R97" s="11"/>
       <c r="S97" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T97" s="11"/>
       <c r="U97" s="33" t="s">
@@ -20967,10 +20971,10 @@
     </row>
     <row r="98" spans="14:31" ht="16.5">
       <c r="N98" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O98" s="180" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P98" s="20">
         <v>1</v>
@@ -20978,7 +20982,7 @@
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
       <c r="S98" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T98" s="11"/>
       <c r="U98" s="7" t="s">
@@ -21001,10 +21005,10 @@
     </row>
     <row r="99" spans="14:31" ht="16.5">
       <c r="N99" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O99" s="180" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P99" s="20">
         <v>1</v>
@@ -21012,7 +21016,7 @@
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
       <c r="S99" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T99" s="11"/>
       <c r="U99" s="7" t="s">
@@ -21035,10 +21039,10 @@
     </row>
     <row r="100" spans="14:31" ht="16.5">
       <c r="N100" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O100" s="180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P100" s="20">
         <v>1</v>
@@ -21046,7 +21050,7 @@
       <c r="Q100" s="11"/>
       <c r="R100" s="11"/>
       <c r="S100" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T100" s="11"/>
       <c r="U100" s="7" t="s">
@@ -21069,10 +21073,10 @@
     </row>
     <row r="101" spans="14:31" ht="16.5">
       <c r="N101" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O101" s="180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P101" s="20">
         <v>1</v>
@@ -21080,7 +21084,7 @@
       <c r="Q101" s="11"/>
       <c r="R101" s="11"/>
       <c r="S101" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T101" s="11"/>
       <c r="U101" s="7" t="s">
@@ -21103,10 +21107,10 @@
     </row>
     <row r="102" spans="14:31" ht="17.25" thickBot="1">
       <c r="N102" s="75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O102" s="181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P102" s="25">
         <v>1</v>
@@ -21114,7 +21118,7 @@
       <c r="Q102" s="26"/>
       <c r="R102" s="26"/>
       <c r="S102" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T102" s="26"/>
       <c r="U102" s="24" t="s">
@@ -21213,1091 +21217,1092 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="221"/>
-    <col min="3" max="3" width="13.85546875" style="221" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="221" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="221"/>
+    <col min="1" max="2" width="9.140625" style="196"/>
+    <col min="3" max="3" width="13.85546875" style="196" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="196" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="196"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:21">
-      <c r="A4" s="221" t="s">
-        <v>340</v>
+      <c r="A4" s="196" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="197" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="196" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="196" t="s">
+        <v>673</v>
+      </c>
+      <c r="F5" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="196" t="s">
+        <v>414</v>
+      </c>
+      <c r="I5" s="196" t="s">
+        <v>415</v>
+      </c>
+      <c r="J5" s="196" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="196" t="s">
+        <v>416</v>
+      </c>
+      <c r="O5" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P5" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q5" s="196" t="s">
+        <v>253</v>
+      </c>
+      <c r="U5" s="196" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="197" t="s">
         <v>628</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C6" s="196" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="196" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="196" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="196" t="s">
+        <v>723</v>
+      </c>
+      <c r="L6" s="196" t="s">
+        <v>721</v>
+      </c>
+      <c r="M6" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N6" s="196" t="s">
+        <v>419</v>
+      </c>
+      <c r="O6" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="196" t="s">
+        <v>420</v>
+      </c>
+      <c r="R6" s="196" t="s">
+        <v>724</v>
+      </c>
+      <c r="S6" s="196" t="s">
+        <v>725</v>
+      </c>
+      <c r="T6" s="196" t="s">
+        <v>725</v>
+      </c>
+      <c r="U6" s="196" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="197" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="196" t="s">
         <v>585</v>
       </c>
-      <c r="D5" s="221" t="s">
-        <v>674</v>
-      </c>
-      <c r="F5" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H5" s="221" t="s">
-        <v>415</v>
-      </c>
-      <c r="I5" s="221" t="s">
-        <v>416</v>
-      </c>
-      <c r="J5" s="221" t="s">
-        <v>256</v>
-      </c>
-      <c r="M5" s="221" t="s">
-        <v>417</v>
-      </c>
-      <c r="O5" s="221" t="s">
+      <c r="D7" s="196" t="s">
+        <v>675</v>
+      </c>
+      <c r="F7" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H7" s="196" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="196" t="s">
+        <v>726</v>
+      </c>
+      <c r="L7" s="196" t="s">
+        <v>722</v>
+      </c>
+      <c r="M7" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N7" s="196" t="s">
+        <v>419</v>
+      </c>
+      <c r="O7" s="196" t="s">
+        <v>387</v>
+      </c>
+      <c r="P7" s="196" t="s">
+        <v>388</v>
+      </c>
+      <c r="U7" s="196" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="197" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="196" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="196" t="s">
+        <v>676</v>
+      </c>
+      <c r="F8" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="196" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="196" t="s">
+        <v>723</v>
+      </c>
+      <c r="L8" s="196" t="s">
+        <v>721</v>
+      </c>
+      <c r="M8" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N8" s="196" t="s">
+        <v>422</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P8" s="196" t="s">
         <v>373</v>
       </c>
-      <c r="P5" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="221" t="s">
-        <v>254</v>
-      </c>
-      <c r="U5" s="221" t="s">
+      <c r="Q8" s="196" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="196" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="197" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="196" t="s">
+        <v>587</v>
+      </c>
+      <c r="D9" s="196" t="s">
+        <v>677</v>
+      </c>
+      <c r="F9" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="196" t="s">
+        <v>723</v>
+      </c>
+      <c r="L9" s="196" t="s">
+        <v>721</v>
+      </c>
+      <c r="M9" s="196" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="B6" s="222" t="s">
-        <v>629</v>
-      </c>
-      <c r="C6" s="221" t="s">
+      <c r="N9" s="196" t="s">
+        <v>423</v>
+      </c>
+      <c r="O9" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P9" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q9" s="196" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="197" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="196" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="196" t="s">
+        <v>678</v>
+      </c>
+      <c r="F10" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="196" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="196" t="s">
+        <v>726</v>
+      </c>
+      <c r="L10" s="196" t="s">
+        <v>721</v>
+      </c>
+      <c r="M10" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N10" s="196" t="s">
+        <v>424</v>
+      </c>
+      <c r="O10" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P10" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q10" s="196" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="197" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="196" t="s">
+        <v>589</v>
+      </c>
+      <c r="D11" s="196" t="s">
+        <v>679</v>
+      </c>
+      <c r="F11" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H11" s="196" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="196" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="196" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="196" t="s">
+        <v>726</v>
+      </c>
+      <c r="L11" s="196" t="s">
+        <v>722</v>
+      </c>
+      <c r="M11" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N11" s="196" t="s">
+        <v>425</v>
+      </c>
+      <c r="O11" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P11" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q11" s="196" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="196" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="B12" s="197" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="196" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="196" t="s">
+        <v>680</v>
+      </c>
+      <c r="F12" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="196" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="196" t="s">
+        <v>726</v>
+      </c>
+      <c r="L12" s="196" t="s">
+        <v>722</v>
+      </c>
+      <c r="M12" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N12" s="196" t="s">
+        <v>419</v>
+      </c>
+      <c r="O12" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="196" t="s">
+        <v>420</v>
+      </c>
+      <c r="R12" s="196" t="s">
+        <v>727</v>
+      </c>
+      <c r="S12" s="196" t="s">
+        <v>725</v>
+      </c>
+      <c r="T12" s="196" t="s">
+        <v>725</v>
+      </c>
+      <c r="U12" s="196" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="B13" s="197" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="196" t="s">
+        <v>591</v>
+      </c>
+      <c r="D13" s="196" t="s">
+        <v>681</v>
+      </c>
+      <c r="F13" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="196" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="196" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N13" s="196" t="s">
+        <v>422</v>
+      </c>
+      <c r="O13" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P13" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q13" s="196" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" s="196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="B14" s="197" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" s="196" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" s="196" t="s">
+        <v>682</v>
+      </c>
+      <c r="F14" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="196" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="196" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="196" t="s">
+        <v>418</v>
+      </c>
+      <c r="N14" s="196" t="s">
+        <v>423</v>
+      </c>
+      <c r="O14" s="196" t="s">
+        <v>372</v>
+      </c>
+      <c r="P14" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q14" s="196" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="B15" s="197" t="s">
+        <v>637</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="196" t="s">
+        <v>683</v>
+      </c>
+      <c r="F15" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" s="196" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="M15" s="196" t="s">
+        <v>427</v>
+      </c>
+      <c r="O15" s="196" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="196" t="s">
+        <v>379</v>
+      </c>
+      <c r="U15" s="196" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="197" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" s="196" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="196" t="s">
+        <v>684</v>
+      </c>
+      <c r="F16" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16" s="196" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="196" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="196" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" s="196" t="s">
+        <v>429</v>
+      </c>
+      <c r="O16" s="196" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="196" t="s">
+        <v>379</v>
+      </c>
+      <c r="U16" s="196" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="197" t="s">
+        <v>639</v>
+      </c>
+      <c r="C17" s="196" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" s="196" t="s">
+        <v>685</v>
+      </c>
+      <c r="F17" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17" s="196" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="196" t="s">
+        <v>359</v>
+      </c>
+      <c r="M17" s="196" t="s">
+        <v>431</v>
+      </c>
+      <c r="O17" s="196" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="R17" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="U17" s="196" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="197" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" s="196" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" s="196" t="s">
+        <v>686</v>
+      </c>
+      <c r="F18" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H18" s="196" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="196" t="s">
+        <v>359</v>
+      </c>
+      <c r="M18" s="196" t="s">
+        <v>433</v>
+      </c>
+      <c r="O18" s="196" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="R18" s="196" t="s">
+        <v>434</v>
+      </c>
+      <c r="U18" s="196" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="197" t="s">
+        <v>641</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>597</v>
+      </c>
+      <c r="D19" s="196" t="s">
+        <v>687</v>
+      </c>
+      <c r="F19" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="196" t="s">
+        <v>359</v>
+      </c>
+      <c r="M19" s="196" t="s">
+        <v>435</v>
+      </c>
+      <c r="O19" s="196" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="196" t="s">
+        <v>420</v>
+      </c>
+      <c r="R19" s="196" t="s">
+        <v>728</v>
+      </c>
+      <c r="S19" s="196" t="s">
+        <v>729</v>
+      </c>
+      <c r="T19" s="196" t="s">
+        <v>730</v>
+      </c>
+      <c r="U19" s="196" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="197" t="s">
+        <v>642</v>
+      </c>
+      <c r="C20" s="196" t="s">
+        <v>598</v>
+      </c>
+      <c r="D20" s="196" t="s">
+        <v>688</v>
+      </c>
+      <c r="F20" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="196" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20" s="196" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="196" t="s">
+        <v>359</v>
+      </c>
+      <c r="M20" s="196" t="s">
+        <v>437</v>
+      </c>
+      <c r="O20" s="196" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="196" t="s">
+        <v>379</v>
+      </c>
+      <c r="U20" s="196" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="197" t="s">
+        <v>643</v>
+      </c>
+      <c r="C21" s="196" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="196" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="197" t="s">
+        <v>644</v>
+      </c>
+      <c r="C22" s="196" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="196" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="197" t="s">
+        <v>645</v>
+      </c>
+      <c r="C23" s="196" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="196" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="197" t="s">
+        <v>646</v>
+      </c>
+      <c r="C24" s="196" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" s="196" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="197" t="s">
+        <v>647</v>
+      </c>
+      <c r="C25" s="196" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="196" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="197" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="196" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" s="196" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="197" t="s">
+        <v>649</v>
+      </c>
+      <c r="C27" s="196" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" s="196" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="197" t="s">
+        <v>650</v>
+      </c>
+      <c r="C28" s="196" t="s">
+        <v>605</v>
+      </c>
+      <c r="D28" s="196" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="197" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="196" t="s">
+        <v>606</v>
+      </c>
+      <c r="D29" s="196" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="197" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" s="196" t="s">
+        <v>607</v>
+      </c>
+      <c r="D30" s="196" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="197" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" s="196" t="s">
+        <v>608</v>
+      </c>
+      <c r="D31" s="196" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="197" t="s">
+        <v>654</v>
+      </c>
+      <c r="C32" s="196" t="s">
+        <v>609</v>
+      </c>
+      <c r="D32" s="196" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="197" t="s">
+        <v>655</v>
+      </c>
+      <c r="C33" s="196" t="s">
+        <v>610</v>
+      </c>
+      <c r="D33" s="196" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="197" t="s">
+        <v>656</v>
+      </c>
+      <c r="C34" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="D34" s="196" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="197" t="s">
+        <v>657</v>
+      </c>
+      <c r="C35" s="196" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="221" t="s">
-        <v>675</v>
-      </c>
-      <c r="F6" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H6" s="221" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K6" s="221" t="s">
-        <v>724</v>
-      </c>
-      <c r="L6" s="221" t="s">
-        <v>722</v>
-      </c>
-      <c r="M6" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N6" s="221" t="s">
-        <v>420</v>
-      </c>
-      <c r="O6" s="221" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="221" t="s">
-        <v>421</v>
-      </c>
-      <c r="R6" s="221" t="s">
-        <v>725</v>
-      </c>
-      <c r="S6" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="T6" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="U6" s="221" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="B7" s="222" t="s">
-        <v>630</v>
-      </c>
-      <c r="C7" s="221" t="s">
-        <v>586</v>
-      </c>
-      <c r="D7" s="221" t="s">
-        <v>676</v>
-      </c>
-      <c r="F7" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H7" s="221" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K7" s="221" t="s">
-        <v>727</v>
-      </c>
-      <c r="L7" s="221" t="s">
-        <v>723</v>
-      </c>
-      <c r="M7" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N7" s="221" t="s">
-        <v>420</v>
-      </c>
-      <c r="O7" s="221" t="s">
-        <v>388</v>
-      </c>
-      <c r="P7" s="221" t="s">
-        <v>389</v>
-      </c>
-      <c r="U7" s="221" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="B8" s="222" t="s">
-        <v>631</v>
-      </c>
-      <c r="C8" s="221" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="F8" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H8" s="221" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="221" t="s">
-        <v>724</v>
-      </c>
-      <c r="L8" s="221" t="s">
-        <v>722</v>
-      </c>
-      <c r="M8" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N8" s="221" t="s">
-        <v>423</v>
-      </c>
-      <c r="O8" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P8" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q8" s="221" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="221" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="B9" s="222" t="s">
-        <v>632</v>
-      </c>
-      <c r="C9" s="221" t="s">
-        <v>588</v>
-      </c>
-      <c r="D9" s="221" t="s">
-        <v>678</v>
-      </c>
-      <c r="F9" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H9" s="221" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K9" s="221" t="s">
-        <v>724</v>
-      </c>
-      <c r="L9" s="221" t="s">
-        <v>722</v>
-      </c>
-      <c r="M9" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N9" s="221" t="s">
-        <v>424</v>
-      </c>
-      <c r="O9" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P9" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q9" s="221" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="221" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="B10" s="222" t="s">
-        <v>633</v>
-      </c>
-      <c r="C10" s="221" t="s">
-        <v>589</v>
-      </c>
-      <c r="D10" s="221" t="s">
-        <v>679</v>
-      </c>
-      <c r="F10" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H10" s="221" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K10" s="221" t="s">
-        <v>727</v>
-      </c>
-      <c r="L10" s="221" t="s">
-        <v>722</v>
-      </c>
-      <c r="M10" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N10" s="221" t="s">
-        <v>425</v>
-      </c>
-      <c r="O10" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P10" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q10" s="221" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="221" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="B11" s="222" t="s">
-        <v>634</v>
-      </c>
-      <c r="C11" s="221" t="s">
-        <v>590</v>
-      </c>
-      <c r="D11" s="221" t="s">
-        <v>680</v>
-      </c>
-      <c r="F11" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" s="221" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="221" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="221" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" s="221" t="s">
-        <v>727</v>
-      </c>
-      <c r="L11" s="221" t="s">
-        <v>723</v>
-      </c>
-      <c r="M11" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N11" s="221" t="s">
-        <v>426</v>
-      </c>
-      <c r="O11" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P11" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="221" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" s="221" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="B12" s="222" t="s">
-        <v>635</v>
-      </c>
-      <c r="C12" s="221" t="s">
-        <v>591</v>
-      </c>
-      <c r="D12" s="221" t="s">
-        <v>681</v>
-      </c>
-      <c r="F12" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H12" s="221" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="221" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="221" t="s">
-        <v>260</v>
-      </c>
-      <c r="K12" s="221" t="s">
-        <v>727</v>
-      </c>
-      <c r="L12" s="221" t="s">
-        <v>723</v>
-      </c>
-      <c r="M12" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N12" s="221" t="s">
-        <v>420</v>
-      </c>
-      <c r="O12" s="221" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="221" t="s">
-        <v>421</v>
-      </c>
-      <c r="R12" s="221" t="s">
-        <v>728</v>
-      </c>
-      <c r="S12" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="T12" s="221" t="s">
-        <v>726</v>
-      </c>
-      <c r="U12" s="221" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="B13" s="222" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" s="221" t="s">
-        <v>592</v>
-      </c>
-      <c r="D13" s="221" t="s">
-        <v>682</v>
-      </c>
-      <c r="F13" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H13" s="221" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="221" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="221" t="s">
-        <v>260</v>
-      </c>
-      <c r="K13" s="221" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="221" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N13" s="221" t="s">
-        <v>423</v>
-      </c>
-      <c r="O13" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P13" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q13" s="221" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="221" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="B14" s="222" t="s">
-        <v>637</v>
-      </c>
-      <c r="C14" s="221" t="s">
-        <v>593</v>
-      </c>
-      <c r="D14" s="221" t="s">
-        <v>683</v>
-      </c>
-      <c r="F14" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G14" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H14" s="221" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="221" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="221" t="s">
-        <v>260</v>
-      </c>
-      <c r="K14" s="221" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="221" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="221" t="s">
-        <v>419</v>
-      </c>
-      <c r="N14" s="221" t="s">
-        <v>424</v>
-      </c>
-      <c r="O14" s="221" t="s">
-        <v>373</v>
-      </c>
-      <c r="P14" s="221" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q14" s="221" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14" s="221" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="B15" s="222" t="s">
-        <v>638</v>
-      </c>
-      <c r="C15" s="221" t="s">
-        <v>594</v>
-      </c>
-      <c r="D15" s="221" t="s">
-        <v>684</v>
-      </c>
-      <c r="F15" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G15" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H15" s="221" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="221" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="221" t="s">
-        <v>260</v>
-      </c>
-      <c r="M15" s="221" t="s">
-        <v>428</v>
-      </c>
-      <c r="O15" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="221" t="s">
-        <v>380</v>
-      </c>
-      <c r="U15" s="221" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="B16" s="222" t="s">
-        <v>639</v>
-      </c>
-      <c r="C16" s="221" t="s">
-        <v>595</v>
-      </c>
-      <c r="D16" s="221" t="s">
-        <v>685</v>
-      </c>
-      <c r="F16" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H16" s="221" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="221" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="221" t="s">
-        <v>260</v>
-      </c>
-      <c r="M16" s="221" t="s">
-        <v>430</v>
-      </c>
-      <c r="O16" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="221" t="s">
-        <v>380</v>
-      </c>
-      <c r="U16" s="221" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="222" t="s">
-        <v>640</v>
-      </c>
-      <c r="C17" s="221" t="s">
-        <v>596</v>
-      </c>
-      <c r="D17" s="221" t="s">
-        <v>686</v>
-      </c>
-      <c r="F17" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H17" s="221" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="221" t="s">
-        <v>360</v>
-      </c>
-      <c r="M17" s="221" t="s">
-        <v>432</v>
-      </c>
-      <c r="O17" s="221" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="221" t="s">
-        <v>382</v>
-      </c>
-      <c r="R17" s="221" t="s">
-        <v>433</v>
-      </c>
-      <c r="U17" s="221" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="222" t="s">
-        <v>641</v>
-      </c>
-      <c r="C18" s="221" t="s">
-        <v>597</v>
-      </c>
-      <c r="D18" s="221" t="s">
-        <v>687</v>
-      </c>
-      <c r="F18" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H18" s="221" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="221" t="s">
-        <v>360</v>
-      </c>
-      <c r="M18" s="221" t="s">
-        <v>434</v>
-      </c>
-      <c r="O18" s="221" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="221" t="s">
-        <v>382</v>
-      </c>
-      <c r="R18" s="221" t="s">
-        <v>435</v>
-      </c>
-      <c r="U18" s="221" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="222" t="s">
-        <v>642</v>
-      </c>
-      <c r="C19" s="221" t="s">
-        <v>598</v>
-      </c>
-      <c r="D19" s="221" t="s">
-        <v>688</v>
-      </c>
-      <c r="F19" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H19" s="221" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="221" t="s">
-        <v>360</v>
-      </c>
-      <c r="M19" s="221" t="s">
-        <v>436</v>
-      </c>
-      <c r="O19" s="221" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="221" t="s">
-        <v>421</v>
-      </c>
-      <c r="R19" s="221" t="s">
-        <v>729</v>
-      </c>
-      <c r="S19" s="221" t="s">
-        <v>730</v>
-      </c>
-      <c r="T19" s="221" t="s">
-        <v>731</v>
-      </c>
-      <c r="U19" s="221" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="222" t="s">
-        <v>643</v>
-      </c>
-      <c r="C20" s="221" t="s">
-        <v>599</v>
-      </c>
-      <c r="D20" s="221" t="s">
-        <v>689</v>
-      </c>
-      <c r="F20" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="221" t="s">
-        <v>402</v>
-      </c>
-      <c r="H20" s="221" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="221" t="s">
-        <v>360</v>
-      </c>
-      <c r="M20" s="221" t="s">
-        <v>438</v>
-      </c>
-      <c r="O20" s="221" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="221" t="s">
-        <v>380</v>
-      </c>
-      <c r="U20" s="221" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="222" t="s">
-        <v>644</v>
-      </c>
-      <c r="C21" s="221" t="s">
-        <v>600</v>
-      </c>
-      <c r="D21" s="221" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="222" t="s">
-        <v>645</v>
-      </c>
-      <c r="C22" s="221" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="221" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="222" t="s">
-        <v>646</v>
-      </c>
-      <c r="C23" s="221" t="s">
-        <v>601</v>
-      </c>
-      <c r="D23" s="221" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="222" t="s">
-        <v>647</v>
-      </c>
-      <c r="C24" s="221" t="s">
-        <v>602</v>
-      </c>
-      <c r="D24" s="221" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
-      <c r="B25" s="222" t="s">
-        <v>648</v>
-      </c>
-      <c r="C25" s="221" t="s">
-        <v>603</v>
-      </c>
-      <c r="D25" s="221" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
-      <c r="B26" s="222" t="s">
-        <v>649</v>
-      </c>
-      <c r="C26" s="221" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" s="221" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="222" t="s">
-        <v>650</v>
-      </c>
-      <c r="C27" s="221" t="s">
-        <v>605</v>
-      </c>
-      <c r="D27" s="221" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="222" t="s">
-        <v>651</v>
-      </c>
-      <c r="C28" s="221" t="s">
-        <v>606</v>
-      </c>
-      <c r="D28" s="221" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="222" t="s">
-        <v>652</v>
-      </c>
-      <c r="C29" s="221" t="s">
-        <v>607</v>
-      </c>
-      <c r="D29" s="221" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21">
-      <c r="B30" s="222" t="s">
-        <v>653</v>
-      </c>
-      <c r="C30" s="221" t="s">
-        <v>608</v>
-      </c>
-      <c r="D30" s="221" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="222" t="s">
-        <v>654</v>
-      </c>
-      <c r="C31" s="221" t="s">
-        <v>609</v>
-      </c>
-      <c r="D31" s="221" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="222" t="s">
-        <v>655</v>
-      </c>
-      <c r="C32" s="221" t="s">
-        <v>610</v>
-      </c>
-      <c r="D32" s="221" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="222" t="s">
-        <v>656</v>
-      </c>
-      <c r="C33" s="221" t="s">
-        <v>611</v>
-      </c>
-      <c r="D33" s="221" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="222" t="s">
-        <v>657</v>
-      </c>
-      <c r="C34" s="221" t="s">
+      <c r="D35" s="196" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="197" t="s">
+        <v>658</v>
+      </c>
+      <c r="C36" s="196" t="s">
         <v>612</v>
       </c>
-      <c r="D34" s="221" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="222" t="s">
-        <v>658</v>
-      </c>
-      <c r="C35" s="221" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="221" t="s">
+      <c r="D36" s="196" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="222" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="197" t="s">
         <v>659</v>
       </c>
-      <c r="C36" s="221" t="s">
+      <c r="C37" s="196" t="s">
         <v>613</v>
       </c>
-      <c r="D36" s="221" t="s">
+      <c r="D37" s="196" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="222" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="197" t="s">
         <v>660</v>
       </c>
-      <c r="C37" s="221" t="s">
+      <c r="C38" s="196" t="s">
         <v>614</v>
       </c>
-      <c r="D37" s="221" t="s">
+      <c r="D38" s="196" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="222" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="197" t="s">
         <v>661</v>
       </c>
-      <c r="C38" s="221" t="s">
+      <c r="C39" s="196" t="s">
         <v>615</v>
       </c>
-      <c r="D38" s="221" t="s">
+      <c r="D39" s="196" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="222" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="197" t="s">
         <v>662</v>
       </c>
-      <c r="C39" s="221" t="s">
+      <c r="C40" s="196" t="s">
         <v>616</v>
       </c>
-      <c r="D39" s="221" t="s">
+      <c r="D40" s="196" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="222" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="197" t="s">
         <v>663</v>
       </c>
-      <c r="C40" s="221" t="s">
+      <c r="C41" s="196" t="s">
         <v>617</v>
       </c>
-      <c r="D40" s="221" t="s">
+      <c r="D41" s="196" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="222" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="197" t="s">
         <v>664</v>
       </c>
-      <c r="C41" s="221" t="s">
+      <c r="C42" s="196" t="s">
         <v>618</v>
       </c>
-      <c r="D41" s="221" t="s">
+      <c r="D42" s="196" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="222" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="197" t="s">
         <v>665</v>
       </c>
-      <c r="C42" s="221" t="s">
+      <c r="C43" s="196" t="s">
         <v>619</v>
       </c>
-      <c r="D42" s="221" t="s">
+      <c r="D43" s="196" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="222" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="197" t="s">
         <v>666</v>
       </c>
-      <c r="C43" s="221" t="s">
+      <c r="C44" s="196" t="s">
         <v>620</v>
       </c>
-      <c r="D43" s="221" t="s">
+      <c r="D44" s="196" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="222" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="197" t="s">
         <v>667</v>
       </c>
-      <c r="C44" s="221" t="s">
+      <c r="C45" s="196" t="s">
         <v>621</v>
       </c>
-      <c r="D44" s="221" t="s">
+      <c r="D45" s="196" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="222" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="197" t="s">
         <v>668</v>
       </c>
-      <c r="C45" s="221" t="s">
+      <c r="C46" s="196" t="s">
         <v>622</v>
       </c>
-      <c r="D45" s="221" t="s">
+      <c r="D46" s="196" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="222" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="197" t="s">
         <v>669</v>
       </c>
-      <c r="C46" s="221" t="s">
+      <c r="C47" s="196" t="s">
         <v>623</v>
       </c>
-      <c r="D46" s="221" t="s">
+      <c r="D47" s="196" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="222" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="197" t="s">
         <v>670</v>
       </c>
-      <c r="C47" s="221" t="s">
+      <c r="C48" s="196" t="s">
         <v>624</v>
       </c>
-      <c r="D47" s="221" t="s">
+      <c r="D48" s="196" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="222" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="197" t="s">
         <v>671</v>
       </c>
-      <c r="C48" s="221" t="s">
+      <c r="C49" s="196" t="s">
         <v>625</v>
       </c>
-      <c r="D48" s="221" t="s">
+      <c r="D49" s="196" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="222" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="197" t="s">
         <v>672</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C50" s="196" t="s">
         <v>626</v>
       </c>
-      <c r="D49" s="221" t="s">
+      <c r="D50" s="196" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="222" t="s">
-        <v>673</v>
-      </c>
-      <c r="C50" s="221" t="s">
-        <v>627</v>
-      </c>
-      <c r="D50" s="221" t="s">
-        <v>719</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22308,7 +22313,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="F3:AH21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -22349,7 +22354,7 @@
     <row r="5" spans="6:34" ht="17.25">
       <c r="F5" s="79"/>
       <c r="G5" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -22414,26 +22419,26 @@
       <c r="F7" s="79"/>
       <c r="G7" s="80"/>
       <c r="I7" s="85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
       <c r="M7" s="80"/>
       <c r="N7" s="85" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="80"/>
       <c r="Q7" s="80"/>
       <c r="R7" s="80"/>
       <c r="S7" s="85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U7" s="80"/>
       <c r="V7" s="80"/>
       <c r="W7" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="X7" s="80"/>
       <c r="Y7" s="80"/>
@@ -22480,14 +22485,14 @@
       <c r="F9" s="79"/>
       <c r="G9" s="80"/>
       <c r="I9" s="85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
       <c r="L9" s="80"/>
       <c r="M9" s="80"/>
       <c r="N9" s="85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="80"/>
@@ -22550,7 +22555,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
@@ -22669,7 +22674,7 @@
       <c r="F15" s="79"/>
       <c r="G15" s="80"/>
       <c r="I15" s="85" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J15" s="80"/>
       <c r="K15" s="80"/>
@@ -22823,7 +22828,7 @@
     </row>
     <row r="21" spans="6:34">
       <c r="F21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -22878,17 +22883,17 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -22902,13 +22907,13 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z5" s="43" t="s">
         <v>116</v>
       </c>
       <c r="AA5" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="6:27" ht="15" thickBot="1">
@@ -22920,7 +22925,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -22928,13 +22933,13 @@
       <c r="Q6" s="80"/>
       <c r="R6" s="81"/>
       <c r="Y6" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z6" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="6:27">
@@ -22958,7 +22963,7 @@
         <v>107</v>
       </c>
       <c r="AA7" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="6:27" ht="15" thickBot="1">
@@ -22979,10 +22984,10 @@
         <v>3000000</v>
       </c>
       <c r="Z8" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA8" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="6:27" ht="15" thickBot="1">
@@ -22991,13 +22996,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="92" t="s">
-        <v>338</v>
-      </c>
       <c r="L9" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -23008,10 +23013,10 @@
         <v>3000001</v>
       </c>
       <c r="Z9" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA9" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="6:27">
@@ -23032,23 +23037,23 @@
         <v>3000002</v>
       </c>
       <c r="Z10" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA10" s="41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="6:27" ht="17.25" thickBot="1">
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80"/>
@@ -23062,10 +23067,10 @@
         <v>3000003</v>
       </c>
       <c r="Z11" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA11" s="41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="6:27" ht="15" thickBot="1">
@@ -23075,10 +23080,10 @@
         <v>3003001</v>
       </c>
       <c r="I12" s="100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J12" s="100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
@@ -23092,10 +23097,10 @@
         <v>3000004</v>
       </c>
       <c r="Z12" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AA12" s="41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="6:27">
@@ -23105,10 +23110,10 @@
         <v>3003000</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="80"/>
@@ -23122,10 +23127,10 @@
         <v>4000000</v>
       </c>
       <c r="Z13" s="194" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA13" s="41" t="s">
         <v>561</v>
-      </c>
-      <c r="AA13" s="41" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="14" spans="6:27">
@@ -23135,10 +23140,10 @@
         <v>3003001</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
@@ -23152,10 +23157,10 @@
         <v>4000001</v>
       </c>
       <c r="Z14" s="194" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA14" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="6:27">
@@ -23165,10 +23170,10 @@
         <v>3003002</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
@@ -23182,10 +23187,10 @@
         <v>4000002</v>
       </c>
       <c r="Z15" s="194" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="6:27">
@@ -23195,10 +23200,10 @@
         <v>3003003</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -23212,10 +23217,10 @@
         <v>4000003</v>
       </c>
       <c r="Z16" s="194" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="6:27">
@@ -23225,10 +23230,10 @@
         <v>3003004</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K17" s="80"/>
       <c r="L17" s="80"/>
@@ -23242,10 +23247,10 @@
         <v>4000004</v>
       </c>
       <c r="Z17" s="194" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AA17" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="6:27" ht="15" thickBot="1">
@@ -23265,50 +23270,50 @@
     </row>
     <row r="22" spans="6:27">
       <c r="F22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="6:27">
       <c r="F24" t="s">
+        <v>548</v>
+      </c>
+      <c r="H24" t="s">
         <v>549</v>
-      </c>
-      <c r="H24" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="25" spans="6:27">
       <c r="H25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="6:27">
       <c r="H26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="6:27">
       <c r="F29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -23364,7 +23369,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -23394,7 +23399,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -23414,13 +23419,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
+        <v>514</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="92" t="s">
         <v>515</v>
-      </c>
-      <c r="H7" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="92" t="s">
-        <v>516</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -23471,13 +23476,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="92" t="s">
-        <v>338</v>
-      </c>
       <c r="L9" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -23488,7 +23493,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="195" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>5</v>
@@ -23512,7 +23517,7 @@
         <v>70</v>
       </c>
       <c r="Z10" s="195" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>8</v>
@@ -23542,7 +23547,7 @@
         <v>71</v>
       </c>
       <c r="Z11" s="195" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>16</v>
@@ -23555,10 +23560,10 @@
         <v>70</v>
       </c>
       <c r="I12" s="89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J12" s="89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
@@ -23572,7 +23577,7 @@
         <v>72</v>
       </c>
       <c r="Z12" s="195" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>22</v>
@@ -23602,7 +23607,7 @@
         <v>69</v>
       </c>
       <c r="Z13" s="195" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>5</v>
@@ -23632,7 +23637,7 @@
         <v>70</v>
       </c>
       <c r="Z14" s="195" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>8</v>
@@ -23662,7 +23667,7 @@
         <v>71</v>
       </c>
       <c r="Z15" s="195" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>16</v>
@@ -23678,7 +23683,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80"/>
@@ -23692,7 +23697,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="195" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>22</v>
@@ -23790,35 +23795,35 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="6:18">
       <c r="G31" t="s">
+        <v>548</v>
+      </c>
+      <c r="I31" t="s">
         <v>549</v>
-      </c>
-      <c r="I31" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="32" spans="6:18">
       <c r="I32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -23900,13 +23905,13 @@
         <v>117</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
       <c r="F6" s="79"/>
       <c r="G6" s="107" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H6" s="99" t="s">
         <v>35</v>
@@ -23916,7 +23921,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -23939,14 +23944,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H7" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -23986,7 +23991,7 @@
         <v>34</v>
       </c>
       <c r="Z8" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>5</v>
@@ -24001,13 +24006,13 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="J9" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="92" t="s">
-        <v>338</v>
-      </c>
       <c r="L9" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -24018,7 +24023,7 @@
         <v>35</v>
       </c>
       <c r="Z9" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>8</v>
@@ -24045,7 +24050,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA10" s="38" t="s">
         <v>8</v>
@@ -24058,16 +24063,16 @@
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
@@ -24080,7 +24085,7 @@
         <v>38</v>
       </c>
       <c r="Z11" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA11" s="38" t="s">
         <v>8</v>
@@ -24096,13 +24101,13 @@
         <v>35</v>
       </c>
       <c r="I12" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J12" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="99" t="s">
         <v>258</v>
-      </c>
-      <c r="K12" s="99" t="s">
-        <v>259</v>
       </c>
       <c r="L12" s="80"/>
       <c r="M12" s="80"/>
@@ -24115,7 +24120,7 @@
         <v>39</v>
       </c>
       <c r="Z12" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA12" s="38" t="s">
         <v>8</v>
@@ -24128,16 +24133,16 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="97" t="s">
         <v>256</v>
-      </c>
-      <c r="K13" s="97" t="s">
-        <v>257</v>
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
@@ -24150,7 +24155,7 @@
         <v>40</v>
       </c>
       <c r="Z13" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA13" s="38" t="s">
         <v>16</v>
@@ -24166,13 +24171,13 @@
         <v>35</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K14" s="98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L14" s="80"/>
       <c r="M14" s="80"/>
@@ -24185,7 +24190,7 @@
         <v>42</v>
       </c>
       <c r="Z14" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA14" s="38" t="s">
         <v>16</v>
@@ -24201,10 +24206,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J15" s="102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K15" s="102" t="s">
         <v>50</v>
@@ -24220,7 +24225,7 @@
         <v>34</v>
       </c>
       <c r="Z15" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA15" s="38" t="s">
         <v>5</v>
@@ -24236,10 +24241,10 @@
         <v>38</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K16" s="102" t="s">
         <v>52</v>
@@ -24255,7 +24260,7 @@
         <v>35</v>
       </c>
       <c r="Z16" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA16" s="38" t="s">
         <v>8</v>
@@ -24271,10 +24276,10 @@
         <v>39</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K17" s="102" t="s">
         <v>54</v>
@@ -24290,7 +24295,7 @@
         <v>37</v>
       </c>
       <c r="Z17" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA17" s="38" t="s">
         <v>8</v>
@@ -24306,10 +24311,10 @@
         <v>40</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J18" s="102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K18" s="102" t="s">
         <v>56</v>
@@ -24325,7 +24330,7 @@
         <v>38</v>
       </c>
       <c r="Z18" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA18" s="38" t="s">
         <v>8</v>
@@ -24341,10 +24346,10 @@
         <v>42</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J19" s="102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K19" s="102" t="s">
         <v>58</v>
@@ -24360,7 +24365,7 @@
         <v>39</v>
       </c>
       <c r="Z19" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA19" s="38" t="s">
         <v>8</v>
@@ -24387,7 +24392,7 @@
         <v>40</v>
       </c>
       <c r="Z20" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA20" s="38" t="s">
         <v>16</v>
@@ -24414,7 +24419,7 @@
         <v>42</v>
       </c>
       <c r="Z21" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA21" s="38" t="s">
         <v>16</v>
@@ -24455,35 +24460,35 @@
     </row>
     <row r="27" spans="6:28">
       <c r="G27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="6:28">
       <c r="H28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="6:28">
       <c r="H32" t="s">
+        <v>548</v>
+      </c>
+      <c r="J32" t="s">
         <v>549</v>
-      </c>
-      <c r="J32" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -24516,7 +24521,7 @@
   <sheetData>
     <row r="2" spans="6:28">
       <c r="F2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="6:28" ht="15" thickBot="1"/>
@@ -24565,10 +24570,10 @@
         <v>116</v>
       </c>
       <c r="AA5" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -24580,7 +24585,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -24594,23 +24599,23 @@
         <v>45</v>
       </c>
       <c r="AA6" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB6" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H7" s="100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -24630,7 +24635,7 @@
         <v>123</v>
       </c>
       <c r="AB7" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="6:28" ht="15" thickBot="1">
@@ -24668,7 +24673,7 @@
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
       <c r="L9" s="92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N9" s="80"/>
       <c r="O9" s="80"/>
@@ -24707,13 +24712,13 @@
       <c r="F11" s="79"/>
       <c r="G11" s="80"/>
       <c r="H11" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>357</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>358</v>
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="76"/>
@@ -24731,10 +24736,10 @@
         <v>121</v>
       </c>
       <c r="I12" s="106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J12" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="79"/>
@@ -24752,10 +24757,10 @@
         <v>63</v>
       </c>
       <c r="I13" s="106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J13" s="106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="79"/>
@@ -24790,7 +24795,7 @@
       <c r="K15" s="80"/>
       <c r="L15" s="79"/>
       <c r="M15" s="80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N15" s="80"/>
       <c r="O15" s="81"/>
@@ -24926,10 +24931,10 @@
       <c r="J24" s="104"/>
       <c r="K24" s="105"/>
       <c r="L24" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="M24" s="92" t="s">
         <v>353</v>
-      </c>
-      <c r="M24" s="92" t="s">
-        <v>354</v>
       </c>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
@@ -24969,35 +24974,35 @@
     </row>
     <row r="30" spans="6:22">
       <c r="K30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="6:22">
       <c r="K31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="V31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="11:11">
       <c r="K33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -25037,7 +25042,7 @@
   <sheetData>
     <row r="2" spans="6:29">
       <c r="F2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="6:29" ht="15" thickBot="1"/>
@@ -25056,10 +25061,10 @@
       <c r="Q4" s="77"/>
       <c r="R4" s="78"/>
       <c r="Y4" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA4" s="37"/>
       <c r="AB4" s="37"/>
@@ -25068,7 +25073,7 @@
     <row r="5" spans="6:29" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -25098,7 +25103,7 @@
       <c r="K6" s="80"/>
       <c r="L6" s="80"/>
       <c r="M6" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N6" s="80"/>
       <c r="O6" s="80"/>
@@ -25118,7 +25123,7 @@
         <v>108</v>
       </c>
       <c r="AC6" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="6:29" ht="15" thickBot="1">
@@ -25145,23 +25150,23 @@
         <v>2</v>
       </c>
       <c r="AB7" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC7" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="AC7" s="43" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="6:29" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
       <c r="H8" s="107" t="s">
+        <v>514</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="92" t="s">
         <v>515</v>
-      </c>
-      <c r="I8" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>516</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -25193,19 +25198,19 @@
       <c r="H9" s="85"/>
       <c r="I9" s="80"/>
       <c r="M9" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="N9" s="92" t="s">
-        <v>338</v>
-      </c>
       <c r="O9" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="45" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Z9" s="45" t="s">
         <v>14</v>
@@ -25227,16 +25232,16 @@
         <v>76</v>
       </c>
       <c r="I10" s="99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J10" s="99">
         <v>0</v>
       </c>
       <c r="K10" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="L10" s="99" t="s">
         <v>378</v>
-      </c>
-      <c r="L10" s="99" t="s">
-        <v>379</v>
       </c>
       <c r="M10" s="80"/>
       <c r="N10" s="80"/>
@@ -25245,7 +25250,7 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="Z10" s="45" t="s">
         <v>7</v>
@@ -25275,16 +25280,16 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="45" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA11" s="45">
         <v>0</v>
       </c>
       <c r="AB11" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC11" s="45" t="s">
         <v>79</v>
@@ -25294,19 +25299,19 @@
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
       <c r="H12" s="97" t="s">
+        <v>372</v>
+      </c>
+      <c r="I12" s="97" t="s">
         <v>373</v>
-      </c>
-      <c r="I12" s="97" t="s">
-        <v>374</v>
       </c>
       <c r="J12" s="97">
         <v>1</v>
       </c>
       <c r="K12" s="97" t="s">
+        <v>374</v>
+      </c>
+      <c r="L12" s="97" t="s">
         <v>375</v>
-      </c>
-      <c r="L12" s="97" t="s">
-        <v>376</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -25315,16 +25320,16 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z12" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA12" s="45">
         <v>0</v>
       </c>
       <c r="AB12" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC12" s="45" t="s">
         <v>79</v>
@@ -25334,19 +25339,19 @@
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
       <c r="H13" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -25355,7 +25360,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Z13" s="45" t="s">
         <v>18</v>
@@ -25375,16 +25380,16 @@
         <v>76</v>
       </c>
       <c r="I14" s="98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J14" s="98">
         <v>0</v>
       </c>
       <c r="K14" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="L14" s="98" t="s">
         <v>378</v>
-      </c>
-      <c r="L14" s="98" t="s">
-        <v>379</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -25393,19 +25398,19 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
       <c r="Y14" s="45" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z14" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA14" s="45">
         <v>0</v>
       </c>
       <c r="AB14" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC14" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="6:29">
@@ -25415,14 +25420,14 @@
         <v>77</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J15" s="102">
         <v>2</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -25438,16 +25443,16 @@
         <v>78</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J16" s="102">
         <v>1</v>
       </c>
       <c r="K16" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16" s="102" t="s">
         <v>383</v>
-      </c>
-      <c r="L16" s="102" t="s">
-        <v>384</v>
       </c>
       <c r="M16" s="80"/>
       <c r="N16" s="80"/>
@@ -25460,19 +25465,19 @@
       <c r="F17" s="79"/>
       <c r="G17" s="80"/>
       <c r="H17" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17" s="102" t="s">
         <v>385</v>
-      </c>
-      <c r="I17" s="102" t="s">
-        <v>386</v>
       </c>
       <c r="J17" s="102">
         <v>0</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L17" s="102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
@@ -25485,19 +25490,19 @@
       <c r="F18" s="79"/>
       <c r="G18" s="80"/>
       <c r="H18" s="102" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="102" t="s">
         <v>388</v>
-      </c>
-      <c r="I18" s="102" t="s">
-        <v>389</v>
       </c>
       <c r="J18" s="102">
         <v>0</v>
       </c>
       <c r="K18" s="102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L18" s="102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M18" s="80"/>
       <c r="N18" s="80"/>
@@ -25568,35 +25573,35 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
+        <v>548</v>
+      </c>
+      <c r="H33" t="s">
         <v>549</v>
-      </c>
-      <c r="H33" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="H34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="H35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="H36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/仕様/GKL项目.xlsx
+++ b/仕様/GKL项目.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="9600" windowHeight="12540" tabRatio="699" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="系统图" sheetId="7" r:id="rId1"/>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="732">
   <si>
     <t>工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2634,22 +2634,6 @@
   </si>
   <si>
     <r>
-      <t>作番：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>A00000001</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>CODE：</t>
     </r>
     <r>
@@ -2665,28 +2649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>检查者：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>3003000</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">     检查一览画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3630,6 +3592,10 @@
   </si>
   <si>
     <t>检查方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テスト者 （生产线：SRM1312A）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5112,19 +5078,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5135,6 +5110,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5160,29 +5144,11 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -12536,12 +12502,12 @@
     <row r="40" spans="1:3" ht="24.75">
       <c r="A40" s="34"/>
       <c r="C40" s="173" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="173" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -12556,8 +12522,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="F3:AS39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11:AS12"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AE33" sqref="B31:AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25"/>
@@ -12753,13 +12719,13 @@
     <row r="7" spans="6:45" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H7" s="100" t="s">
         <v>401</v>
       </c>
       <c r="I7" s="170" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J7" s="105"/>
       <c r="K7" s="80"/>
@@ -12920,7 +12886,7 @@
       <c r="W9" s="80"/>
       <c r="X9" s="81"/>
       <c r="AD9" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE9" s="52" t="s">
         <v>100</v>
@@ -12977,7 +12943,7 @@
       <c r="W10" s="80"/>
       <c r="X10" s="81"/>
       <c r="AD10" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE10" s="54" t="s">
         <v>318</v>
@@ -13074,7 +13040,7 @@
       <c r="W11" s="80"/>
       <c r="X11" s="81"/>
       <c r="AD11" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE11" s="54" t="s">
         <v>100</v>
@@ -13163,7 +13129,7 @@
       <c r="W12" s="80"/>
       <c r="X12" s="81"/>
       <c r="AD12" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>100</v>
@@ -13244,7 +13210,7 @@
       <c r="W13" s="80"/>
       <c r="X13" s="81"/>
       <c r="AD13" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE13" s="54" t="s">
         <v>100</v>
@@ -13335,7 +13301,7 @@
       <c r="W14" s="80"/>
       <c r="X14" s="81"/>
       <c r="AD14" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE14" s="54" t="s">
         <v>100</v>
@@ -13420,7 +13386,7 @@
       <c r="W15" s="80"/>
       <c r="X15" s="81"/>
       <c r="AD15" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE15" s="54" t="s">
         <v>100</v>
@@ -13507,7 +13473,7 @@
       <c r="W16" s="80"/>
       <c r="X16" s="81"/>
       <c r="AD16" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE16" s="54" t="s">
         <v>100</v>
@@ -13598,7 +13564,7 @@
       <c r="W17" s="80"/>
       <c r="X17" s="81"/>
       <c r="AD17" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE17" s="54" t="s">
         <v>100</v>
@@ -13685,7 +13651,7 @@
       <c r="W18" s="80"/>
       <c r="X18" s="81"/>
       <c r="AD18" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE18" s="54" t="s">
         <v>100</v>
@@ -13772,7 +13738,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="81"/>
       <c r="AD19" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE19" s="54" t="s">
         <v>100</v>
@@ -13855,7 +13821,7 @@
       <c r="W20" s="80"/>
       <c r="X20" s="81"/>
       <c r="AD20" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE20" s="54" t="s">
         <v>100</v>
@@ -13934,7 +13900,7 @@
       <c r="W21" s="80"/>
       <c r="X21" s="81"/>
       <c r="AD21" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>100</v>
@@ -14015,7 +13981,7 @@
       <c r="W22" s="80"/>
       <c r="X22" s="81"/>
       <c r="AD22" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE22" s="54" t="s">
         <v>100</v>
@@ -14088,7 +14054,7 @@
       <c r="W23" s="80"/>
       <c r="X23" s="81"/>
       <c r="AD23" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE23" s="54" t="s">
         <v>100</v>
@@ -14165,7 +14131,7 @@
       <c r="W24" s="80"/>
       <c r="X24" s="81"/>
       <c r="AD24" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE24" s="54" t="s">
         <v>100</v>
@@ -14485,17 +14451,17 @@
     </row>
     <row r="37" spans="6:24">
       <c r="F37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="6:24">
       <c r="G38" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="6:24">
       <c r="G39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -14563,7 +14529,7 @@
     <row r="5" spans="6:34" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -14577,10 +14543,10 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="81"/>
       <c r="Y5" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AA5" s="60"/>
       <c r="AB5" s="60"/>
@@ -14621,7 +14587,7 @@
     <row r="7" spans="6:34" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>244</v>
@@ -14657,19 +14623,19 @@
         <v>296</v>
       </c>
       <c r="AF7" s="59" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG7" s="59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AH7" s="59" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="6:34" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="G8" s="107" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H8" s="99"/>
       <c r="J8" s="80"/>
@@ -14706,20 +14672,20 @@
         <v>250</v>
       </c>
       <c r="AG8" s="59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH8" s="59" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="6:34" ht="15" thickBot="1">
       <c r="F9" s="79"/>
       <c r="G9" s="189" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P9" s="80"/>
       <c r="Q9" s="80"/>
@@ -14752,7 +14718,7 @@
         <v>112</v>
       </c>
       <c r="AH9" s="59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="6:34">
@@ -14811,7 +14777,7 @@
         <v>297</v>
       </c>
       <c r="AA11" s="65" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AB11" s="65" t="s">
         <v>166</v>
@@ -14854,7 +14820,7 @@
         <v>297</v>
       </c>
       <c r="AA12" s="65" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AB12" s="65" t="s">
         <v>166</v>
@@ -14886,7 +14852,7 @@
         <v>186</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K13" s="64" t="s">
         <v>402</v>
@@ -14912,13 +14878,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K14" s="109" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L14" s="109" t="s">
         <v>244</v>
@@ -14941,13 +14907,13 @@
         <v>2</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>527</v>
-      </c>
       <c r="K15" s="109" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>244</v>
@@ -14970,13 +14936,13 @@
         <v>3</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K16" s="109" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>244</v>
@@ -14999,13 +14965,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K17" s="109" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>244</v>
@@ -15061,7 +15027,7 @@
       <c r="L20" s="104"/>
       <c r="M20" s="105"/>
       <c r="N20" s="93" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O20" s="80"/>
       <c r="P20" s="80"/>
@@ -15085,25 +15051,25 @@
     </row>
     <row r="25" spans="6:18">
       <c r="H25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="6:18">
       <c r="H29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="J30" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -15177,7 +15143,7 @@
         <v>163</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D2" s="36">
         <v>3</v>
@@ -15194,7 +15160,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D3" s="36">
         <v>4</v>
@@ -15211,7 +15177,7 @@
         <v>163</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D4" s="36">
         <v>5</v>
@@ -15228,7 +15194,7 @@
         <v>163</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D5" s="36">
         <v>6</v>
@@ -15245,7 +15211,7 @@
         <v>163</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D6" s="36">
         <v>7</v>
@@ -15262,7 +15228,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D7" s="36">
         <v>8</v>
@@ -15324,7 +15290,7 @@
     <row r="5" spans="6:27" ht="18.75" thickBot="1">
       <c r="F5" s="79"/>
       <c r="G5" s="94" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80"/>
@@ -15376,7 +15342,7 @@
     <row r="7" spans="6:27" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="H7" s="107" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I7" s="89" t="s">
         <v>395</v>
@@ -15403,13 +15369,13 @@
     <row r="8" spans="6:27" ht="15" thickBot="1">
       <c r="F8" s="79"/>
       <c r="H8" s="107" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I8" s="89" t="s">
         <v>393</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -15487,13 +15453,13 @@
         <v>402</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>403</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M11" s="80"/>
       <c r="N11" s="80"/>
@@ -15521,13 +15487,13 @@
         <v>400</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>401</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -15555,13 +15521,13 @@
         <v>395</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K13" s="193" t="s">
         <v>393</v>
       </c>
       <c r="L13" s="193" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M13" s="80"/>
       <c r="N13" s="80"/>
@@ -15589,13 +15555,13 @@
         <v>397</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K14" s="193" t="s">
         <v>394</v>
       </c>
       <c r="L14" s="193" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
@@ -15614,13 +15580,13 @@
         <v>442</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K15" s="193" t="s">
         <v>399</v>
       </c>
       <c r="L15" s="193" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M15" s="80"/>
       <c r="N15" s="80"/>
@@ -15680,7 +15646,7 @@
       <c r="K19" s="191"/>
       <c r="L19" s="192"/>
       <c r="M19" s="92" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
@@ -15720,20 +15686,20 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="6:18">
       <c r="H27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="6:18">
       <c r="J28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -15825,8 +15791,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="C8:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15862,31 +15828,31 @@
     </row>
     <row r="9" spans="3:35">
       <c r="X9" s="173" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="3:35">
       <c r="X10" s="173" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="3:35">
       <c r="X11" s="175" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="3:35">
       <c r="O12" s="173" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="X12" s="175" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="3:35" ht="15" thickBot="1"/>
     <row r="14" spans="3:35" ht="18" thickBot="1">
       <c r="C14" s="157" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
@@ -15942,10 +15908,10 @@
       <c r="P15" s="113"/>
       <c r="Q15" s="113"/>
       <c r="R15" s="113"/>
-      <c r="S15" s="220" t="s">
+      <c r="S15" s="199" t="s">
         <v>263</v>
       </c>
-      <c r="T15" s="221"/>
+      <c r="T15" s="200"/>
       <c r="V15" s="114"/>
       <c r="W15" s="35"/>
       <c r="X15" s="120"/>
@@ -15953,10 +15919,10 @@
       <c r="Z15" s="113"/>
       <c r="AA15" s="113"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="220" t="s">
+      <c r="AC15" s="199" t="s">
         <v>275</v>
       </c>
-      <c r="AD15" s="221"/>
+      <c r="AD15" s="200"/>
       <c r="AE15" s="128"/>
       <c r="AF15" s="128"/>
       <c r="AG15" s="115" t="s">
@@ -15969,7 +15935,7 @@
     </row>
     <row r="16" spans="3:35" ht="15" thickBot="1">
       <c r="C16" s="174" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D16" s="130" t="s">
         <v>163</v>
@@ -16007,24 +15973,24 @@
         <v>446</v>
       </c>
       <c r="S16" s="113" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T16" s="128"/>
       <c r="V16" s="114"/>
       <c r="W16" s="35"/>
       <c r="X16" s="120"/>
       <c r="Y16" s="113" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Z16" s="132"/>
       <c r="AA16" s="113" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AB16" s="132" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AC16" s="113" t="s">
-        <v>454</v>
+        <v>731</v>
       </c>
       <c r="AD16" s="128"/>
       <c r="AE16" s="128"/>
@@ -16071,11 +16037,11 @@
     <row r="18" spans="3:35" ht="15" thickBot="1">
       <c r="C18" s="120"/>
       <c r="D18" s="129" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E18" s="133"/>
       <c r="F18" s="113" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G18" s="113"/>
       <c r="H18" s="113"/>
@@ -16136,32 +16102,32 @@
       <c r="V19" s="114"/>
       <c r="W19" s="35"/>
       <c r="X19" s="120"/>
-      <c r="Y19" s="215" t="s">
+      <c r="Y19" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="Z19" s="215" t="s">
+      <c r="Z19" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="222" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB19" s="215" t="s">
-        <v>732</v>
-      </c>
-      <c r="AC19" s="215" t="s">
+      <c r="AA19" s="202" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB19" s="201" t="s">
+        <v>730</v>
+      </c>
+      <c r="AC19" s="201" t="s">
         <v>133</v>
       </c>
-      <c r="AD19" s="215" t="s">
+      <c r="AD19" s="201" t="s">
         <v>276</v>
       </c>
-      <c r="AE19" s="215" t="s">
+      <c r="AE19" s="201" t="s">
         <v>264</v>
       </c>
-      <c r="AF19" s="215" t="s">
+      <c r="AF19" s="201" t="s">
         <v>228</v>
       </c>
-      <c r="AG19" s="215"/>
-      <c r="AH19" s="215"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
       <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="3:35" ht="15" thickBot="1">
@@ -16196,16 +16162,16 @@
       <c r="V20" s="114"/>
       <c r="W20" s="35"/>
       <c r="X20" s="120"/>
-      <c r="Y20" s="215"/>
-      <c r="Z20" s="215"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="215"/>
-      <c r="AC20" s="215"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="216"/>
+      <c r="Y20" s="201"/>
+      <c r="Z20" s="201"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="201"/>
+      <c r="AC20" s="201"/>
+      <c r="AD20" s="203"/>
+      <c r="AE20" s="203"/>
+      <c r="AF20" s="203"/>
+      <c r="AG20" s="203"/>
+      <c r="AH20" s="203"/>
       <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="3:35" ht="15" thickBot="1">
@@ -16265,11 +16231,11 @@
       <c r="AE21" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="AF21" s="217" t="s">
+      <c r="AF21" s="204" t="s">
         <v>278</v>
       </c>
-      <c r="AG21" s="218"/>
-      <c r="AH21" s="219"/>
+      <c r="AG21" s="205"/>
+      <c r="AH21" s="206"/>
       <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="3:35" ht="15" thickBot="1">
@@ -16304,7 +16270,7 @@
       <c r="V22" s="114"/>
       <c r="W22" s="35"/>
       <c r="X22" s="120"/>
-      <c r="Y22" s="204" t="s">
+      <c r="Y22" s="207" t="s">
         <v>8</v>
       </c>
       <c r="Z22" s="118" t="s">
@@ -16325,9 +16291,9 @@
       <c r="AE22" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="202"/>
-      <c r="AH22" s="203"/>
+      <c r="AF22" s="210"/>
+      <c r="AG22" s="211"/>
+      <c r="AH22" s="212"/>
       <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="3:35" ht="15" thickBot="1">
@@ -16335,10 +16301,10 @@
       <c r="D23" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="213" t="s">
+      <c r="E23" s="219" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="214"/>
+      <c r="F23" s="220"/>
       <c r="G23" s="139" t="s">
         <v>234</v>
       </c>
@@ -16376,7 +16342,7 @@
       <c r="V23" s="114"/>
       <c r="W23" s="35"/>
       <c r="X23" s="120"/>
-      <c r="Y23" s="205"/>
+      <c r="Y23" s="208"/>
       <c r="Z23" s="121" t="s">
         <v>32</v>
       </c>
@@ -16393,9 +16359,9 @@
         <v>2035.2</v>
       </c>
       <c r="AE23" s="122"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="202"/>
-      <c r="AH23" s="203"/>
+      <c r="AF23" s="210"/>
+      <c r="AG23" s="211"/>
+      <c r="AH23" s="212"/>
       <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="3:35" ht="15" thickBot="1">
@@ -16442,7 +16408,7 @@
       <c r="V24" s="114"/>
       <c r="W24" s="35"/>
       <c r="X24" s="120"/>
-      <c r="Y24" s="205"/>
+      <c r="Y24" s="208"/>
       <c r="Z24" s="118" t="s">
         <v>32</v>
       </c>
@@ -16457,9 +16423,9 @@
       </c>
       <c r="AD24" s="150"/>
       <c r="AE24" s="123"/>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="202"/>
-      <c r="AH24" s="203"/>
+      <c r="AF24" s="210"/>
+      <c r="AG24" s="211"/>
+      <c r="AH24" s="212"/>
       <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="3:35" ht="15" thickBot="1">
@@ -16506,7 +16472,7 @@
       <c r="V25" s="114"/>
       <c r="W25" s="35"/>
       <c r="X25" s="120"/>
-      <c r="Y25" s="205"/>
+      <c r="Y25" s="208"/>
       <c r="Z25" s="118" t="s">
         <v>32</v>
       </c>
@@ -16521,9 +16487,9 @@
       </c>
       <c r="AD25" s="150"/>
       <c r="AE25" s="123"/>
-      <c r="AF25" s="201"/>
-      <c r="AG25" s="202"/>
-      <c r="AH25" s="203"/>
+      <c r="AF25" s="210"/>
+      <c r="AG25" s="211"/>
+      <c r="AH25" s="212"/>
       <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="3:35" ht="15" thickBot="1">
@@ -16570,7 +16536,7 @@
       <c r="V26" s="114"/>
       <c r="W26" s="35"/>
       <c r="X26" s="120"/>
-      <c r="Y26" s="205"/>
+      <c r="Y26" s="208"/>
       <c r="Z26" s="118" t="s">
         <v>32</v>
       </c>
@@ -16585,9 +16551,9 @@
       </c>
       <c r="AD26" s="150"/>
       <c r="AE26" s="123"/>
-      <c r="AF26" s="201"/>
-      <c r="AG26" s="202"/>
-      <c r="AH26" s="203"/>
+      <c r="AF26" s="210"/>
+      <c r="AG26" s="211"/>
+      <c r="AH26" s="212"/>
       <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="3:35" ht="15" thickBot="1">
@@ -16636,7 +16602,7 @@
       <c r="V27" s="114"/>
       <c r="W27" s="35"/>
       <c r="X27" s="120"/>
-      <c r="Y27" s="206"/>
+      <c r="Y27" s="209"/>
       <c r="Z27" s="118" t="s">
         <v>32</v>
       </c>
@@ -16651,9 +16617,9 @@
       </c>
       <c r="AD27" s="150"/>
       <c r="AE27" s="123"/>
-      <c r="AF27" s="201"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="203"/>
+      <c r="AF27" s="210"/>
+      <c r="AG27" s="211"/>
+      <c r="AH27" s="212"/>
       <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="3:35" ht="15" thickBot="1">
@@ -16693,7 +16659,7 @@
       <c r="V28" s="114"/>
       <c r="W28" s="35"/>
       <c r="X28" s="120"/>
-      <c r="Y28" s="204" t="s">
+      <c r="Y28" s="207" t="s">
         <v>16</v>
       </c>
       <c r="Z28" s="118" t="s">
@@ -16710,9 +16676,9 @@
       </c>
       <c r="AD28" s="150"/>
       <c r="AE28" s="123"/>
-      <c r="AF28" s="201"/>
-      <c r="AG28" s="202"/>
-      <c r="AH28" s="203"/>
+      <c r="AF28" s="210"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="212"/>
       <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="3:35" ht="15" thickBot="1">
@@ -16738,7 +16704,7 @@
       <c r="V29" s="114"/>
       <c r="W29" s="35"/>
       <c r="X29" s="120"/>
-      <c r="Y29" s="205"/>
+      <c r="Y29" s="208"/>
       <c r="Z29" s="118" t="s">
         <v>32</v>
       </c>
@@ -16753,9 +16719,9 @@
       </c>
       <c r="AD29" s="150"/>
       <c r="AE29" s="123"/>
-      <c r="AF29" s="201"/>
-      <c r="AG29" s="202"/>
-      <c r="AH29" s="203"/>
+      <c r="AF29" s="210"/>
+      <c r="AG29" s="211"/>
+      <c r="AH29" s="212"/>
       <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="3:35" ht="15" thickBot="1">
@@ -16781,7 +16747,7 @@
       <c r="V30" s="114"/>
       <c r="W30" s="35"/>
       <c r="X30" s="120"/>
-      <c r="Y30" s="205"/>
+      <c r="Y30" s="208"/>
       <c r="Z30" s="118" t="s">
         <v>32</v>
       </c>
@@ -16796,9 +16762,9 @@
       </c>
       <c r="AD30" s="150"/>
       <c r="AE30" s="123"/>
-      <c r="AF30" s="201"/>
-      <c r="AG30" s="202"/>
-      <c r="AH30" s="203"/>
+      <c r="AF30" s="210"/>
+      <c r="AG30" s="211"/>
+      <c r="AH30" s="212"/>
       <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="3:35" ht="15" thickBot="1">
@@ -16824,7 +16790,7 @@
       <c r="V31" s="126"/>
       <c r="W31" s="35"/>
       <c r="X31" s="120"/>
-      <c r="Y31" s="205"/>
+      <c r="Y31" s="208"/>
       <c r="Z31" s="118" t="s">
         <v>17</v>
       </c>
@@ -16837,9 +16803,9 @@
       </c>
       <c r="AD31" s="150"/>
       <c r="AE31" s="123"/>
-      <c r="AF31" s="201"/>
-      <c r="AG31" s="202"/>
-      <c r="AH31" s="203"/>
+      <c r="AF31" s="210"/>
+      <c r="AG31" s="211"/>
+      <c r="AH31" s="212"/>
       <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="3:35" ht="15" thickBot="1">
@@ -16865,7 +16831,7 @@
       <c r="V32" s="35"/>
       <c r="W32" s="35"/>
       <c r="X32" s="120"/>
-      <c r="Y32" s="206"/>
+      <c r="Y32" s="209"/>
       <c r="Z32" s="118" t="s">
         <v>20</v>
       </c>
@@ -16878,9 +16844,9 @@
       </c>
       <c r="AD32" s="150"/>
       <c r="AE32" s="123"/>
-      <c r="AF32" s="201"/>
-      <c r="AG32" s="202"/>
-      <c r="AH32" s="203"/>
+      <c r="AF32" s="210"/>
+      <c r="AG32" s="211"/>
+      <c r="AH32" s="212"/>
       <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="3:35" ht="15" thickBot="1">
@@ -16906,7 +16872,7 @@
       <c r="V33" s="35"/>
       <c r="W33" s="35"/>
       <c r="X33" s="120"/>
-      <c r="Y33" s="204" t="s">
+      <c r="Y33" s="207" t="s">
         <v>22</v>
       </c>
       <c r="Z33" s="118" t="s">
@@ -16921,9 +16887,9 @@
       </c>
       <c r="AD33" s="150"/>
       <c r="AE33" s="123"/>
-      <c r="AF33" s="201"/>
-      <c r="AG33" s="202"/>
-      <c r="AH33" s="203"/>
+      <c r="AF33" s="210"/>
+      <c r="AG33" s="211"/>
+      <c r="AH33" s="212"/>
       <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="3:35" ht="15" thickBot="1">
@@ -16949,7 +16915,7 @@
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
       <c r="X34" s="120"/>
-      <c r="Y34" s="205"/>
+      <c r="Y34" s="208"/>
       <c r="Z34" s="118" t="s">
         <v>25</v>
       </c>
@@ -16962,9 +16928,9 @@
       </c>
       <c r="AD34" s="150"/>
       <c r="AE34" s="123"/>
-      <c r="AF34" s="201"/>
-      <c r="AG34" s="202"/>
-      <c r="AH34" s="203"/>
+      <c r="AF34" s="210"/>
+      <c r="AG34" s="211"/>
+      <c r="AH34" s="212"/>
       <c r="AI34" s="114"/>
     </row>
     <row r="35" spans="3:35" ht="15" thickBot="1">
@@ -16990,7 +16956,7 @@
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
       <c r="X35" s="120"/>
-      <c r="Y35" s="205"/>
+      <c r="Y35" s="208"/>
       <c r="Z35" s="118" t="s">
         <v>28</v>
       </c>
@@ -17003,9 +16969,9 @@
       </c>
       <c r="AD35" s="150"/>
       <c r="AE35" s="123"/>
-      <c r="AF35" s="201"/>
-      <c r="AG35" s="202"/>
-      <c r="AH35" s="203"/>
+      <c r="AF35" s="210"/>
+      <c r="AG35" s="211"/>
+      <c r="AH35" s="212"/>
       <c r="AI35" s="114"/>
     </row>
     <row r="36" spans="3:35" ht="15" thickBot="1">
@@ -17022,7 +16988,7 @@
       <c r="M36" s="114"/>
       <c r="N36" s="113"/>
       <c r="O36" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
@@ -17033,7 +16999,7 @@
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
       <c r="X36" s="120"/>
-      <c r="Y36" s="206"/>
+      <c r="Y36" s="209"/>
       <c r="Z36" s="118" t="s">
         <v>27</v>
       </c>
@@ -17046,9 +17012,9 @@
       </c>
       <c r="AD36" s="150"/>
       <c r="AE36" s="127"/>
-      <c r="AF36" s="201"/>
-      <c r="AG36" s="202"/>
-      <c r="AH36" s="203"/>
+      <c r="AF36" s="210"/>
+      <c r="AG36" s="211"/>
+      <c r="AH36" s="212"/>
       <c r="AI36" s="114"/>
     </row>
     <row r="37" spans="3:35">
@@ -17198,7 +17164,7 @@
       <c r="AG40" s="172">
         <v>9</v>
       </c>
-      <c r="AH40" s="207" t="s">
+      <c r="AH40" s="213" t="s">
         <v>237</v>
       </c>
       <c r="AI40" s="114"/>
@@ -17241,7 +17207,7 @@
       <c r="AG41" s="172">
         <v>6</v>
       </c>
-      <c r="AH41" s="208"/>
+      <c r="AH41" s="214"/>
       <c r="AI41" s="114"/>
     </row>
     <row r="42" spans="3:35" ht="36.75" customHeight="1">
@@ -17282,7 +17248,7 @@
       <c r="AG42" s="172">
         <v>3</v>
       </c>
-      <c r="AH42" s="209" t="s">
+      <c r="AH42" s="215" t="s">
         <v>280</v>
       </c>
       <c r="AI42" s="114"/>
@@ -17316,14 +17282,14 @@
       <c r="AB43" s="113"/>
       <c r="AC43" s="113"/>
       <c r="AD43" s="113"/>
-      <c r="AE43" s="211">
+      <c r="AE43" s="217">
         <v>0</v>
       </c>
-      <c r="AF43" s="212"/>
+      <c r="AF43" s="218"/>
       <c r="AG43" s="172" t="s">
         <v>279</v>
       </c>
-      <c r="AH43" s="210"/>
+      <c r="AH43" s="216"/>
       <c r="AI43" s="114"/>
     </row>
     <row r="44" spans="3:35">
@@ -17425,14 +17391,14 @@
       <c r="AB46" s="113"/>
       <c r="AC46" s="113"/>
       <c r="AD46" s="113"/>
-      <c r="AE46" s="199" t="s">
+      <c r="AE46" s="221" t="s">
         <v>239</v>
       </c>
-      <c r="AF46" s="199"/>
-      <c r="AG46" s="200" t="s">
+      <c r="AF46" s="221"/>
+      <c r="AG46" s="222" t="s">
         <v>238</v>
       </c>
-      <c r="AH46" s="200"/>
+      <c r="AH46" s="222"/>
       <c r="AI46" s="114"/>
     </row>
     <row r="47" spans="3:35" ht="21.75" customHeight="1">
@@ -17464,10 +17430,10 @@
       <c r="AB47" s="113"/>
       <c r="AC47" s="113"/>
       <c r="AD47" s="113"/>
-      <c r="AE47" s="199"/>
-      <c r="AF47" s="199"/>
-      <c r="AG47" s="200"/>
-      <c r="AH47" s="200"/>
+      <c r="AE47" s="221"/>
+      <c r="AF47" s="221"/>
+      <c r="AG47" s="222"/>
+      <c r="AH47" s="222"/>
       <c r="AI47" s="114"/>
     </row>
     <row r="48" spans="3:35" ht="15" thickBot="1">
@@ -17577,7 +17543,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="C51" s="35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -17614,7 +17580,7 @@
     </row>
     <row r="52" spans="3:35">
       <c r="C52" s="35" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -17685,7 +17651,7 @@
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Y54" s="35"/>
       <c r="Z54" s="35"/>
@@ -17701,26 +17667,17 @@
     </row>
     <row r="55" spans="3:35">
       <c r="Y55" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AH20"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="Y22:Y27"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AE46:AF47"/>
+    <mergeCell ref="AG46:AH47"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="Y33:Y36"/>
     <mergeCell ref="AH40:AH41"/>
     <mergeCell ref="AH42:AH43"/>
@@ -17735,12 +17692,21 @@
     <mergeCell ref="AF30:AH30"/>
     <mergeCell ref="AF31:AH31"/>
     <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AG46:AH47"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AH20"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="Y22:Y27"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17776,7 +17742,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="78"/>
       <c r="O5" s="76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="P5" s="77"/>
       <c r="Q5" s="77"/>
@@ -17790,7 +17756,7 @@
     </row>
     <row r="6" spans="4:24" ht="18.75" thickBot="1">
       <c r="D6" s="176" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
@@ -17865,13 +17831,13 @@
     <row r="9" spans="4:24" ht="15" thickBot="1">
       <c r="D9" s="79"/>
       <c r="E9" s="107" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" s="177">
         <v>43466</v>
       </c>
       <c r="G9" s="178" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H9" s="177">
         <v>43466</v>
@@ -17879,7 +17845,7 @@
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="92" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="81"/>
@@ -18107,8 +18073,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AE102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18141,7 +18107,7 @@
   <sheetData>
     <row r="1" spans="2:29" ht="42.75" customHeight="1">
       <c r="B1" s="185" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C1" s="182"/>
       <c r="D1" s="182"/>
@@ -18154,7 +18120,7 @@
       <c r="K1" s="182"/>
       <c r="L1" s="182"/>
       <c r="M1" s="184" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N1" s="183"/>
       <c r="O1" s="183"/>
@@ -18178,7 +18144,7 @@
         <v>154</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="16.5">
@@ -18216,7 +18182,7 @@
         <v>401</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="2:29">
@@ -18226,16 +18192,16 @@
     </row>
     <row r="13" spans="2:29">
       <c r="C13" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>468</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="14" spans="2:29">
@@ -18385,10 +18351,10 @@
         <v>8</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -18545,10 +18511,10 @@
     </row>
     <row r="22" spans="3:29">
       <c r="G22" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -18589,7 +18555,7 @@
         <v>106</v>
       </c>
       <c r="Y22" s="51" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Z22" s="51" t="s">
         <v>137</v>
@@ -19215,10 +19181,10 @@
     </row>
     <row r="34" spans="7:29">
       <c r="G34" s="39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="163" t="s">
@@ -19469,10 +19435,10 @@
     </row>
     <row r="43" spans="7:29">
       <c r="G43" s="39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -19482,7 +19448,7 @@
         <v>392</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="7:29">
@@ -19703,10 +19669,10 @@
       </c>
       <c r="L53" s="186"/>
       <c r="N53" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O53" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -19757,10 +19723,10 @@
         <v>251</v>
       </c>
       <c r="V55" s="59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="W55" s="59" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="7:24">
@@ -19789,10 +19755,10 @@
         <v>250</v>
       </c>
       <c r="V56" s="59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="W56" s="59" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="57" spans="7:24">
@@ -19824,7 +19790,7 @@
         <v>112</v>
       </c>
       <c r="W57" s="59" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="7:24">
@@ -19859,10 +19825,10 @@
     </row>
     <row r="65" spans="14:31" ht="16.5">
       <c r="N65" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -19926,7 +19892,7 @@
         <v>179</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="P68" s="5" t="s">
         <v>301</v>
@@ -19978,7 +19944,7 @@
         <v>186</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>302</v>
@@ -20030,7 +19996,7 @@
         <v>162</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P70" s="5" t="s">
         <v>162</v>
@@ -20344,7 +20310,7 @@
         <v>229</v>
       </c>
       <c r="U79" s="29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>197</v>
@@ -21230,13 +21196,13 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="197" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C5" s="196" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D5" s="196" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F5" s="196" t="s">
         <v>244</v>
@@ -21271,13 +21237,13 @@
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="197" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C6" s="196" t="s">
         <v>248</v>
       </c>
       <c r="D6" s="196" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F6" s="196" t="s">
         <v>244</v>
@@ -21295,10 +21261,10 @@
         <v>257</v>
       </c>
       <c r="K6" s="196" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L6" s="196" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M6" s="196" t="s">
         <v>418</v>
@@ -21313,13 +21279,13 @@
         <v>420</v>
       </c>
       <c r="R6" s="196" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="S6" s="196" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="T6" s="196" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="U6" s="196" t="s">
         <v>421</v>
@@ -21327,13 +21293,13 @@
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="197" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C7" s="196" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F7" s="196" t="s">
         <v>244</v>
@@ -21351,10 +21317,10 @@
         <v>257</v>
       </c>
       <c r="K7" s="196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L7" s="196" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M7" s="196" t="s">
         <v>418</v>
@@ -21374,13 +21340,13 @@
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="197" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C8" s="196" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D8" s="196" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F8" s="196" t="s">
         <v>244</v>
@@ -21398,10 +21364,10 @@
         <v>257</v>
       </c>
       <c r="K8" s="196" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L8" s="196" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M8" s="196" t="s">
         <v>418</v>
@@ -21424,13 +21390,13 @@
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="197" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C9" s="196" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D9" s="196" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F9" s="196" t="s">
         <v>244</v>
@@ -21448,10 +21414,10 @@
         <v>257</v>
       </c>
       <c r="K9" s="196" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L9" s="196" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M9" s="196" t="s">
         <v>418</v>
@@ -21474,13 +21440,13 @@
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="197" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C10" s="196" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D10" s="196" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F10" s="196" t="s">
         <v>244</v>
@@ -21498,10 +21464,10 @@
         <v>257</v>
       </c>
       <c r="K10" s="196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L10" s="196" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M10" s="196" t="s">
         <v>418</v>
@@ -21524,13 +21490,13 @@
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="197" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C11" s="196" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D11" s="196" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F11" s="196" t="s">
         <v>244</v>
@@ -21548,10 +21514,10 @@
         <v>257</v>
       </c>
       <c r="K11" s="196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L11" s="196" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M11" s="196" t="s">
         <v>418</v>
@@ -21574,13 +21540,13 @@
     </row>
     <row r="12" spans="1:21">
       <c r="B12" s="197" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C12" s="196" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D12" s="196" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F12" s="196" t="s">
         <v>244</v>
@@ -21598,10 +21564,10 @@
         <v>259</v>
       </c>
       <c r="K12" s="196" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L12" s="196" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M12" s="196" t="s">
         <v>418</v>
@@ -21616,13 +21582,13 @@
         <v>420</v>
       </c>
       <c r="R12" s="196" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="S12" s="196" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="T12" s="196" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="U12" s="196" t="s">
         <v>426</v>
@@ -21630,13 +21596,13 @@
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="197" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C13" s="196" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D13" s="196" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F13" s="196" t="s">
         <v>244</v>
@@ -21680,13 +21646,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="197" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C14" s="196" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D14" s="196" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F14" s="196" t="s">
         <v>244</v>
@@ -21730,13 +21696,13 @@
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="197" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C15" s="196" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D15" s="196" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F15" s="196" t="s">
         <v>244</v>
@@ -21768,13 +21734,13 @@
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="197" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C16" s="196" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D16" s="196" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F16" s="196" t="s">
         <v>244</v>
@@ -21806,13 +21772,13 @@
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="197" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C17" s="196" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D17" s="196" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F17" s="196" t="s">
         <v>244</v>
@@ -21847,13 +21813,13 @@
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="197" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C18" s="196" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D18" s="196" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F18" s="196" t="s">
         <v>244</v>
@@ -21888,13 +21854,13 @@
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="197" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C19" s="196" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D19" s="196" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F19" s="196" t="s">
         <v>244</v>
@@ -21921,13 +21887,13 @@
         <v>420</v>
       </c>
       <c r="R19" s="196" t="s">
+        <v>726</v>
+      </c>
+      <c r="S19" s="196" t="s">
+        <v>727</v>
+      </c>
+      <c r="T19" s="196" t="s">
         <v>728</v>
-      </c>
-      <c r="S19" s="196" t="s">
-        <v>729</v>
-      </c>
-      <c r="T19" s="196" t="s">
-        <v>730</v>
       </c>
       <c r="U19" s="196" t="s">
         <v>436</v>
@@ -21935,13 +21901,13 @@
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="197" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C20" s="196" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D20" s="196" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F20" s="196" t="s">
         <v>244</v>
@@ -21973,332 +21939,332 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="197" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C21" s="196" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D21" s="196" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="197" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C22" s="196" t="s">
         <v>244</v>
       </c>
       <c r="D22" s="196" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="197" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C23" s="196" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D23" s="196" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="197" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C24" s="196" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D24" s="196" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="197" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C25" s="196" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D25" s="196" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="197" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C26" s="196" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D26" s="196" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="197" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C27" s="196" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D27" s="196" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="197" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C28" s="196" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D28" s="196" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="197" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C29" s="196" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D29" s="196" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="197" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C30" s="196" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D30" s="196" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="197" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C31" s="196" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D31" s="196" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="197" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C32" s="196" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D32" s="196" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="197" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C33" s="196" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D33" s="196" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="197" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C34" s="196" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D34" s="196" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="197" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C35" s="196" t="s">
         <v>249</v>
       </c>
       <c r="D35" s="196" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="197" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C36" s="196" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D36" s="196" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="197" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C37" s="196" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D37" s="196" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="197" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C38" s="196" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D38" s="196" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="197" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C39" s="196" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D39" s="196" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="197" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C40" s="196" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D40" s="196" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="197" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C41" s="196" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D41" s="196" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="197" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C42" s="196" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D42" s="196" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="197" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" s="196" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D43" s="196" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="197" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C44" s="196" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D44" s="196" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="197" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C45" s="196" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D45" s="196" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="197" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C46" s="196" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D46" s="196" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="197" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C47" s="196" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D47" s="196" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="197" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C48" s="196" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D48" s="196" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="197" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C49" s="196" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D49" s="196" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="197" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C50" s="196" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D50" s="196" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -22438,7 +22404,7 @@
       <c r="U7" s="80"/>
       <c r="V7" s="80"/>
       <c r="W7" s="85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="X7" s="80"/>
       <c r="Y7" s="80"/>
@@ -22555,7 +22521,7 @@
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
       <c r="N11" s="85" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
@@ -22828,7 +22794,7 @@
     </row>
     <row r="21" spans="6:34">
       <c r="F21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -22984,7 +22950,7 @@
         <v>3000000</v>
       </c>
       <c r="Z8" s="194" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA8" s="41" t="s">
         <v>343</v>
@@ -23013,7 +22979,7 @@
         <v>3000001</v>
       </c>
       <c r="Z9" s="194" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA9" s="41" t="s">
         <v>344</v>
@@ -23037,7 +23003,7 @@
         <v>3000002</v>
       </c>
       <c r="Z10" s="194" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA10" s="41" t="s">
         <v>345</v>
@@ -23067,7 +23033,7 @@
         <v>3000003</v>
       </c>
       <c r="Z11" s="194" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA11" s="41" t="s">
         <v>346</v>
@@ -23097,7 +23063,7 @@
         <v>3000004</v>
       </c>
       <c r="Z12" s="194" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA12" s="41" t="s">
         <v>347</v>
@@ -23127,10 +23093,10 @@
         <v>4000000</v>
       </c>
       <c r="Z13" s="194" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA13" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="6:27">
@@ -23157,10 +23123,10 @@
         <v>4000001</v>
       </c>
       <c r="Z14" s="194" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA14" s="41" t="s">
         <v>560</v>
-      </c>
-      <c r="AA14" s="41" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="15" spans="6:27">
@@ -23187,10 +23153,10 @@
         <v>4000002</v>
       </c>
       <c r="Z15" s="194" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA15" s="41" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="6:27">
@@ -23217,10 +23183,10 @@
         <v>4000003</v>
       </c>
       <c r="Z16" s="194" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA16" s="41" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="6:27">
@@ -23247,10 +23213,10 @@
         <v>4000004</v>
       </c>
       <c r="Z17" s="194" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AA17" s="41" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="6:27" ht="15" thickBot="1">
@@ -23270,50 +23236,50 @@
     </row>
     <row r="22" spans="6:27">
       <c r="F22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="6:27">
       <c r="F24" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="6:27">
       <c r="H25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="6:27">
       <c r="H26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="6:27">
       <c r="F29" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="6:6">
       <c r="F146" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="6:6">
       <c r="F185" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -23419,13 +23385,13 @@
     <row r="7" spans="6:27" ht="17.25" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>244</v>
       </c>
       <c r="I7" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
@@ -23493,7 +23459,7 @@
         <v>69</v>
       </c>
       <c r="Z9" s="195" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>5</v>
@@ -23517,7 +23483,7 @@
         <v>70</v>
       </c>
       <c r="Z10" s="195" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>8</v>
@@ -23547,7 +23513,7 @@
         <v>71</v>
       </c>
       <c r="Z11" s="195" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>16</v>
@@ -23577,7 +23543,7 @@
         <v>72</v>
       </c>
       <c r="Z12" s="195" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>22</v>
@@ -23607,7 +23573,7 @@
         <v>69</v>
       </c>
       <c r="Z13" s="195" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>5</v>
@@ -23637,7 +23603,7 @@
         <v>70</v>
       </c>
       <c r="Z14" s="195" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>8</v>
@@ -23667,7 +23633,7 @@
         <v>71</v>
       </c>
       <c r="Z15" s="195" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>16</v>
@@ -23697,7 +23663,7 @@
         <v>72</v>
       </c>
       <c r="Z16" s="195" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>22</v>
@@ -23795,35 +23761,35 @@
     </row>
     <row r="25" spans="6:18">
       <c r="G25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="6:18">
       <c r="H26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="6:18">
       <c r="G31" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="6:18">
       <c r="I32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -23905,7 +23871,7 @@
         <v>117</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -23944,14 +23910,14 @@
     <row r="7" spans="6:28" ht="15" thickBot="1">
       <c r="F7" s="79"/>
       <c r="G7" s="107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H7" s="99" t="s">
         <v>244</v>
       </c>
       <c r="I7" s="80"/>
       <c r="J7" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80"/>
@@ -23991,7 +23957,7 @@
         <v>34</v>
       </c>
       <c r="Z8" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA8" s="38" t="s">
         <v>5</v>
@@ -24023,7 +23989,7 @@
         <v>35</v>
       </c>
       <c r="Z9" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA9" s="38" t="s">
         <v>8</v>
@@ -24050,7 +24016,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA10" s="38" t="s">
         <v>8</v>
@@ -24085,7 +24051,7 @@
         <v>38</v>
       </c>
       <c r="Z11" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA11" s="38" t="s">
         <v>8</v>
@@ -24120,7 +24086,7 @@
         <v>39</v>
       </c>
       <c r="Z12" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA12" s="38" t="s">
         <v>8</v>
@@ -24155,7 +24121,7 @@
         <v>40</v>
       </c>
       <c r="Z13" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA13" s="38" t="s">
         <v>16</v>
@@ -24174,7 +24140,7 @@
         <v>244</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K14" s="98" t="s">
         <v>258</v>
@@ -24190,7 +24156,7 @@
         <v>42</v>
       </c>
       <c r="Z14" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AA14" s="38" t="s">
         <v>16</v>
@@ -24225,7 +24191,7 @@
         <v>34</v>
       </c>
       <c r="Z15" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA15" s="38" t="s">
         <v>5</v>
@@ -24260,7 +24226,7 @@
         <v>35</v>
       </c>
       <c r="Z16" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA16" s="38" t="s">
         <v>8</v>
@@ -24295,7 +24261,7 @@
         <v>37</v>
       </c>
       <c r="Z17" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA17" s="38" t="s">
         <v>8</v>
@@ -24330,7 +24296,7 @@
         <v>38</v>
       </c>
       <c r="Z18" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA18" s="38" t="s">
         <v>8</v>
@@ -24365,7 +24331,7 @@
         <v>39</v>
       </c>
       <c r="Z19" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA19" s="38" t="s">
         <v>8</v>
@@ -24392,7 +24358,7 @@
         <v>40</v>
       </c>
       <c r="Z20" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA20" s="38" t="s">
         <v>16</v>
@@ -24419,7 +24385,7 @@
         <v>42</v>
       </c>
       <c r="Z21" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA21" s="38" t="s">
         <v>16</v>
@@ -24460,35 +24426,35 @@
     </row>
     <row r="27" spans="6:28">
       <c r="G27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="6:28">
       <c r="H28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="6:28">
       <c r="H32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -24573,7 +24539,7 @@
         <v>311</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="6:28" ht="15" thickBot="1">
@@ -24635,7 +24601,7 @@
         <v>123</v>
       </c>
       <c r="AB7" s="43" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="6:28" ht="15" thickBot="1">
@@ -24982,7 +24948,7 @@
         <v>364</v>
       </c>
       <c r="V31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="11:11">
@@ -24992,17 +24958,17 @@
     </row>
     <row r="54" spans="8:9">
       <c r="H54" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="I56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="I57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -25160,13 +25126,13 @@
       <c r="F8" s="79"/>
       <c r="G8" s="80"/>
       <c r="H8" s="107" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I8" s="99" t="s">
         <v>244</v>
       </c>
       <c r="J8" s="92" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
@@ -25210,7 +25176,7 @@
       <c r="Q9" s="80"/>
       <c r="R9" s="81"/>
       <c r="Y9" s="45" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Z9" s="45" t="s">
         <v>14</v>
@@ -25250,7 +25216,7 @@
       <c r="Q10" s="80"/>
       <c r="R10" s="81"/>
       <c r="Y10" s="45" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z10" s="45" t="s">
         <v>7</v>
@@ -25280,7 +25246,7 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
       <c r="Y11" s="45" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z11" s="45" t="s">
         <v>144</v>
@@ -25320,7 +25286,7 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
       <c r="Y12" s="45" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Z12" s="45" t="s">
         <v>143</v>
@@ -25360,7 +25326,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
       <c r="Y13" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z13" s="45" t="s">
         <v>18</v>
@@ -25398,7 +25364,7 @@
       <c r="Q14" s="80"/>
       <c r="R14" s="81"/>
       <c r="Y14" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Z14" s="45" t="s">
         <v>147</v>
@@ -25573,35 +25539,35 @@
     </row>
     <row r="28" spans="6:18">
       <c r="F28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="6:18">
       <c r="G30" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="H34" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="H35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="H36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
